--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,38 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46608710-4C1D-4027-BB9B-A30393F121A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A05730E-7638-45B5-8D8E-98314114E676}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Regions" sheetId="15" r:id="rId1"/>
-    <sheet name="INS" sheetId="2" r:id="rId2"/>
-    <sheet name="UPD" sheetId="11" r:id="rId3"/>
-    <sheet name="UCT_biogas" sheetId="1" r:id="rId4"/>
-    <sheet name="UCT2" sheetId="12" r:id="rId5"/>
-    <sheet name="UCT3" sheetId="13" r:id="rId6"/>
-    <sheet name="UCT4" sheetId="14" r:id="rId7"/>
+    <sheet name="TRA-BLENDS" sheetId="17" r:id="rId1"/>
+    <sheet name="Regions" sheetId="15" r:id="rId2"/>
+    <sheet name="TRA" sheetId="2" r:id="rId3"/>
+    <sheet name="UCT_TRA" sheetId="18" r:id="rId4"/>
+    <sheet name="UPD_biogas" sheetId="11" r:id="rId5"/>
+    <sheet name="UCT_biogas" sheetId="1" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
-    <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -58,57 +54,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Maurizio Gargiulo</author>
-    <author>Gary Goldstein</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Insert Table</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
@@ -154,10 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
-  <si>
-    <t>~UC_Sets: R_E: AllRegions</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="141">
   <si>
     <t>UC_N</t>
   </si>
@@ -183,12 +125,6 @@
     <t>~UC_T</t>
   </si>
   <si>
-    <t>UC_CAP</t>
-  </si>
-  <si>
-    <t>UC_FLO</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -201,27 +137,9 @@
     <t>UC_Desc</t>
   </si>
   <si>
-    <t>~UC_Sets: R_S: AllRegions</t>
-  </si>
-  <si>
-    <t>~TFM_INS</t>
-  </si>
-  <si>
     <t>TimeSlice</t>
   </si>
   <si>
-    <t>AllRegions</t>
-  </si>
-  <si>
-    <t>Pset_PD</t>
-  </si>
-  <si>
-    <t>Cset_Set</t>
-  </si>
-  <si>
-    <t>Cset_CD</t>
-  </si>
-  <si>
     <t>Attrib_Cond</t>
   </si>
   <si>
@@ -234,28 +152,7 @@
     <t>UC - Each Region/Period</t>
   </si>
   <si>
-    <t>~UC_Sets: T_S:</t>
-  </si>
-  <si>
-    <t>UC - Each Region/All Periods</t>
-  </si>
-  <si>
-    <t>UC - All Regions/Each Period</t>
-  </si>
-  <si>
-    <t>UC - All Regions/Periods</t>
-  </si>
-  <si>
     <t>UC_RHSRTS</t>
-  </si>
-  <si>
-    <t>UC_RHSR</t>
-  </si>
-  <si>
-    <t>UC_RHSTS</t>
-  </si>
-  <si>
-    <t>UC_RHS</t>
   </si>
   <si>
     <t>Trans - Insert</t>
@@ -487,12 +384,171 @@
   <si>
     <t>Max production of biogas - energy balance values</t>
   </si>
+  <si>
+    <t>~TFM_TOPINS</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>TRACNG</t>
+  </si>
+  <si>
+    <t>TRADSB</t>
+  </si>
+  <si>
+    <t>TRAGSE</t>
+  </si>
+  <si>
+    <t>TRABNG</t>
+  </si>
+  <si>
+    <t>TRAETH</t>
+  </si>
+  <si>
+    <t>TRABDL</t>
+  </si>
+  <si>
+    <t>TRABJK</t>
+  </si>
+  <si>
+    <t>bio jet kerosene</t>
+  </si>
+  <si>
+    <t>bio diesel</t>
+  </si>
+  <si>
+    <t>ethanol</t>
+  </si>
+  <si>
+    <t>gasoline</t>
+  </si>
+  <si>
+    <t>blended gasoline</t>
+  </si>
+  <si>
+    <t>TRAGSL</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>CNG</t>
+  </si>
+  <si>
+    <t>bio cng</t>
+  </si>
+  <si>
+    <t>TRAE85</t>
+  </si>
+  <si>
+    <t>blended gasoline, up to 15%</t>
+  </si>
+  <si>
+    <t>TRAJKB</t>
+  </si>
+  <si>
+    <t>blended kerosene</t>
+  </si>
+  <si>
+    <t>TRADST</t>
+  </si>
+  <si>
+    <t>blended diesel</t>
+  </si>
+  <si>
+    <t>TRANGB</t>
+  </si>
+  <si>
+    <t>blended CNG</t>
+  </si>
+  <si>
+    <t>TRAKER</t>
+  </si>
+  <si>
+    <t>Kerosene</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>SHARE-I</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>TRABCNG_BLD</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TRABJK_BLD</t>
+  </si>
+  <si>
+    <t>TRADST_BLD</t>
+  </si>
+  <si>
+    <t>TRAE85_BLD</t>
+  </si>
+  <si>
+    <t>TRAGSL_BLD</t>
+  </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>UC_FLO</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>T-OTH_CON00</t>
+  </si>
+  <si>
+    <t>T-OTH_NEW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,13 +592,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -678,21 +727,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -705,22 +752,29 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 10 2 2" xfId="3" xr:uid="{37B46EBE-EF20-49A2-A463-672D32AF03AC}"/>
+    <cellStyle name="Normal 2 7" xfId="4" xr:uid="{DA800421-6BC0-4388-9423-B44570E10F15}"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -765,7 +819,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F9B181-9465-4921-9439-53FFABB4A429}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -801,25 +855,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Regions"/>
-      <sheetName val="config"/>
-      <sheetName val="single"/>
-      <sheetName val="multi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1142,6 +1177,1963 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D84E4A-22F2-4E71-B908-2FF7EAFC1BC6}">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42:L44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3">
+        <v>2020</v>
+      </c>
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4">
+        <v>2030</v>
+      </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5">
+        <v>2040</v>
+      </c>
+      <c r="H5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6">
+        <v>2050</v>
+      </c>
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7">
+        <v>2018</v>
+      </c>
+      <c r="H7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8">
+        <v>2020</v>
+      </c>
+      <c r="H8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9">
+        <v>2030</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10">
+        <v>2040</v>
+      </c>
+      <c r="H10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11">
+        <v>2050</v>
+      </c>
+      <c r="H11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12">
+        <v>2018</v>
+      </c>
+      <c r="H12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13">
+        <v>2020</v>
+      </c>
+      <c r="H13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14">
+        <v>2030</v>
+      </c>
+      <c r="H14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15">
+        <v>2040</v>
+      </c>
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16">
+        <v>2050</v>
+      </c>
+      <c r="H16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17">
+        <v>2018</v>
+      </c>
+      <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18">
+        <v>2020</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19">
+        <v>2030</v>
+      </c>
+      <c r="H19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20">
+        <v>2040</v>
+      </c>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21">
+        <v>2050</v>
+      </c>
+      <c r="H21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22">
+        <v>2018</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22">
+        <v>4.0877873467079801E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23">
+        <v>2020</v>
+      </c>
+      <c r="H23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23">
+        <v>5.1152531327863002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24">
+        <v>2030</v>
+      </c>
+      <c r="H24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25">
+        <v>2040</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26">
+        <v>2050</v>
+      </c>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27">
+        <v>2018</v>
+      </c>
+      <c r="H27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" t="s">
+        <v>131</v>
+      </c>
+      <c r="L27">
+        <v>0.95912212653291995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28">
+        <v>2020</v>
+      </c>
+      <c r="H28" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" t="s">
+        <v>131</v>
+      </c>
+      <c r="L28">
+        <v>0.94884746867213698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29">
+        <v>2030</v>
+      </c>
+      <c r="H29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" t="s">
+        <v>131</v>
+      </c>
+      <c r="L29">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30">
+        <v>2040</v>
+      </c>
+      <c r="H30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31">
+        <v>2050</v>
+      </c>
+      <c r="H31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32">
+        <v>2018</v>
+      </c>
+      <c r="H32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" t="s">
+        <v>131</v>
+      </c>
+      <c r="L32">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33">
+        <v>2020</v>
+      </c>
+      <c r="H33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" t="s">
+        <v>131</v>
+      </c>
+      <c r="L33">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34">
+        <v>2030</v>
+      </c>
+      <c r="H34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I34" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" t="s">
+        <v>131</v>
+      </c>
+      <c r="L34">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35">
+        <v>2040</v>
+      </c>
+      <c r="H35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" t="s">
+        <v>131</v>
+      </c>
+      <c r="L35">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36">
+        <v>2050</v>
+      </c>
+      <c r="H36" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37">
+        <v>2018</v>
+      </c>
+      <c r="H37" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" t="s">
+        <v>131</v>
+      </c>
+      <c r="K37" t="s">
+        <v>131</v>
+      </c>
+      <c r="L37">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38">
+        <v>2020</v>
+      </c>
+      <c r="H38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38" t="s">
+        <v>131</v>
+      </c>
+      <c r="K38" t="s">
+        <v>131</v>
+      </c>
+      <c r="L38">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39">
+        <v>2030</v>
+      </c>
+      <c r="H39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J39" t="s">
+        <v>131</v>
+      </c>
+      <c r="K39" t="s">
+        <v>131</v>
+      </c>
+      <c r="L39">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40">
+        <v>2040</v>
+      </c>
+      <c r="H40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" t="s">
+        <v>131</v>
+      </c>
+      <c r="L40">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41">
+        <v>2050</v>
+      </c>
+      <c r="H41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41" t="s">
+        <v>131</v>
+      </c>
+      <c r="L41">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42">
+        <v>2018</v>
+      </c>
+      <c r="H42" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" t="s">
+        <v>131</v>
+      </c>
+      <c r="K42" t="s">
+        <v>131</v>
+      </c>
+      <c r="L42">
+        <v>4.5158565381788203E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43">
+        <v>2020</v>
+      </c>
+      <c r="H43" t="s">
+        <v>125</v>
+      </c>
+      <c r="I43" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" t="s">
+        <v>131</v>
+      </c>
+      <c r="L43">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44">
+        <v>2030</v>
+      </c>
+      <c r="H44" t="s">
+        <v>125</v>
+      </c>
+      <c r="I44" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" t="s">
+        <v>131</v>
+      </c>
+      <c r="K44" t="s">
+        <v>131</v>
+      </c>
+      <c r="L44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45">
+        <v>2040</v>
+      </c>
+      <c r="H45" t="s">
+        <v>125</v>
+      </c>
+      <c r="I45" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46">
+        <v>2050</v>
+      </c>
+      <c r="H46" t="s">
+        <v>125</v>
+      </c>
+      <c r="I46" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46" t="s">
+        <v>131</v>
+      </c>
+      <c r="K46" t="s">
+        <v>131</v>
+      </c>
+      <c r="L46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47">
+        <v>2018</v>
+      </c>
+      <c r="H47" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" t="s">
+        <v>131</v>
+      </c>
+      <c r="J47" t="s">
+        <v>131</v>
+      </c>
+      <c r="K47" t="s">
+        <v>131</v>
+      </c>
+      <c r="L47">
+        <v>0.95484143461821203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48">
+        <v>2020</v>
+      </c>
+      <c r="H48" t="s">
+        <v>125</v>
+      </c>
+      <c r="I48" t="s">
+        <v>131</v>
+      </c>
+      <c r="J48" t="s">
+        <v>131</v>
+      </c>
+      <c r="K48" t="s">
+        <v>131</v>
+      </c>
+      <c r="L48">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49">
+        <v>2030</v>
+      </c>
+      <c r="H49" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" t="s">
+        <v>131</v>
+      </c>
+      <c r="J49" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" t="s">
+        <v>131</v>
+      </c>
+      <c r="L49">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50">
+        <v>2040</v>
+      </c>
+      <c r="H50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50" t="s">
+        <v>131</v>
+      </c>
+      <c r="J50" t="s">
+        <v>131</v>
+      </c>
+      <c r="K50" t="s">
+        <v>131</v>
+      </c>
+      <c r="L50">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51">
+        <v>2050</v>
+      </c>
+      <c r="H51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I51" t="s">
+        <v>131</v>
+      </c>
+      <c r="J51" t="s">
+        <v>131</v>
+      </c>
+      <c r="K51" t="s">
+        <v>131</v>
+      </c>
+      <c r="L51">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0F7499-A5CE-4374-995E-DC72D788363A}">
   <dimension ref="A3:AD37"/>
   <sheetViews>
@@ -1182,115 +3174,115 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C3" s="15" t="str" cm="1">
+      <c r="C3" s="13" t="str" cm="1">
         <f t="array" ref="C3">IF(LEFT(INDEX(C5:C7,$A$4),1)&lt;&gt;"*",INDEX(C5:C7,$A$4),"")</f>
         <v>IE</v>
       </c>
-      <c r="D3" s="15" t="str" cm="1">
+      <c r="D3" s="13" t="str" cm="1">
         <f t="array" ref="D3">IF(LEFT(INDEX(D5:D7,$A$4),1)&lt;&gt;"*",INDEX(D5:D7,$A$4),"")</f>
         <v>National</v>
       </c>
-      <c r="E3" s="15" t="str" cm="1">
+      <c r="E3" s="13" t="str" cm="1">
         <f t="array" ref="E3">IF(LEFT(INDEX(E5:E7,$A$4),1)&lt;&gt;"*",INDEX(E5:E7,$A$4),"")</f>
         <v>IE-CW</v>
       </c>
-      <c r="F3" s="15" t="str" cm="1">
+      <c r="F3" s="13" t="str" cm="1">
         <f t="array" ref="F3">IF(LEFT(INDEX(F5:F7,$A$4),1)&lt;&gt;"*",INDEX(F5:F7,$A$4),"")</f>
         <v>IE-D</v>
       </c>
-      <c r="G3" s="15" t="str" cm="1">
+      <c r="G3" s="13" t="str" cm="1">
         <f t="array" ref="G3">IF(LEFT(INDEX(G5:G7,$A$4),1)&lt;&gt;"*",INDEX(G5:G7,$A$4),"")</f>
         <v>IE-KE</v>
       </c>
-      <c r="H3" s="15" t="str" cm="1">
+      <c r="H3" s="13" t="str" cm="1">
         <f t="array" ref="H3">IF(LEFT(INDEX(H5:H7,$A$4),1)&lt;&gt;"*",INDEX(H5:H7,$A$4),"")</f>
         <v>IE-KK</v>
       </c>
-      <c r="I3" s="15" t="str" cm="1">
+      <c r="I3" s="13" t="str" cm="1">
         <f t="array" ref="I3">IF(LEFT(INDEX(I5:I7,$A$4),1)&lt;&gt;"*",INDEX(I5:I7,$A$4),"")</f>
         <v>IE-LS</v>
       </c>
-      <c r="J3" s="15" t="str" cm="1">
+      <c r="J3" s="13" t="str" cm="1">
         <f t="array" ref="J3">IF(LEFT(INDEX(J5:J7,$A$4),1)&lt;&gt;"*",INDEX(J5:J7,$A$4),"")</f>
         <v>IE-LD</v>
       </c>
-      <c r="K3" s="15" t="str" cm="1">
+      <c r="K3" s="13" t="str" cm="1">
         <f t="array" ref="K3">IF(LEFT(INDEX(K5:K7,$A$4),1)&lt;&gt;"*",INDEX(K5:K7,$A$4),"")</f>
         <v>IE-LH</v>
       </c>
-      <c r="L3" s="15" t="str" cm="1">
+      <c r="L3" s="13" t="str" cm="1">
         <f t="array" ref="L3">IF(LEFT(INDEX(L5:L7,$A$4),1)&lt;&gt;"*",INDEX(L5:L7,$A$4),"")</f>
         <v>IE-MH</v>
       </c>
-      <c r="M3" s="15" t="str" cm="1">
+      <c r="M3" s="13" t="str" cm="1">
         <f t="array" ref="M3">IF(LEFT(INDEX(M5:M7,$A$4),1)&lt;&gt;"*",INDEX(M5:M7,$A$4),"")</f>
         <v>IE-OY</v>
       </c>
-      <c r="N3" s="15" t="str" cm="1">
+      <c r="N3" s="13" t="str" cm="1">
         <f t="array" ref="N3">IF(LEFT(INDEX(N5:N7,$A$4),1)&lt;&gt;"*",INDEX(N5:N7,$A$4),"")</f>
         <v>IE-WH</v>
       </c>
-      <c r="O3" s="15" t="str" cm="1">
+      <c r="O3" s="13" t="str" cm="1">
         <f t="array" ref="O3">IF(LEFT(INDEX(O5:O7,$A$4),1)&lt;&gt;"*",INDEX(O5:O7,$A$4),"")</f>
         <v>IE-WX</v>
       </c>
-      <c r="P3" s="15" t="str" cm="1">
+      <c r="P3" s="13" t="str" cm="1">
         <f t="array" ref="P3">IF(LEFT(INDEX(P5:P7,$A$4),1)&lt;&gt;"*",INDEX(P5:P7,$A$4),"")</f>
         <v>IE-WW</v>
       </c>
-      <c r="Q3" s="15" t="str" cm="1">
+      <c r="Q3" s="13" t="str" cm="1">
         <f t="array" ref="Q3">IF(LEFT(INDEX(Q5:Q7,$A$4),1)&lt;&gt;"*",INDEX(Q5:Q7,$A$4),"")</f>
         <v>IE-CE</v>
       </c>
-      <c r="R3" s="15" t="str" cm="1">
+      <c r="R3" s="13" t="str" cm="1">
         <f t="array" ref="R3">IF(LEFT(INDEX(R5:R7,$A$4),1)&lt;&gt;"*",INDEX(R5:R7,$A$4),"")</f>
         <v>IE-CO</v>
       </c>
-      <c r="S3" s="15" t="str" cm="1">
+      <c r="S3" s="13" t="str" cm="1">
         <f t="array" ref="S3">IF(LEFT(INDEX(S5:S7,$A$4),1)&lt;&gt;"*",INDEX(S5:S7,$A$4),"")</f>
         <v>IE-KY</v>
       </c>
-      <c r="T3" s="15" t="str" cm="1">
+      <c r="T3" s="13" t="str" cm="1">
         <f t="array" ref="T3">IF(LEFT(INDEX(T5:T7,$A$4),1)&lt;&gt;"*",INDEX(T5:T7,$A$4),"")</f>
         <v>IE-LK</v>
       </c>
-      <c r="U3" s="15" t="str" cm="1">
+      <c r="U3" s="13" t="str" cm="1">
         <f t="array" ref="U3">IF(LEFT(INDEX(U5:U7,$A$4),1)&lt;&gt;"*",INDEX(U5:U7,$A$4),"")</f>
         <v>IE-TA</v>
       </c>
-      <c r="V3" s="15" t="str" cm="1">
+      <c r="V3" s="13" t="str" cm="1">
         <f t="array" ref="V3">IF(LEFT(INDEX(V5:V7,$A$4),1)&lt;&gt;"*",INDEX(V5:V7,$A$4),"")</f>
         <v>IE-WD</v>
       </c>
-      <c r="W3" s="15" t="str" cm="1">
+      <c r="W3" s="13" t="str" cm="1">
         <f t="array" ref="W3">IF(LEFT(INDEX(W5:W7,$A$4),1)&lt;&gt;"*",INDEX(W5:W7,$A$4),"")</f>
         <v>IE-G</v>
       </c>
-      <c r="X3" s="15" t="str" cm="1">
+      <c r="X3" s="13" t="str" cm="1">
         <f t="array" ref="X3">IF(LEFT(INDEX(X5:X7,$A$4),1)&lt;&gt;"*",INDEX(X5:X7,$A$4),"")</f>
         <v>IE-LM</v>
       </c>
-      <c r="Y3" s="15" t="str" cm="1">
+      <c r="Y3" s="13" t="str" cm="1">
         <f t="array" ref="Y3">IF(LEFT(INDEX(Y5:Y7,$A$4),1)&lt;&gt;"*",INDEX(Y5:Y7,$A$4),"")</f>
         <v>IE-MO</v>
       </c>
-      <c r="Z3" s="15" t="str" cm="1">
+      <c r="Z3" s="13" t="str" cm="1">
         <f t="array" ref="Z3">IF(LEFT(INDEX(Z5:Z7,$A$4),1)&lt;&gt;"*",INDEX(Z5:Z7,$A$4),"")</f>
         <v>IE-RN</v>
       </c>
-      <c r="AA3" s="15" t="str" cm="1">
+      <c r="AA3" s="13" t="str" cm="1">
         <f t="array" ref="AA3">IF(LEFT(INDEX(AA5:AA7,$A$4),1)&lt;&gt;"*",INDEX(AA5:AA7,$A$4),"")</f>
         <v>IE-SO</v>
       </c>
-      <c r="AB3" s="15" t="str" cm="1">
+      <c r="AB3" s="13" t="str" cm="1">
         <f t="array" ref="AB3">IF(LEFT(INDEX(AB5:AB7,$A$4),1)&lt;&gt;"*",INDEX(AB5:AB7,$A$4),"")</f>
         <v>IE-CN</v>
       </c>
-      <c r="AC3" s="15" t="str" cm="1">
+      <c r="AC3" s="13" t="str" cm="1">
         <f t="array" ref="AC3">IF(LEFT(INDEX(AC5:AC7,$A$4),1)&lt;&gt;"*",INDEX(AC5:AC7,$A$4),"")</f>
         <v>IE-DL</v>
       </c>
-      <c r="AD3" s="15" t="str" cm="1">
+      <c r="AD3" s="13" t="str" cm="1">
         <f t="array" ref="AD3">IF(LEFT(INDEX(AD5:AD7,$A$4),1)&lt;&gt;"*",INDEX(AD5:AD7,$A$4),"")</f>
         <v>IE-MN</v>
       </c>
@@ -1302,572 +3294,572 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="15" t="str">
+        <v>20</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13" t="str">
         <f>Regions!A11</f>
         <v>IE-CW</v>
       </c>
-      <c r="F5" s="15" t="str">
+      <c r="F5" s="13" t="str">
         <f>Regions!A16</f>
         <v>IE-D</v>
       </c>
-      <c r="G5" s="15" t="str">
+      <c r="G5" s="13" t="str">
         <f>Regions!A19</f>
         <v>IE-KE</v>
       </c>
-      <c r="H5" s="15" t="str">
+      <c r="H5" s="13" t="str">
         <f>Regions!A20</f>
         <v>IE-KK</v>
       </c>
-      <c r="I5" s="15" t="str">
+      <c r="I5" s="13" t="str">
         <f>Regions!A21</f>
         <v>IE-LS</v>
       </c>
-      <c r="J5" s="15" t="str">
+      <c r="J5" s="13" t="str">
         <f>Regions!A24</f>
         <v>IE-LD</v>
       </c>
-      <c r="K5" s="15" t="str">
+      <c r="K5" s="13" t="str">
         <f>Regions!A25</f>
         <v>IE-LH</v>
       </c>
-      <c r="L5" s="15" t="str">
+      <c r="L5" s="13" t="str">
         <f>Regions!A27</f>
         <v>IE-MH</v>
       </c>
-      <c r="M5" s="15" t="str">
+      <c r="M5" s="13" t="str">
         <f>Regions!A29</f>
         <v>IE-OY</v>
       </c>
-      <c r="N5" s="15" t="str">
+      <c r="N5" s="13" t="str">
         <f>Regions!A34</f>
         <v>IE-WH</v>
       </c>
-      <c r="O5" s="15" t="str">
+      <c r="O5" s="13" t="str">
         <f>Regions!A35</f>
         <v>IE-WX</v>
       </c>
-      <c r="P5" s="15" t="str">
+      <c r="P5" s="13" t="str">
         <f>Regions!A36</f>
         <v>IE-WW</v>
       </c>
-      <c r="Q5" s="15" t="str">
+      <c r="Q5" s="13" t="str">
         <f>Regions!A13</f>
         <v>IE-CE</v>
       </c>
-      <c r="R5" s="15" t="str">
+      <c r="R5" s="13" t="str">
         <f>Regions!A14</f>
         <v>IE-CO</v>
       </c>
-      <c r="S5" s="15" t="str">
+      <c r="S5" s="13" t="str">
         <f>Regions!A18</f>
         <v>IE-KY</v>
       </c>
-      <c r="T5" s="15" t="str">
+      <c r="T5" s="13" t="str">
         <f>Regions!A23</f>
         <v>IE-LK</v>
       </c>
-      <c r="U5" s="15" t="str">
+      <c r="U5" s="13" t="str">
         <f>Regions!A32</f>
         <v>IE-TA</v>
       </c>
-      <c r="V5" s="15" t="str">
+      <c r="V5" s="13" t="str">
         <f>Regions!A33</f>
         <v>IE-WD</v>
       </c>
-      <c r="W5" s="15" t="str">
+      <c r="W5" s="13" t="str">
         <f>Regions!A17</f>
         <v>IE-G</v>
       </c>
-      <c r="X5" s="15" t="str">
+      <c r="X5" s="13" t="str">
         <f>Regions!A22</f>
         <v>IE-LM</v>
       </c>
-      <c r="Y5" s="15" t="str">
+      <c r="Y5" s="13" t="str">
         <f>Regions!A26</f>
         <v>IE-MO</v>
       </c>
-      <c r="Z5" s="15" t="str">
+      <c r="Z5" s="13" t="str">
         <f>Regions!A30</f>
         <v>IE-RN</v>
       </c>
-      <c r="AA5" s="15" t="str">
+      <c r="AA5" s="13" t="str">
         <f>Regions!A31</f>
         <v>IE-SO</v>
       </c>
-      <c r="AB5" s="15" t="str">
+      <c r="AB5" s="13" t="str">
         <f>Regions!A12</f>
         <v>IE-CN</v>
       </c>
-      <c r="AC5" s="15" t="str">
+      <c r="AC5" s="13" t="str">
         <f>Regions!A15</f>
         <v>IE-DL</v>
       </c>
-      <c r="AD5" s="15" t="str">
+      <c r="AD5" s="13" t="str">
         <f>Regions!A28</f>
         <v>IE-MN</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="15" t="str">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13" t="str">
         <f>C5</f>
         <v>IE</v>
       </c>
-      <c r="D6" s="15" t="str">
+      <c r="D6" s="13" t="str">
         <f>IF(LEFT(D5,1)&lt;&gt;"*","*"&amp;D5,D5)</f>
         <v>*National</v>
       </c>
-      <c r="E6" s="15" t="str">
+      <c r="E6" s="13" t="str">
         <f t="shared" ref="E6:AD6" si="0">IF(LEFT(E5,1)&lt;&gt;"*","*"&amp;E5,E5)</f>
         <v>*IE-CW</v>
       </c>
-      <c r="F6" s="15" t="str">
+      <c r="F6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-D</v>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-KE</v>
       </c>
-      <c r="H6" s="15" t="str">
+      <c r="H6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-KK</v>
       </c>
-      <c r="I6" s="15" t="str">
+      <c r="I6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LS</v>
       </c>
-      <c r="J6" s="15" t="str">
+      <c r="J6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LD</v>
       </c>
-      <c r="K6" s="15" t="str">
+      <c r="K6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LH</v>
       </c>
-      <c r="L6" s="15" t="str">
+      <c r="L6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-MH</v>
       </c>
-      <c r="M6" s="15" t="str">
+      <c r="M6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-OY</v>
       </c>
-      <c r="N6" s="15" t="str">
+      <c r="N6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WH</v>
       </c>
-      <c r="O6" s="15" t="str">
+      <c r="O6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WX</v>
       </c>
-      <c r="P6" s="15" t="str">
+      <c r="P6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WW</v>
       </c>
-      <c r="Q6" s="15" t="str">
+      <c r="Q6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-CE</v>
       </c>
-      <c r="R6" s="15" t="str">
+      <c r="R6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-CO</v>
       </c>
-      <c r="S6" s="15" t="str">
+      <c r="S6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-KY</v>
       </c>
-      <c r="T6" s="15" t="str">
+      <c r="T6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LK</v>
       </c>
-      <c r="U6" s="15" t="str">
+      <c r="U6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-TA</v>
       </c>
-      <c r="V6" s="15" t="str">
+      <c r="V6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WD</v>
       </c>
-      <c r="W6" s="15" t="str">
+      <c r="W6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-G</v>
       </c>
-      <c r="X6" s="15" t="str">
+      <c r="X6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LM</v>
       </c>
-      <c r="Y6" s="15" t="str">
+      <c r="Y6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-MO</v>
       </c>
-      <c r="Z6" s="15" t="str">
+      <c r="Z6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-RN</v>
       </c>
-      <c r="AA6" s="15" t="str">
+      <c r="AA6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-SO</v>
       </c>
-      <c r="AB6" s="15" t="str">
+      <c r="AB6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-CN</v>
       </c>
-      <c r="AC6" s="15" t="str">
+      <c r="AC6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-DL</v>
       </c>
-      <c r="AD6" s="15" t="str">
+      <c r="AD6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>*IE-MN</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="15" t="str">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="str">
         <f>"*"&amp;C5</f>
         <v>*IE</v>
       </c>
-      <c r="D7" s="15" t="str">
+      <c r="D7" s="13" t="str">
         <f>D5</f>
         <v>National</v>
       </c>
-      <c r="E7" s="15" t="str">
+      <c r="E7" s="13" t="str">
         <f t="shared" ref="E7:AD7" si="1">E5</f>
         <v>IE-CW</v>
       </c>
-      <c r="F7" s="15" t="str">
+      <c r="F7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-D</v>
       </c>
-      <c r="G7" s="15" t="str">
+      <c r="G7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-KE</v>
       </c>
-      <c r="H7" s="15" t="str">
+      <c r="H7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-KK</v>
       </c>
-      <c r="I7" s="15" t="str">
+      <c r="I7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-LS</v>
       </c>
-      <c r="J7" s="15" t="str">
+      <c r="J7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-LD</v>
       </c>
-      <c r="K7" s="15" t="str">
+      <c r="K7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-LH</v>
       </c>
-      <c r="L7" s="15" t="str">
+      <c r="L7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-MH</v>
       </c>
-      <c r="M7" s="15" t="str">
+      <c r="M7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-OY</v>
       </c>
-      <c r="N7" s="15" t="str">
+      <c r="N7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-WH</v>
       </c>
-      <c r="O7" s="15" t="str">
+      <c r="O7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-WX</v>
       </c>
-      <c r="P7" s="15" t="str">
+      <c r="P7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-WW</v>
       </c>
-      <c r="Q7" s="15" t="str">
+      <c r="Q7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-CE</v>
       </c>
-      <c r="R7" s="15" t="str">
+      <c r="R7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-CO</v>
       </c>
-      <c r="S7" s="15" t="str">
+      <c r="S7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-KY</v>
       </c>
-      <c r="T7" s="15" t="str">
+      <c r="T7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-LK</v>
       </c>
-      <c r="U7" s="15" t="str">
+      <c r="U7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-TA</v>
       </c>
-      <c r="V7" s="15" t="str">
+      <c r="V7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-WD</v>
       </c>
-      <c r="W7" s="15" t="str">
+      <c r="W7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-G</v>
       </c>
-      <c r="X7" s="15" t="str">
+      <c r="X7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-LM</v>
       </c>
-      <c r="Y7" s="15" t="str">
+      <c r="Y7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-MO</v>
       </c>
-      <c r="Z7" s="15" t="str">
+      <c r="Z7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-RN</v>
       </c>
-      <c r="AA7" s="15" t="str">
+      <c r="AA7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-SO</v>
       </c>
-      <c r="AB7" s="15" t="str">
+      <c r="AB7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-CN</v>
       </c>
-      <c r="AC7" s="15" t="str">
+      <c r="AC7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-DL</v>
       </c>
-      <c r="AD7" s="15" t="str">
+      <c r="AD7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>IE-MN</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B18" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B30" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1906,11 +3898,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH29" sqref="AH29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1918,89 +3912,3004 @@
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.7109375" customWidth="1"/>
+    <col min="35" max="35" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="str">
+        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+        <v>IE</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f>IF(Regions!E$3&lt;&gt;"",Regions!E$3,"*")</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <f>IF(Regions!F$3&lt;&gt;"",Regions!F$3,"*")</f>
+        <v>IE-D</v>
+      </c>
+      <c r="I3" s="11" t="str">
+        <f>IF(Regions!G$3&lt;&gt;"",Regions!G$3,"*")</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="J3" s="11" t="str">
+        <f>IF(Regions!H$3&lt;&gt;"",Regions!H$3,"*")</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="K3" s="11" t="str">
+        <f>IF(Regions!I$3&lt;&gt;"",Regions!I$3,"*")</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="L3" s="11" t="str">
+        <f>IF(Regions!J$3&lt;&gt;"",Regions!J$3,"*")</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="M3" s="11" t="str">
+        <f>IF(Regions!K$3&lt;&gt;"",Regions!K$3,"*")</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="N3" s="11" t="str">
+        <f>IF(Regions!L$3&lt;&gt;"",Regions!L$3,"*")</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="O3" s="11" t="str">
+        <f>IF(Regions!M$3&lt;&gt;"",Regions!M$3,"*")</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="P3" s="11" t="str">
+        <f>IF(Regions!N$3&lt;&gt;"",Regions!N$3,"*")</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="Q3" s="11" t="str">
+        <f>IF(Regions!O$3&lt;&gt;"",Regions!O$3,"*")</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="R3" s="11" t="str">
+        <f>IF(Regions!P$3&lt;&gt;"",Regions!P$3,"*")</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="S3" s="11" t="str">
+        <f>IF(Regions!Q$3&lt;&gt;"",Regions!Q$3,"*")</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="T3" s="11" t="str">
+        <f>IF(Regions!R$3&lt;&gt;"",Regions!R$3,"*")</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="U3" s="11" t="str">
+        <f>IF(Regions!S$3&lt;&gt;"",Regions!S$3,"*")</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="V3" s="11" t="str">
+        <f>IF(Regions!T$3&lt;&gt;"",Regions!T$3,"*")</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="W3" s="11" t="str">
+        <f>IF(Regions!U$3&lt;&gt;"",Regions!U$3,"*")</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="X3" s="11" t="str">
+        <f>IF(Regions!V$3&lt;&gt;"",Regions!V$3,"*")</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="Y3" s="11" t="str">
+        <f>IF(Regions!W$3&lt;&gt;"",Regions!W$3,"*")</f>
+        <v>IE-G</v>
+      </c>
+      <c r="Z3" s="11" t="str">
+        <f>IF(Regions!X$3&lt;&gt;"",Regions!X$3,"*")</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="AA3" s="11" t="str">
+        <f>IF(Regions!Y$3&lt;&gt;"",Regions!Y$3,"*")</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="AB3" s="11" t="str">
+        <f>IF(Regions!Z$3&lt;&gt;"",Regions!Z$3,"*")</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AC3" s="11" t="str">
+        <f>IF(Regions!AA$3&lt;&gt;"",Regions!AA$3,"*")</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AD3" s="11" t="str">
+        <f>IF(Regions!AB$3&lt;&gt;"",Regions!AB$3,"*")</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AE3" s="11" t="str">
+        <f>IF(Regions!AC$3&lt;&gt;"",Regions!AC$3,"*")</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AF3" s="11" t="str">
+        <f>IF(Regions!AD$3&lt;&gt;"",Regions!AD$3,"*")</f>
+        <v>IE-MN</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="14" t="s">
+      <c r="AI3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" t="s">
+        <v>89</v>
+      </c>
+      <c r="T4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" t="s">
+        <v>89</v>
+      </c>
+      <c r="W4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG4" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AL18:AL19)</f>
+        <v>TRAGSE,TRAE85</v>
+      </c>
+      <c r="AI4" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AL6,AL10)</f>
+        <v>TRAGSL,TRAETH</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" t="s">
+        <v>89</v>
+      </c>
+      <c r="V5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG5" t="str">
+        <f>AL20</f>
+        <v>TRAJKB</v>
+      </c>
+      <c r="AI5" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AL7,AL11)</f>
+        <v>TRAKER,TRABJK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG6" t="str">
+        <f>AL21</f>
+        <v>TRANGB</v>
+      </c>
+      <c r="AI6" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AL8,AL12)</f>
+        <v>TRACNG,TRABNG</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" t="s">
+        <v>89</v>
+      </c>
+      <c r="S7" t="s">
+        <v>89</v>
+      </c>
+      <c r="T7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U7" t="s">
+        <v>89</v>
+      </c>
+      <c r="V7" t="s">
+        <v>89</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG7" t="str">
+        <f>AL22</f>
+        <v>TRADSB</v>
+      </c>
+      <c r="AI7" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AL9,AL13)</f>
+        <v>TRADST,TRABDL</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="AL10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>21</v>
+      <c r="F11" s="11" t="str">
+        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+        <v>IE</v>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f>IF(Regions!E$3&lt;&gt;"",Regions!E$3,"*")</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f>IF(Regions!F$3&lt;&gt;"",Regions!F$3,"*")</f>
+        <v>IE-D</v>
+      </c>
+      <c r="I11" s="11" t="str">
+        <f>IF(Regions!G$3&lt;&gt;"",Regions!G$3,"*")</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="J11" s="11" t="str">
+        <f>IF(Regions!H$3&lt;&gt;"",Regions!H$3,"*")</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="K11" s="11" t="str">
+        <f>IF(Regions!I$3&lt;&gt;"",Regions!I$3,"*")</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="L11" s="11" t="str">
+        <f>IF(Regions!J$3&lt;&gt;"",Regions!J$3,"*")</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="M11" s="11" t="str">
+        <f>IF(Regions!K$3&lt;&gt;"",Regions!K$3,"*")</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="N11" s="11" t="str">
+        <f>IF(Regions!L$3&lt;&gt;"",Regions!L$3,"*")</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="O11" s="11" t="str">
+        <f>IF(Regions!M$3&lt;&gt;"",Regions!M$3,"*")</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="P11" s="11" t="str">
+        <f>IF(Regions!N$3&lt;&gt;"",Regions!N$3,"*")</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="Q11" s="11" t="str">
+        <f>IF(Regions!O$3&lt;&gt;"",Regions!O$3,"*")</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="R11" s="11" t="str">
+        <f>IF(Regions!P$3&lt;&gt;"",Regions!P$3,"*")</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="S11" s="11" t="str">
+        <f>IF(Regions!Q$3&lt;&gt;"",Regions!Q$3,"*")</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="T11" s="11" t="str">
+        <f>IF(Regions!R$3&lt;&gt;"",Regions!R$3,"*")</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="U11" s="11" t="str">
+        <f>IF(Regions!S$3&lt;&gt;"",Regions!S$3,"*")</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="V11" s="11" t="str">
+        <f>IF(Regions!T$3&lt;&gt;"",Regions!T$3,"*")</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="W11" s="11" t="str">
+        <f>IF(Regions!U$3&lt;&gt;"",Regions!U$3,"*")</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="X11" s="11" t="str">
+        <f>IF(Regions!V$3&lt;&gt;"",Regions!V$3,"*")</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="Y11" s="11" t="str">
+        <f>IF(Regions!W$3&lt;&gt;"",Regions!W$3,"*")</f>
+        <v>IE-G</v>
+      </c>
+      <c r="Z11" s="11" t="str">
+        <f>IF(Regions!X$3&lt;&gt;"",Regions!X$3,"*")</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="AA11" s="11" t="str">
+        <f>IF(Regions!Y$3&lt;&gt;"",Regions!Y$3,"*")</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="AB11" s="11" t="str">
+        <f>IF(Regions!Z$3&lt;&gt;"",Regions!Z$3,"*")</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AC11" s="11" t="str">
+        <f>IF(Regions!AA$3&lt;&gt;"",Regions!AA$3,"*")</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AD11" s="11" t="str">
+        <f>IF(Regions!AB$3&lt;&gt;"",Regions!AB$3,"*")</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AE11" s="11" t="str">
+        <f>IF(Regions!AC$3&lt;&gt;"",Regions!AC$3,"*")</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AF11" s="11" t="str">
+        <f>IF(Regions!AD$3&lt;&gt;"",Regions!AD$3,"*")</f>
+        <v>IE-MN</v>
+      </c>
+      <c r="AG11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12">
+        <v>2018</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="str">
+        <f>AL18</f>
+        <v>TRAGSE</v>
+      </c>
+      <c r="AI12" t="str">
+        <f>AG12</f>
+        <v>TRAGSE</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13">
+        <v>2018</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="str">
+        <f t="shared" ref="AG13:AG16" si="0">AL19</f>
+        <v>TRAE85</v>
+      </c>
+      <c r="AI13" t="str">
+        <f t="shared" ref="AI13:AI21" si="1">AG13</f>
+        <v>TRAE85</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="str">
+        <f t="shared" si="0"/>
+        <v>TRAJKB</v>
+      </c>
+      <c r="AI14" t="str">
+        <f t="shared" si="1"/>
+        <v>TRAJKB</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15">
+        <v>2018</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="str">
+        <f t="shared" si="0"/>
+        <v>TRANGB</v>
+      </c>
+      <c r="AI15" t="str">
+        <f t="shared" si="1"/>
+        <v>TRANGB</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16">
+        <v>2018</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="str">
+        <f t="shared" si="0"/>
+        <v>TRADSB</v>
+      </c>
+      <c r="AI16" t="str">
+        <f t="shared" si="1"/>
+        <v>TRADSB</v>
+      </c>
+    </row>
+    <row r="17" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+      <c r="AA17">
+        <v>5</v>
+      </c>
+      <c r="AB17">
+        <v>5</v>
+      </c>
+      <c r="AC17">
+        <v>5</v>
+      </c>
+      <c r="AD17">
+        <v>5</v>
+      </c>
+      <c r="AE17">
+        <v>5</v>
+      </c>
+      <c r="AF17">
+        <v>5</v>
+      </c>
+      <c r="AG17" t="str">
+        <f>AL18</f>
+        <v>TRAGSE</v>
+      </c>
+      <c r="AI17" t="str">
+        <f t="shared" si="1"/>
+        <v>TRAGSE</v>
+      </c>
+    </row>
+    <row r="18" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+      <c r="Z18">
+        <v>5</v>
+      </c>
+      <c r="AA18">
+        <v>5</v>
+      </c>
+      <c r="AB18">
+        <v>5</v>
+      </c>
+      <c r="AC18">
+        <v>5</v>
+      </c>
+      <c r="AD18">
+        <v>5</v>
+      </c>
+      <c r="AE18">
+        <v>5</v>
+      </c>
+      <c r="AF18">
+        <v>5</v>
+      </c>
+      <c r="AG18" t="str">
+        <f t="shared" ref="AG18:AG21" si="2">AL19</f>
+        <v>TRAE85</v>
+      </c>
+      <c r="AI18" t="str">
+        <f t="shared" si="1"/>
+        <v>TRAE85</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>5</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <v>5</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+      <c r="Z19">
+        <v>5</v>
+      </c>
+      <c r="AA19">
+        <v>5</v>
+      </c>
+      <c r="AB19">
+        <v>5</v>
+      </c>
+      <c r="AC19">
+        <v>5</v>
+      </c>
+      <c r="AD19">
+        <v>5</v>
+      </c>
+      <c r="AE19">
+        <v>5</v>
+      </c>
+      <c r="AF19">
+        <v>5</v>
+      </c>
+      <c r="AG19" t="str">
+        <f t="shared" si="2"/>
+        <v>TRAJKB</v>
+      </c>
+      <c r="AI19" t="str">
+        <f t="shared" si="1"/>
+        <v>TRAJKB</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>5</v>
+      </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20">
+        <v>5</v>
+      </c>
+      <c r="AB20">
+        <v>5</v>
+      </c>
+      <c r="AC20">
+        <v>5</v>
+      </c>
+      <c r="AD20">
+        <v>5</v>
+      </c>
+      <c r="AE20">
+        <v>5</v>
+      </c>
+      <c r="AF20">
+        <v>5</v>
+      </c>
+      <c r="AG20" t="str">
+        <f t="shared" si="2"/>
+        <v>TRANGB</v>
+      </c>
+      <c r="AI20" t="str">
+        <f t="shared" si="1"/>
+        <v>TRANGB</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>5</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
+      </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
+      <c r="X21">
+        <v>5</v>
+      </c>
+      <c r="Y21">
+        <v>5</v>
+      </c>
+      <c r="Z21">
+        <v>5</v>
+      </c>
+      <c r="AA21">
+        <v>5</v>
+      </c>
+      <c r="AB21">
+        <v>5</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
+      </c>
+      <c r="AD21">
+        <v>5</v>
+      </c>
+      <c r="AE21">
+        <v>5</v>
+      </c>
+      <c r="AF21">
+        <v>5</v>
+      </c>
+      <c r="AG21" t="str">
+        <f t="shared" si="2"/>
+        <v>TRADSB</v>
+      </c>
+      <c r="AI21" t="str">
+        <f t="shared" si="1"/>
+        <v>TRADSB</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22">
+        <v>2018</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI22" t="str">
+        <f>AL18</f>
+        <v>TRAGSE</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23">
+        <v>2030</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI23" t="str">
+        <f>AL21</f>
+        <v>TRANGB</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93710EB5-6CA6-4567-BBEA-95693216CD5C}">
+  <dimension ref="A1:Q47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="str">
+        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3,Regions!E3:AD3)</f>
+        <v>~UC_Sets: R_E: IE,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC_MaxShare",P19)</f>
+        <v>UC_MaxShare_TRAGSE</v>
+      </c>
+      <c r="E6" t="str">
+        <f>$P$19</f>
+        <v>TRAGSE</v>
+      </c>
+      <c r="G6" t="str">
+        <f>$P$7</f>
+        <v>TRAGSL</v>
+      </c>
+      <c r="I6">
+        <v>2018</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="20">
+        <v>4.5158565381788203E-2</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"Max shares -",Q19)</f>
+        <v>Max shares - blended gasoline</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f>E6</f>
+        <v>TRAGSE</v>
+      </c>
+      <c r="G7" t="str">
+        <f>$P$11</f>
+        <v>TRAETH</v>
+      </c>
+      <c r="I7">
+        <v>2018</v>
+      </c>
+      <c r="K7" s="20">
+        <f>K6-1</f>
+        <v>-0.9548414346182118</v>
+      </c>
+      <c r="P7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f>$P$19</f>
+        <v>TRAGSE</v>
+      </c>
+      <c r="G8" t="str">
+        <f>$P$7</f>
+        <v>TRAGSL</v>
+      </c>
+      <c r="I8">
+        <v>2020</v>
+      </c>
+      <c r="J8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f>E8</f>
+        <v>TRAGSE</v>
+      </c>
+      <c r="G9" t="str">
+        <f>$P$11</f>
+        <v>TRAETH</v>
+      </c>
+      <c r="I9">
+        <v>2020</v>
+      </c>
+      <c r="K9" s="20">
+        <f>K8-1</f>
+        <v>-0.95</v>
+      </c>
+      <c r="P9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f>$P$19</f>
+        <v>TRAGSE</v>
+      </c>
+      <c r="G10" t="str">
+        <f>$P$7</f>
+        <v>TRAGSL</v>
+      </c>
+      <c r="I10">
+        <v>2030</v>
+      </c>
+      <c r="J10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <f>E10</f>
+        <v>TRAGSE</v>
+      </c>
+      <c r="G11" t="str">
+        <f>$P$11</f>
+        <v>TRAETH</v>
+      </c>
+      <c r="I11">
+        <v>2030</v>
+      </c>
+      <c r="K11" s="20">
+        <f>K10-1</f>
+        <v>-0.9</v>
+      </c>
+      <c r="P11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21">
+        <v>5</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="P12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC_MaxShare",P20)</f>
+        <v>UC_MaxShare_TRAE85</v>
+      </c>
+      <c r="E13" t="str">
+        <f>$P$20</f>
+        <v>TRAE85</v>
+      </c>
+      <c r="G13" t="str">
+        <f>$P$7</f>
+        <v>TRAGSL</v>
+      </c>
+      <c r="I13">
+        <v>2018</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13">
+        <v>0.15</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"Max shares -",Q20)</f>
+        <v>Max shares - blended gasoline, up to 15%</v>
+      </c>
+      <c r="P13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f>E13</f>
+        <v>TRAE85</v>
+      </c>
+      <c r="G14" t="str">
+        <f>$P$11</f>
+        <v>TRAETH</v>
+      </c>
+      <c r="I14">
+        <v>2018</v>
+      </c>
+      <c r="K14">
+        <f>K13-1</f>
+        <v>-0.85</v>
+      </c>
+      <c r="P14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21">
+        <v>5</v>
+      </c>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC_MaxShare",P21)</f>
+        <v>UC_MaxShare_TRAJKB</v>
+      </c>
+      <c r="E16" t="str">
+        <f>$P$21</f>
+        <v>TRAJKB</v>
+      </c>
+      <c r="G16" t="str">
+        <f>$P$8</f>
+        <v>TRAKER</v>
+      </c>
+      <c r="I16">
+        <v>2018</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"Max shares -",Q21)</f>
+        <v>Max shares - blended kerosene</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <f>E16</f>
+        <v>TRAJKB</v>
+      </c>
+      <c r="G17" t="str">
+        <f>$P$12</f>
+        <v>TRABJK</v>
+      </c>
+      <c r="I17">
+        <v>2018</v>
+      </c>
+      <c r="K17">
+        <f>K16-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <f>$P$21</f>
+        <v>TRAJKB</v>
+      </c>
+      <c r="G18" t="str">
+        <f>$P$8</f>
+        <v>TRAKER</v>
+      </c>
+      <c r="I18">
+        <v>2020</v>
+      </c>
+      <c r="J18" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18">
+        <v>0.01</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f>E18</f>
+        <v>TRAJKB</v>
+      </c>
+      <c r="G19" t="str">
+        <f>$P$12</f>
+        <v>TRABJK</v>
+      </c>
+      <c r="I19">
+        <v>2020</v>
+      </c>
+      <c r="K19">
+        <f>K18-1</f>
+        <v>-0.99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f>$P$21</f>
+        <v>TRAJKB</v>
+      </c>
+      <c r="G20" t="str">
+        <f>$P$8</f>
+        <v>TRAKER</v>
+      </c>
+      <c r="I20">
+        <v>2030</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20">
+        <v>0.5</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f>E20</f>
+        <v>TRAJKB</v>
+      </c>
+      <c r="G21" t="str">
+        <f>$P$12</f>
+        <v>TRABJK</v>
+      </c>
+      <c r="I21">
+        <v>2030</v>
+      </c>
+      <c r="K21">
+        <f>K20-1</f>
+        <v>-0.5</v>
+      </c>
+      <c r="P21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f>$P$21</f>
+        <v>TRAJKB</v>
+      </c>
+      <c r="G22" t="str">
+        <f>$P$8</f>
+        <v>TRAKER</v>
+      </c>
+      <c r="I22">
+        <v>2040</v>
+      </c>
+      <c r="J22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22">
+        <v>0.7</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <f>E22</f>
+        <v>TRAJKB</v>
+      </c>
+      <c r="G23" t="str">
+        <f>$P$12</f>
+        <v>TRABJK</v>
+      </c>
+      <c r="I23">
+        <v>2040</v>
+      </c>
+      <c r="K23">
+        <f>K22-1</f>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="P23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <f>$P$21</f>
+        <v>TRAJKB</v>
+      </c>
+      <c r="G24" t="str">
+        <f>$P$8</f>
+        <v>TRAKER</v>
+      </c>
+      <c r="I24">
+        <v>2050</v>
+      </c>
+      <c r="J24" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24">
+        <v>0.9</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f>E24</f>
+        <v>TRAJKB</v>
+      </c>
+      <c r="G25" t="str">
+        <f>$P$12</f>
+        <v>TRABJK</v>
+      </c>
+      <c r="I25">
+        <v>2050</v>
+      </c>
+      <c r="K25">
+        <f>K24-1</f>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21">
+        <v>5</v>
+      </c>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC_MaxShare",P22)</f>
+        <v>UC_MaxShare_TRANGB</v>
+      </c>
+      <c r="E27" t="str">
+        <f>$P$22</f>
+        <v>TRANGB</v>
+      </c>
+      <c r="G27" t="str">
+        <f>$P$9</f>
+        <v>TRACNG</v>
+      </c>
+      <c r="I27">
+        <v>2018</v>
+      </c>
+      <c r="J27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"Max shares -",Q22)</f>
+        <v>Max shares - blended CNG</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f>E27</f>
+        <v>TRANGB</v>
+      </c>
+      <c r="G28" t="str">
+        <f>$P$13</f>
+        <v>TRABNG</v>
+      </c>
+      <c r="I28">
+        <v>2018</v>
+      </c>
+      <c r="K28">
+        <f>K27-1</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21">
+        <v>0</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21">
+        <v>5</v>
+      </c>
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC_MaxShare",P23)</f>
+        <v>UC_MaxShare_TRADSB</v>
+      </c>
+      <c r="E30" t="str">
+        <f>$P$23</f>
+        <v>TRADSB</v>
+      </c>
+      <c r="G30" t="str">
+        <f>$P$10</f>
+        <v>TRADST</v>
+      </c>
+      <c r="I30">
+        <v>2018</v>
+      </c>
+      <c r="J30" t="s">
+        <v>138</v>
+      </c>
+      <c r="K30" s="20">
+        <v>4.0877873467079801E-2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"Max shares -",Q23)</f>
+        <v>Max shares - blended diesel</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <f>E30</f>
+        <v>TRADSB</v>
+      </c>
+      <c r="G31" t="str">
+        <f>$P$14</f>
+        <v>TRABDL</v>
+      </c>
+      <c r="I31">
+        <v>2018</v>
+      </c>
+      <c r="K31" s="20">
+        <f>K30-1</f>
+        <v>-0.95912212653292017</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E32" t="str">
+        <f>$P$23</f>
+        <v>TRADSB</v>
+      </c>
+      <c r="G32" t="str">
+        <f>$P$10</f>
+        <v>TRADST</v>
+      </c>
+      <c r="I32">
+        <v>2020</v>
+      </c>
+      <c r="J32" t="s">
+        <v>138</v>
+      </c>
+      <c r="K32" s="20">
+        <v>5.1152531327863002E-2</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <f>E32</f>
+        <v>TRADSB</v>
+      </c>
+      <c r="G33" t="str">
+        <f>$P$14</f>
+        <v>TRABDL</v>
+      </c>
+      <c r="I33">
+        <v>2020</v>
+      </c>
+      <c r="K33" s="20">
+        <f>K32-1</f>
+        <v>-0.94884746867213698</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f>$P$23</f>
+        <v>TRADSB</v>
+      </c>
+      <c r="G34" t="str">
+        <f>$P$10</f>
+        <v>TRADST</v>
+      </c>
+      <c r="I34">
+        <v>2030</v>
+      </c>
+      <c r="J34" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E35" t="str">
+        <f>E34</f>
+        <v>TRADSB</v>
+      </c>
+      <c r="G35" t="str">
+        <f>$P$14</f>
+        <v>TRABDL</v>
+      </c>
+      <c r="I35">
+        <v>2030</v>
+      </c>
+      <c r="K35" s="20">
+        <f>K34-1</f>
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21">
+        <v>0</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21">
+        <v>5</v>
+      </c>
+      <c r="M36" s="21"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",D37,"Max",P23)</f>
+        <v>UC_T-OTH_CON00_Max_TRADSB</v>
+      </c>
+      <c r="D37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,$P$10,$P$14)</f>
+        <v>TRADST,TRABDL</v>
+      </c>
+      <c r="I37" s="22">
+        <v>2018</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37">
+        <f>K38-1</f>
+        <v>-0.33999999999999997</v>
+      </c>
+      <c r="L37" s="22">
+        <v>0</v>
+      </c>
+      <c r="M37" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"Max share of",Q23,"in",D37)</f>
+        <v>Max share of blended diesel in T-OTH_CON00</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f>D37</f>
+        <v>T-OTH_CON00</v>
+      </c>
+      <c r="G38" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,P9,P7,P11)</f>
+        <v>TRACNG,TRAGSL,TRAETH</v>
+      </c>
+      <c r="I38" s="22">
+        <v>2018</v>
+      </c>
+      <c r="K38">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="23">
+        <v>0</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21">
+        <v>5</v>
+      </c>
+      <c r="M39" s="21"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",D40,"Min",P19)</f>
+        <v>UC_T-OTH_CON00_Min_TRAGSE</v>
+      </c>
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,$P$7,$P$11)</f>
+        <v>TRAGSL,TRAETH</v>
+      </c>
+      <c r="I40" s="22">
+        <v>2018</v>
+      </c>
+      <c r="J40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40">
+        <f>K41-1</f>
+        <v>-0.71</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"Min share of",Q19,"in",D40)</f>
+        <v>Min share of blended gasoline in T-OTH_CON00</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24" t="str">
+        <f>D40</f>
+        <v>T-OTH_CON00</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,P10,P14,P9)</f>
+        <v>TRADST,TRABDL,TRACNG</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="22">
+        <v>2018</v>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="23">
+        <v>0</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21">
+        <v>5</v>
+      </c>
+      <c r="M42" s="21"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",D43,"Min",P22)</f>
+        <v>UC_T-OTH_NEW_Min_TRANGB</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,$P$9,$P$13)</f>
+        <v>TRACNG,TRABNG</v>
+      </c>
+      <c r="I43">
+        <v>2018</v>
+      </c>
+      <c r="J43" t="s">
+        <v>138</v>
+      </c>
+      <c r="K43">
+        <f>K44-1</f>
+        <v>-0.96</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"Max share of ",Q22,"in",D43)</f>
+        <v>Max share of  blended CNG in T-OTH_NEW</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f>D43</f>
+        <v>T-OTH_NEW</v>
+      </c>
+      <c r="G44" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,$P$14,$P$7,$P$11)</f>
+        <v>TRABDL,TRAGSL,TRAETH</v>
+      </c>
+      <c r="I44">
+        <v>2018</v>
+      </c>
+      <c r="K44">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,$P$9,$P$13)</f>
+        <v>TRACNG,TRABNG</v>
+      </c>
+      <c r="I45">
+        <v>2030</v>
+      </c>
+      <c r="J45" t="s">
+        <v>138</v>
+      </c>
+      <c r="K45">
+        <f>K46-1</f>
+        <v>-0.8</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" t="str">
+        <f>D45</f>
+        <v>T-OTH_NEW</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,$P$14,$P$7,$P$11)</f>
+        <v>TRABDL,TRAGSL,TRAETH</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24">
+        <v>2030</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21">
+        <v>0</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21">
+        <v>5</v>
+      </c>
+      <c r="M47" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -2024,54 +6933,54 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="13" t="str">
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="11" t="str">
         <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
-      <c r="I3" s="13" t="str">
+      <c r="I3" s="11" t="str">
         <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
         <v>National</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H4">
         <v>2018</v>
@@ -2080,10 +6989,10 @@
         <v>2018</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>98</v>
+        <v>81</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2092,11 +7001,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -2109,7 +7018,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2119,65 +7028,65 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>13</v>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2018</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -2186,7 +7095,7 @@
         <v>0.70399999999999996</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2195,253 +7104,6 @@
       </c>
       <c r="L7">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A05730E-7638-45B5-8D8E-98314114E676}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4A7955-DCC7-4BF4-86FD-C5F6FB3DA609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TRA-BLENDS" sheetId="17" r:id="rId1"/>
-    <sheet name="Regions" sheetId="15" r:id="rId2"/>
+    <sheet name="Regions" sheetId="15" r:id="rId1"/>
+    <sheet name="HET" sheetId="19" r:id="rId2"/>
     <sheet name="TRA" sheetId="2" r:id="rId3"/>
     <sheet name="UCT_TRA" sheetId="18" r:id="rId4"/>
     <sheet name="UPD_biogas" sheetId="11" r:id="rId5"/>
@@ -23,19 +23,19 @@
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
-    <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="124">
   <si>
     <t>UC_N</t>
   </si>
@@ -469,66 +469,9 @@
     <t>Kerosene</t>
   </si>
   <si>
-    <t>BASE</t>
-  </si>
-  <si>
     <t>SHARE-I</t>
   </si>
   <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>lim_type</t>
-  </si>
-  <si>
-    <t>time_slice</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>commodity_group</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>sow</t>
-  </si>
-  <si>
-    <t>TRABCNG_BLD</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>TRABJK_BLD</t>
-  </si>
-  <si>
-    <t>TRADST_BLD</t>
-  </si>
-  <si>
-    <t>TRAE85_BLD</t>
-  </si>
-  <si>
-    <t>TRAGSL_BLD</t>
-  </si>
-  <si>
     <t>~TFM_INS</t>
   </si>
   <si>
@@ -542,6 +485,12 @@
   </si>
   <si>
     <t>T-OTH_NEW</t>
+  </si>
+  <si>
+    <t>FT-*HET</t>
+  </si>
+  <si>
+    <t>HETD</t>
   </si>
 </sst>
 </file>
@@ -1177,1963 +1126,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D84E4A-22F2-4E71-B908-2FF7EAFC1BC6}">
-  <dimension ref="A1:L51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42:L44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2">
-        <v>2018</v>
-      </c>
-      <c r="H2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3">
-        <v>2020</v>
-      </c>
-      <c r="H3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4">
-        <v>2030</v>
-      </c>
-      <c r="H4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5">
-        <v>2040</v>
-      </c>
-      <c r="H5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6">
-        <v>2050</v>
-      </c>
-      <c r="H6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7">
-        <v>2018</v>
-      </c>
-      <c r="H7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8">
-        <v>2020</v>
-      </c>
-      <c r="H8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J8" t="s">
-        <v>131</v>
-      </c>
-      <c r="K8" t="s">
-        <v>131</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9">
-        <v>2030</v>
-      </c>
-      <c r="H9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10">
-        <v>2040</v>
-      </c>
-      <c r="H10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" t="s">
-        <v>131</v>
-      </c>
-      <c r="L10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11">
-        <v>2050</v>
-      </c>
-      <c r="H11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12">
-        <v>2018</v>
-      </c>
-      <c r="H12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13">
-        <v>2020</v>
-      </c>
-      <c r="H13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" t="s">
-        <v>131</v>
-      </c>
-      <c r="L13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14">
-        <v>2030</v>
-      </c>
-      <c r="H14" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K14" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15">
-        <v>2040</v>
-      </c>
-      <c r="H15" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" t="s">
-        <v>131</v>
-      </c>
-      <c r="L15">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16">
-        <v>2050</v>
-      </c>
-      <c r="H16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17">
-        <v>2018</v>
-      </c>
-      <c r="H17" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" t="s">
-        <v>131</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18">
-        <v>2020</v>
-      </c>
-      <c r="H18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" t="s">
-        <v>131</v>
-      </c>
-      <c r="L18">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19">
-        <v>2030</v>
-      </c>
-      <c r="H19" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" t="s">
-        <v>131</v>
-      </c>
-      <c r="L19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20">
-        <v>2040</v>
-      </c>
-      <c r="H20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20" t="s">
-        <v>131</v>
-      </c>
-      <c r="L20">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21">
-        <v>2050</v>
-      </c>
-      <c r="H21" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" t="s">
-        <v>131</v>
-      </c>
-      <c r="J21" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" t="s">
-        <v>131</v>
-      </c>
-      <c r="L21">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22">
-        <v>2018</v>
-      </c>
-      <c r="H22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" t="s">
-        <v>131</v>
-      </c>
-      <c r="J22" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22">
-        <v>4.0877873467079801E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23">
-        <v>2020</v>
-      </c>
-      <c r="H23" t="s">
-        <v>125</v>
-      </c>
-      <c r="I23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" t="s">
-        <v>131</v>
-      </c>
-      <c r="L23">
-        <v>5.1152531327863002E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24">
-        <v>2030</v>
-      </c>
-      <c r="H24" t="s">
-        <v>125</v>
-      </c>
-      <c r="I24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24" t="s">
-        <v>131</v>
-      </c>
-      <c r="K24" t="s">
-        <v>131</v>
-      </c>
-      <c r="L24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25">
-        <v>2040</v>
-      </c>
-      <c r="H25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I25" t="s">
-        <v>131</v>
-      </c>
-      <c r="J25" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" t="s">
-        <v>131</v>
-      </c>
-      <c r="L25">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26">
-        <v>2050</v>
-      </c>
-      <c r="H26" t="s">
-        <v>125</v>
-      </c>
-      <c r="I26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26" t="s">
-        <v>131</v>
-      </c>
-      <c r="L26">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27">
-        <v>2018</v>
-      </c>
-      <c r="H27" t="s">
-        <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" t="s">
-        <v>131</v>
-      </c>
-      <c r="K27" t="s">
-        <v>131</v>
-      </c>
-      <c r="L27">
-        <v>0.95912212653291995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28">
-        <v>2020</v>
-      </c>
-      <c r="H28" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" t="s">
-        <v>131</v>
-      </c>
-      <c r="L28">
-        <v>0.94884746867213698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29">
-        <v>2030</v>
-      </c>
-      <c r="H29" t="s">
-        <v>125</v>
-      </c>
-      <c r="I29" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30">
-        <v>2040</v>
-      </c>
-      <c r="H30" t="s">
-        <v>125</v>
-      </c>
-      <c r="I30" t="s">
-        <v>131</v>
-      </c>
-      <c r="J30" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" t="s">
-        <v>131</v>
-      </c>
-      <c r="L30">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31">
-        <v>2050</v>
-      </c>
-      <c r="H31" t="s">
-        <v>125</v>
-      </c>
-      <c r="I31" t="s">
-        <v>131</v>
-      </c>
-      <c r="J31" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31" t="s">
-        <v>131</v>
-      </c>
-      <c r="L31">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" t="s">
-        <v>130</v>
-      </c>
-      <c r="G32">
-        <v>2018</v>
-      </c>
-      <c r="H32" t="s">
-        <v>125</v>
-      </c>
-      <c r="I32" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32" t="s">
-        <v>131</v>
-      </c>
-      <c r="K32" t="s">
-        <v>131</v>
-      </c>
-      <c r="L32">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33">
-        <v>2020</v>
-      </c>
-      <c r="H33" t="s">
-        <v>125</v>
-      </c>
-      <c r="I33" t="s">
-        <v>131</v>
-      </c>
-      <c r="J33" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" t="s">
-        <v>131</v>
-      </c>
-      <c r="L33">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34">
-        <v>2030</v>
-      </c>
-      <c r="H34" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" t="s">
-        <v>131</v>
-      </c>
-      <c r="J34" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34" t="s">
-        <v>131</v>
-      </c>
-      <c r="L34">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" t="s">
-        <v>130</v>
-      </c>
-      <c r="G35">
-        <v>2040</v>
-      </c>
-      <c r="H35" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" t="s">
-        <v>131</v>
-      </c>
-      <c r="J35" t="s">
-        <v>131</v>
-      </c>
-      <c r="K35" t="s">
-        <v>131</v>
-      </c>
-      <c r="L35">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36">
-        <v>2050</v>
-      </c>
-      <c r="H36" t="s">
-        <v>125</v>
-      </c>
-      <c r="I36" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" t="s">
-        <v>131</v>
-      </c>
-      <c r="K36" t="s">
-        <v>131</v>
-      </c>
-      <c r="L36">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G37">
-        <v>2018</v>
-      </c>
-      <c r="H37" t="s">
-        <v>125</v>
-      </c>
-      <c r="I37" t="s">
-        <v>131</v>
-      </c>
-      <c r="J37" t="s">
-        <v>131</v>
-      </c>
-      <c r="K37" t="s">
-        <v>131</v>
-      </c>
-      <c r="L37">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38">
-        <v>2020</v>
-      </c>
-      <c r="H38" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" t="s">
-        <v>131</v>
-      </c>
-      <c r="J38" t="s">
-        <v>131</v>
-      </c>
-      <c r="K38" t="s">
-        <v>131</v>
-      </c>
-      <c r="L38">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39">
-        <v>2030</v>
-      </c>
-      <c r="H39" t="s">
-        <v>125</v>
-      </c>
-      <c r="I39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J39" t="s">
-        <v>131</v>
-      </c>
-      <c r="K39" t="s">
-        <v>131</v>
-      </c>
-      <c r="L39">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40">
-        <v>2040</v>
-      </c>
-      <c r="H40" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" t="s">
-        <v>131</v>
-      </c>
-      <c r="J40" t="s">
-        <v>131</v>
-      </c>
-      <c r="K40" t="s">
-        <v>131</v>
-      </c>
-      <c r="L40">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41">
-        <v>2050</v>
-      </c>
-      <c r="H41" t="s">
-        <v>125</v>
-      </c>
-      <c r="I41" t="s">
-        <v>131</v>
-      </c>
-      <c r="J41" t="s">
-        <v>131</v>
-      </c>
-      <c r="K41" t="s">
-        <v>131</v>
-      </c>
-      <c r="L41">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" t="s">
-        <v>130</v>
-      </c>
-      <c r="G42">
-        <v>2018</v>
-      </c>
-      <c r="H42" t="s">
-        <v>125</v>
-      </c>
-      <c r="I42" t="s">
-        <v>131</v>
-      </c>
-      <c r="J42" t="s">
-        <v>131</v>
-      </c>
-      <c r="K42" t="s">
-        <v>131</v>
-      </c>
-      <c r="L42">
-        <v>4.5158565381788203E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43">
-        <v>2020</v>
-      </c>
-      <c r="H43" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" t="s">
-        <v>131</v>
-      </c>
-      <c r="J43" t="s">
-        <v>131</v>
-      </c>
-      <c r="K43" t="s">
-        <v>131</v>
-      </c>
-      <c r="L43">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44">
-        <v>2030</v>
-      </c>
-      <c r="H44" t="s">
-        <v>125</v>
-      </c>
-      <c r="I44" t="s">
-        <v>131</v>
-      </c>
-      <c r="J44" t="s">
-        <v>131</v>
-      </c>
-      <c r="K44" t="s">
-        <v>131</v>
-      </c>
-      <c r="L44">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" t="s">
-        <v>130</v>
-      </c>
-      <c r="G45">
-        <v>2040</v>
-      </c>
-      <c r="H45" t="s">
-        <v>125</v>
-      </c>
-      <c r="I45" t="s">
-        <v>131</v>
-      </c>
-      <c r="J45" t="s">
-        <v>131</v>
-      </c>
-      <c r="K45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L45">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" t="s">
-        <v>130</v>
-      </c>
-      <c r="G46">
-        <v>2050</v>
-      </c>
-      <c r="H46" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" t="s">
-        <v>131</v>
-      </c>
-      <c r="J46" t="s">
-        <v>131</v>
-      </c>
-      <c r="K46" t="s">
-        <v>131</v>
-      </c>
-      <c r="L46">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47">
-        <v>2018</v>
-      </c>
-      <c r="H47" t="s">
-        <v>125</v>
-      </c>
-      <c r="I47" t="s">
-        <v>131</v>
-      </c>
-      <c r="J47" t="s">
-        <v>131</v>
-      </c>
-      <c r="K47" t="s">
-        <v>131</v>
-      </c>
-      <c r="L47">
-        <v>0.95484143461821203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48">
-        <v>2020</v>
-      </c>
-      <c r="H48" t="s">
-        <v>125</v>
-      </c>
-      <c r="I48" t="s">
-        <v>131</v>
-      </c>
-      <c r="J48" t="s">
-        <v>131</v>
-      </c>
-      <c r="K48" t="s">
-        <v>131</v>
-      </c>
-      <c r="L48">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49">
-        <v>2030</v>
-      </c>
-      <c r="H49" t="s">
-        <v>125</v>
-      </c>
-      <c r="I49" t="s">
-        <v>131</v>
-      </c>
-      <c r="J49" t="s">
-        <v>131</v>
-      </c>
-      <c r="K49" t="s">
-        <v>131</v>
-      </c>
-      <c r="L49">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50">
-        <v>2040</v>
-      </c>
-      <c r="H50" t="s">
-        <v>125</v>
-      </c>
-      <c r="I50" t="s">
-        <v>131</v>
-      </c>
-      <c r="J50" t="s">
-        <v>131</v>
-      </c>
-      <c r="K50" t="s">
-        <v>131</v>
-      </c>
-      <c r="L50">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" t="s">
-        <v>84</v>
-      </c>
-      <c r="F51" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51">
-        <v>2050</v>
-      </c>
-      <c r="H51" t="s">
-        <v>125</v>
-      </c>
-      <c r="I51" t="s">
-        <v>131</v>
-      </c>
-      <c r="J51" t="s">
-        <v>131</v>
-      </c>
-      <c r="K51" t="s">
-        <v>131</v>
-      </c>
-      <c r="L51">
-        <v>0.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0F7499-A5CE-4374-995E-DC72D788363A}">
   <dimension ref="A3:AD37"/>
   <sheetViews>
@@ -3898,12 +1890,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE79BAD-EA44-47F0-A194-320DE6C9FB50}">
+  <dimension ref="B2:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="str">
+        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+        <v>IE</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
+        <v>National</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH29" sqref="AH29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4459,7 +2513,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="M10" s="9"/>
       <c r="AL10" t="s">
@@ -4611,7 +2665,7 @@
         <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12">
         <v>2018</v>
@@ -4717,7 +2771,7 @@
         <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13">
         <v>2018</v>
@@ -4823,7 +2877,7 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14">
         <v>2018</v>
@@ -4923,7 +2977,7 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15">
         <v>2018</v>
@@ -5023,7 +3077,7 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <v>2018</v>
@@ -5123,7 +3177,7 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -5223,7 +3277,7 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5329,7 +3383,7 @@
         <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5435,7 +3489,7 @@
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5541,7 +3595,7 @@
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5644,10 +3698,10 @@
     </row>
     <row r="22" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22">
         <v>2018</v>
@@ -5734,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="AH22" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="AI22" t="str">
         <f>AL18</f>
@@ -5752,7 +3806,7 @@
         <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23">
         <v>2030</v>
@@ -5839,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="AH23" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="AI23" t="str">
         <f>AL21</f>
@@ -5856,7 +3910,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5919,7 +3973,7 @@
         <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>17</v>
@@ -5945,7 +3999,7 @@
         <v>2018</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K6" s="20">
         <v>4.5158565381788203E-2</v>
@@ -5994,7 +4048,7 @@
         <v>2020</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K8" s="20">
         <v>0.05</v>
@@ -6045,7 +4099,7 @@
         <v>2030</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K10" s="20">
         <v>0.1</v>
@@ -6095,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="21">
@@ -6126,7 +4180,7 @@
         <v>2018</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K13">
         <v>0.15</v>
@@ -6180,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21">
@@ -6205,7 +4259,7 @@
         <v>2018</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -6248,7 +4302,7 @@
         <v>2020</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K18">
         <v>0.01</v>
@@ -6293,7 +4347,7 @@
         <v>2030</v>
       </c>
       <c r="J20" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K20">
         <v>0.5</v>
@@ -6344,7 +4398,7 @@
         <v>2040</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K22">
         <v>0.7</v>
@@ -6395,7 +4449,7 @@
         <v>2050</v>
       </c>
       <c r="J24" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K24">
         <v>0.9</v>
@@ -6456,7 +4510,7 @@
         <v>2018</v>
       </c>
       <c r="J27" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K27">
         <v>0.5</v>
@@ -6498,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K29" s="21"/>
       <c r="L29" s="21">
@@ -6523,7 +4577,7 @@
         <v>2018</v>
       </c>
       <c r="J30" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K30" s="20">
         <v>4.0877873467079801E-2</v>
@@ -6566,7 +4620,7 @@
         <v>2020</v>
       </c>
       <c r="J32" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K32" s="20">
         <v>5.1152531327863002E-2</v>
@@ -6605,7 +4659,7 @@
         <v>2030</v>
       </c>
       <c r="J34" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K34" s="20">
         <v>0.1</v>
@@ -6643,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K36" s="21"/>
       <c r="L36" s="21">
@@ -6657,7 +4711,7 @@
         <v>UC_T-OTH_CON00_Max_TRADSB</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G37" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,$P$10,$P$14)</f>
@@ -6667,7 +4721,7 @@
         <v>2018</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K37">
         <f>K38-1</f>
@@ -6709,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K39" s="21"/>
       <c r="L39" s="21">
@@ -6723,7 +4777,7 @@
         <v>UC_T-OTH_CON00_Min_TRAGSE</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G40" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,$P$7,$P$11)</f>
@@ -6797,7 +4851,7 @@
         <v>UC_T-OTH_NEW_Min_TRANGB</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="G43" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,$P$9,$P$13)</f>
@@ -6807,7 +4861,7 @@
         <v>2018</v>
       </c>
       <c r="J43" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K43">
         <f>K44-1</f>
@@ -6839,7 +4893,7 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="G45" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,$P$9,$P$13)</f>
@@ -6849,7 +4903,7 @@
         <v>2030</v>
       </c>
       <c r="J45" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K45">
         <f>K46-1</f>
@@ -6895,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K47" s="21"/>
       <c r="L47" s="21">

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4A7955-DCC7-4BF4-86FD-C5F6FB3DA609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB2A086-C04A-4EC0-8933-8F420D243C47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
-    <sheet name="HET" sheetId="19" r:id="rId2"/>
+    <sheet name="PWR" sheetId="19" r:id="rId2"/>
     <sheet name="TRA" sheetId="2" r:id="rId3"/>
     <sheet name="UCT_TRA" sheetId="18" r:id="rId4"/>
     <sheet name="UPD_biogas" sheetId="11" r:id="rId5"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="126">
   <si>
     <t>UC_N</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>HETD</t>
+  </si>
+  <si>
+    <t>PWR-GEO</t>
+  </si>
+  <si>
+    <t>NCAP_BND</t>
   </si>
 </sst>
 </file>
@@ -768,7 +774,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1892,20 +1898,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE79BAD-EA44-47F0-A194-320DE6C9FB50}">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1933,7 +1942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>89</v>
       </c>
@@ -1945,6 +1954,77 @@
       </c>
       <c r="I4" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11" t="str">
+        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+        <v>IE</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
+        <v>National</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9">
+        <v>2018</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1956,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F400A99-9206-474A-A576-75E197FC564F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAF0C4B-C151-4BC2-9421-1B4F7008833B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,9 +389,6 @@
     <t>~TFM_INS</t>
   </si>
   <si>
-    <t>FT-*HET</t>
-  </si>
-  <si>
     <t>HETD</t>
   </si>
   <si>
@@ -399,6 +396,9 @@
   </si>
   <si>
     <t>NCAP_BND</t>
+  </si>
+  <si>
+    <t>FT-RSDHET</t>
   </si>
 </sst>
 </file>
@@ -1798,12 +1798,13 @@
   <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
@@ -1847,10 +1848,10 @@
         <v>88</v>
       </c>
       <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
         <v>90</v>
-      </c>
-      <c r="I4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -1892,7 +1893,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>2018</v>
@@ -1904,12 +1905,12 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1921,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAF0C4B-C151-4BC2-9421-1B4F7008833B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784374A4-F253-4288-B245-BE8ABC5505B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
-    <sheet name="PWR" sheetId="19" r:id="rId2"/>
-    <sheet name="UPD_biogas" sheetId="11" r:id="rId3"/>
-    <sheet name="UCT_biogas" sheetId="1" r:id="rId4"/>
+    <sheet name="AGR" sheetId="20" r:id="rId2"/>
+    <sheet name="PWR" sheetId="19" r:id="rId3"/>
+    <sheet name="UPD_biogas" sheetId="11" r:id="rId4"/>
+    <sheet name="UCT_biogas" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
   <si>
     <t>UC_N</t>
   </si>
@@ -399,6 +400,12 @@
   </si>
   <si>
     <t>FT-RSDHET</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>ABIOFRSR*</t>
   </si>
 </sst>
 </file>
@@ -1794,11 +1801,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FEE988-9CBB-45F8-B07F-A9EAC00FE4CD}">
+  <dimension ref="B2:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="str">
+        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+        <v>IE</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
+        <v>National</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4">
+        <v>2018</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE79BAD-EA44-47F0-A194-320DE6C9FB50}">
   <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,7 +2022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -2022,7 +2114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784374A4-F253-4288-B245-BE8ABC5505B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5665764E-01BC-4437-BFCF-4DA736CE4BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
-    <sheet name="AGR" sheetId="20" r:id="rId2"/>
+    <sheet name="IRE" sheetId="20" r:id="rId2"/>
     <sheet name="PWR" sheetId="19" r:id="rId3"/>
     <sheet name="UPD_biogas" sheetId="11" r:id="rId4"/>
     <sheet name="UCT_biogas" sheetId="1" r:id="rId5"/>
@@ -53,6 +53,29 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gary Goldstein</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{9C56C09D-A62A-49BE-9ADB-AE1288CDCD1F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
@@ -98,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
   <si>
     <t>UC_N</t>
   </si>
@@ -402,10 +425,19 @@
     <t>FT-RSDHET</t>
   </si>
   <si>
-    <t>ACT_BND</t>
-  </si>
-  <si>
-    <t>ABIOFRSR*</t>
+    <t>CAP_BND</t>
+  </si>
+  <si>
+    <t>IMPBIOWPE_S2</t>
+  </si>
+  <si>
+    <t>IMPBIOWPE_S3</t>
+  </si>
+  <si>
+    <t>IMPBIOWCH_S2</t>
+  </si>
+  <si>
+    <t>IMPBIOWCH_S3</t>
   </si>
 </sst>
 </file>
@@ -1801,21 +1833,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FEE988-9CBB-45F8-B07F-A9EAC00FE4CD}">
-  <dimension ref="B2:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A47D8E2-EF32-40FF-8372-26BFA87CC2D3}">
+  <dimension ref="B2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1828,60 +1866,166 @@
       <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="str">
+      <c r="F3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="11" t="str">
         <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
-      <c r="G3" s="11" t="str">
+      <c r="I3" s="11" t="str">
         <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
         <v>National</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>94</v>
       </c>
       <c r="E4">
         <v>2018</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6">
+        <v>2018</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8">
+        <v>2018</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10">
+        <v>2018</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1890,7 +2034,7 @@
   <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J10"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,7 +2171,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="B2" sqref="B2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5665764E-01BC-4437-BFCF-4DA736CE4BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A8252D-01DF-459C-A6EA-F1432614E087}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
-    <sheet name="IRE" sheetId="20" r:id="rId2"/>
-    <sheet name="PWR" sheetId="19" r:id="rId3"/>
-    <sheet name="UPD_biogas" sheetId="11" r:id="rId4"/>
-    <sheet name="UCT_biogas" sheetId="1" r:id="rId5"/>
+    <sheet name="SRV" sheetId="21" r:id="rId2"/>
+    <sheet name="RSD" sheetId="22" r:id="rId3"/>
+    <sheet name="PWR" sheetId="19" r:id="rId4"/>
+    <sheet name="UPD_biogas" sheetId="11" r:id="rId5"/>
+    <sheet name="UCT_biogas" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -58,7 +59,7 @@
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{9C56C09D-A62A-49BE-9ADB-AE1288CDCD1F}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{0021F6E5-21A7-4C1D-B1BF-8245492E85D8}">
       <text>
         <r>
           <rPr>
@@ -76,6 +77,29 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gary Goldstein</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{72AB0CFC-898D-4B3D-B9B0-FC3C4E8CA607}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
@@ -121,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
   <si>
     <t>UC_N</t>
   </si>
@@ -428,16 +452,22 @@
     <t>CAP_BND</t>
   </si>
   <si>
-    <t>IMPBIOWPE_S2</t>
-  </si>
-  <si>
-    <t>IMPBIOWPE_S3</t>
-  </si>
-  <si>
-    <t>IMPBIOWCH_S2</t>
-  </si>
-  <si>
-    <t>IMPBIOWCH_S3</t>
+    <t>* Unit</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>COMPVELC_01</t>
+  </si>
+  <si>
+    <t>R*SOL_HP*</t>
+  </si>
+  <si>
+    <t>R*_N2,R*_N3,-R*HP*,-R*HET*</t>
+  </si>
+  <si>
+    <t>P*WAV*</t>
   </si>
 </sst>
 </file>
@@ -555,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -622,6 +652,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -630,7 +671,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -660,6 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1833,16 +1875,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A47D8E2-EF32-40FF-8372-26BFA87CC2D3}">
-  <dimension ref="B2:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A155980F-6689-4ADE-B1F2-DEFB665B2049}">
+  <dimension ref="B2:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -1888,139 +1930,63 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4">
-        <v>2018</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="B4" s="20" t="s">
         <v>95</v>
       </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
       <c r="D5" t="s">
         <v>94</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <f>H5</f>
+        <v>0.1</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="s">
         <v>94</v>
       </c>
       <c r="E6">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f>H6</f>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="K7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8">
-        <v>2018</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10">
-        <v>2018</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="K11" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2030,11 +1996,102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB162A2-2D25-4675-8312-87FE93E3B4EE}">
+  <dimension ref="B2:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+        <v>IE</v>
+      </c>
+      <c r="I3" s="11" t="str">
+        <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
+        <v>National</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4">
+        <v>2200</v>
+      </c>
+      <c r="I4">
+        <f>H4</f>
+        <v>2200</v>
+      </c>
+      <c r="K4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5">
+        <v>2200</v>
+      </c>
+      <c r="I5">
+        <f>H5</f>
+        <v>2200</v>
+      </c>
+      <c r="K5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE79BAD-EA44-47F0-A194-320DE6C9FB50}">
-  <dimension ref="B2:M10"/>
+  <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,6 +2195,7 @@
         <v>0</v>
       </c>
       <c r="G9">
+        <f>F9</f>
         <v>0</v>
       </c>
       <c r="H9" t="s">
@@ -2155,10 +2213,26 @@
         <v>5</v>
       </c>
       <c r="G10">
+        <f>F10</f>
         <v>5</v>
       </c>
       <c r="H10" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <v>2200</v>
+      </c>
+      <c r="G11">
+        <f>F11</f>
+        <v>2200</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +2240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -2258,12 +2332,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A8252D-01DF-459C-A6EA-F1432614E087}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14ADDE3-EE2D-4ED1-8959-17E61522AD7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>UC_N</t>
   </si>
@@ -431,22 +431,13 @@
     <t>~TFM_TOPINS</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>~TFM_INS</t>
   </si>
   <si>
-    <t>HETD</t>
-  </si>
-  <si>
     <t>PWR-GEO</t>
   </si>
   <si>
     <t>NCAP_BND</t>
-  </si>
-  <si>
-    <t>FT-RSDHET</t>
   </si>
   <si>
     <t>CAP_BND</t>
@@ -1889,7 +1880,7 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
@@ -1931,7 +1922,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1939,10 +1930,10 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -1952,7 +1943,7 @@
         <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>2020</v>
@@ -1965,7 +1956,7 @@
         <v>0.1</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -1973,7 +1964,7 @@
         <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1986,7 +1977,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +1990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB162A2-2D25-4675-8312-87FE93E3B4EE}">
   <dimension ref="B2:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -2062,7 +2053,7 @@
         <v>2200</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -2077,7 +2068,7 @@
         <v>2200</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2088,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE79BAD-EA44-47F0-A194-320DE6C9FB50}">
-  <dimension ref="B2:M11"/>
+  <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,106 +2124,92 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F7" s="11" t="str">
         <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
-      <c r="G8" s="11" t="str">
+      <c r="G7" s="11" t="str">
         <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
         <v>National</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>2018</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <f>F9</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2200</v>
       </c>
       <c r="G10">
         <f>F10</f>
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11">
         <v>2200</v>
       </c>
-      <c r="G11">
-        <f>F11</f>
-        <v>2200</v>
-      </c>
-      <c r="I11" t="s">
-        <v>100</v>
+      <c r="I10" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14ADDE3-EE2D-4ED1-8959-17E61522AD7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290E222B-48E5-4A29-884B-2453F485C3FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -80,6 +80,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
+    <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{72AB0CFC-898D-4B3D-B9B0-FC3C4E8CA607}">
@@ -92,6 +93,20 @@
             <family val="2"/>
           </rPr>
           <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{6084453E-3A70-4BA0-9471-3F6909BFC378}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insert Table</t>
         </r>
       </text>
     </comment>
@@ -145,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="112">
   <si>
     <t>UC_N</t>
   </si>
@@ -460,12 +475,54 @@
   <si>
     <t>P*WAV*</t>
   </si>
+  <si>
+    <t>RSDCOA</t>
+  </si>
+  <si>
+    <t>RSDPEA</t>
+  </si>
+  <si>
+    <t>kt/PJ</t>
+  </si>
+  <si>
+    <t>RSDCO2</t>
+  </si>
+  <si>
+    <t>RSDCH4</t>
+  </si>
+  <si>
+    <t>RSDSO2N</t>
+  </si>
+  <si>
+    <t>RSDPM10</t>
+  </si>
+  <si>
+    <t>RSDPM25</t>
+  </si>
+  <si>
+    <t>RSDLPG</t>
+  </si>
+  <si>
+    <t>RSDKER</t>
+  </si>
+  <si>
+    <t>RSDGAS</t>
+  </si>
+  <si>
+    <t>Other_indexes</t>
+  </si>
+  <si>
+    <t>*Unit</t>
+  </si>
+  <si>
+    <t>FLO_EMIS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,8 +582,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,6 +656,12 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -662,7 +751,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -693,6 +782,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1988,10 +2084,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB162A2-2D25-4675-8312-87FE93E3B4EE}">
-  <dimension ref="B2:K5"/>
+  <dimension ref="B2:AK33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,7 +2095,7 @@
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
@@ -2007,7 +2103,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2041,7 +2137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>79</v>
       </c>
@@ -2056,7 +2152,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>79</v>
       </c>
@@ -2069,6 +2165,667 @@
       </c>
       <c r="K5" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+    </row>
+    <row r="10" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11" t="str">
+        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+        <v>IE</v>
+      </c>
+      <c r="G10" s="11" t="str">
+        <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
+        <v>National</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11">
+        <v>97.115822433347077</v>
+      </c>
+      <c r="G11" s="22">
+        <f>F11</f>
+        <v>97.115822433347077</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="22" t="str">
+        <f t="shared" ref="J11:J16" si="0">H11</f>
+        <v>RSDCOA</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12">
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" ref="G12:G33" si="1">F12</f>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>RSDCOA</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13">
+        <v>1.4999999999999998E-3</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999998E-3</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>RSDCOA</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14">
+        <v>0.31384830276066084</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="1"/>
+        <v>0.31384830276066084</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>RSDCOA</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D15" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15">
+        <v>0.30918718935332451</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="1"/>
+        <v>0.30918718935332451</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>RSDCOA</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D16" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16">
+        <v>104</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="22" t="str">
+        <f t="shared" ref="J16:J33" si="2">H16</f>
+        <v>RSDPEA</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDPEA</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18">
+        <v>1.4E-3</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="1"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDPEA</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19">
+        <v>63.7</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="1"/>
+        <v>63.7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDLPG</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDLPG</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21">
+        <v>1E-4</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="1"/>
+        <v>1E-4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDLPG</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22">
+        <v>3.609253890302349E-3</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="1"/>
+        <v>3.609253890302349E-3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDLPG</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23">
+        <v>3.609253890302349E-3</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="1"/>
+        <v>3.609253890302349E-3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDLPG</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="1"/>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="H24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDKER</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25">
+        <v>0.01</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="H25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDKER</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDKER</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27">
+        <v>3.1602980079786249E-3</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="1"/>
+        <v>3.1602980079786249E-3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDKER</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28">
+        <v>3.1602980079786249E-3</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="1"/>
+        <v>3.1602980079786249E-3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDKER</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="1"/>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="H29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDGAS</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="H30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" t="s">
+        <v>102</v>
+      </c>
+      <c r="J30" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDGAS</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDGAS</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32">
+        <v>3.1602980079786249E-3</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="1"/>
+        <v>3.1602980079786249E-3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDGAS</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33">
+        <v>3.1602980079786249E-3</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="1"/>
+        <v>3.1602980079786249E-3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>RSDGAS</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2081,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE79BAD-EA44-47F0-A194-320DE6C9FB50}">
   <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290E222B-48E5-4A29-884B-2453F485C3FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6857AB9-A8FC-4F63-90FF-4E3C19BBE5EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="114">
   <si>
     <t>UC_N</t>
   </si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>FLO_EMIS</t>
+  </si>
+  <si>
+    <t>P*CCS*</t>
+  </si>
+  <si>
+    <t>NCAP_ILED</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB162A2-2D25-4675-8312-87FE93E3B4EE}">
   <dimension ref="B2:AK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
@@ -2262,7 +2268,7 @@
         <v>101</v>
       </c>
       <c r="J11" s="22" t="str">
-        <f t="shared" ref="J11:J16" si="0">H11</f>
+        <f t="shared" ref="J11:J15" si="0">H11</f>
         <v>RSDCOA</v>
       </c>
       <c r="K11" s="25" t="s">
@@ -2836,10 +2842,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE79BAD-EA44-47F0-A194-320DE6C9FB50}">
-  <dimension ref="B2:M10"/>
+  <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,6 +2973,36 @@
       </c>
       <c r="I10" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <v>2030</v>
+      </c>
+      <c r="G11">
+        <f>F11</f>
+        <v>2030</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <f>F12</f>
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6857AB9-A8FC-4F63-90FF-4E3C19BBE5EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A1CEFE-43C7-415E-B2C7-9C404B84F0AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
     <sheet name="SRV" sheetId="21" r:id="rId2"/>
-    <sheet name="RSD" sheetId="22" r:id="rId3"/>
-    <sheet name="PWR" sheetId="19" r:id="rId4"/>
-    <sheet name="UPD_biogas" sheetId="11" r:id="rId5"/>
-    <sheet name="UCT_biogas" sheetId="1" r:id="rId6"/>
+    <sheet name="PWR" sheetId="19" r:id="rId3"/>
+    <sheet name="UPD_biogas" sheetId="11" r:id="rId4"/>
+    <sheet name="UCT_biogas" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -80,44 +79,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
-    <author>Maurizio Gargiulo</author>
-  </authors>
-  <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{72AB0CFC-898D-4B3D-B9B0-FC3C4E8CA607}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{6084453E-3A70-4BA0-9471-3F6909BFC378}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Insert Table</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Gary Goldstein</author>
   </authors>
   <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -160,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t>UC_N</t>
   </si>
@@ -467,55 +428,7 @@
     <t>COMPVELC_01</t>
   </si>
   <si>
-    <t>R*SOL_HP*</t>
-  </si>
-  <si>
-    <t>R*_N2,R*_N3,-R*HP*,-R*HET*</t>
-  </si>
-  <si>
     <t>P*WAV*</t>
-  </si>
-  <si>
-    <t>RSDCOA</t>
-  </si>
-  <si>
-    <t>RSDPEA</t>
-  </si>
-  <si>
-    <t>kt/PJ</t>
-  </si>
-  <si>
-    <t>RSDCO2</t>
-  </si>
-  <si>
-    <t>RSDCH4</t>
-  </si>
-  <si>
-    <t>RSDSO2N</t>
-  </si>
-  <si>
-    <t>RSDPM10</t>
-  </si>
-  <si>
-    <t>RSDPM25</t>
-  </si>
-  <si>
-    <t>RSDLPG</t>
-  </si>
-  <si>
-    <t>RSDKER</t>
-  </si>
-  <si>
-    <t>RSDGAS</t>
-  </si>
-  <si>
-    <t>Other_indexes</t>
-  </si>
-  <si>
-    <t>*Unit</t>
-  </si>
-  <si>
-    <t>FLO_EMIS</t>
   </si>
   <si>
     <t>P*CCS*</t>
@@ -528,7 +441,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,34 +501,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,12 +549,6 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -757,7 +638,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -788,13 +669,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2089,763 +1963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB162A2-2D25-4675-8312-87FE93E3B4EE}">
-  <dimension ref="B2:AK33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="11" t="str">
-        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
-        <v>IE</v>
-      </c>
-      <c r="I3" s="11" t="str">
-        <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
-        <v>National</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4">
-        <v>2200</v>
-      </c>
-      <c r="I4">
-        <f>H4</f>
-        <v>2200</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5">
-        <v>2200</v>
-      </c>
-      <c r="I5">
-        <f>H5</f>
-        <v>2200</v>
-      </c>
-      <c r="K5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-    </row>
-    <row r="10" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="11" t="str">
-        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
-        <v>IE</v>
-      </c>
-      <c r="G10" s="11" t="str">
-        <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
-        <v>National</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11">
-        <v>97.115822433347077</v>
-      </c>
-      <c r="G11" s="22">
-        <f>F11</f>
-        <v>97.115822433347077</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="22" t="str">
-        <f t="shared" ref="J11:J15" si="0">H11</f>
-        <v>RSDCOA</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12">
-        <v>0.29999999999999993</v>
-      </c>
-      <c r="G12" s="22">
-        <f t="shared" ref="G12:G33" si="1">F12</f>
-        <v>0.29999999999999993</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>RSDCOA</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13">
-        <v>1.4999999999999998E-3</v>
-      </c>
-      <c r="G13" s="22">
-        <f t="shared" si="1"/>
-        <v>1.4999999999999998E-3</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>RSDCOA</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14">
-        <v>0.31384830276066084</v>
-      </c>
-      <c r="G14" s="22">
-        <f t="shared" si="1"/>
-        <v>0.31384830276066084</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>RSDCOA</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="D15" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15">
-        <v>0.30918718935332451</v>
-      </c>
-      <c r="G15" s="22">
-        <f t="shared" si="1"/>
-        <v>0.30918718935332451</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>RSDCOA</v>
-      </c>
-      <c r="K15" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="D16" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16">
-        <v>104</v>
-      </c>
-      <c r="G16" s="22">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="22" t="str">
-        <f t="shared" ref="J16:J33" si="2">H16</f>
-        <v>RSDPEA</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17">
-        <v>0.3</v>
-      </c>
-      <c r="G17" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDPEA</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18">
-        <v>1.4E-3</v>
-      </c>
-      <c r="G18" s="22">
-        <f t="shared" si="1"/>
-        <v>1.4E-3</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDPEA</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19">
-        <v>63.7</v>
-      </c>
-      <c r="G19" s="22">
-        <f t="shared" si="1"/>
-        <v>63.7</v>
-      </c>
-      <c r="H19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDLPG</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G20" s="22">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" t="s">
-        <v>102</v>
-      </c>
-      <c r="J20" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDLPG</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21">
-        <v>1E-4</v>
-      </c>
-      <c r="G21" s="22">
-        <f t="shared" si="1"/>
-        <v>1E-4</v>
-      </c>
-      <c r="H21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDLPG</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22">
-        <v>3.609253890302349E-3</v>
-      </c>
-      <c r="G22" s="22">
-        <f t="shared" si="1"/>
-        <v>3.609253890302349E-3</v>
-      </c>
-      <c r="H22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDLPG</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23">
-        <v>3.609253890302349E-3</v>
-      </c>
-      <c r="G23" s="22">
-        <f t="shared" si="1"/>
-        <v>3.609253890302349E-3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDLPG</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="G24" s="22">
-        <f t="shared" si="1"/>
-        <v>71.400000000000006</v>
-      </c>
-      <c r="H24" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J24" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDKER</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25">
-        <v>0.01</v>
-      </c>
-      <c r="G25" s="22">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="H25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDKER</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="G26" s="22">
-        <f t="shared" si="1"/>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="H26" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDKER</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27">
-        <v>3.1602980079786249E-3</v>
-      </c>
-      <c r="G27" s="22">
-        <f t="shared" si="1"/>
-        <v>3.1602980079786249E-3</v>
-      </c>
-      <c r="H27" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" t="s">
-        <v>104</v>
-      </c>
-      <c r="J27" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDKER</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28">
-        <v>3.1602980079786249E-3</v>
-      </c>
-      <c r="G28" s="22">
-        <f t="shared" si="1"/>
-        <v>3.1602980079786249E-3</v>
-      </c>
-      <c r="H28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDKER</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="G29" s="22">
-        <f t="shared" si="1"/>
-        <v>71.400000000000006</v>
-      </c>
-      <c r="H29" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" t="s">
-        <v>101</v>
-      </c>
-      <c r="J29" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDGAS</v>
-      </c>
-      <c r="K29" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30">
-        <v>0.01</v>
-      </c>
-      <c r="G30" s="22">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="H30" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" t="s">
-        <v>102</v>
-      </c>
-      <c r="J30" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDGAS</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="G31" s="22">
-        <f t="shared" si="1"/>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="H31" t="s">
-        <v>108</v>
-      </c>
-      <c r="I31" t="s">
-        <v>103</v>
-      </c>
-      <c r="J31" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDGAS</v>
-      </c>
-      <c r="K31" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32">
-        <v>3.1602980079786249E-3</v>
-      </c>
-      <c r="G32" s="22">
-        <f t="shared" si="1"/>
-        <v>3.1602980079786249E-3</v>
-      </c>
-      <c r="H32" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" t="s">
-        <v>104</v>
-      </c>
-      <c r="J32" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDGAS</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33">
-        <v>3.1602980079786249E-3</v>
-      </c>
-      <c r="G33" s="22">
-        <f t="shared" si="1"/>
-        <v>3.1602980079786249E-3</v>
-      </c>
-      <c r="H33" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>RSDGAS</v>
-      </c>
-      <c r="K33" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE79BAD-EA44-47F0-A194-320DE6C9FB50}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,7 +2094,7 @@
         <v>2200</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -2987,12 +2109,12 @@
         <v>2030</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3002,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3010,11 +2132,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:K4"/>
     </sheetView>
   </sheetViews>
@@ -3102,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A1CEFE-43C7-415E-B2C7-9C404B84F0AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605D7264-5DD7-406C-AC0B-49C1DF37BEEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
     <sheet name="SRV" sheetId="21" r:id="rId2"/>
     <sheet name="PWR" sheetId="19" r:id="rId3"/>
     <sheet name="UPD_biogas" sheetId="11" r:id="rId4"/>
-    <sheet name="UCT_biogas" sheetId="1" r:id="rId5"/>
+    <sheet name="RSD" sheetId="22" r:id="rId5"/>
+    <sheet name="UCT_biogas" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -121,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
   <si>
     <t>UC_N</t>
   </si>
@@ -435,6 +436,48 @@
   </si>
   <si>
     <t>NCAP_ILED</t>
+  </si>
+  <si>
+    <t>R-BLD_AptN1,R-RTFT-Apt*</t>
+  </si>
+  <si>
+    <t>UC_CAP</t>
+  </si>
+  <si>
+    <t>RSDSH_Apt</t>
+  </si>
+  <si>
+    <t>R*HPN*,-R*GAS*</t>
+  </si>
+  <si>
+    <t>temp_UC_HP-CAP_RSD-DET</t>
+  </si>
+  <si>
+    <t>temp_UC_HP-CAP_RSD-ATT</t>
+  </si>
+  <si>
+    <t>temp_UC_HP-CAP_RSD-APT</t>
+  </si>
+  <si>
+    <t>R-BLD_DetN1,R-RTFT-Det*</t>
+  </si>
+  <si>
+    <t>R-BLD_AttN1,R-RTFT-Att*</t>
+  </si>
+  <si>
+    <t>RSDSH_Att</t>
+  </si>
+  <si>
+    <t>RSDSH_Det</t>
+  </si>
+  <si>
+    <t>Capacity of HPs is constrained by new and retrofitted apartments</t>
+  </si>
+  <si>
+    <t>Capacity of HPs is constrained by new and retrofitted attached buildings</t>
+  </si>
+  <si>
+    <t>Capacity of HPs is constrained by new and retrofitted detached buildings</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:K4"/>
     </sheetView>
   </sheetViews>
@@ -2225,11 +2268,232 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CF89D-3AC9-4E2E-BCF6-79A710F8BD8A}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="str">
+        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3:D3)</f>
+        <v>~UC_Sets: R_E: IE,National</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6">
+        <v>2020</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>2020</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9">
+        <v>2020</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10">
+        <v>2020</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12">
+        <v>2020</v>
+      </c>
+      <c r="I12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13">
+        <v>2020</v>
+      </c>
+      <c r="J13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection sqref="A1:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605D7264-5DD7-406C-AC0B-49C1DF37BEEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E8525F-5AC9-47FA-A964-2D9986DF5510}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -2272,7 +2272,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,13 +2350,13 @@
         <v>98</v>
       </c>
       <c r="H6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I6" t="s">
         <v>83</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2373,10 +2373,10 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2398,13 +2398,13 @@
         <v>106</v>
       </c>
       <c r="H9">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I9" t="s">
         <v>83</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>107</v>
       </c>
       <c r="H10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2443,13 +2443,13 @@
         <v>105</v>
       </c>
       <c r="H12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I12" t="s">
         <v>83</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>108</v>
       </c>
       <c r="H13">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -5,20 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-IE\main-40\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E8525F-5AC9-47FA-A964-2D9986DF5510}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61199A89-F648-496C-85CA-F1179FD7BCD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
     <sheet name="SRV" sheetId="21" r:id="rId2"/>
     <sheet name="PWR" sheetId="19" r:id="rId3"/>
     <sheet name="UPD_biogas" sheetId="11" r:id="rId4"/>
-    <sheet name="RSD" sheetId="22" r:id="rId5"/>
-    <sheet name="UCT_biogas" sheetId="1" r:id="rId6"/>
+    <sheet name="UCT_biogas" sheetId="1" r:id="rId5"/>
+    <sheet name="RSD" sheetId="22" r:id="rId6"/>
+    <sheet name="DataFill" sheetId="23" r:id="rId7"/>
+    <sheet name="RSDAFC" sheetId="25" r:id="rId8"/>
+    <sheet name="RSDAFA" sheetId="24" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -99,6 +102,29 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gary Goldstein</author>
+  </authors>
+  <commentList>
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{9FF5C6AC-B75C-4529-857A-E9C78B6E0755}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -122,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="217">
   <si>
     <t>UC_N</t>
   </si>
@@ -479,12 +505,330 @@
   <si>
     <t>Capacity of HPs is constrained by new and retrofitted detached buildings</t>
   </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
+  </si>
+  <si>
+    <t>R-*_*N*</t>
+  </si>
+  <si>
+    <t>RSDSH*,RSDWH*</t>
+  </si>
+  <si>
+    <t>NCAP_AFA</t>
+  </si>
+  <si>
+    <t>NCAP_AFC</t>
+  </si>
+  <si>
+    <t>-NCAP_AFA</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_ELC_HPN1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_ELC_HPN2</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_ELC_HPN3</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_ELC_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_GAS_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_KER_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_LPG_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_WOO_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Att_ELC_HPN1</t>
+  </si>
+  <si>
+    <t>R-SH_Att_ELC_HPN2</t>
+  </si>
+  <si>
+    <t>R-SH_Att_ELC_HPN3</t>
+  </si>
+  <si>
+    <t>R-SH_Att_ELC_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Att_GAS_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Att_KER_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Att_LPG_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Att_WOO_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Det_ELC_HPN1</t>
+  </si>
+  <si>
+    <t>R-SH_Det_ELC_HPN2</t>
+  </si>
+  <si>
+    <t>R-SH_Det_ELC_HPN3</t>
+  </si>
+  <si>
+    <t>R-SH_Det_ELC_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Det_GAS_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Det_KER_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Det_LPG_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Det_WOO_N1</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_ELC_N1</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_SOL_N1</t>
+  </si>
+  <si>
+    <t>R-WH_Att_ELC_N1</t>
+  </si>
+  <si>
+    <t>R-WH_Att_SOL_N1</t>
+  </si>
+  <si>
+    <t>R-WH_Det_ELC_N1</t>
+  </si>
+  <si>
+    <t>R-WH_Det_SOL_N1</t>
+  </si>
+  <si>
+    <t>R-HC_Apt_ELC_HPN1</t>
+  </si>
+  <si>
+    <t>RSDSC_Apt</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>R-HC_Apt_ELC_HPN2</t>
+  </si>
+  <si>
+    <t>R-HC_Att_ELC_HPN1</t>
+  </si>
+  <si>
+    <t>RSDSC_Att</t>
+  </si>
+  <si>
+    <t>R-HC_Att_ELC_HPN2</t>
+  </si>
+  <si>
+    <t>R-HC_Det_ELC_HPN1</t>
+  </si>
+  <si>
+    <t>RSDSC_Det</t>
+  </si>
+  <si>
+    <t>R-HC_Det_ELC_HPN2</t>
+  </si>
+  <si>
+    <t>R-SW_Apt_ELC_HPN1</t>
+  </si>
+  <si>
+    <t>RSDWH_Att</t>
+  </si>
+  <si>
+    <t>R-SW_Apt_GAS_HHPN1</t>
+  </si>
+  <si>
+    <t>R-SW_Apt_GAS_HPN1</t>
+  </si>
+  <si>
+    <t>R-SW_Apt_GAS_HPN2</t>
+  </si>
+  <si>
+    <t>R-SW_Apt_GAS_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Apt_HET_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Apt_HET_N2</t>
+  </si>
+  <si>
+    <t>R-SW_Apt_KER_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Apt_LPG_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Apt_WOO_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Att_ELC_HPN1</t>
+  </si>
+  <si>
+    <t>R-SW_Att_ELC_HPN2</t>
+  </si>
+  <si>
+    <t>R-SW_Att_GAS_HHPN1</t>
+  </si>
+  <si>
+    <t>R-SW_Att_GAS_HPN1</t>
+  </si>
+  <si>
+    <t>R-SW_Att_GAS_HPN2</t>
+  </si>
+  <si>
+    <t>R-SW_Att_GAS_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Att_GAS_N2</t>
+  </si>
+  <si>
+    <t>R-SW_Att_GAS_N3</t>
+  </si>
+  <si>
+    <t>R-SW_Att_HET_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Att_HET_N2</t>
+  </si>
+  <si>
+    <t>R-SW_Att_KER_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Att_KER_N2</t>
+  </si>
+  <si>
+    <t>R-SW_Att_KER_N3</t>
+  </si>
+  <si>
+    <t>R-SW_Att_LPG_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Att_WOO_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Det_ELC_HPN1</t>
+  </si>
+  <si>
+    <t>RSDWH_Det</t>
+  </si>
+  <si>
+    <t>R-SW_Det_ELC_HPN2</t>
+  </si>
+  <si>
+    <t>R-SW_Det_GAS_HHPN1</t>
+  </si>
+  <si>
+    <t>R-SW_Det_GAS_HPN1</t>
+  </si>
+  <si>
+    <t>R-SW_Det_GAS_HPN2</t>
+  </si>
+  <si>
+    <t>R-SW_Det_GAS_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Det_GAS_N2</t>
+  </si>
+  <si>
+    <t>R-SW_Det_GAS_N3</t>
+  </si>
+  <si>
+    <t>R-SW_Det_HET_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Det_HET_N2</t>
+  </si>
+  <si>
+    <t>R-SW_Det_KER_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Det_KER_N2</t>
+  </si>
+  <si>
+    <t>R-SW_Det_KER_N3</t>
+  </si>
+  <si>
+    <t>R-SW_Det_LPG_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Det_WOO_N1</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>TFM_Fill-R: w=RSDAFA; Hcol=Region</t>
+  </si>
+  <si>
+    <t>TFM_Fill-R: w=RSDAFC; Hcol=Region</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,8 +888,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,8 +959,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -673,15 +1044,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -712,12 +1096,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 10 2 2" xfId="3" xr:uid="{37B46EBE-EF20-49A2-A463-672D32AF03AC}"/>
+    <cellStyle name="Normal 10 2 2 2 2 2" xfId="5" xr:uid="{A70162DC-00AC-4550-9FB7-3819B5C20A2D}"/>
     <cellStyle name="Normal 2 7" xfId="4" xr:uid="{DA800421-6BC0-4388-9423-B44570E10F15}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{FA5C554E-3258-4EDB-A5A0-74954872F0C7}"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -762,7 +1165,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2268,227 +2671,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CF89D-3AC9-4E2E-BCF6-79A710F8BD8A}">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="str">
-        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3:D3)</f>
-        <v>~UC_Sets: R_E: IE,National</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6">
-        <v>2019</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6">
-        <v>-1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>2019</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9">
-        <v>2019</v>
-      </c>
-      <c r="I9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9">
-        <v>-1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10">
-        <v>2019</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12">
-        <v>2019</v>
-      </c>
-      <c r="I12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12">
-        <v>-1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13">
-        <v>2019</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -2597,4 +2779,8074 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CF89D-3AC9-4E2E-BCF6-79A710F8BD8A}">
+  <dimension ref="A1:M162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="str">
+        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3:D3)</f>
+        <v>~UC_Sets: R_E: IE,National</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6">
+        <v>2019</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>2019</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9">
+        <v>2019</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10">
+        <v>2019</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12">
+        <v>2019</v>
+      </c>
+      <c r="I12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13">
+        <v>2019</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11" t="str">
+        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+        <v>IE</v>
+      </c>
+      <c r="I21" s="11" t="str">
+        <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
+        <v>National</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22" s="26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="27">
+        <f>RSDAFC!L2*$M$22</f>
+        <v>2.4813655183930803E-3</v>
+      </c>
+      <c r="I23" s="27">
+        <f>RSDAFC!M2*$M$22</f>
+        <v>2.4813655183930803E-3</v>
+      </c>
+      <c r="K23" t="str">
+        <f>RSDAFC!C2</f>
+        <v>R-HC_Apt_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="27">
+        <f>RSDAFC!L3*$M$22</f>
+        <v>2.4813655183930803E-3</v>
+      </c>
+      <c r="I24" s="27">
+        <f>RSDAFC!M3*$M$22</f>
+        <v>2.4813655183930803E-3</v>
+      </c>
+      <c r="K24" t="str">
+        <f>RSDAFC!C3</f>
+        <v>R-HC_Apt_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="27">
+        <f>RSDAFC!L4*$M$22</f>
+        <v>2.4813655183930803E-3</v>
+      </c>
+      <c r="I25" s="27">
+        <f>RSDAFC!M4*$M$22</f>
+        <v>2.4813655183930803E-3</v>
+      </c>
+      <c r="K25" t="str">
+        <f>RSDAFC!C4</f>
+        <v>R-HC_Apt_ELC_HPN2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="27">
+        <f>RSDAFC!L5*$M$22</f>
+        <v>2.4813655183930803E-3</v>
+      </c>
+      <c r="I26" s="27">
+        <f>RSDAFC!M5*$M$22</f>
+        <v>2.4813655183930803E-3</v>
+      </c>
+      <c r="K26" t="str">
+        <f>RSDAFC!C5</f>
+        <v>R-HC_Apt_ELC_HPN2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="27">
+        <f>RSDAFC!L6*$M$22</f>
+        <v>1.73685782056223E-3</v>
+      </c>
+      <c r="I27" s="27">
+        <f>RSDAFC!M6*$M$22</f>
+        <v>1.73685782056223E-3</v>
+      </c>
+      <c r="K27" t="str">
+        <f>RSDAFC!C6</f>
+        <v>R-HC_Att_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="27">
+        <f>RSDAFC!L7*$M$22</f>
+        <v>1.73685782056223E-3</v>
+      </c>
+      <c r="I28" s="27">
+        <f>RSDAFC!M7*$M$22</f>
+        <v>1.73685782056223E-3</v>
+      </c>
+      <c r="K28" t="str">
+        <f>RSDAFC!C7</f>
+        <v>R-HC_Att_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="27">
+        <f>RSDAFC!L8*$M$22</f>
+        <v>1.73685782056223E-3</v>
+      </c>
+      <c r="I29" s="27">
+        <f>RSDAFC!M8*$M$22</f>
+        <v>1.73685782056223E-3</v>
+      </c>
+      <c r="K29" t="str">
+        <f>RSDAFC!C8</f>
+        <v>R-HC_Att_ELC_HPN2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="27">
+        <f>RSDAFC!L9*$M$22</f>
+        <v>1.73685782056223E-3</v>
+      </c>
+      <c r="I30" s="27">
+        <f>RSDAFC!M9*$M$22</f>
+        <v>1.73685782056223E-3</v>
+      </c>
+      <c r="K30" t="str">
+        <f>RSDAFC!C9</f>
+        <v>R-HC_Att_ELC_HPN2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="27">
+        <f>RSDAFC!L10*$M$22</f>
+        <v>3.1787011567387803E-3</v>
+      </c>
+      <c r="I31" s="27">
+        <f>RSDAFC!M10*$M$22</f>
+        <v>3.1787011567387803E-3</v>
+      </c>
+      <c r="K31" t="str">
+        <f>RSDAFC!C10</f>
+        <v>R-HC_Det_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="27">
+        <f>RSDAFC!L11*$M$22</f>
+        <v>3.1787011567387803E-3</v>
+      </c>
+      <c r="I32" s="27">
+        <f>RSDAFC!M11*$M$22</f>
+        <v>3.1787011567387803E-3</v>
+      </c>
+      <c r="K32" t="str">
+        <f>RSDAFC!C11</f>
+        <v>R-HC_Det_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="27">
+        <f>RSDAFC!L12*$M$22</f>
+        <v>3.1787011567387803E-3</v>
+      </c>
+      <c r="I33" s="27">
+        <f>RSDAFC!M12*$M$22</f>
+        <v>3.1787011567387803E-3</v>
+      </c>
+      <c r="K33" t="str">
+        <f>RSDAFC!C12</f>
+        <v>R-HC_Det_ELC_HPN2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="27">
+        <f>RSDAFC!L13*$M$22</f>
+        <v>3.1787011567387803E-3</v>
+      </c>
+      <c r="I34" s="27">
+        <f>RSDAFC!M13*$M$22</f>
+        <v>3.1787011567387803E-3</v>
+      </c>
+      <c r="K34" t="str">
+        <f>RSDAFC!C13</f>
+        <v>R-HC_Det_ELC_HPN2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="27">
+        <f>RSDAFC!L14*$M$22</f>
+        <v>2.0960831834076401E-3</v>
+      </c>
+      <c r="I35" s="27">
+        <f>RSDAFC!M14*$M$22</f>
+        <v>2.0960831834076401E-3</v>
+      </c>
+      <c r="K35" t="str">
+        <f>RSDAFC!C14</f>
+        <v>R-SW_Apt_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="27">
+        <f>RSDAFC!L15*$M$22</f>
+        <v>2.0960831834076401E-3</v>
+      </c>
+      <c r="I36" s="27">
+        <f>RSDAFC!M15*$M$22</f>
+        <v>2.0960831834076401E-3</v>
+      </c>
+      <c r="K36" t="str">
+        <f>RSDAFC!C15</f>
+        <v>R-SW_Apt_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="27">
+        <f>RSDAFC!L16*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="I37" s="27">
+        <f>RSDAFC!M16*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="K37" t="str">
+        <f>RSDAFC!C16</f>
+        <v>R-SW_Apt_GAS_HHPN1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="27">
+        <f>RSDAFC!L17*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="I38" s="27">
+        <f>RSDAFC!M17*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="K38" t="str">
+        <f>RSDAFC!C17</f>
+        <v>R-SW_Apt_GAS_HHPN1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="27">
+        <f>RSDAFC!L18*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="I39" s="27">
+        <f>RSDAFC!M18*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="K39" t="str">
+        <f>RSDAFC!C18</f>
+        <v>R-SW_Apt_GAS_HPN1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="27">
+        <f>RSDAFC!L19*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="I40" s="27">
+        <f>RSDAFC!M19*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="K40" t="str">
+        <f>RSDAFC!C19</f>
+        <v>R-SW_Apt_GAS_HPN1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="27">
+        <f>RSDAFC!L20*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="I41" s="27">
+        <f>RSDAFC!M20*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="K41" t="str">
+        <f>RSDAFC!C20</f>
+        <v>R-SW_Apt_GAS_HPN2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="27">
+        <f>RSDAFC!L21*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="I42" s="27">
+        <f>RSDAFC!M21*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="K42" t="str">
+        <f>RSDAFC!C21</f>
+        <v>R-SW_Apt_GAS_HPN2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" s="27">
+        <f>RSDAFC!L22*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="I43" s="27">
+        <f>RSDAFC!M22*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="K43" t="str">
+        <f>RSDAFC!C22</f>
+        <v>R-SW_Apt_GAS_N1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="27">
+        <f>RSDAFC!L23*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="I44" s="27">
+        <f>RSDAFC!M23*$M$22</f>
+        <v>9.4795012067416709E-4</v>
+      </c>
+      <c r="K44" t="str">
+        <f>RSDAFC!C23</f>
+        <v>R-SW_Apt_GAS_N1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="27">
+        <f>RSDAFC!L24*$M$22</f>
+        <v>7.086978367280051E-5</v>
+      </c>
+      <c r="I45" s="27">
+        <f>RSDAFC!M24*$M$22</f>
+        <v>7.086978367280051E-5</v>
+      </c>
+      <c r="K45" t="str">
+        <f>RSDAFC!C24</f>
+        <v>R-SW_Apt_HET_N1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="27">
+        <f>RSDAFC!L25*$M$22</f>
+        <v>7.086978367280051E-5</v>
+      </c>
+      <c r="I46" s="27">
+        <f>RSDAFC!M25*$M$22</f>
+        <v>7.086978367280051E-5</v>
+      </c>
+      <c r="K46" t="str">
+        <f>RSDAFC!C25</f>
+        <v>R-SW_Apt_HET_N1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="27">
+        <f>RSDAFC!L26*$M$22</f>
+        <v>7.086978367280051E-5</v>
+      </c>
+      <c r="I47" s="27">
+        <f>RSDAFC!M26*$M$22</f>
+        <v>7.086978367280051E-5</v>
+      </c>
+      <c r="K47" t="str">
+        <f>RSDAFC!C26</f>
+        <v>R-SW_Apt_HET_N2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" s="27">
+        <f>RSDAFC!L27*$M$22</f>
+        <v>7.086978367280051E-5</v>
+      </c>
+      <c r="I48" s="27">
+        <f>RSDAFC!M27*$M$22</f>
+        <v>7.086978367280051E-5</v>
+      </c>
+      <c r="K48" t="str">
+        <f>RSDAFC!C27</f>
+        <v>R-SW_Apt_HET_N2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="27">
+        <f>RSDAFC!L28*$M$22</f>
+        <v>2.3986004381018502E-3</v>
+      </c>
+      <c r="I49" s="27">
+        <f>RSDAFC!M28*$M$22</f>
+        <v>2.3986004381018502E-3</v>
+      </c>
+      <c r="K49" t="str">
+        <f>RSDAFC!C28</f>
+        <v>R-SW_Apt_KER_N1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="27">
+        <f>RSDAFC!L29*$M$22</f>
+        <v>2.3986004381018502E-3</v>
+      </c>
+      <c r="I50" s="27">
+        <f>RSDAFC!M29*$M$22</f>
+        <v>2.3986004381018502E-3</v>
+      </c>
+      <c r="K50" t="str">
+        <f>RSDAFC!C29</f>
+        <v>R-SW_Apt_KER_N1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51" s="27">
+        <f>RSDAFC!L30*$M$22</f>
+        <v>1.78079112619931E-3</v>
+      </c>
+      <c r="I51" s="27">
+        <f>RSDAFC!M30*$M$22</f>
+        <v>1.78079112619931E-3</v>
+      </c>
+      <c r="K51" t="str">
+        <f>RSDAFC!C30</f>
+        <v>R-SW_Apt_LPG_N1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" s="27">
+        <f>RSDAFC!L31*$M$22</f>
+        <v>1.78079112619931E-3</v>
+      </c>
+      <c r="I52" s="27">
+        <f>RSDAFC!M31*$M$22</f>
+        <v>1.78079112619931E-3</v>
+      </c>
+      <c r="K52" t="str">
+        <f>RSDAFC!C31</f>
+        <v>R-SW_Apt_LPG_N1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" s="27">
+        <f>RSDAFC!L32*$M$22</f>
+        <v>1.3703890127892201E-3</v>
+      </c>
+      <c r="I53" s="27">
+        <f>RSDAFC!M32*$M$22</f>
+        <v>1.3703890127892201E-3</v>
+      </c>
+      <c r="K53" t="str">
+        <f>RSDAFC!C32</f>
+        <v>R-SW_Apt_WOO_N1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="27">
+        <f>RSDAFC!L33*$M$22</f>
+        <v>1.3703890127892201E-3</v>
+      </c>
+      <c r="I54" s="27">
+        <f>RSDAFC!M33*$M$22</f>
+        <v>1.3703890127892201E-3</v>
+      </c>
+      <c r="K54" t="str">
+        <f>RSDAFC!C33</f>
+        <v>R-SW_Apt_WOO_N1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55" s="27">
+        <f>RSDAFC!L34*$M$22</f>
+        <v>1.87904155250764E-3</v>
+      </c>
+      <c r="I55" s="27">
+        <f>RSDAFC!M34*$M$22</f>
+        <v>1.87904155250764E-3</v>
+      </c>
+      <c r="K55" t="str">
+        <f>RSDAFC!C34</f>
+        <v>R-SW_Att_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" s="27">
+        <f>RSDAFC!L35*$M$22</f>
+        <v>1.87904155250764E-3</v>
+      </c>
+      <c r="I56" s="27">
+        <f>RSDAFC!M35*$M$22</f>
+        <v>1.87904155250764E-3</v>
+      </c>
+      <c r="K56" t="str">
+        <f>RSDAFC!C35</f>
+        <v>R-SW_Att_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57" s="27">
+        <f>RSDAFC!L36*$M$22</f>
+        <v>1.87904155250764E-3</v>
+      </c>
+      <c r="I57" s="27">
+        <f>RSDAFC!M36*$M$22</f>
+        <v>1.87904155250764E-3</v>
+      </c>
+      <c r="K57" t="str">
+        <f>RSDAFC!C36</f>
+        <v>R-SW_Att_ELC_HPN2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" s="27">
+        <f>RSDAFC!L37*$M$22</f>
+        <v>1.87904155250764E-3</v>
+      </c>
+      <c r="I58" s="27">
+        <f>RSDAFC!M37*$M$22</f>
+        <v>1.87904155250764E-3</v>
+      </c>
+      <c r="K58" t="str">
+        <f>RSDAFC!C37</f>
+        <v>R-SW_Att_ELC_HPN2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" s="27">
+        <f>RSDAFC!L38*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="I59" s="27">
+        <f>RSDAFC!M38*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="K59" t="str">
+        <f>RSDAFC!C38</f>
+        <v>R-SW_Att_GAS_HHPN1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60" s="27">
+        <f>RSDAFC!L39*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="I60" s="27">
+        <f>RSDAFC!M39*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="K60" t="str">
+        <f>RSDAFC!C39</f>
+        <v>R-SW_Att_GAS_HHPN1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="27">
+        <f>RSDAFC!L40*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="I61" s="27">
+        <f>RSDAFC!M40*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="K61" t="str">
+        <f>RSDAFC!C40</f>
+        <v>R-SW_Att_GAS_HPN1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H62" s="27">
+        <f>RSDAFC!L41*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="I62" s="27">
+        <f>RSDAFC!M41*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="K62" t="str">
+        <f>RSDAFC!C41</f>
+        <v>R-SW_Att_GAS_HPN1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" s="27">
+        <f>RSDAFC!L42*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="I63" s="27">
+        <f>RSDAFC!M42*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="K63" t="str">
+        <f>RSDAFC!C42</f>
+        <v>R-SW_Att_GAS_HPN2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" t="s">
+        <v>116</v>
+      </c>
+      <c r="H64" s="27">
+        <f>RSDAFC!L43*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="I64" s="27">
+        <f>RSDAFC!M43*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="K64" t="str">
+        <f>RSDAFC!C43</f>
+        <v>R-SW_Att_GAS_HPN2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H65" s="27">
+        <f>RSDAFC!L44*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="I65" s="27">
+        <f>RSDAFC!M44*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="K65" t="str">
+        <f>RSDAFC!C44</f>
+        <v>R-SW_Att_GAS_N1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" s="27">
+        <f>RSDAFC!L45*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="I66" s="27">
+        <f>RSDAFC!M45*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="K66" t="str">
+        <f>RSDAFC!C45</f>
+        <v>R-SW_Att_GAS_N1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>116</v>
+      </c>
+      <c r="H67" s="27">
+        <f>RSDAFC!L46*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="I67" s="27">
+        <f>RSDAFC!M46*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="K67" t="str">
+        <f>RSDAFC!C46</f>
+        <v>R-SW_Att_GAS_N2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" t="s">
+        <v>116</v>
+      </c>
+      <c r="H68" s="27">
+        <f>RSDAFC!L47*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="I68" s="27">
+        <f>RSDAFC!M47*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="K68" t="str">
+        <f>RSDAFC!C47</f>
+        <v>R-SW_Att_GAS_N2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" s="27">
+        <f>RSDAFC!L48*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="I69" s="27">
+        <f>RSDAFC!M48*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="K69" t="str">
+        <f>RSDAFC!C48</f>
+        <v>R-SW_Att_GAS_N3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" t="s">
+        <v>116</v>
+      </c>
+      <c r="H70" s="27">
+        <f>RSDAFC!L49*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="I70" s="27">
+        <f>RSDAFC!M49*$M$22</f>
+        <v>1.5651300362142602E-3</v>
+      </c>
+      <c r="K70" t="str">
+        <f>RSDAFC!C49</f>
+        <v>R-SW_Att_GAS_N3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" s="27">
+        <f>RSDAFC!L50*$M$22</f>
+        <v>7.5978921044014098E-4</v>
+      </c>
+      <c r="I71" s="27">
+        <f>RSDAFC!M50*$M$22</f>
+        <v>7.5978921044014098E-4</v>
+      </c>
+      <c r="K71" t="str">
+        <f>RSDAFC!C50</f>
+        <v>R-SW_Att_HET_N1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" t="s">
+        <v>116</v>
+      </c>
+      <c r="H72" s="27">
+        <f>RSDAFC!L51*$M$22</f>
+        <v>7.5978921044014098E-4</v>
+      </c>
+      <c r="I72" s="27">
+        <f>RSDAFC!M51*$M$22</f>
+        <v>7.5978921044014098E-4</v>
+      </c>
+      <c r="K72" t="str">
+        <f>RSDAFC!C51</f>
+        <v>R-SW_Att_HET_N1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" t="s">
+        <v>116</v>
+      </c>
+      <c r="H73" s="27">
+        <f>RSDAFC!L52*$M$22</f>
+        <v>7.5978921044014098E-4</v>
+      </c>
+      <c r="I73" s="27">
+        <f>RSDAFC!M52*$M$22</f>
+        <v>7.5978921044014098E-4</v>
+      </c>
+      <c r="K73" t="str">
+        <f>RSDAFC!C52</f>
+        <v>R-SW_Att_HET_N2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" s="27">
+        <f>RSDAFC!L53*$M$22</f>
+        <v>7.5978921044014098E-4</v>
+      </c>
+      <c r="I74" s="27">
+        <f>RSDAFC!M53*$M$22</f>
+        <v>7.5978921044014098E-4</v>
+      </c>
+      <c r="K74" t="str">
+        <f>RSDAFC!C53</f>
+        <v>R-SW_Att_HET_N2</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" s="27">
+        <f>RSDAFC!L54*$M$22</f>
+        <v>1.9679944818874E-3</v>
+      </c>
+      <c r="I75" s="27">
+        <f>RSDAFC!M54*$M$22</f>
+        <v>1.9679944818874E-3</v>
+      </c>
+      <c r="K75" t="str">
+        <f>RSDAFC!C54</f>
+        <v>R-SW_Att_KER_N1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" t="s">
+        <v>116</v>
+      </c>
+      <c r="H76" s="27">
+        <f>RSDAFC!L55*$M$22</f>
+        <v>1.9679944818874E-3</v>
+      </c>
+      <c r="I76" s="27">
+        <f>RSDAFC!M55*$M$22</f>
+        <v>1.9679944818874E-3</v>
+      </c>
+      <c r="K76" t="str">
+        <f>RSDAFC!C55</f>
+        <v>R-SW_Att_KER_N1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" s="27">
+        <f>RSDAFC!L56*$M$22</f>
+        <v>1.9679944818874E-3</v>
+      </c>
+      <c r="I77" s="27">
+        <f>RSDAFC!M56*$M$22</f>
+        <v>1.9679944818874E-3</v>
+      </c>
+      <c r="K77" t="str">
+        <f>RSDAFC!C56</f>
+        <v>R-SW_Att_KER_N2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" t="s">
+        <v>116</v>
+      </c>
+      <c r="H78" s="27">
+        <f>RSDAFC!L57*$M$22</f>
+        <v>1.9679944818874E-3</v>
+      </c>
+      <c r="I78" s="27">
+        <f>RSDAFC!M57*$M$22</f>
+        <v>1.9679944818874E-3</v>
+      </c>
+      <c r="K78" t="str">
+        <f>RSDAFC!C57</f>
+        <v>R-SW_Att_KER_N2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" t="s">
+        <v>116</v>
+      </c>
+      <c r="H79" s="27">
+        <f>RSDAFC!L58*$M$22</f>
+        <v>1.9679944818874E-3</v>
+      </c>
+      <c r="I79" s="27">
+        <f>RSDAFC!M58*$M$22</f>
+        <v>1.9679944818874E-3</v>
+      </c>
+      <c r="K79" t="str">
+        <f>RSDAFC!C58</f>
+        <v>R-SW_Att_KER_N3</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" t="s">
+        <v>116</v>
+      </c>
+      <c r="H80" s="27">
+        <f>RSDAFC!L59*$M$22</f>
+        <v>1.9679944818874E-3</v>
+      </c>
+      <c r="I80" s="27">
+        <f>RSDAFC!M59*$M$22</f>
+        <v>1.9679944818874E-3</v>
+      </c>
+      <c r="K80" t="str">
+        <f>RSDAFC!C59</f>
+        <v>R-SW_Att_KER_N3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" t="s">
+        <v>116</v>
+      </c>
+      <c r="H81" s="27">
+        <f>RSDAFC!L60*$M$22</f>
+        <v>2.3397171732945604E-3</v>
+      </c>
+      <c r="I81" s="27">
+        <f>RSDAFC!M60*$M$22</f>
+        <v>2.3397171732945604E-3</v>
+      </c>
+      <c r="K81" t="str">
+        <f>RSDAFC!C60</f>
+        <v>R-SW_Att_LPG_N1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" t="s">
+        <v>116</v>
+      </c>
+      <c r="H82" s="27">
+        <f>RSDAFC!L61*$M$22</f>
+        <v>2.3397171732945604E-3</v>
+      </c>
+      <c r="I82" s="27">
+        <f>RSDAFC!M61*$M$22</f>
+        <v>2.3397171732945604E-3</v>
+      </c>
+      <c r="K82" t="str">
+        <f>RSDAFC!C61</f>
+        <v>R-SW_Att_LPG_N1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" t="s">
+        <v>116</v>
+      </c>
+      <c r="H83" s="27">
+        <f>RSDAFC!L62*$M$22</f>
+        <v>4.2955901744742798E-3</v>
+      </c>
+      <c r="I83" s="27">
+        <f>RSDAFC!M62*$M$22</f>
+        <v>4.2955901744742798E-3</v>
+      </c>
+      <c r="K83" t="str">
+        <f>RSDAFC!C62</f>
+        <v>R-SW_Att_WOO_N1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" t="s">
+        <v>116</v>
+      </c>
+      <c r="H84" s="27">
+        <f>RSDAFC!L63*$M$22</f>
+        <v>4.2955901744742798E-3</v>
+      </c>
+      <c r="I84" s="27">
+        <f>RSDAFC!M63*$M$22</f>
+        <v>4.2955901744742798E-3</v>
+      </c>
+      <c r="K84" t="str">
+        <f>RSDAFC!C63</f>
+        <v>R-SW_Att_WOO_N1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" t="s">
+        <v>116</v>
+      </c>
+      <c r="H85" s="27">
+        <f>RSDAFC!L64*$M$22</f>
+        <v>2.7471447517498498E-3</v>
+      </c>
+      <c r="I85" s="27">
+        <f>RSDAFC!M64*$M$22</f>
+        <v>2.7471447517498498E-3</v>
+      </c>
+      <c r="K85" t="str">
+        <f>RSDAFC!C64</f>
+        <v>R-SW_Det_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" t="s">
+        <v>116</v>
+      </c>
+      <c r="H86" s="27">
+        <f>RSDAFC!L65*$M$22</f>
+        <v>2.7471447517498498E-3</v>
+      </c>
+      <c r="I86" s="27">
+        <f>RSDAFC!M65*$M$22</f>
+        <v>2.7471447517498498E-3</v>
+      </c>
+      <c r="K86" t="str">
+        <f>RSDAFC!C65</f>
+        <v>R-SW_Det_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H87" s="27">
+        <f>RSDAFC!L66*$M$22</f>
+        <v>2.7471447517498498E-3</v>
+      </c>
+      <c r="I87" s="27">
+        <f>RSDAFC!M66*$M$22</f>
+        <v>2.7471447517498498E-3</v>
+      </c>
+      <c r="K87" t="str">
+        <f>RSDAFC!C66</f>
+        <v>R-SW_Det_ELC_HPN2</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" t="s">
+        <v>116</v>
+      </c>
+      <c r="H88" s="27">
+        <f>RSDAFC!L67*$M$22</f>
+        <v>2.7471447517498498E-3</v>
+      </c>
+      <c r="I88" s="27">
+        <f>RSDAFC!M67*$M$22</f>
+        <v>2.7471447517498498E-3</v>
+      </c>
+      <c r="K88" t="str">
+        <f>RSDAFC!C67</f>
+        <v>R-SW_Det_ELC_HPN2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" t="s">
+        <v>116</v>
+      </c>
+      <c r="H89" s="27">
+        <f>RSDAFC!L68*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="I89" s="27">
+        <f>RSDAFC!M68*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="K89" t="str">
+        <f>RSDAFC!C68</f>
+        <v>R-SW_Det_GAS_HHPN1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" t="s">
+        <v>116</v>
+      </c>
+      <c r="H90" s="27">
+        <f>RSDAFC!L69*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="I90" s="27">
+        <f>RSDAFC!M69*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="K90" t="str">
+        <f>RSDAFC!C69</f>
+        <v>R-SW_Det_GAS_HHPN1</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" t="s">
+        <v>116</v>
+      </c>
+      <c r="H91" s="27">
+        <f>RSDAFC!L70*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="I91" s="27">
+        <f>RSDAFC!M70*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="K91" t="str">
+        <f>RSDAFC!C70</f>
+        <v>R-SW_Det_GAS_HPN1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" t="s">
+        <v>116</v>
+      </c>
+      <c r="H92" s="27">
+        <f>RSDAFC!L71*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="I92" s="27">
+        <f>RSDAFC!M71*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="K92" t="str">
+        <f>RSDAFC!C71</f>
+        <v>R-SW_Det_GAS_HPN1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" t="s">
+        <v>116</v>
+      </c>
+      <c r="H93" s="27">
+        <f>RSDAFC!L72*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="I93" s="27">
+        <f>RSDAFC!M72*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="K93" t="str">
+        <f>RSDAFC!C72</f>
+        <v>R-SW_Det_GAS_HPN2</v>
+      </c>
+    </row>
+    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" t="s">
+        <v>116</v>
+      </c>
+      <c r="H94" s="27">
+        <f>RSDAFC!L73*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="I94" s="27">
+        <f>RSDAFC!M73*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="K94" t="str">
+        <f>RSDAFC!C73</f>
+        <v>R-SW_Det_GAS_HPN2</v>
+      </c>
+    </row>
+    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" t="s">
+        <v>116</v>
+      </c>
+      <c r="H95" s="27">
+        <f>RSDAFC!L74*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="I95" s="27">
+        <f>RSDAFC!M74*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="K95" t="str">
+        <f>RSDAFC!C74</f>
+        <v>R-SW_Det_GAS_N1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" t="s">
+        <v>116</v>
+      </c>
+      <c r="H96" s="27">
+        <f>RSDAFC!L75*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="I96" s="27">
+        <f>RSDAFC!M75*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="K96" t="str">
+        <f>RSDAFC!C75</f>
+        <v>R-SW_Det_GAS_N1</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" t="s">
+        <v>116</v>
+      </c>
+      <c r="H97" s="27">
+        <f>RSDAFC!L76*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="I97" s="27">
+        <f>RSDAFC!M76*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="K97" t="str">
+        <f>RSDAFC!C76</f>
+        <v>R-SW_Det_GAS_N2</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H98" s="27">
+        <f>RSDAFC!L77*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="I98" s="27">
+        <f>RSDAFC!M77*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="K98" t="str">
+        <f>RSDAFC!C77</f>
+        <v>R-SW_Det_GAS_N2</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" t="s">
+        <v>116</v>
+      </c>
+      <c r="H99" s="27">
+        <f>RSDAFC!L78*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="I99" s="27">
+        <f>RSDAFC!M78*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="K99" t="str">
+        <f>RSDAFC!C78</f>
+        <v>R-SW_Det_GAS_N3</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H100" s="27">
+        <f>RSDAFC!L79*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="I100" s="27">
+        <f>RSDAFC!M79*$M$22</f>
+        <v>2.4447220258868902E-3</v>
+      </c>
+      <c r="K100" t="str">
+        <f>RSDAFC!C79</f>
+        <v>R-SW_Det_GAS_N3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" t="s">
+        <v>116</v>
+      </c>
+      <c r="H101" s="27">
+        <f>RSDAFC!L80*$M$22</f>
+        <v>9.5642043609248314E-3</v>
+      </c>
+      <c r="I101" s="27">
+        <f>RSDAFC!M80*$M$22</f>
+        <v>9.5642043609248314E-3</v>
+      </c>
+      <c r="K101" t="str">
+        <f>RSDAFC!C80</f>
+        <v>R-SW_Det_HET_N1</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" t="s">
+        <v>116</v>
+      </c>
+      <c r="H102" s="27">
+        <f>RSDAFC!L81*$M$22</f>
+        <v>9.5642043609248314E-3</v>
+      </c>
+      <c r="I102" s="27">
+        <f>RSDAFC!M81*$M$22</f>
+        <v>9.5642043609248314E-3</v>
+      </c>
+      <c r="K102" t="str">
+        <f>RSDAFC!C81</f>
+        <v>R-SW_Det_HET_N1</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" t="s">
+        <v>116</v>
+      </c>
+      <c r="H103" s="27">
+        <f>RSDAFC!L82*$M$22</f>
+        <v>9.5642043609248314E-3</v>
+      </c>
+      <c r="I103" s="27">
+        <f>RSDAFC!M82*$M$22</f>
+        <v>9.5642043609248314E-3</v>
+      </c>
+      <c r="K103" t="str">
+        <f>RSDAFC!C82</f>
+        <v>R-SW_Det_HET_N2</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" t="s">
+        <v>116</v>
+      </c>
+      <c r="H104" s="27">
+        <f>RSDAFC!L83*$M$22</f>
+        <v>9.5642043609248314E-3</v>
+      </c>
+      <c r="I104" s="27">
+        <f>RSDAFC!M83*$M$22</f>
+        <v>9.5642043609248314E-3</v>
+      </c>
+      <c r="K104" t="str">
+        <f>RSDAFC!C83</f>
+        <v>R-SW_Det_HET_N2</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" t="s">
+        <v>116</v>
+      </c>
+      <c r="H105" s="27">
+        <f>RSDAFC!L84*$M$22</f>
+        <v>3.0079476421251204E-3</v>
+      </c>
+      <c r="I105" s="27">
+        <f>RSDAFC!M84*$M$22</f>
+        <v>3.0079476421251204E-3</v>
+      </c>
+      <c r="K105" t="str">
+        <f>RSDAFC!C84</f>
+        <v>R-SW_Det_KER_N1</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" t="s">
+        <v>116</v>
+      </c>
+      <c r="H106" s="27">
+        <f>RSDAFC!L85*$M$22</f>
+        <v>3.0079476421251204E-3</v>
+      </c>
+      <c r="I106" s="27">
+        <f>RSDAFC!M85*$M$22</f>
+        <v>3.0079476421251204E-3</v>
+      </c>
+      <c r="K106" t="str">
+        <f>RSDAFC!C85</f>
+        <v>R-SW_Det_KER_N1</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>214</v>
+      </c>
+      <c r="D107" t="s">
+        <v>116</v>
+      </c>
+      <c r="H107" s="27">
+        <f>RSDAFC!L86*$M$22</f>
+        <v>3.0079476421251204E-3</v>
+      </c>
+      <c r="I107" s="27">
+        <f>RSDAFC!M86*$M$22</f>
+        <v>3.0079476421251204E-3</v>
+      </c>
+      <c r="K107" t="str">
+        <f>RSDAFC!C86</f>
+        <v>R-SW_Det_KER_N2</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" t="s">
+        <v>116</v>
+      </c>
+      <c r="H108" s="27">
+        <f>RSDAFC!L87*$M$22</f>
+        <v>3.0079476421251204E-3</v>
+      </c>
+      <c r="I108" s="27">
+        <f>RSDAFC!M87*$M$22</f>
+        <v>3.0079476421251204E-3</v>
+      </c>
+      <c r="K108" t="str">
+        <f>RSDAFC!C87</f>
+        <v>R-SW_Det_KER_N2</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" t="s">
+        <v>116</v>
+      </c>
+      <c r="H109" s="27">
+        <f>RSDAFC!L88*$M$22</f>
+        <v>3.0079476421251204E-3</v>
+      </c>
+      <c r="I109" s="27">
+        <f>RSDAFC!M88*$M$22</f>
+        <v>3.0079476421251204E-3</v>
+      </c>
+      <c r="K109" t="str">
+        <f>RSDAFC!C88</f>
+        <v>R-SW_Det_KER_N3</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H110" s="27">
+        <f>RSDAFC!L89*$M$22</f>
+        <v>3.0079476421251204E-3</v>
+      </c>
+      <c r="I110" s="27">
+        <f>RSDAFC!M89*$M$22</f>
+        <v>3.0079476421251204E-3</v>
+      </c>
+      <c r="K110" t="str">
+        <f>RSDAFC!C89</f>
+        <v>R-SW_Det_KER_N3</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>214</v>
+      </c>
+      <c r="D111" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111" s="27">
+        <f>RSDAFC!L90*$M$22</f>
+        <v>4.2193969562551604E-3</v>
+      </c>
+      <c r="I111" s="27">
+        <f>RSDAFC!M90*$M$22</f>
+        <v>4.2193969562551604E-3</v>
+      </c>
+      <c r="K111" t="str">
+        <f>RSDAFC!C90</f>
+        <v>R-SW_Det_LPG_N1</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>214</v>
+      </c>
+      <c r="D112" t="s">
+        <v>116</v>
+      </c>
+      <c r="H112" s="27">
+        <f>RSDAFC!L91*$M$22</f>
+        <v>4.2193969562551604E-3</v>
+      </c>
+      <c r="I112" s="27">
+        <f>RSDAFC!M91*$M$22</f>
+        <v>4.2193969562551604E-3</v>
+      </c>
+      <c r="K112" t="str">
+        <f>RSDAFC!C91</f>
+        <v>R-SW_Det_LPG_N1</v>
+      </c>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" t="s">
+        <v>116</v>
+      </c>
+      <c r="H113" s="27">
+        <f>RSDAFC!L92*$M$22</f>
+        <v>5.2867897077308497E-3</v>
+      </c>
+      <c r="I113" s="27">
+        <f>RSDAFC!M92*$M$22</f>
+        <v>5.2867897077308497E-3</v>
+      </c>
+      <c r="K113" t="str">
+        <f>RSDAFC!C92</f>
+        <v>R-SW_Det_WOO_N1</v>
+      </c>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>214</v>
+      </c>
+      <c r="D114" t="s">
+        <v>116</v>
+      </c>
+      <c r="H114" s="27">
+        <f>RSDAFC!L93*$M$22</f>
+        <v>5.2867897077308497E-3</v>
+      </c>
+      <c r="I114" s="27">
+        <f>RSDAFC!M93*$M$22</f>
+        <v>5.2867897077308497E-3</v>
+      </c>
+      <c r="K114" t="str">
+        <f>RSDAFC!C93</f>
+        <v>R-SW_Det_WOO_N1</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>214</v>
+      </c>
+      <c r="D115" t="s">
+        <v>116</v>
+      </c>
+      <c r="H115" s="27">
+        <f>RSDAFA!L2*$M$22</f>
+        <v>1.91859640129881E-3</v>
+      </c>
+      <c r="I115" s="27">
+        <f>RSDAFA!M2*$M$22</f>
+        <v>1.91859640129881E-3</v>
+      </c>
+      <c r="K115" s="27" t="str">
+        <f>RSDAFA!C2</f>
+        <v>R-SH_Apt_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>214</v>
+      </c>
+      <c r="D116" t="s">
+        <v>116</v>
+      </c>
+      <c r="H116" s="27">
+        <f>RSDAFA!L3*$M$22</f>
+        <v>1.91859640129881E-3</v>
+      </c>
+      <c r="I116" s="27">
+        <f>RSDAFA!M3*$M$22</f>
+        <v>1.91859640129881E-3</v>
+      </c>
+      <c r="K116" s="27" t="str">
+        <f>RSDAFA!C3</f>
+        <v>R-SH_Apt_ELC_HPN2</v>
+      </c>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>214</v>
+      </c>
+      <c r="D117" t="s">
+        <v>116</v>
+      </c>
+      <c r="H117" s="27">
+        <f>RSDAFA!L4*$M$22</f>
+        <v>1.91859640129881E-3</v>
+      </c>
+      <c r="I117" s="27">
+        <f>RSDAFA!M4*$M$22</f>
+        <v>1.91859640129881E-3</v>
+      </c>
+      <c r="K117" s="27" t="str">
+        <f>RSDAFA!C4</f>
+        <v>R-SH_Apt_ELC_HPN3</v>
+      </c>
+    </row>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>214</v>
+      </c>
+      <c r="D118" t="s">
+        <v>116</v>
+      </c>
+      <c r="H118" s="27">
+        <f>RSDAFA!L5*$M$22</f>
+        <v>1.91859640129881E-3</v>
+      </c>
+      <c r="I118" s="27">
+        <f>RSDAFA!M5*$M$22</f>
+        <v>1.91859640129881E-3</v>
+      </c>
+      <c r="K118" s="27" t="str">
+        <f>RSDAFA!C5</f>
+        <v>R-SH_Apt_ELC_N1</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>214</v>
+      </c>
+      <c r="D119" t="s">
+        <v>116</v>
+      </c>
+      <c r="H119" s="27">
+        <f>RSDAFA!L6*$M$22</f>
+        <v>1.1859086836729601E-3</v>
+      </c>
+      <c r="I119" s="27">
+        <f>RSDAFA!M6*$M$22</f>
+        <v>1.1859086836729601E-3</v>
+      </c>
+      <c r="K119" s="27" t="str">
+        <f>RSDAFA!C6</f>
+        <v>R-SH_Apt_GAS_N1</v>
+      </c>
+    </row>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>214</v>
+      </c>
+      <c r="D120" t="s">
+        <v>116</v>
+      </c>
+      <c r="H120" s="27">
+        <f>RSDAFA!L7*$M$22</f>
+        <v>3.7359826231664001E-3</v>
+      </c>
+      <c r="I120" s="27">
+        <f>RSDAFA!M7*$M$22</f>
+        <v>3.7359826231664001E-3</v>
+      </c>
+      <c r="K120" s="27" t="str">
+        <f>RSDAFA!C7</f>
+        <v>R-SH_Apt_KER_N1</v>
+      </c>
+    </row>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>214</v>
+      </c>
+      <c r="D121" t="s">
+        <v>116</v>
+      </c>
+      <c r="H121" s="27">
+        <f>RSDAFA!L8*$M$22</f>
+        <v>2.3078593190679502E-3</v>
+      </c>
+      <c r="I121" s="27">
+        <f>RSDAFA!M8*$M$22</f>
+        <v>2.3078593190679502E-3</v>
+      </c>
+      <c r="K121" s="27" t="str">
+        <f>RSDAFA!C8</f>
+        <v>R-SH_Apt_LPG_N1</v>
+      </c>
+    </row>
+    <row r="122" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>214</v>
+      </c>
+      <c r="D122" t="s">
+        <v>116</v>
+      </c>
+      <c r="H122" s="27">
+        <f>RSDAFA!L9*$M$22</f>
+        <v>1.7647904805808902E-3</v>
+      </c>
+      <c r="I122" s="27">
+        <f>RSDAFA!M9*$M$22</f>
+        <v>1.7647904805808902E-3</v>
+      </c>
+      <c r="K122" s="27" t="str">
+        <f>RSDAFA!C9</f>
+        <v>R-SH_Apt_WOO_N1</v>
+      </c>
+    </row>
+    <row r="123" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>214</v>
+      </c>
+      <c r="D123" t="s">
+        <v>116</v>
+      </c>
+      <c r="H123" s="27">
+        <f>RSDAFA!L10*$M$22</f>
+        <v>2.4653262579847901E-3</v>
+      </c>
+      <c r="I123" s="27">
+        <f>RSDAFA!M10*$M$22</f>
+        <v>2.4653262579847901E-3</v>
+      </c>
+      <c r="K123" s="27" t="str">
+        <f>RSDAFA!C10</f>
+        <v>R-SH_Att_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="124" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>214</v>
+      </c>
+      <c r="D124" t="s">
+        <v>116</v>
+      </c>
+      <c r="H124" s="27">
+        <f>RSDAFA!L11*$M$22</f>
+        <v>2.4653262579847901E-3</v>
+      </c>
+      <c r="I124" s="27">
+        <f>RSDAFA!M11*$M$22</f>
+        <v>2.4653262579847901E-3</v>
+      </c>
+      <c r="K124" s="27" t="str">
+        <f>RSDAFA!C11</f>
+        <v>R-SH_Att_ELC_HPN2</v>
+      </c>
+    </row>
+    <row r="125" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>214</v>
+      </c>
+      <c r="D125" t="s">
+        <v>116</v>
+      </c>
+      <c r="H125" s="27">
+        <f>RSDAFA!L12*$M$22</f>
+        <v>2.4653262579847901E-3</v>
+      </c>
+      <c r="I125" s="27">
+        <f>RSDAFA!M12*$M$22</f>
+        <v>2.4653262579847901E-3</v>
+      </c>
+      <c r="K125" s="27" t="str">
+        <f>RSDAFA!C12</f>
+        <v>R-SH_Att_ELC_HPN3</v>
+      </c>
+    </row>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>214</v>
+      </c>
+      <c r="D126" t="s">
+        <v>116</v>
+      </c>
+      <c r="H126" s="27">
+        <f>RSDAFA!L13*$M$22</f>
+        <v>2.4653262579847901E-3</v>
+      </c>
+      <c r="I126" s="27">
+        <f>RSDAFA!M13*$M$22</f>
+        <v>2.4653262579847901E-3</v>
+      </c>
+      <c r="K126" s="27" t="str">
+        <f>RSDAFA!C13</f>
+        <v>R-SH_Att_ELC_N1</v>
+      </c>
+    </row>
+    <row r="127" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>214</v>
+      </c>
+      <c r="D127" t="s">
+        <v>116</v>
+      </c>
+      <c r="H127" s="27">
+        <f>RSDAFA!L14*$M$22</f>
+        <v>2.2095891324020798E-3</v>
+      </c>
+      <c r="I127" s="27">
+        <f>RSDAFA!M14*$M$22</f>
+        <v>2.2095891324020798E-3</v>
+      </c>
+      <c r="K127" s="27" t="str">
+        <f>RSDAFA!C14</f>
+        <v>R-SH_Att_GAS_N1</v>
+      </c>
+    </row>
+    <row r="128" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>214</v>
+      </c>
+      <c r="D128" t="s">
+        <v>116</v>
+      </c>
+      <c r="H128" s="27">
+        <f>RSDAFA!L15*$M$22</f>
+        <v>2.8368761423682902E-3</v>
+      </c>
+      <c r="I128" s="27">
+        <f>RSDAFA!M15*$M$22</f>
+        <v>2.8368761423682902E-3</v>
+      </c>
+      <c r="K128" s="27" t="str">
+        <f>RSDAFA!C15</f>
+        <v>R-SH_Att_KER_N1</v>
+      </c>
+    </row>
+    <row r="129" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>214</v>
+      </c>
+      <c r="D129" t="s">
+        <v>116</v>
+      </c>
+      <c r="H129" s="27">
+        <f>RSDAFA!L16*$M$22</f>
+        <v>3.0936872888717203E-3</v>
+      </c>
+      <c r="I129" s="27">
+        <f>RSDAFA!M16*$M$22</f>
+        <v>3.0936872888717203E-3</v>
+      </c>
+      <c r="K129" s="27" t="str">
+        <f>RSDAFA!C16</f>
+        <v>R-SH_Att_LPG_N1</v>
+      </c>
+    </row>
+    <row r="130" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>214</v>
+      </c>
+      <c r="D130" t="s">
+        <v>116</v>
+      </c>
+      <c r="H130" s="27">
+        <f>RSDAFA!L17*$M$22</f>
+        <v>7.5066866433008313E-3</v>
+      </c>
+      <c r="I130" s="27">
+        <f>RSDAFA!M17*$M$22</f>
+        <v>7.5066866433008313E-3</v>
+      </c>
+      <c r="K130" s="27" t="str">
+        <f>RSDAFA!C17</f>
+        <v>R-SH_Att_WOO_N1</v>
+      </c>
+    </row>
+    <row r="131" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>214</v>
+      </c>
+      <c r="D131" t="s">
+        <v>116</v>
+      </c>
+      <c r="H131" s="27">
+        <f>RSDAFA!L18*$M$22</f>
+        <v>4.1614408271926804E-3</v>
+      </c>
+      <c r="I131" s="27">
+        <f>RSDAFA!M18*$M$22</f>
+        <v>4.1614408271926804E-3</v>
+      </c>
+      <c r="K131" s="27" t="str">
+        <f>RSDAFA!C18</f>
+        <v>R-SH_Det_ELC_HPN1</v>
+      </c>
+    </row>
+    <row r="132" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>214</v>
+      </c>
+      <c r="D132" t="s">
+        <v>116</v>
+      </c>
+      <c r="H132" s="27">
+        <f>RSDAFA!L19*$M$22</f>
+        <v>4.1614408271926804E-3</v>
+      </c>
+      <c r="I132" s="27">
+        <f>RSDAFA!M19*$M$22</f>
+        <v>4.1614408271926804E-3</v>
+      </c>
+      <c r="K132" s="27" t="str">
+        <f>RSDAFA!C19</f>
+        <v>R-SH_Det_ELC_HPN2</v>
+      </c>
+    </row>
+    <row r="133" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" t="s">
+        <v>116</v>
+      </c>
+      <c r="H133" s="27">
+        <f>RSDAFA!L20*$M$22</f>
+        <v>4.1614408271926804E-3</v>
+      </c>
+      <c r="I133" s="27">
+        <f>RSDAFA!M20*$M$22</f>
+        <v>4.1614408271926804E-3</v>
+      </c>
+      <c r="K133" s="27" t="str">
+        <f>RSDAFA!C20</f>
+        <v>R-SH_Det_ELC_HPN3</v>
+      </c>
+    </row>
+    <row r="134" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>214</v>
+      </c>
+      <c r="D134" t="s">
+        <v>116</v>
+      </c>
+      <c r="H134" s="27">
+        <f>RSDAFA!L21*$M$22</f>
+        <v>4.1614408271926804E-3</v>
+      </c>
+      <c r="I134" s="27">
+        <f>RSDAFA!M21*$M$22</f>
+        <v>4.1614408271926804E-3</v>
+      </c>
+      <c r="K134" s="27" t="str">
+        <f>RSDAFA!C21</f>
+        <v>R-SH_Det_ELC_N1</v>
+      </c>
+    </row>
+    <row r="135" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>214</v>
+      </c>
+      <c r="D135" t="s">
+        <v>116</v>
+      </c>
+      <c r="H135" s="27">
+        <f>RSDAFA!L22*$M$22</f>
+        <v>3.70406311600925E-3</v>
+      </c>
+      <c r="I135" s="27">
+        <f>RSDAFA!M22*$M$22</f>
+        <v>3.70406311600925E-3</v>
+      </c>
+      <c r="K135" s="27" t="str">
+        <f>RSDAFA!C22</f>
+        <v>R-SH_Det_GAS_N1</v>
+      </c>
+    </row>
+    <row r="136" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>214</v>
+      </c>
+      <c r="D136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H136" s="27">
+        <f>RSDAFA!L23*$M$22</f>
+        <v>4.6621727976421598E-3</v>
+      </c>
+      <c r="I136" s="27">
+        <f>RSDAFA!M23*$M$22</f>
+        <v>4.6621727976421598E-3</v>
+      </c>
+      <c r="K136" s="27" t="str">
+        <f>RSDAFA!C23</f>
+        <v>R-SH_Det_KER_N1</v>
+      </c>
+    </row>
+    <row r="137" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>214</v>
+      </c>
+      <c r="D137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H137" s="27">
+        <f>RSDAFA!L24*$M$22</f>
+        <v>6.7033675870053506E-3</v>
+      </c>
+      <c r="I137" s="27">
+        <f>RSDAFA!M24*$M$22</f>
+        <v>6.7033675870053506E-3</v>
+      </c>
+      <c r="K137" s="27" t="str">
+        <f>RSDAFA!C24</f>
+        <v>R-SH_Det_LPG_N1</v>
+      </c>
+    </row>
+    <row r="138" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>214</v>
+      </c>
+      <c r="D138" t="s">
+        <v>116</v>
+      </c>
+      <c r="H138" s="27">
+        <f>RSDAFA!L25*$M$22</f>
+        <v>9.1153830584100506E-3</v>
+      </c>
+      <c r="I138" s="27">
+        <f>RSDAFA!M25*$M$22</f>
+        <v>9.1153830584100506E-3</v>
+      </c>
+      <c r="K138" s="27" t="str">
+        <f>RSDAFA!C25</f>
+        <v>R-SH_Det_WOO_N1</v>
+      </c>
+    </row>
+    <row r="139" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>214</v>
+      </c>
+      <c r="D139" t="s">
+        <v>116</v>
+      </c>
+      <c r="H139" s="27">
+        <f>RSDAFA!L26*$M$22</f>
+        <v>2.2735699655164602E-3</v>
+      </c>
+      <c r="I139" s="27">
+        <f>RSDAFA!M26*$M$22</f>
+        <v>2.2735699655164602E-3</v>
+      </c>
+      <c r="K139" s="27" t="str">
+        <f>RSDAFA!C26</f>
+        <v>R-WH_Apt_ELC_N1</v>
+      </c>
+    </row>
+    <row r="140" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>214</v>
+      </c>
+      <c r="D140" t="s">
+        <v>116</v>
+      </c>
+      <c r="H140" s="27">
+        <f>RSDAFA!L27*$M$22</f>
+        <v>8.6298729994523202E-4</v>
+      </c>
+      <c r="I140" s="27">
+        <f>RSDAFA!M27*$M$22</f>
+        <v>8.6298729994523202E-4</v>
+      </c>
+      <c r="K140" s="27" t="str">
+        <f>RSDAFA!C27</f>
+        <v>R-WH_Apt_SOL_N1</v>
+      </c>
+    </row>
+    <row r="141" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>214</v>
+      </c>
+      <c r="D141" t="s">
+        <v>116</v>
+      </c>
+      <c r="H141" s="27">
+        <f>RSDAFA!L28*$M$22</f>
+        <v>1.29275684703049E-3</v>
+      </c>
+      <c r="I141" s="27">
+        <f>RSDAFA!M28*$M$22</f>
+        <v>1.29275684703049E-3</v>
+      </c>
+      <c r="K141" s="27" t="str">
+        <f>RSDAFA!C28</f>
+        <v>R-WH_Att_ELC_N1</v>
+      </c>
+    </row>
+    <row r="142" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>214</v>
+      </c>
+      <c r="D142" t="s">
+        <v>116</v>
+      </c>
+      <c r="H142" s="27">
+        <f>RSDAFA!L29*$M$22</f>
+        <v>3.4409606285151599E-3</v>
+      </c>
+      <c r="I142" s="27">
+        <f>RSDAFA!M29*$M$22</f>
+        <v>3.4409606285151599E-3</v>
+      </c>
+      <c r="K142" s="27" t="str">
+        <f>RSDAFA!C29</f>
+        <v>R-WH_Att_SOL_N1</v>
+      </c>
+    </row>
+    <row r="143" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>214</v>
+      </c>
+      <c r="D143" t="s">
+        <v>116</v>
+      </c>
+      <c r="H143" s="27">
+        <f>RSDAFA!L30*$M$22</f>
+        <v>1.3328486763070301E-3</v>
+      </c>
+      <c r="I143" s="27">
+        <f>RSDAFA!M30*$M$22</f>
+        <v>1.3328486763070301E-3</v>
+      </c>
+      <c r="K143" s="27" t="str">
+        <f>RSDAFA!C30</f>
+        <v>R-WH_Det_ELC_N1</v>
+      </c>
+    </row>
+    <row r="144" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>214</v>
+      </c>
+      <c r="D144" t="s">
+        <v>116</v>
+      </c>
+      <c r="H144" s="27">
+        <f>RSDAFA!L31*$M$22</f>
+        <v>1.1305151157683501E-2</v>
+      </c>
+      <c r="I144" s="27">
+        <f>RSDAFA!M31*$M$22</f>
+        <v>1.1305151157683501E-2</v>
+      </c>
+      <c r="K144" s="27" t="str">
+        <f>RSDAFA!C31</f>
+        <v>R-WH_Det_SOL_N1</v>
+      </c>
+    </row>
+    <row r="145" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
+      <c r="K145" s="27"/>
+    </row>
+    <row r="146" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+      <c r="K146" s="27"/>
+    </row>
+    <row r="147" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="K147" s="27"/>
+    </row>
+    <row r="148" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="K148" s="27"/>
+    </row>
+    <row r="149" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="K149" s="27"/>
+    </row>
+    <row r="150" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+      <c r="K150" s="27"/>
+    </row>
+    <row r="151" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
+      <c r="K151" s="27"/>
+    </row>
+    <row r="152" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H152" s="27"/>
+      <c r="I152" s="27"/>
+      <c r="K152" s="27"/>
+    </row>
+    <row r="153" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="K153" s="27"/>
+    </row>
+    <row r="154" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="K154" s="27"/>
+    </row>
+    <row r="155" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+      <c r="K155" s="27"/>
+    </row>
+    <row r="156" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+      <c r="K156" s="27"/>
+    </row>
+    <row r="157" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="K157" s="27"/>
+    </row>
+    <row r="158" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
+      <c r="K158" s="27"/>
+    </row>
+    <row r="159" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
+      <c r="K159" s="27"/>
+    </row>
+    <row r="160" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
+      <c r="K160" s="27"/>
+    </row>
+    <row r="161" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+      <c r="K161" s="27"/>
+    </row>
+    <row r="162" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="K162" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6377ED-B160-4F16-923E-B56DAAEBF3A1}">
+  <dimension ref="B3:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6683C-C57D-4A33-B9D9-D05BA0CBEA1C}">
+  <dimension ref="A1:M93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2">
+        <v>2.4813655183930802E-2</v>
+      </c>
+      <c r="M2">
+        <v>2.4813655183930802E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3">
+        <v>2018</v>
+      </c>
+      <c r="H3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3">
+        <v>2.4813655183930802E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.4813655183930802E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4">
+        <v>2018</v>
+      </c>
+      <c r="H4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4">
+        <v>2.4813655183930802E-2</v>
+      </c>
+      <c r="M4">
+        <v>2.4813655183930802E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5">
+        <v>2018</v>
+      </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5">
+        <v>2.4813655183930802E-2</v>
+      </c>
+      <c r="M5">
+        <v>2.4813655183930802E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6">
+        <v>2018</v>
+      </c>
+      <c r="H6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6">
+        <v>1.73685782056223E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.73685782056223E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7">
+        <v>2018</v>
+      </c>
+      <c r="H7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7">
+        <v>1.73685782056223E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.73685782056223E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8">
+        <v>2018</v>
+      </c>
+      <c r="H8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8">
+        <v>1.73685782056223E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.73685782056223E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9">
+        <v>2018</v>
+      </c>
+      <c r="H9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9">
+        <v>1.73685782056223E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.73685782056223E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10">
+        <v>2018</v>
+      </c>
+      <c r="H10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10">
+        <v>3.17870115673878E-2</v>
+      </c>
+      <c r="M10">
+        <v>3.17870115673878E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11">
+        <v>2018</v>
+      </c>
+      <c r="H11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11">
+        <v>3.17870115673878E-2</v>
+      </c>
+      <c r="M11">
+        <v>3.17870115673878E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12">
+        <v>2018</v>
+      </c>
+      <c r="H12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12">
+        <v>3.17870115673878E-2</v>
+      </c>
+      <c r="M12">
+        <v>3.17870115673878E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13">
+        <v>2018</v>
+      </c>
+      <c r="H13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13">
+        <v>3.17870115673878E-2</v>
+      </c>
+      <c r="M13">
+        <v>3.17870115673878E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14">
+        <v>2018</v>
+      </c>
+      <c r="H14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14">
+        <v>2.0960831834076401E-2</v>
+      </c>
+      <c r="M14">
+        <v>2.0960831834076401E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15">
+        <v>2018</v>
+      </c>
+      <c r="H15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15">
+        <v>2.0960831834076401E-2</v>
+      </c>
+      <c r="M15">
+        <v>2.0960831834076401E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16">
+        <v>2018</v>
+      </c>
+      <c r="H16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16">
+        <v>9.4795012067416702E-3</v>
+      </c>
+      <c r="M16">
+        <v>9.4795012067416702E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17">
+        <v>2018</v>
+      </c>
+      <c r="H17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17">
+        <v>9.4795012067416702E-3</v>
+      </c>
+      <c r="M17">
+        <v>9.4795012067416702E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18">
+        <v>2018</v>
+      </c>
+      <c r="H18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18">
+        <v>9.4795012067416702E-3</v>
+      </c>
+      <c r="M18">
+        <v>9.4795012067416702E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19">
+        <v>2018</v>
+      </c>
+      <c r="H19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19">
+        <v>9.4795012067416702E-3</v>
+      </c>
+      <c r="M19">
+        <v>9.4795012067416702E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20">
+        <v>2018</v>
+      </c>
+      <c r="H20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20">
+        <v>9.4795012067416702E-3</v>
+      </c>
+      <c r="M20">
+        <v>9.4795012067416702E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21">
+        <v>2018</v>
+      </c>
+      <c r="H21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21">
+        <v>9.4795012067416702E-3</v>
+      </c>
+      <c r="M21">
+        <v>9.4795012067416702E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22">
+        <v>2018</v>
+      </c>
+      <c r="H22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22">
+        <v>9.4795012067416702E-3</v>
+      </c>
+      <c r="M22">
+        <v>9.4795012067416702E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23">
+        <v>2018</v>
+      </c>
+      <c r="H23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23">
+        <v>9.4795012067416702E-3</v>
+      </c>
+      <c r="M23">
+        <v>9.4795012067416702E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24">
+        <v>2018</v>
+      </c>
+      <c r="H24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24">
+        <v>7.0869783672800502E-4</v>
+      </c>
+      <c r="M24">
+        <v>7.0869783672800502E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25">
+        <v>2018</v>
+      </c>
+      <c r="H25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25">
+        <v>7.0869783672800502E-4</v>
+      </c>
+      <c r="M25">
+        <v>7.0869783672800502E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26">
+        <v>2018</v>
+      </c>
+      <c r="H26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26">
+        <v>7.0869783672800502E-4</v>
+      </c>
+      <c r="M26">
+        <v>7.0869783672800502E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27">
+        <v>2018</v>
+      </c>
+      <c r="H27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27">
+        <v>7.0869783672800502E-4</v>
+      </c>
+      <c r="M27">
+        <v>7.0869783672800502E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28">
+        <v>2018</v>
+      </c>
+      <c r="H28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28">
+        <v>2.39860043810185E-2</v>
+      </c>
+      <c r="M28">
+        <v>2.39860043810185E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29">
+        <v>2018</v>
+      </c>
+      <c r="H29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29">
+        <v>2.39860043810185E-2</v>
+      </c>
+      <c r="M29">
+        <v>2.39860043810185E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30">
+        <v>2018</v>
+      </c>
+      <c r="H30" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30">
+        <v>1.78079112619931E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.78079112619931E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31">
+        <v>2018</v>
+      </c>
+      <c r="H31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31">
+        <v>1.78079112619931E-2</v>
+      </c>
+      <c r="M31">
+        <v>1.78079112619931E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32">
+        <v>2018</v>
+      </c>
+      <c r="H32" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32">
+        <v>1.37038901278922E-2</v>
+      </c>
+      <c r="M32">
+        <v>1.37038901278922E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33">
+        <v>2018</v>
+      </c>
+      <c r="H33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33">
+        <v>1.37038901278922E-2</v>
+      </c>
+      <c r="M33">
+        <v>1.37038901278922E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34">
+        <v>2018</v>
+      </c>
+      <c r="H34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34">
+        <v>1.87904155250764E-2</v>
+      </c>
+      <c r="M34">
+        <v>1.87904155250764E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35">
+        <v>2018</v>
+      </c>
+      <c r="H35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35">
+        <v>1.87904155250764E-2</v>
+      </c>
+      <c r="M35">
+        <v>1.87904155250764E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36">
+        <v>2018</v>
+      </c>
+      <c r="H36" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36">
+        <v>1.87904155250764E-2</v>
+      </c>
+      <c r="M36">
+        <v>1.87904155250764E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37">
+        <v>2018</v>
+      </c>
+      <c r="H37" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" t="s">
+        <v>132</v>
+      </c>
+      <c r="L37">
+        <v>1.87904155250764E-2</v>
+      </c>
+      <c r="M37">
+        <v>1.87904155250764E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38">
+        <v>2018</v>
+      </c>
+      <c r="H38" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" t="s">
+        <v>132</v>
+      </c>
+      <c r="L38">
+        <v>1.5651300362142601E-2</v>
+      </c>
+      <c r="M38">
+        <v>1.5651300362142601E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39">
+        <v>2018</v>
+      </c>
+      <c r="H39" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L39">
+        <v>1.5651300362142601E-2</v>
+      </c>
+      <c r="M39">
+        <v>1.5651300362142601E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40">
+        <v>2018</v>
+      </c>
+      <c r="H40" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" t="s">
+        <v>132</v>
+      </c>
+      <c r="K40" t="s">
+        <v>132</v>
+      </c>
+      <c r="L40">
+        <v>1.5651300362142601E-2</v>
+      </c>
+      <c r="M40">
+        <v>1.5651300362142601E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41">
+        <v>2018</v>
+      </c>
+      <c r="H41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" t="s">
+        <v>132</v>
+      </c>
+      <c r="J41" t="s">
+        <v>132</v>
+      </c>
+      <c r="K41" t="s">
+        <v>132</v>
+      </c>
+      <c r="L41">
+        <v>1.5651300362142601E-2</v>
+      </c>
+      <c r="M41">
+        <v>1.5651300362142601E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42">
+        <v>2018</v>
+      </c>
+      <c r="H42" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" t="s">
+        <v>132</v>
+      </c>
+      <c r="K42" t="s">
+        <v>132</v>
+      </c>
+      <c r="L42">
+        <v>1.5651300362142601E-2</v>
+      </c>
+      <c r="M42">
+        <v>1.5651300362142601E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43">
+        <v>2018</v>
+      </c>
+      <c r="H43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" t="s">
+        <v>132</v>
+      </c>
+      <c r="L43">
+        <v>1.5651300362142601E-2</v>
+      </c>
+      <c r="M43">
+        <v>1.5651300362142601E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44">
+        <v>2018</v>
+      </c>
+      <c r="H44" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" t="s">
+        <v>132</v>
+      </c>
+      <c r="J44" t="s">
+        <v>132</v>
+      </c>
+      <c r="K44" t="s">
+        <v>132</v>
+      </c>
+      <c r="L44">
+        <v>1.5651300362142601E-2</v>
+      </c>
+      <c r="M44">
+        <v>1.5651300362142601E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45">
+        <v>2018</v>
+      </c>
+      <c r="H45" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45">
+        <v>1.5651300362142601E-2</v>
+      </c>
+      <c r="M45">
+        <v>1.5651300362142601E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" t="s">
+        <v>164</v>
+      </c>
+      <c r="G46">
+        <v>2018</v>
+      </c>
+      <c r="H46" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" t="s">
+        <v>132</v>
+      </c>
+      <c r="K46" t="s">
+        <v>132</v>
+      </c>
+      <c r="L46">
+        <v>1.5651300362142601E-2</v>
+      </c>
+      <c r="M46">
+        <v>1.5651300362142601E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" t="s">
+        <v>164</v>
+      </c>
+      <c r="G47">
+        <v>2018</v>
+      </c>
+      <c r="H47" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47" t="s">
+        <v>132</v>
+      </c>
+      <c r="L47">
+        <v>1.5651300362142601E-2</v>
+      </c>
+      <c r="M47">
+        <v>1.5651300362142601E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48">
+        <v>2018</v>
+      </c>
+      <c r="H48" t="s">
+        <v>126</v>
+      </c>
+      <c r="I48" t="s">
+        <v>132</v>
+      </c>
+      <c r="J48" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" t="s">
+        <v>132</v>
+      </c>
+      <c r="L48">
+        <v>1.5651300362142601E-2</v>
+      </c>
+      <c r="M48">
+        <v>1.5651300362142601E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49">
+        <v>2018</v>
+      </c>
+      <c r="H49" t="s">
+        <v>126</v>
+      </c>
+      <c r="I49" t="s">
+        <v>132</v>
+      </c>
+      <c r="J49" t="s">
+        <v>132</v>
+      </c>
+      <c r="K49" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49">
+        <v>1.5651300362142601E-2</v>
+      </c>
+      <c r="M49">
+        <v>1.5651300362142601E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50">
+        <v>2018</v>
+      </c>
+      <c r="H50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" t="s">
+        <v>132</v>
+      </c>
+      <c r="L50">
+        <v>7.5978921044014096E-3</v>
+      </c>
+      <c r="M50">
+        <v>7.5978921044014096E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51">
+        <v>2018</v>
+      </c>
+      <c r="H51" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" t="s">
+        <v>132</v>
+      </c>
+      <c r="J51" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" t="s">
+        <v>132</v>
+      </c>
+      <c r="L51">
+        <v>7.5978921044014096E-3</v>
+      </c>
+      <c r="M51">
+        <v>7.5978921044014096E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" t="s">
+        <v>164</v>
+      </c>
+      <c r="G52">
+        <v>2018</v>
+      </c>
+      <c r="H52" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" t="s">
+        <v>132</v>
+      </c>
+      <c r="J52" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52">
+        <v>7.5978921044014096E-3</v>
+      </c>
+      <c r="M52">
+        <v>7.5978921044014096E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" t="s">
+        <v>164</v>
+      </c>
+      <c r="G53">
+        <v>2018</v>
+      </c>
+      <c r="H53" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" t="s">
+        <v>132</v>
+      </c>
+      <c r="J53" t="s">
+        <v>132</v>
+      </c>
+      <c r="K53" t="s">
+        <v>132</v>
+      </c>
+      <c r="L53">
+        <v>7.5978921044014096E-3</v>
+      </c>
+      <c r="M53">
+        <v>7.5978921044014096E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" t="s">
+        <v>164</v>
+      </c>
+      <c r="G54">
+        <v>2018</v>
+      </c>
+      <c r="H54" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J54" t="s">
+        <v>132</v>
+      </c>
+      <c r="K54" t="s">
+        <v>132</v>
+      </c>
+      <c r="L54">
+        <v>1.9679944818874001E-2</v>
+      </c>
+      <c r="M54">
+        <v>1.9679944818874001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" t="s">
+        <v>164</v>
+      </c>
+      <c r="G55">
+        <v>2018</v>
+      </c>
+      <c r="H55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55" t="s">
+        <v>132</v>
+      </c>
+      <c r="J55" t="s">
+        <v>132</v>
+      </c>
+      <c r="K55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L55">
+        <v>1.9679944818874001E-2</v>
+      </c>
+      <c r="M55">
+        <v>1.9679944818874001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56">
+        <v>2018</v>
+      </c>
+      <c r="H56" t="s">
+        <v>126</v>
+      </c>
+      <c r="I56" t="s">
+        <v>132</v>
+      </c>
+      <c r="J56" t="s">
+        <v>132</v>
+      </c>
+      <c r="K56" t="s">
+        <v>132</v>
+      </c>
+      <c r="L56">
+        <v>1.9679944818874001E-2</v>
+      </c>
+      <c r="M56">
+        <v>1.9679944818874001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57">
+        <v>2018</v>
+      </c>
+      <c r="H57" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" t="s">
+        <v>132</v>
+      </c>
+      <c r="J57" t="s">
+        <v>132</v>
+      </c>
+      <c r="K57" t="s">
+        <v>132</v>
+      </c>
+      <c r="L57">
+        <v>1.9679944818874001E-2</v>
+      </c>
+      <c r="M57">
+        <v>1.9679944818874001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" t="s">
+        <v>164</v>
+      </c>
+      <c r="G58">
+        <v>2018</v>
+      </c>
+      <c r="H58" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" t="s">
+        <v>132</v>
+      </c>
+      <c r="J58" t="s">
+        <v>132</v>
+      </c>
+      <c r="K58" t="s">
+        <v>132</v>
+      </c>
+      <c r="L58">
+        <v>1.9679944818874001E-2</v>
+      </c>
+      <c r="M58">
+        <v>1.9679944818874001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59">
+        <v>2018</v>
+      </c>
+      <c r="H59" t="s">
+        <v>126</v>
+      </c>
+      <c r="I59" t="s">
+        <v>132</v>
+      </c>
+      <c r="J59" t="s">
+        <v>132</v>
+      </c>
+      <c r="K59" t="s">
+        <v>132</v>
+      </c>
+      <c r="L59">
+        <v>1.9679944818874001E-2</v>
+      </c>
+      <c r="M59">
+        <v>1.9679944818874001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60">
+        <v>2018</v>
+      </c>
+      <c r="H60" t="s">
+        <v>126</v>
+      </c>
+      <c r="I60" t="s">
+        <v>132</v>
+      </c>
+      <c r="J60" t="s">
+        <v>132</v>
+      </c>
+      <c r="K60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60">
+        <v>2.3397171732945601E-2</v>
+      </c>
+      <c r="M60">
+        <v>2.3397171732945601E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61">
+        <v>2018</v>
+      </c>
+      <c r="H61" t="s">
+        <v>126</v>
+      </c>
+      <c r="I61" t="s">
+        <v>132</v>
+      </c>
+      <c r="J61" t="s">
+        <v>132</v>
+      </c>
+      <c r="K61" t="s">
+        <v>132</v>
+      </c>
+      <c r="L61">
+        <v>2.3397171732945601E-2</v>
+      </c>
+      <c r="M61">
+        <v>2.3397171732945601E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62">
+        <v>2018</v>
+      </c>
+      <c r="H62" t="s">
+        <v>126</v>
+      </c>
+      <c r="I62" t="s">
+        <v>132</v>
+      </c>
+      <c r="J62" t="s">
+        <v>132</v>
+      </c>
+      <c r="K62" t="s">
+        <v>132</v>
+      </c>
+      <c r="L62">
+        <v>4.29559017447428E-2</v>
+      </c>
+      <c r="M62">
+        <v>4.29559017447428E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" t="s">
+        <v>164</v>
+      </c>
+      <c r="G63">
+        <v>2018</v>
+      </c>
+      <c r="H63" t="s">
+        <v>126</v>
+      </c>
+      <c r="I63" t="s">
+        <v>132</v>
+      </c>
+      <c r="J63" t="s">
+        <v>132</v>
+      </c>
+      <c r="K63" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63">
+        <v>4.29559017447428E-2</v>
+      </c>
+      <c r="M63">
+        <v>4.29559017447428E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" t="s">
+        <v>164</v>
+      </c>
+      <c r="G64">
+        <v>2018</v>
+      </c>
+      <c r="H64" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" t="s">
+        <v>132</v>
+      </c>
+      <c r="J64" t="s">
+        <v>132</v>
+      </c>
+      <c r="K64" t="s">
+        <v>132</v>
+      </c>
+      <c r="L64">
+        <v>2.7471447517498498E-2</v>
+      </c>
+      <c r="M64">
+        <v>2.7471447517498498E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65">
+        <v>2018</v>
+      </c>
+      <c r="H65" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" t="s">
+        <v>132</v>
+      </c>
+      <c r="J65" t="s">
+        <v>132</v>
+      </c>
+      <c r="K65" t="s">
+        <v>132</v>
+      </c>
+      <c r="L65">
+        <v>2.7471447517498498E-2</v>
+      </c>
+      <c r="M65">
+        <v>2.7471447517498498E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" t="s">
+        <v>164</v>
+      </c>
+      <c r="G66">
+        <v>2018</v>
+      </c>
+      <c r="H66" t="s">
+        <v>126</v>
+      </c>
+      <c r="I66" t="s">
+        <v>132</v>
+      </c>
+      <c r="J66" t="s">
+        <v>132</v>
+      </c>
+      <c r="K66" t="s">
+        <v>132</v>
+      </c>
+      <c r="L66">
+        <v>2.7471447517498498E-2</v>
+      </c>
+      <c r="M66">
+        <v>2.7471447517498498E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67">
+        <v>2018</v>
+      </c>
+      <c r="H67" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" t="s">
+        <v>132</v>
+      </c>
+      <c r="J67" t="s">
+        <v>132</v>
+      </c>
+      <c r="K67" t="s">
+        <v>132</v>
+      </c>
+      <c r="L67">
+        <v>2.7471447517498498E-2</v>
+      </c>
+      <c r="M67">
+        <v>2.7471447517498498E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" t="s">
+        <v>164</v>
+      </c>
+      <c r="G68">
+        <v>2018</v>
+      </c>
+      <c r="H68" t="s">
+        <v>126</v>
+      </c>
+      <c r="I68" t="s">
+        <v>132</v>
+      </c>
+      <c r="J68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K68" t="s">
+        <v>132</v>
+      </c>
+      <c r="L68">
+        <v>2.4447220258868901E-2</v>
+      </c>
+      <c r="M68">
+        <v>2.4447220258868901E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" t="s">
+        <v>164</v>
+      </c>
+      <c r="G69">
+        <v>2018</v>
+      </c>
+      <c r="H69" t="s">
+        <v>126</v>
+      </c>
+      <c r="I69" t="s">
+        <v>132</v>
+      </c>
+      <c r="J69" t="s">
+        <v>132</v>
+      </c>
+      <c r="K69" t="s">
+        <v>132</v>
+      </c>
+      <c r="L69">
+        <v>2.4447220258868901E-2</v>
+      </c>
+      <c r="M69">
+        <v>2.4447220258868901E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" t="s">
+        <v>164</v>
+      </c>
+      <c r="G70">
+        <v>2018</v>
+      </c>
+      <c r="H70" t="s">
+        <v>126</v>
+      </c>
+      <c r="I70" t="s">
+        <v>132</v>
+      </c>
+      <c r="J70" t="s">
+        <v>132</v>
+      </c>
+      <c r="K70" t="s">
+        <v>132</v>
+      </c>
+      <c r="L70">
+        <v>2.4447220258868901E-2</v>
+      </c>
+      <c r="M70">
+        <v>2.4447220258868901E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71">
+        <v>2018</v>
+      </c>
+      <c r="H71" t="s">
+        <v>126</v>
+      </c>
+      <c r="I71" t="s">
+        <v>132</v>
+      </c>
+      <c r="J71" t="s">
+        <v>132</v>
+      </c>
+      <c r="K71" t="s">
+        <v>132</v>
+      </c>
+      <c r="L71">
+        <v>2.4447220258868901E-2</v>
+      </c>
+      <c r="M71">
+        <v>2.4447220258868901E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" t="s">
+        <v>164</v>
+      </c>
+      <c r="G72">
+        <v>2018</v>
+      </c>
+      <c r="H72" t="s">
+        <v>126</v>
+      </c>
+      <c r="I72" t="s">
+        <v>132</v>
+      </c>
+      <c r="J72" t="s">
+        <v>132</v>
+      </c>
+      <c r="K72" t="s">
+        <v>132</v>
+      </c>
+      <c r="L72">
+        <v>2.4447220258868901E-2</v>
+      </c>
+      <c r="M72">
+        <v>2.4447220258868901E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73" t="s">
+        <v>164</v>
+      </c>
+      <c r="G73">
+        <v>2018</v>
+      </c>
+      <c r="H73" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" t="s">
+        <v>132</v>
+      </c>
+      <c r="J73" t="s">
+        <v>132</v>
+      </c>
+      <c r="K73" t="s">
+        <v>132</v>
+      </c>
+      <c r="L73">
+        <v>2.4447220258868901E-2</v>
+      </c>
+      <c r="M73">
+        <v>2.4447220258868901E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" t="s">
+        <v>164</v>
+      </c>
+      <c r="G74">
+        <v>2018</v>
+      </c>
+      <c r="H74" t="s">
+        <v>126</v>
+      </c>
+      <c r="I74" t="s">
+        <v>132</v>
+      </c>
+      <c r="J74" t="s">
+        <v>132</v>
+      </c>
+      <c r="K74" t="s">
+        <v>132</v>
+      </c>
+      <c r="L74">
+        <v>2.4447220258868901E-2</v>
+      </c>
+      <c r="M74">
+        <v>2.4447220258868901E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" t="s">
+        <v>164</v>
+      </c>
+      <c r="G75">
+        <v>2018</v>
+      </c>
+      <c r="H75" t="s">
+        <v>126</v>
+      </c>
+      <c r="I75" t="s">
+        <v>132</v>
+      </c>
+      <c r="J75" t="s">
+        <v>132</v>
+      </c>
+      <c r="K75" t="s">
+        <v>132</v>
+      </c>
+      <c r="L75">
+        <v>2.4447220258868901E-2</v>
+      </c>
+      <c r="M75">
+        <v>2.4447220258868901E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" t="s">
+        <v>83</v>
+      </c>
+      <c r="F76" t="s">
+        <v>164</v>
+      </c>
+      <c r="G76">
+        <v>2018</v>
+      </c>
+      <c r="H76" t="s">
+        <v>126</v>
+      </c>
+      <c r="I76" t="s">
+        <v>132</v>
+      </c>
+      <c r="J76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K76" t="s">
+        <v>132</v>
+      </c>
+      <c r="L76">
+        <v>2.4447220258868901E-2</v>
+      </c>
+      <c r="M76">
+        <v>2.4447220258868901E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" t="s">
+        <v>199</v>
+      </c>
+      <c r="E77" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77">
+        <v>2018</v>
+      </c>
+      <c r="H77" t="s">
+        <v>126</v>
+      </c>
+      <c r="I77" t="s">
+        <v>132</v>
+      </c>
+      <c r="J77" t="s">
+        <v>132</v>
+      </c>
+      <c r="K77" t="s">
+        <v>132</v>
+      </c>
+      <c r="L77">
+        <v>2.4447220258868901E-2</v>
+      </c>
+      <c r="M77">
+        <v>2.4447220258868901E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" t="s">
+        <v>164</v>
+      </c>
+      <c r="G78">
+        <v>2018</v>
+      </c>
+      <c r="H78" t="s">
+        <v>126</v>
+      </c>
+      <c r="I78" t="s">
+        <v>132</v>
+      </c>
+      <c r="J78" t="s">
+        <v>132</v>
+      </c>
+      <c r="K78" t="s">
+        <v>132</v>
+      </c>
+      <c r="L78">
+        <v>2.4447220258868901E-2</v>
+      </c>
+      <c r="M78">
+        <v>2.4447220258868901E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>199</v>
+      </c>
+      <c r="E79" t="s">
+        <v>83</v>
+      </c>
+      <c r="F79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79">
+        <v>2018</v>
+      </c>
+      <c r="H79" t="s">
+        <v>126</v>
+      </c>
+      <c r="I79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J79" t="s">
+        <v>132</v>
+      </c>
+      <c r="K79" t="s">
+        <v>132</v>
+      </c>
+      <c r="L79">
+        <v>2.4447220258868901E-2</v>
+      </c>
+      <c r="M79">
+        <v>2.4447220258868901E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" t="s">
+        <v>83</v>
+      </c>
+      <c r="F80" t="s">
+        <v>164</v>
+      </c>
+      <c r="G80">
+        <v>2018</v>
+      </c>
+      <c r="H80" t="s">
+        <v>126</v>
+      </c>
+      <c r="I80" t="s">
+        <v>132</v>
+      </c>
+      <c r="J80" t="s">
+        <v>132</v>
+      </c>
+      <c r="K80" t="s">
+        <v>132</v>
+      </c>
+      <c r="L80">
+        <v>9.5642043609248301E-2</v>
+      </c>
+      <c r="M80">
+        <v>9.5642043609248301E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" t="s">
+        <v>83</v>
+      </c>
+      <c r="F81" t="s">
+        <v>164</v>
+      </c>
+      <c r="G81">
+        <v>2018</v>
+      </c>
+      <c r="H81" t="s">
+        <v>126</v>
+      </c>
+      <c r="I81" t="s">
+        <v>132</v>
+      </c>
+      <c r="J81" t="s">
+        <v>132</v>
+      </c>
+      <c r="K81" t="s">
+        <v>132</v>
+      </c>
+      <c r="L81">
+        <v>9.5642043609248301E-2</v>
+      </c>
+      <c r="M81">
+        <v>9.5642043609248301E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82">
+        <v>2018</v>
+      </c>
+      <c r="H82" t="s">
+        <v>126</v>
+      </c>
+      <c r="I82" t="s">
+        <v>132</v>
+      </c>
+      <c r="J82" t="s">
+        <v>132</v>
+      </c>
+      <c r="K82" t="s">
+        <v>132</v>
+      </c>
+      <c r="L82">
+        <v>9.5642043609248301E-2</v>
+      </c>
+      <c r="M82">
+        <v>9.5642043609248301E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D83" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" t="s">
+        <v>164</v>
+      </c>
+      <c r="G83">
+        <v>2018</v>
+      </c>
+      <c r="H83" t="s">
+        <v>126</v>
+      </c>
+      <c r="I83" t="s">
+        <v>132</v>
+      </c>
+      <c r="J83" t="s">
+        <v>132</v>
+      </c>
+      <c r="K83" t="s">
+        <v>132</v>
+      </c>
+      <c r="L83">
+        <v>9.5642043609248301E-2</v>
+      </c>
+      <c r="M83">
+        <v>9.5642043609248301E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" t="s">
+        <v>108</v>
+      </c>
+      <c r="E84" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" t="s">
+        <v>164</v>
+      </c>
+      <c r="G84">
+        <v>2018</v>
+      </c>
+      <c r="H84" t="s">
+        <v>126</v>
+      </c>
+      <c r="I84" t="s">
+        <v>132</v>
+      </c>
+      <c r="J84" t="s">
+        <v>132</v>
+      </c>
+      <c r="K84" t="s">
+        <v>132</v>
+      </c>
+      <c r="L84">
+        <v>3.0079476421251201E-2</v>
+      </c>
+      <c r="M84">
+        <v>3.0079476421251201E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" t="s">
+        <v>209</v>
+      </c>
+      <c r="D85" t="s">
+        <v>199</v>
+      </c>
+      <c r="E85" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" t="s">
+        <v>164</v>
+      </c>
+      <c r="G85">
+        <v>2018</v>
+      </c>
+      <c r="H85" t="s">
+        <v>126</v>
+      </c>
+      <c r="I85" t="s">
+        <v>132</v>
+      </c>
+      <c r="J85" t="s">
+        <v>132</v>
+      </c>
+      <c r="K85" t="s">
+        <v>132</v>
+      </c>
+      <c r="L85">
+        <v>3.0079476421251201E-2</v>
+      </c>
+      <c r="M85">
+        <v>3.0079476421251201E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" t="s">
+        <v>83</v>
+      </c>
+      <c r="F86" t="s">
+        <v>164</v>
+      </c>
+      <c r="G86">
+        <v>2018</v>
+      </c>
+      <c r="H86" t="s">
+        <v>126</v>
+      </c>
+      <c r="I86" t="s">
+        <v>132</v>
+      </c>
+      <c r="J86" t="s">
+        <v>132</v>
+      </c>
+      <c r="K86" t="s">
+        <v>132</v>
+      </c>
+      <c r="L86">
+        <v>3.0079476421251201E-2</v>
+      </c>
+      <c r="M86">
+        <v>3.0079476421251201E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" t="s">
+        <v>210</v>
+      </c>
+      <c r="D87" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87" t="s">
+        <v>83</v>
+      </c>
+      <c r="F87" t="s">
+        <v>164</v>
+      </c>
+      <c r="G87">
+        <v>2018</v>
+      </c>
+      <c r="H87" t="s">
+        <v>126</v>
+      </c>
+      <c r="I87" t="s">
+        <v>132</v>
+      </c>
+      <c r="J87" t="s">
+        <v>132</v>
+      </c>
+      <c r="K87" t="s">
+        <v>132</v>
+      </c>
+      <c r="L87">
+        <v>3.0079476421251201E-2</v>
+      </c>
+      <c r="M87">
+        <v>3.0079476421251201E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" t="s">
+        <v>83</v>
+      </c>
+      <c r="F88" t="s">
+        <v>164</v>
+      </c>
+      <c r="G88">
+        <v>2018</v>
+      </c>
+      <c r="H88" t="s">
+        <v>126</v>
+      </c>
+      <c r="I88" t="s">
+        <v>132</v>
+      </c>
+      <c r="J88" t="s">
+        <v>132</v>
+      </c>
+      <c r="K88" t="s">
+        <v>132</v>
+      </c>
+      <c r="L88">
+        <v>3.0079476421251201E-2</v>
+      </c>
+      <c r="M88">
+        <v>3.0079476421251201E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89" t="s">
+        <v>83</v>
+      </c>
+      <c r="F89" t="s">
+        <v>164</v>
+      </c>
+      <c r="G89">
+        <v>2018</v>
+      </c>
+      <c r="H89" t="s">
+        <v>126</v>
+      </c>
+      <c r="I89" t="s">
+        <v>132</v>
+      </c>
+      <c r="J89" t="s">
+        <v>132</v>
+      </c>
+      <c r="K89" t="s">
+        <v>132</v>
+      </c>
+      <c r="L89">
+        <v>3.0079476421251201E-2</v>
+      </c>
+      <c r="M89">
+        <v>3.0079476421251201E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" t="s">
+        <v>83</v>
+      </c>
+      <c r="F90" t="s">
+        <v>164</v>
+      </c>
+      <c r="G90">
+        <v>2018</v>
+      </c>
+      <c r="H90" t="s">
+        <v>126</v>
+      </c>
+      <c r="I90" t="s">
+        <v>132</v>
+      </c>
+      <c r="J90" t="s">
+        <v>132</v>
+      </c>
+      <c r="K90" t="s">
+        <v>132</v>
+      </c>
+      <c r="L90">
+        <v>4.21939695625516E-2</v>
+      </c>
+      <c r="M90">
+        <v>4.21939695625516E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" t="s">
+        <v>83</v>
+      </c>
+      <c r="F91" t="s">
+        <v>164</v>
+      </c>
+      <c r="G91">
+        <v>2018</v>
+      </c>
+      <c r="H91" t="s">
+        <v>126</v>
+      </c>
+      <c r="I91" t="s">
+        <v>132</v>
+      </c>
+      <c r="J91" t="s">
+        <v>132</v>
+      </c>
+      <c r="K91" t="s">
+        <v>132</v>
+      </c>
+      <c r="L91">
+        <v>4.21939695625516E-2</v>
+      </c>
+      <c r="M91">
+        <v>4.21939695625516E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" t="s">
+        <v>83</v>
+      </c>
+      <c r="F92" t="s">
+        <v>164</v>
+      </c>
+      <c r="G92">
+        <v>2018</v>
+      </c>
+      <c r="H92" t="s">
+        <v>126</v>
+      </c>
+      <c r="I92" t="s">
+        <v>132</v>
+      </c>
+      <c r="J92" t="s">
+        <v>132</v>
+      </c>
+      <c r="K92" t="s">
+        <v>132</v>
+      </c>
+      <c r="L92">
+        <v>5.2867897077308497E-2</v>
+      </c>
+      <c r="M92">
+        <v>5.2867897077308497E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" t="s">
+        <v>213</v>
+      </c>
+      <c r="D93" t="s">
+        <v>199</v>
+      </c>
+      <c r="E93" t="s">
+        <v>83</v>
+      </c>
+      <c r="F93" t="s">
+        <v>164</v>
+      </c>
+      <c r="G93">
+        <v>2018</v>
+      </c>
+      <c r="H93" t="s">
+        <v>126</v>
+      </c>
+      <c r="I93" t="s">
+        <v>132</v>
+      </c>
+      <c r="J93" t="s">
+        <v>132</v>
+      </c>
+      <c r="K93" t="s">
+        <v>132</v>
+      </c>
+      <c r="L93">
+        <v>5.2867897077308497E-2</v>
+      </c>
+      <c r="M93">
+        <v>5.2867897077308497E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D772440E-5AFD-47E0-A6C0-EF255248451F}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2">
+        <v>1.91859640129881E-2</v>
+      </c>
+      <c r="M2">
+        <v>1.91859640129881E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3">
+        <v>2018</v>
+      </c>
+      <c r="H3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3">
+        <v>1.91859640129881E-2</v>
+      </c>
+      <c r="M3">
+        <v>1.91859640129881E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4">
+        <v>2018</v>
+      </c>
+      <c r="H4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4">
+        <v>1.91859640129881E-2</v>
+      </c>
+      <c r="M4">
+        <v>1.91859640129881E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5">
+        <v>2018</v>
+      </c>
+      <c r="H5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5">
+        <v>1.91859640129881E-2</v>
+      </c>
+      <c r="M5">
+        <v>1.91859640129881E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6">
+        <v>2018</v>
+      </c>
+      <c r="H6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6">
+        <v>1.18590868367296E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.18590868367296E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7">
+        <v>2018</v>
+      </c>
+      <c r="H7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7">
+        <v>3.7359826231663999E-2</v>
+      </c>
+      <c r="M7">
+        <v>3.7359826231663999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8">
+        <v>2018</v>
+      </c>
+      <c r="H8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8">
+        <v>2.3078593190679501E-2</v>
+      </c>
+      <c r="M8">
+        <v>2.3078593190679501E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9">
+        <v>2018</v>
+      </c>
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9">
+        <v>1.7647904805808901E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.7647904805808901E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10">
+        <v>2018</v>
+      </c>
+      <c r="H10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10">
+        <v>2.4653262579847901E-2</v>
+      </c>
+      <c r="M10">
+        <v>2.4653262579847901E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11">
+        <v>2018</v>
+      </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11">
+        <v>2.4653262579847901E-2</v>
+      </c>
+      <c r="M11">
+        <v>2.4653262579847901E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12">
+        <v>2018</v>
+      </c>
+      <c r="H12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12">
+        <v>2.4653262579847901E-2</v>
+      </c>
+      <c r="M12">
+        <v>2.4653262579847901E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13">
+        <v>2018</v>
+      </c>
+      <c r="H13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13">
+        <v>2.4653262579847901E-2</v>
+      </c>
+      <c r="M13">
+        <v>2.4653262579847901E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14">
+        <v>2018</v>
+      </c>
+      <c r="H14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14">
+        <v>2.2095891324020799E-2</v>
+      </c>
+      <c r="M14">
+        <v>2.2095891324020799E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15">
+        <v>2018</v>
+      </c>
+      <c r="H15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15">
+        <v>2.8368761423682901E-2</v>
+      </c>
+      <c r="M15">
+        <v>2.8368761423682901E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16">
+        <v>2018</v>
+      </c>
+      <c r="H16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16">
+        <v>3.0936872888717201E-2</v>
+      </c>
+      <c r="M16">
+        <v>3.0936872888717201E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17">
+        <v>2018</v>
+      </c>
+      <c r="H17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17">
+        <v>7.5066866433008306E-2</v>
+      </c>
+      <c r="M17">
+        <v>7.5066866433008306E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18">
+        <v>2018</v>
+      </c>
+      <c r="H18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18">
+        <v>4.1614408271926799E-2</v>
+      </c>
+      <c r="M18">
+        <v>4.1614408271926799E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19">
+        <v>2018</v>
+      </c>
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19">
+        <v>4.1614408271926799E-2</v>
+      </c>
+      <c r="M19">
+        <v>4.1614408271926799E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20">
+        <v>2018</v>
+      </c>
+      <c r="H20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20">
+        <v>4.1614408271926799E-2</v>
+      </c>
+      <c r="M20">
+        <v>4.1614408271926799E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21">
+        <v>2018</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21">
+        <v>4.1614408271926799E-2</v>
+      </c>
+      <c r="M21">
+        <v>4.1614408271926799E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22">
+        <v>2018</v>
+      </c>
+      <c r="H22" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22">
+        <v>3.7040631160092499E-2</v>
+      </c>
+      <c r="M22">
+        <v>3.7040631160092499E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23">
+        <v>2018</v>
+      </c>
+      <c r="H23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23">
+        <v>4.6621727976421598E-2</v>
+      </c>
+      <c r="M23">
+        <v>4.6621727976421598E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24">
+        <v>2018</v>
+      </c>
+      <c r="H24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24">
+        <v>6.7033675870053502E-2</v>
+      </c>
+      <c r="M24">
+        <v>6.7033675870053502E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25">
+        <v>2018</v>
+      </c>
+      <c r="H25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25">
+        <v>9.1153830584100495E-2</v>
+      </c>
+      <c r="M25">
+        <v>9.1153830584100495E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26">
+        <v>2018</v>
+      </c>
+      <c r="H26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26">
+        <v>2.2735699655164601E-2</v>
+      </c>
+      <c r="M26">
+        <v>2.2735699655164601E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27">
+        <v>2018</v>
+      </c>
+      <c r="H27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27">
+        <v>8.6298729994523198E-3</v>
+      </c>
+      <c r="M27">
+        <v>8.6298729994523198E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28">
+        <v>2018</v>
+      </c>
+      <c r="H28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28">
+        <v>1.29275684703049E-2</v>
+      </c>
+      <c r="M28">
+        <v>1.29275684703049E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29">
+        <v>2018</v>
+      </c>
+      <c r="H29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29">
+        <v>3.4409606285151599E-2</v>
+      </c>
+      <c r="M29">
+        <v>3.4409606285151599E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30">
+        <v>2018</v>
+      </c>
+      <c r="H30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30">
+        <v>1.33284867630703E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.33284867630703E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31">
+        <v>2018</v>
+      </c>
+      <c r="H31" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31">
+        <v>0.113051511576835</v>
+      </c>
+      <c r="M31">
+        <v>0.113051511576835</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-IE\main-40\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61199A89-F648-496C-85CA-F1179FD7BCD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3367D6-AE6D-4493-B2EA-4B711DD65E2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -63,6 +63,19 @@
   </authors>
   <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{0021F6E5-21A7-4C1D-B1BF-8245492E85D8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{BD84AB6D-75EC-4779-B9B3-091258269305}">
       <text>
         <r>
           <rPr>
@@ -148,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="236">
   <si>
     <t>UC_N</t>
   </si>
@@ -820,15 +833,73 @@
   <si>
     <t>TFM_Fill-R: w=RSDAFC; Hcol=Region</t>
   </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>C*DH</t>
+  </si>
+  <si>
+    <t>C*H2*HP</t>
+  </si>
+  <si>
+    <t>COM_BNDPRD</t>
+  </si>
+  <si>
+    <t>COMOIL</t>
+  </si>
+  <si>
+    <t>UC_ATTR</t>
+  </si>
+  <si>
+    <t>UC_CAP~RHS</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS~2018</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS~0</t>
+  </si>
+  <si>
+    <t>CAP, GROWTH</t>
+  </si>
+  <si>
+    <t>Public sector - maximum growth rate of HPs</t>
+  </si>
+  <si>
+    <t>UC-SRV-PS_MaxGrowthHPs</t>
+  </si>
+  <si>
+    <t>C*PS*HP</t>
+  </si>
+  <si>
+    <t>Commercial sector - maximum growth rate of HPs</t>
+  </si>
+  <si>
+    <t>UC-SRV-CS_MaxGrowthHPs</t>
+  </si>
+  <si>
+    <t>C*CS*HP</t>
+  </si>
+  <si>
+    <t>Services - maximum growth rate of biomass</t>
+  </si>
+  <si>
+    <t>UC-SRV-MaxGrowthBio</t>
+  </si>
+  <si>
+    <t>C*SBIO*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,8 +980,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,6 +1047,24 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1065,7 +1167,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1112,7 +1214,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,7 +1276,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2289,18 +2400,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A155980F-6689-4ADE-B1F2-DEFB665B2049}">
-  <dimension ref="B2:K6"/>
+  <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>88</v>
       </c>
@@ -2308,7 +2422,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2341,8 +2455,11 @@
       <c r="K3" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>92</v>
       </c>
@@ -2359,8 +2476,9 @@
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>83</v>
       </c>
@@ -2381,7 +2499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>83</v>
       </c>
@@ -2400,6 +2518,328 @@
       </c>
       <c r="K6" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+        <v>IE</v>
+      </c>
+      <c r="I16" s="11" t="str">
+        <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
+        <v>National</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18">
+        <v>2200</v>
+      </c>
+      <c r="I18">
+        <v>2200</v>
+      </c>
+      <c r="K18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19">
+        <v>2200</v>
+      </c>
+      <c r="I19">
+        <v>2200</v>
+      </c>
+      <c r="K19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="str">
+        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3:D3)</f>
+        <v>~UC_Sets: R_E: IE,National</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="N28" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="H29" s="30">
+        <v>2018</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K29" s="30">
+        <v>1</v>
+      </c>
+      <c r="L29" s="34">
+        <v>-0.5</v>
+      </c>
+      <c r="M29" s="30">
+        <v>5</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" s="30">
+        <v>2018</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K30" s="30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="34">
+        <v>-0.5</v>
+      </c>
+      <c r="M30" s="30">
+        <v>5</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="H31" s="30">
+        <v>2018</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K31" s="30">
+        <v>1</v>
+      </c>
+      <c r="L31" s="34">
+        <v>-0.5</v>
+      </c>
+      <c r="M31" s="30">
+        <v>5</v>
+      </c>
+      <c r="N31" s="30" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2675,7 +3115,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2785,7 +3225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CF89D-3AC9-4E2E-BCF6-79A710F8BD8A}">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3367D6-AE6D-4493-B2EA-4B711DD65E2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB0A016-BE56-4E98-90B7-0D55D1F07745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -49,7 +49,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2402,16 +2401,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A155980F-6689-4ADE-B1F2-DEFB665B2049}">
   <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -3225,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CF89D-3AC9-4E2E-BCF6-79A710F8BD8A}">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,7 +3501,7 @@
         <v>114</v>
       </c>
       <c r="M22" s="26">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -3512,11 +3513,11 @@
       </c>
       <c r="H23" s="27">
         <f>RSDAFC!L2*$M$22</f>
-        <v>2.4813655183930803E-3</v>
+        <v>1.2406827591965401E-2</v>
       </c>
       <c r="I23" s="27">
         <f>RSDAFC!M2*$M$22</f>
-        <v>2.4813655183930803E-3</v>
+        <v>1.2406827591965401E-2</v>
       </c>
       <c r="K23" t="str">
         <f>RSDAFC!C2</f>
@@ -3532,11 +3533,11 @@
       </c>
       <c r="H24" s="27">
         <f>RSDAFC!L3*$M$22</f>
-        <v>2.4813655183930803E-3</v>
+        <v>1.2406827591965401E-2</v>
       </c>
       <c r="I24" s="27">
         <f>RSDAFC!M3*$M$22</f>
-        <v>2.4813655183930803E-3</v>
+        <v>1.2406827591965401E-2</v>
       </c>
       <c r="K24" t="str">
         <f>RSDAFC!C3</f>
@@ -3552,11 +3553,11 @@
       </c>
       <c r="H25" s="27">
         <f>RSDAFC!L4*$M$22</f>
-        <v>2.4813655183930803E-3</v>
+        <v>1.2406827591965401E-2</v>
       </c>
       <c r="I25" s="27">
         <f>RSDAFC!M4*$M$22</f>
-        <v>2.4813655183930803E-3</v>
+        <v>1.2406827591965401E-2</v>
       </c>
       <c r="K25" t="str">
         <f>RSDAFC!C4</f>
@@ -3572,11 +3573,11 @@
       </c>
       <c r="H26" s="27">
         <f>RSDAFC!L5*$M$22</f>
-        <v>2.4813655183930803E-3</v>
+        <v>1.2406827591965401E-2</v>
       </c>
       <c r="I26" s="27">
         <f>RSDAFC!M5*$M$22</f>
-        <v>2.4813655183930803E-3</v>
+        <v>1.2406827591965401E-2</v>
       </c>
       <c r="K26" t="str">
         <f>RSDAFC!C5</f>
@@ -3592,11 +3593,11 @@
       </c>
       <c r="H27" s="27">
         <f>RSDAFC!L6*$M$22</f>
-        <v>1.73685782056223E-3</v>
+        <v>8.6842891028111498E-3</v>
       </c>
       <c r="I27" s="27">
         <f>RSDAFC!M6*$M$22</f>
-        <v>1.73685782056223E-3</v>
+        <v>8.6842891028111498E-3</v>
       </c>
       <c r="K27" t="str">
         <f>RSDAFC!C6</f>
@@ -3612,11 +3613,11 @@
       </c>
       <c r="H28" s="27">
         <f>RSDAFC!L7*$M$22</f>
-        <v>1.73685782056223E-3</v>
+        <v>8.6842891028111498E-3</v>
       </c>
       <c r="I28" s="27">
         <f>RSDAFC!M7*$M$22</f>
-        <v>1.73685782056223E-3</v>
+        <v>8.6842891028111498E-3</v>
       </c>
       <c r="K28" t="str">
         <f>RSDAFC!C7</f>
@@ -3632,11 +3633,11 @@
       </c>
       <c r="H29" s="27">
         <f>RSDAFC!L8*$M$22</f>
-        <v>1.73685782056223E-3</v>
+        <v>8.6842891028111498E-3</v>
       </c>
       <c r="I29" s="27">
         <f>RSDAFC!M8*$M$22</f>
-        <v>1.73685782056223E-3</v>
+        <v>8.6842891028111498E-3</v>
       </c>
       <c r="K29" t="str">
         <f>RSDAFC!C8</f>
@@ -3652,11 +3653,11 @@
       </c>
       <c r="H30" s="27">
         <f>RSDAFC!L9*$M$22</f>
-        <v>1.73685782056223E-3</v>
+        <v>8.6842891028111498E-3</v>
       </c>
       <c r="I30" s="27">
         <f>RSDAFC!M9*$M$22</f>
-        <v>1.73685782056223E-3</v>
+        <v>8.6842891028111498E-3</v>
       </c>
       <c r="K30" t="str">
         <f>RSDAFC!C9</f>
@@ -3672,11 +3673,11 @@
       </c>
       <c r="H31" s="27">
         <f>RSDAFC!L10*$M$22</f>
-        <v>3.1787011567387803E-3</v>
+        <v>1.58935057836939E-2</v>
       </c>
       <c r="I31" s="27">
         <f>RSDAFC!M10*$M$22</f>
-        <v>3.1787011567387803E-3</v>
+        <v>1.58935057836939E-2</v>
       </c>
       <c r="K31" t="str">
         <f>RSDAFC!C10</f>
@@ -3692,11 +3693,11 @@
       </c>
       <c r="H32" s="27">
         <f>RSDAFC!L11*$M$22</f>
-        <v>3.1787011567387803E-3</v>
+        <v>1.58935057836939E-2</v>
       </c>
       <c r="I32" s="27">
         <f>RSDAFC!M11*$M$22</f>
-        <v>3.1787011567387803E-3</v>
+        <v>1.58935057836939E-2</v>
       </c>
       <c r="K32" t="str">
         <f>RSDAFC!C11</f>
@@ -3712,11 +3713,11 @@
       </c>
       <c r="H33" s="27">
         <f>RSDAFC!L12*$M$22</f>
-        <v>3.1787011567387803E-3</v>
+        <v>1.58935057836939E-2</v>
       </c>
       <c r="I33" s="27">
         <f>RSDAFC!M12*$M$22</f>
-        <v>3.1787011567387803E-3</v>
+        <v>1.58935057836939E-2</v>
       </c>
       <c r="K33" t="str">
         <f>RSDAFC!C12</f>
@@ -3732,11 +3733,11 @@
       </c>
       <c r="H34" s="27">
         <f>RSDAFC!L13*$M$22</f>
-        <v>3.1787011567387803E-3</v>
+        <v>1.58935057836939E-2</v>
       </c>
       <c r="I34" s="27">
         <f>RSDAFC!M13*$M$22</f>
-        <v>3.1787011567387803E-3</v>
+        <v>1.58935057836939E-2</v>
       </c>
       <c r="K34" t="str">
         <f>RSDAFC!C13</f>
@@ -3752,11 +3753,11 @@
       </c>
       <c r="H35" s="27">
         <f>RSDAFC!L14*$M$22</f>
-        <v>2.0960831834076401E-3</v>
+        <v>1.04804159170382E-2</v>
       </c>
       <c r="I35" s="27">
         <f>RSDAFC!M14*$M$22</f>
-        <v>2.0960831834076401E-3</v>
+        <v>1.04804159170382E-2</v>
       </c>
       <c r="K35" t="str">
         <f>RSDAFC!C14</f>
@@ -3772,11 +3773,11 @@
       </c>
       <c r="H36" s="27">
         <f>RSDAFC!L15*$M$22</f>
-        <v>2.0960831834076401E-3</v>
+        <v>1.04804159170382E-2</v>
       </c>
       <c r="I36" s="27">
         <f>RSDAFC!M15*$M$22</f>
-        <v>2.0960831834076401E-3</v>
+        <v>1.04804159170382E-2</v>
       </c>
       <c r="K36" t="str">
         <f>RSDAFC!C15</f>
@@ -3792,11 +3793,11 @@
       </c>
       <c r="H37" s="27">
         <f>RSDAFC!L16*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="I37" s="27">
         <f>RSDAFC!M16*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="K37" t="str">
         <f>RSDAFC!C16</f>
@@ -3812,11 +3813,11 @@
       </c>
       <c r="H38" s="27">
         <f>RSDAFC!L17*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="I38" s="27">
         <f>RSDAFC!M17*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="K38" t="str">
         <f>RSDAFC!C17</f>
@@ -3832,11 +3833,11 @@
       </c>
       <c r="H39" s="27">
         <f>RSDAFC!L18*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="I39" s="27">
         <f>RSDAFC!M18*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="K39" t="str">
         <f>RSDAFC!C18</f>
@@ -3852,11 +3853,11 @@
       </c>
       <c r="H40" s="27">
         <f>RSDAFC!L19*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="I40" s="27">
         <f>RSDAFC!M19*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="K40" t="str">
         <f>RSDAFC!C19</f>
@@ -3872,11 +3873,11 @@
       </c>
       <c r="H41" s="27">
         <f>RSDAFC!L20*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="I41" s="27">
         <f>RSDAFC!M20*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="K41" t="str">
         <f>RSDAFC!C20</f>
@@ -3892,11 +3893,11 @@
       </c>
       <c r="H42" s="27">
         <f>RSDAFC!L21*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="I42" s="27">
         <f>RSDAFC!M21*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="K42" t="str">
         <f>RSDAFC!C21</f>
@@ -3912,11 +3913,11 @@
       </c>
       <c r="H43" s="27">
         <f>RSDAFC!L22*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="I43" s="27">
         <f>RSDAFC!M22*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="K43" t="str">
         <f>RSDAFC!C22</f>
@@ -3932,11 +3933,11 @@
       </c>
       <c r="H44" s="27">
         <f>RSDAFC!L23*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="I44" s="27">
         <f>RSDAFC!M23*$M$22</f>
-        <v>9.4795012067416709E-4</v>
+        <v>4.7397506033708351E-3</v>
       </c>
       <c r="K44" t="str">
         <f>RSDAFC!C23</f>
@@ -3952,11 +3953,11 @@
       </c>
       <c r="H45" s="27">
         <f>RSDAFC!L24*$M$22</f>
-        <v>7.086978367280051E-5</v>
+        <v>3.5434891836400251E-4</v>
       </c>
       <c r="I45" s="27">
         <f>RSDAFC!M24*$M$22</f>
-        <v>7.086978367280051E-5</v>
+        <v>3.5434891836400251E-4</v>
       </c>
       <c r="K45" t="str">
         <f>RSDAFC!C24</f>
@@ -3972,11 +3973,11 @@
       </c>
       <c r="H46" s="27">
         <f>RSDAFC!L25*$M$22</f>
-        <v>7.086978367280051E-5</v>
+        <v>3.5434891836400251E-4</v>
       </c>
       <c r="I46" s="27">
         <f>RSDAFC!M25*$M$22</f>
-        <v>7.086978367280051E-5</v>
+        <v>3.5434891836400251E-4</v>
       </c>
       <c r="K46" t="str">
         <f>RSDAFC!C25</f>
@@ -3992,11 +3993,11 @@
       </c>
       <c r="H47" s="27">
         <f>RSDAFC!L26*$M$22</f>
-        <v>7.086978367280051E-5</v>
+        <v>3.5434891836400251E-4</v>
       </c>
       <c r="I47" s="27">
         <f>RSDAFC!M26*$M$22</f>
-        <v>7.086978367280051E-5</v>
+        <v>3.5434891836400251E-4</v>
       </c>
       <c r="K47" t="str">
         <f>RSDAFC!C26</f>
@@ -4012,11 +4013,11 @@
       </c>
       <c r="H48" s="27">
         <f>RSDAFC!L27*$M$22</f>
-        <v>7.086978367280051E-5</v>
+        <v>3.5434891836400251E-4</v>
       </c>
       <c r="I48" s="27">
         <f>RSDAFC!M27*$M$22</f>
-        <v>7.086978367280051E-5</v>
+        <v>3.5434891836400251E-4</v>
       </c>
       <c r="K48" t="str">
         <f>RSDAFC!C27</f>
@@ -4032,11 +4033,11 @@
       </c>
       <c r="H49" s="27">
         <f>RSDAFC!L28*$M$22</f>
-        <v>2.3986004381018502E-3</v>
+        <v>1.199300219050925E-2</v>
       </c>
       <c r="I49" s="27">
         <f>RSDAFC!M28*$M$22</f>
-        <v>2.3986004381018502E-3</v>
+        <v>1.199300219050925E-2</v>
       </c>
       <c r="K49" t="str">
         <f>RSDAFC!C28</f>
@@ -4052,11 +4053,11 @@
       </c>
       <c r="H50" s="27">
         <f>RSDAFC!L29*$M$22</f>
-        <v>2.3986004381018502E-3</v>
+        <v>1.199300219050925E-2</v>
       </c>
       <c r="I50" s="27">
         <f>RSDAFC!M29*$M$22</f>
-        <v>2.3986004381018502E-3</v>
+        <v>1.199300219050925E-2</v>
       </c>
       <c r="K50" t="str">
         <f>RSDAFC!C29</f>
@@ -4072,11 +4073,11 @@
       </c>
       <c r="H51" s="27">
         <f>RSDAFC!L30*$M$22</f>
-        <v>1.78079112619931E-3</v>
+        <v>8.90395563099655E-3</v>
       </c>
       <c r="I51" s="27">
         <f>RSDAFC!M30*$M$22</f>
-        <v>1.78079112619931E-3</v>
+        <v>8.90395563099655E-3</v>
       </c>
       <c r="K51" t="str">
         <f>RSDAFC!C30</f>
@@ -4092,11 +4093,11 @@
       </c>
       <c r="H52" s="27">
         <f>RSDAFC!L31*$M$22</f>
-        <v>1.78079112619931E-3</v>
+        <v>8.90395563099655E-3</v>
       </c>
       <c r="I52" s="27">
         <f>RSDAFC!M31*$M$22</f>
-        <v>1.78079112619931E-3</v>
+        <v>8.90395563099655E-3</v>
       </c>
       <c r="K52" t="str">
         <f>RSDAFC!C31</f>
@@ -4112,11 +4113,11 @@
       </c>
       <c r="H53" s="27">
         <f>RSDAFC!L32*$M$22</f>
-        <v>1.3703890127892201E-3</v>
+        <v>6.8519450639461001E-3</v>
       </c>
       <c r="I53" s="27">
         <f>RSDAFC!M32*$M$22</f>
-        <v>1.3703890127892201E-3</v>
+        <v>6.8519450639461001E-3</v>
       </c>
       <c r="K53" t="str">
         <f>RSDAFC!C32</f>
@@ -4132,11 +4133,11 @@
       </c>
       <c r="H54" s="27">
         <f>RSDAFC!L33*$M$22</f>
-        <v>1.3703890127892201E-3</v>
+        <v>6.8519450639461001E-3</v>
       </c>
       <c r="I54" s="27">
         <f>RSDAFC!M33*$M$22</f>
-        <v>1.3703890127892201E-3</v>
+        <v>6.8519450639461001E-3</v>
       </c>
       <c r="K54" t="str">
         <f>RSDAFC!C33</f>
@@ -4152,11 +4153,11 @@
       </c>
       <c r="H55" s="27">
         <f>RSDAFC!L34*$M$22</f>
-        <v>1.87904155250764E-3</v>
+        <v>9.3952077625382002E-3</v>
       </c>
       <c r="I55" s="27">
         <f>RSDAFC!M34*$M$22</f>
-        <v>1.87904155250764E-3</v>
+        <v>9.3952077625382002E-3</v>
       </c>
       <c r="K55" t="str">
         <f>RSDAFC!C34</f>
@@ -4172,11 +4173,11 @@
       </c>
       <c r="H56" s="27">
         <f>RSDAFC!L35*$M$22</f>
-        <v>1.87904155250764E-3</v>
+        <v>9.3952077625382002E-3</v>
       </c>
       <c r="I56" s="27">
         <f>RSDAFC!M35*$M$22</f>
-        <v>1.87904155250764E-3</v>
+        <v>9.3952077625382002E-3</v>
       </c>
       <c r="K56" t="str">
         <f>RSDAFC!C35</f>
@@ -4192,11 +4193,11 @@
       </c>
       <c r="H57" s="27">
         <f>RSDAFC!L36*$M$22</f>
-        <v>1.87904155250764E-3</v>
+        <v>9.3952077625382002E-3</v>
       </c>
       <c r="I57" s="27">
         <f>RSDAFC!M36*$M$22</f>
-        <v>1.87904155250764E-3</v>
+        <v>9.3952077625382002E-3</v>
       </c>
       <c r="K57" t="str">
         <f>RSDAFC!C36</f>
@@ -4212,11 +4213,11 @@
       </c>
       <c r="H58" s="27">
         <f>RSDAFC!L37*$M$22</f>
-        <v>1.87904155250764E-3</v>
+        <v>9.3952077625382002E-3</v>
       </c>
       <c r="I58" s="27">
         <f>RSDAFC!M37*$M$22</f>
-        <v>1.87904155250764E-3</v>
+        <v>9.3952077625382002E-3</v>
       </c>
       <c r="K58" t="str">
         <f>RSDAFC!C37</f>
@@ -4232,11 +4233,11 @@
       </c>
       <c r="H59" s="27">
         <f>RSDAFC!L38*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="I59" s="27">
         <f>RSDAFC!M38*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="K59" t="str">
         <f>RSDAFC!C38</f>
@@ -4252,11 +4253,11 @@
       </c>
       <c r="H60" s="27">
         <f>RSDAFC!L39*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="I60" s="27">
         <f>RSDAFC!M39*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="K60" t="str">
         <f>RSDAFC!C39</f>
@@ -4272,11 +4273,11 @@
       </c>
       <c r="H61" s="27">
         <f>RSDAFC!L40*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="I61" s="27">
         <f>RSDAFC!M40*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="K61" t="str">
         <f>RSDAFC!C40</f>
@@ -4292,11 +4293,11 @@
       </c>
       <c r="H62" s="27">
         <f>RSDAFC!L41*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="I62" s="27">
         <f>RSDAFC!M41*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="K62" t="str">
         <f>RSDAFC!C41</f>
@@ -4312,11 +4313,11 @@
       </c>
       <c r="H63" s="27">
         <f>RSDAFC!L42*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="I63" s="27">
         <f>RSDAFC!M42*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="K63" t="str">
         <f>RSDAFC!C42</f>
@@ -4332,11 +4333,11 @@
       </c>
       <c r="H64" s="27">
         <f>RSDAFC!L43*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="I64" s="27">
         <f>RSDAFC!M43*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="K64" t="str">
         <f>RSDAFC!C43</f>
@@ -4352,11 +4353,11 @@
       </c>
       <c r="H65" s="27">
         <f>RSDAFC!L44*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="I65" s="27">
         <f>RSDAFC!M44*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="K65" t="str">
         <f>RSDAFC!C44</f>
@@ -4372,11 +4373,11 @@
       </c>
       <c r="H66" s="27">
         <f>RSDAFC!L45*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="I66" s="27">
         <f>RSDAFC!M45*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="K66" t="str">
         <f>RSDAFC!C45</f>
@@ -4392,11 +4393,11 @@
       </c>
       <c r="H67" s="27">
         <f>RSDAFC!L46*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="I67" s="27">
         <f>RSDAFC!M46*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="K67" t="str">
         <f>RSDAFC!C46</f>
@@ -4412,11 +4413,11 @@
       </c>
       <c r="H68" s="27">
         <f>RSDAFC!L47*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="I68" s="27">
         <f>RSDAFC!M47*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="K68" t="str">
         <f>RSDAFC!C47</f>
@@ -4432,11 +4433,11 @@
       </c>
       <c r="H69" s="27">
         <f>RSDAFC!L48*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="I69" s="27">
         <f>RSDAFC!M48*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="K69" t="str">
         <f>RSDAFC!C48</f>
@@ -4452,11 +4453,11 @@
       </c>
       <c r="H70" s="27">
         <f>RSDAFC!L49*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="I70" s="27">
         <f>RSDAFC!M49*$M$22</f>
-        <v>1.5651300362142602E-3</v>
+        <v>7.8256501810713003E-3</v>
       </c>
       <c r="K70" t="str">
         <f>RSDAFC!C49</f>
@@ -4472,11 +4473,11 @@
       </c>
       <c r="H71" s="27">
         <f>RSDAFC!L50*$M$22</f>
-        <v>7.5978921044014098E-4</v>
+        <v>3.7989460522007048E-3</v>
       </c>
       <c r="I71" s="27">
         <f>RSDAFC!M50*$M$22</f>
-        <v>7.5978921044014098E-4</v>
+        <v>3.7989460522007048E-3</v>
       </c>
       <c r="K71" t="str">
         <f>RSDAFC!C50</f>
@@ -4492,11 +4493,11 @@
       </c>
       <c r="H72" s="27">
         <f>RSDAFC!L51*$M$22</f>
-        <v>7.5978921044014098E-4</v>
+        <v>3.7989460522007048E-3</v>
       </c>
       <c r="I72" s="27">
         <f>RSDAFC!M51*$M$22</f>
-        <v>7.5978921044014098E-4</v>
+        <v>3.7989460522007048E-3</v>
       </c>
       <c r="K72" t="str">
         <f>RSDAFC!C51</f>
@@ -4512,11 +4513,11 @@
       </c>
       <c r="H73" s="27">
         <f>RSDAFC!L52*$M$22</f>
-        <v>7.5978921044014098E-4</v>
+        <v>3.7989460522007048E-3</v>
       </c>
       <c r="I73" s="27">
         <f>RSDAFC!M52*$M$22</f>
-        <v>7.5978921044014098E-4</v>
+        <v>3.7989460522007048E-3</v>
       </c>
       <c r="K73" t="str">
         <f>RSDAFC!C52</f>
@@ -4532,11 +4533,11 @@
       </c>
       <c r="H74" s="27">
         <f>RSDAFC!L53*$M$22</f>
-        <v>7.5978921044014098E-4</v>
+        <v>3.7989460522007048E-3</v>
       </c>
       <c r="I74" s="27">
         <f>RSDAFC!M53*$M$22</f>
-        <v>7.5978921044014098E-4</v>
+        <v>3.7989460522007048E-3</v>
       </c>
       <c r="K74" t="str">
         <f>RSDAFC!C53</f>
@@ -4552,11 +4553,11 @@
       </c>
       <c r="H75" s="27">
         <f>RSDAFC!L54*$M$22</f>
-        <v>1.9679944818874E-3</v>
+        <v>9.8399724094370006E-3</v>
       </c>
       <c r="I75" s="27">
         <f>RSDAFC!M54*$M$22</f>
-        <v>1.9679944818874E-3</v>
+        <v>9.8399724094370006E-3</v>
       </c>
       <c r="K75" t="str">
         <f>RSDAFC!C54</f>
@@ -4572,11 +4573,11 @@
       </c>
       <c r="H76" s="27">
         <f>RSDAFC!L55*$M$22</f>
-        <v>1.9679944818874E-3</v>
+        <v>9.8399724094370006E-3</v>
       </c>
       <c r="I76" s="27">
         <f>RSDAFC!M55*$M$22</f>
-        <v>1.9679944818874E-3</v>
+        <v>9.8399724094370006E-3</v>
       </c>
       <c r="K76" t="str">
         <f>RSDAFC!C55</f>
@@ -4592,11 +4593,11 @@
       </c>
       <c r="H77" s="27">
         <f>RSDAFC!L56*$M$22</f>
-        <v>1.9679944818874E-3</v>
+        <v>9.8399724094370006E-3</v>
       </c>
       <c r="I77" s="27">
         <f>RSDAFC!M56*$M$22</f>
-        <v>1.9679944818874E-3</v>
+        <v>9.8399724094370006E-3</v>
       </c>
       <c r="K77" t="str">
         <f>RSDAFC!C56</f>
@@ -4612,11 +4613,11 @@
       </c>
       <c r="H78" s="27">
         <f>RSDAFC!L57*$M$22</f>
-        <v>1.9679944818874E-3</v>
+        <v>9.8399724094370006E-3</v>
       </c>
       <c r="I78" s="27">
         <f>RSDAFC!M57*$M$22</f>
-        <v>1.9679944818874E-3</v>
+        <v>9.8399724094370006E-3</v>
       </c>
       <c r="K78" t="str">
         <f>RSDAFC!C57</f>
@@ -4632,11 +4633,11 @@
       </c>
       <c r="H79" s="27">
         <f>RSDAFC!L58*$M$22</f>
-        <v>1.9679944818874E-3</v>
+        <v>9.8399724094370006E-3</v>
       </c>
       <c r="I79" s="27">
         <f>RSDAFC!M58*$M$22</f>
-        <v>1.9679944818874E-3</v>
+        <v>9.8399724094370006E-3</v>
       </c>
       <c r="K79" t="str">
         <f>RSDAFC!C58</f>
@@ -4652,11 +4653,11 @@
       </c>
       <c r="H80" s="27">
         <f>RSDAFC!L59*$M$22</f>
-        <v>1.9679944818874E-3</v>
+        <v>9.8399724094370006E-3</v>
       </c>
       <c r="I80" s="27">
         <f>RSDAFC!M59*$M$22</f>
-        <v>1.9679944818874E-3</v>
+        <v>9.8399724094370006E-3</v>
       </c>
       <c r="K80" t="str">
         <f>RSDAFC!C59</f>
@@ -4672,11 +4673,11 @@
       </c>
       <c r="H81" s="27">
         <f>RSDAFC!L60*$M$22</f>
-        <v>2.3397171732945604E-3</v>
+        <v>1.1698585866472801E-2</v>
       </c>
       <c r="I81" s="27">
         <f>RSDAFC!M60*$M$22</f>
-        <v>2.3397171732945604E-3</v>
+        <v>1.1698585866472801E-2</v>
       </c>
       <c r="K81" t="str">
         <f>RSDAFC!C60</f>
@@ -4692,11 +4693,11 @@
       </c>
       <c r="H82" s="27">
         <f>RSDAFC!L61*$M$22</f>
-        <v>2.3397171732945604E-3</v>
+        <v>1.1698585866472801E-2</v>
       </c>
       <c r="I82" s="27">
         <f>RSDAFC!M61*$M$22</f>
-        <v>2.3397171732945604E-3</v>
+        <v>1.1698585866472801E-2</v>
       </c>
       <c r="K82" t="str">
         <f>RSDAFC!C61</f>
@@ -4712,11 +4713,11 @@
       </c>
       <c r="H83" s="27">
         <f>RSDAFC!L62*$M$22</f>
-        <v>4.2955901744742798E-3</v>
+        <v>2.14779508723714E-2</v>
       </c>
       <c r="I83" s="27">
         <f>RSDAFC!M62*$M$22</f>
-        <v>4.2955901744742798E-3</v>
+        <v>2.14779508723714E-2</v>
       </c>
       <c r="K83" t="str">
         <f>RSDAFC!C62</f>
@@ -4732,11 +4733,11 @@
       </c>
       <c r="H84" s="27">
         <f>RSDAFC!L63*$M$22</f>
-        <v>4.2955901744742798E-3</v>
+        <v>2.14779508723714E-2</v>
       </c>
       <c r="I84" s="27">
         <f>RSDAFC!M63*$M$22</f>
-        <v>4.2955901744742798E-3</v>
+        <v>2.14779508723714E-2</v>
       </c>
       <c r="K84" t="str">
         <f>RSDAFC!C63</f>
@@ -4752,11 +4753,11 @@
       </c>
       <c r="H85" s="27">
         <f>RSDAFC!L64*$M$22</f>
-        <v>2.7471447517498498E-3</v>
+        <v>1.3735723758749249E-2</v>
       </c>
       <c r="I85" s="27">
         <f>RSDAFC!M64*$M$22</f>
-        <v>2.7471447517498498E-3</v>
+        <v>1.3735723758749249E-2</v>
       </c>
       <c r="K85" t="str">
         <f>RSDAFC!C64</f>
@@ -4772,11 +4773,11 @@
       </c>
       <c r="H86" s="27">
         <f>RSDAFC!L65*$M$22</f>
-        <v>2.7471447517498498E-3</v>
+        <v>1.3735723758749249E-2</v>
       </c>
       <c r="I86" s="27">
         <f>RSDAFC!M65*$M$22</f>
-        <v>2.7471447517498498E-3</v>
+        <v>1.3735723758749249E-2</v>
       </c>
       <c r="K86" t="str">
         <f>RSDAFC!C65</f>
@@ -4792,11 +4793,11 @@
       </c>
       <c r="H87" s="27">
         <f>RSDAFC!L66*$M$22</f>
-        <v>2.7471447517498498E-3</v>
+        <v>1.3735723758749249E-2</v>
       </c>
       <c r="I87" s="27">
         <f>RSDAFC!M66*$M$22</f>
-        <v>2.7471447517498498E-3</v>
+        <v>1.3735723758749249E-2</v>
       </c>
       <c r="K87" t="str">
         <f>RSDAFC!C66</f>
@@ -4812,11 +4813,11 @@
       </c>
       <c r="H88" s="27">
         <f>RSDAFC!L67*$M$22</f>
-        <v>2.7471447517498498E-3</v>
+        <v>1.3735723758749249E-2</v>
       </c>
       <c r="I88" s="27">
         <f>RSDAFC!M67*$M$22</f>
-        <v>2.7471447517498498E-3</v>
+        <v>1.3735723758749249E-2</v>
       </c>
       <c r="K88" t="str">
         <f>RSDAFC!C67</f>
@@ -4832,11 +4833,11 @@
       </c>
       <c r="H89" s="27">
         <f>RSDAFC!L68*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="I89" s="27">
         <f>RSDAFC!M68*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="K89" t="str">
         <f>RSDAFC!C68</f>
@@ -4852,11 +4853,11 @@
       </c>
       <c r="H90" s="27">
         <f>RSDAFC!L69*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="I90" s="27">
         <f>RSDAFC!M69*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="K90" t="str">
         <f>RSDAFC!C69</f>
@@ -4872,11 +4873,11 @@
       </c>
       <c r="H91" s="27">
         <f>RSDAFC!L70*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="I91" s="27">
         <f>RSDAFC!M70*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="K91" t="str">
         <f>RSDAFC!C70</f>
@@ -4892,11 +4893,11 @@
       </c>
       <c r="H92" s="27">
         <f>RSDAFC!L71*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="I92" s="27">
         <f>RSDAFC!M71*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="K92" t="str">
         <f>RSDAFC!C71</f>
@@ -4912,11 +4913,11 @@
       </c>
       <c r="H93" s="27">
         <f>RSDAFC!L72*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="I93" s="27">
         <f>RSDAFC!M72*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="K93" t="str">
         <f>RSDAFC!C72</f>
@@ -4932,11 +4933,11 @@
       </c>
       <c r="H94" s="27">
         <f>RSDAFC!L73*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="I94" s="27">
         <f>RSDAFC!M73*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="K94" t="str">
         <f>RSDAFC!C73</f>
@@ -4952,11 +4953,11 @@
       </c>
       <c r="H95" s="27">
         <f>RSDAFC!L74*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="I95" s="27">
         <f>RSDAFC!M74*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="K95" t="str">
         <f>RSDAFC!C74</f>
@@ -4972,11 +4973,11 @@
       </c>
       <c r="H96" s="27">
         <f>RSDAFC!L75*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="I96" s="27">
         <f>RSDAFC!M75*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="K96" t="str">
         <f>RSDAFC!C75</f>
@@ -4992,11 +4993,11 @@
       </c>
       <c r="H97" s="27">
         <f>RSDAFC!L76*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="I97" s="27">
         <f>RSDAFC!M76*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="K97" t="str">
         <f>RSDAFC!C76</f>
@@ -5012,11 +5013,11 @@
       </c>
       <c r="H98" s="27">
         <f>RSDAFC!L77*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="I98" s="27">
         <f>RSDAFC!M77*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="K98" t="str">
         <f>RSDAFC!C77</f>
@@ -5032,11 +5033,11 @@
       </c>
       <c r="H99" s="27">
         <f>RSDAFC!L78*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="I99" s="27">
         <f>RSDAFC!M78*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="K99" t="str">
         <f>RSDAFC!C78</f>
@@ -5052,11 +5053,11 @@
       </c>
       <c r="H100" s="27">
         <f>RSDAFC!L79*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="I100" s="27">
         <f>RSDAFC!M79*$M$22</f>
-        <v>2.4447220258868902E-3</v>
+        <v>1.222361012943445E-2</v>
       </c>
       <c r="K100" t="str">
         <f>RSDAFC!C79</f>
@@ -5072,11 +5073,11 @@
       </c>
       <c r="H101" s="27">
         <f>RSDAFC!L80*$M$22</f>
-        <v>9.5642043609248314E-3</v>
+        <v>4.782102180462415E-2</v>
       </c>
       <c r="I101" s="27">
         <f>RSDAFC!M80*$M$22</f>
-        <v>9.5642043609248314E-3</v>
+        <v>4.782102180462415E-2</v>
       </c>
       <c r="K101" t="str">
         <f>RSDAFC!C80</f>
@@ -5092,11 +5093,11 @@
       </c>
       <c r="H102" s="27">
         <f>RSDAFC!L81*$M$22</f>
-        <v>9.5642043609248314E-3</v>
+        <v>4.782102180462415E-2</v>
       </c>
       <c r="I102" s="27">
         <f>RSDAFC!M81*$M$22</f>
-        <v>9.5642043609248314E-3</v>
+        <v>4.782102180462415E-2</v>
       </c>
       <c r="K102" t="str">
         <f>RSDAFC!C81</f>
@@ -5112,11 +5113,11 @@
       </c>
       <c r="H103" s="27">
         <f>RSDAFC!L82*$M$22</f>
-        <v>9.5642043609248314E-3</v>
+        <v>4.782102180462415E-2</v>
       </c>
       <c r="I103" s="27">
         <f>RSDAFC!M82*$M$22</f>
-        <v>9.5642043609248314E-3</v>
+        <v>4.782102180462415E-2</v>
       </c>
       <c r="K103" t="str">
         <f>RSDAFC!C82</f>
@@ -5132,11 +5133,11 @@
       </c>
       <c r="H104" s="27">
         <f>RSDAFC!L83*$M$22</f>
-        <v>9.5642043609248314E-3</v>
+        <v>4.782102180462415E-2</v>
       </c>
       <c r="I104" s="27">
         <f>RSDAFC!M83*$M$22</f>
-        <v>9.5642043609248314E-3</v>
+        <v>4.782102180462415E-2</v>
       </c>
       <c r="K104" t="str">
         <f>RSDAFC!C83</f>
@@ -5152,11 +5153,11 @@
       </c>
       <c r="H105" s="27">
         <f>RSDAFC!L84*$M$22</f>
-        <v>3.0079476421251204E-3</v>
+        <v>1.5039738210625601E-2</v>
       </c>
       <c r="I105" s="27">
         <f>RSDAFC!M84*$M$22</f>
-        <v>3.0079476421251204E-3</v>
+        <v>1.5039738210625601E-2</v>
       </c>
       <c r="K105" t="str">
         <f>RSDAFC!C84</f>
@@ -5172,11 +5173,11 @@
       </c>
       <c r="H106" s="27">
         <f>RSDAFC!L85*$M$22</f>
-        <v>3.0079476421251204E-3</v>
+        <v>1.5039738210625601E-2</v>
       </c>
       <c r="I106" s="27">
         <f>RSDAFC!M85*$M$22</f>
-        <v>3.0079476421251204E-3</v>
+        <v>1.5039738210625601E-2</v>
       </c>
       <c r="K106" t="str">
         <f>RSDAFC!C85</f>
@@ -5192,11 +5193,11 @@
       </c>
       <c r="H107" s="27">
         <f>RSDAFC!L86*$M$22</f>
-        <v>3.0079476421251204E-3</v>
+        <v>1.5039738210625601E-2</v>
       </c>
       <c r="I107" s="27">
         <f>RSDAFC!M86*$M$22</f>
-        <v>3.0079476421251204E-3</v>
+        <v>1.5039738210625601E-2</v>
       </c>
       <c r="K107" t="str">
         <f>RSDAFC!C86</f>
@@ -5212,11 +5213,11 @@
       </c>
       <c r="H108" s="27">
         <f>RSDAFC!L87*$M$22</f>
-        <v>3.0079476421251204E-3</v>
+        <v>1.5039738210625601E-2</v>
       </c>
       <c r="I108" s="27">
         <f>RSDAFC!M87*$M$22</f>
-        <v>3.0079476421251204E-3</v>
+        <v>1.5039738210625601E-2</v>
       </c>
       <c r="K108" t="str">
         <f>RSDAFC!C87</f>
@@ -5232,11 +5233,11 @@
       </c>
       <c r="H109" s="27">
         <f>RSDAFC!L88*$M$22</f>
-        <v>3.0079476421251204E-3</v>
+        <v>1.5039738210625601E-2</v>
       </c>
       <c r="I109" s="27">
         <f>RSDAFC!M88*$M$22</f>
-        <v>3.0079476421251204E-3</v>
+        <v>1.5039738210625601E-2</v>
       </c>
       <c r="K109" t="str">
         <f>RSDAFC!C88</f>
@@ -5252,11 +5253,11 @@
       </c>
       <c r="H110" s="27">
         <f>RSDAFC!L89*$M$22</f>
-        <v>3.0079476421251204E-3</v>
+        <v>1.5039738210625601E-2</v>
       </c>
       <c r="I110" s="27">
         <f>RSDAFC!M89*$M$22</f>
-        <v>3.0079476421251204E-3</v>
+        <v>1.5039738210625601E-2</v>
       </c>
       <c r="K110" t="str">
         <f>RSDAFC!C89</f>
@@ -5272,11 +5273,11 @@
       </c>
       <c r="H111" s="27">
         <f>RSDAFC!L90*$M$22</f>
-        <v>4.2193969562551604E-3</v>
+        <v>2.10969847812758E-2</v>
       </c>
       <c r="I111" s="27">
         <f>RSDAFC!M90*$M$22</f>
-        <v>4.2193969562551604E-3</v>
+        <v>2.10969847812758E-2</v>
       </c>
       <c r="K111" t="str">
         <f>RSDAFC!C90</f>
@@ -5292,11 +5293,11 @@
       </c>
       <c r="H112" s="27">
         <f>RSDAFC!L91*$M$22</f>
-        <v>4.2193969562551604E-3</v>
+        <v>2.10969847812758E-2</v>
       </c>
       <c r="I112" s="27">
         <f>RSDAFC!M91*$M$22</f>
-        <v>4.2193969562551604E-3</v>
+        <v>2.10969847812758E-2</v>
       </c>
       <c r="K112" t="str">
         <f>RSDAFC!C91</f>
@@ -5312,11 +5313,11 @@
       </c>
       <c r="H113" s="27">
         <f>RSDAFC!L92*$M$22</f>
-        <v>5.2867897077308497E-3</v>
+        <v>2.6433948538654248E-2</v>
       </c>
       <c r="I113" s="27">
         <f>RSDAFC!M92*$M$22</f>
-        <v>5.2867897077308497E-3</v>
+        <v>2.6433948538654248E-2</v>
       </c>
       <c r="K113" t="str">
         <f>RSDAFC!C92</f>
@@ -5332,11 +5333,11 @@
       </c>
       <c r="H114" s="27">
         <f>RSDAFC!L93*$M$22</f>
-        <v>5.2867897077308497E-3</v>
+        <v>2.6433948538654248E-2</v>
       </c>
       <c r="I114" s="27">
         <f>RSDAFC!M93*$M$22</f>
-        <v>5.2867897077308497E-3</v>
+        <v>2.6433948538654248E-2</v>
       </c>
       <c r="K114" t="str">
         <f>RSDAFC!C93</f>
@@ -5352,11 +5353,11 @@
       </c>
       <c r="H115" s="27">
         <f>RSDAFA!L2*$M$22</f>
-        <v>1.91859640129881E-3</v>
+        <v>9.59298200649405E-3</v>
       </c>
       <c r="I115" s="27">
         <f>RSDAFA!M2*$M$22</f>
-        <v>1.91859640129881E-3</v>
+        <v>9.59298200649405E-3</v>
       </c>
       <c r="K115" s="27" t="str">
         <f>RSDAFA!C2</f>
@@ -5372,11 +5373,11 @@
       </c>
       <c r="H116" s="27">
         <f>RSDAFA!L3*$M$22</f>
-        <v>1.91859640129881E-3</v>
+        <v>9.59298200649405E-3</v>
       </c>
       <c r="I116" s="27">
         <f>RSDAFA!M3*$M$22</f>
-        <v>1.91859640129881E-3</v>
+        <v>9.59298200649405E-3</v>
       </c>
       <c r="K116" s="27" t="str">
         <f>RSDAFA!C3</f>
@@ -5392,11 +5393,11 @@
       </c>
       <c r="H117" s="27">
         <f>RSDAFA!L4*$M$22</f>
-        <v>1.91859640129881E-3</v>
+        <v>9.59298200649405E-3</v>
       </c>
       <c r="I117" s="27">
         <f>RSDAFA!M4*$M$22</f>
-        <v>1.91859640129881E-3</v>
+        <v>9.59298200649405E-3</v>
       </c>
       <c r="K117" s="27" t="str">
         <f>RSDAFA!C4</f>
@@ -5412,11 +5413,11 @@
       </c>
       <c r="H118" s="27">
         <f>RSDAFA!L5*$M$22</f>
-        <v>1.91859640129881E-3</v>
+        <v>9.59298200649405E-3</v>
       </c>
       <c r="I118" s="27">
         <f>RSDAFA!M5*$M$22</f>
-        <v>1.91859640129881E-3</v>
+        <v>9.59298200649405E-3</v>
       </c>
       <c r="K118" s="27" t="str">
         <f>RSDAFA!C5</f>
@@ -5432,11 +5433,11 @@
       </c>
       <c r="H119" s="27">
         <f>RSDAFA!L6*$M$22</f>
-        <v>1.1859086836729601E-3</v>
+        <v>5.9295434183648001E-3</v>
       </c>
       <c r="I119" s="27">
         <f>RSDAFA!M6*$M$22</f>
-        <v>1.1859086836729601E-3</v>
+        <v>5.9295434183648001E-3</v>
       </c>
       <c r="K119" s="27" t="str">
         <f>RSDAFA!C6</f>
@@ -5452,11 +5453,11 @@
       </c>
       <c r="H120" s="27">
         <f>RSDAFA!L7*$M$22</f>
-        <v>3.7359826231664001E-3</v>
+        <v>1.8679913115832E-2</v>
       </c>
       <c r="I120" s="27">
         <f>RSDAFA!M7*$M$22</f>
-        <v>3.7359826231664001E-3</v>
+        <v>1.8679913115832E-2</v>
       </c>
       <c r="K120" s="27" t="str">
         <f>RSDAFA!C7</f>
@@ -5472,11 +5473,11 @@
       </c>
       <c r="H121" s="27">
         <f>RSDAFA!L8*$M$22</f>
-        <v>2.3078593190679502E-3</v>
+        <v>1.1539296595339751E-2</v>
       </c>
       <c r="I121" s="27">
         <f>RSDAFA!M8*$M$22</f>
-        <v>2.3078593190679502E-3</v>
+        <v>1.1539296595339751E-2</v>
       </c>
       <c r="K121" s="27" t="str">
         <f>RSDAFA!C8</f>
@@ -5492,11 +5493,11 @@
       </c>
       <c r="H122" s="27">
         <f>RSDAFA!L9*$M$22</f>
-        <v>1.7647904805808902E-3</v>
+        <v>8.8239524029044506E-3</v>
       </c>
       <c r="I122" s="27">
         <f>RSDAFA!M9*$M$22</f>
-        <v>1.7647904805808902E-3</v>
+        <v>8.8239524029044506E-3</v>
       </c>
       <c r="K122" s="27" t="str">
         <f>RSDAFA!C9</f>
@@ -5512,11 +5513,11 @@
       </c>
       <c r="H123" s="27">
         <f>RSDAFA!L10*$M$22</f>
-        <v>2.4653262579847901E-3</v>
+        <v>1.2326631289923951E-2</v>
       </c>
       <c r="I123" s="27">
         <f>RSDAFA!M10*$M$22</f>
-        <v>2.4653262579847901E-3</v>
+        <v>1.2326631289923951E-2</v>
       </c>
       <c r="K123" s="27" t="str">
         <f>RSDAFA!C10</f>
@@ -5532,11 +5533,11 @@
       </c>
       <c r="H124" s="27">
         <f>RSDAFA!L11*$M$22</f>
-        <v>2.4653262579847901E-3</v>
+        <v>1.2326631289923951E-2</v>
       </c>
       <c r="I124" s="27">
         <f>RSDAFA!M11*$M$22</f>
-        <v>2.4653262579847901E-3</v>
+        <v>1.2326631289923951E-2</v>
       </c>
       <c r="K124" s="27" t="str">
         <f>RSDAFA!C11</f>
@@ -5552,11 +5553,11 @@
       </c>
       <c r="H125" s="27">
         <f>RSDAFA!L12*$M$22</f>
-        <v>2.4653262579847901E-3</v>
+        <v>1.2326631289923951E-2</v>
       </c>
       <c r="I125" s="27">
         <f>RSDAFA!M12*$M$22</f>
-        <v>2.4653262579847901E-3</v>
+        <v>1.2326631289923951E-2</v>
       </c>
       <c r="K125" s="27" t="str">
         <f>RSDAFA!C12</f>
@@ -5572,11 +5573,11 @@
       </c>
       <c r="H126" s="27">
         <f>RSDAFA!L13*$M$22</f>
-        <v>2.4653262579847901E-3</v>
+        <v>1.2326631289923951E-2</v>
       </c>
       <c r="I126" s="27">
         <f>RSDAFA!M13*$M$22</f>
-        <v>2.4653262579847901E-3</v>
+        <v>1.2326631289923951E-2</v>
       </c>
       <c r="K126" s="27" t="str">
         <f>RSDAFA!C13</f>
@@ -5592,11 +5593,11 @@
       </c>
       <c r="H127" s="27">
         <f>RSDAFA!L14*$M$22</f>
-        <v>2.2095891324020798E-3</v>
+        <v>1.10479456620104E-2</v>
       </c>
       <c r="I127" s="27">
         <f>RSDAFA!M14*$M$22</f>
-        <v>2.2095891324020798E-3</v>
+        <v>1.10479456620104E-2</v>
       </c>
       <c r="K127" s="27" t="str">
         <f>RSDAFA!C14</f>
@@ -5612,11 +5613,11 @@
       </c>
       <c r="H128" s="27">
         <f>RSDAFA!L15*$M$22</f>
-        <v>2.8368761423682902E-3</v>
+        <v>1.418438071184145E-2</v>
       </c>
       <c r="I128" s="27">
         <f>RSDAFA!M15*$M$22</f>
-        <v>2.8368761423682902E-3</v>
+        <v>1.418438071184145E-2</v>
       </c>
       <c r="K128" s="27" t="str">
         <f>RSDAFA!C15</f>
@@ -5632,11 +5633,11 @@
       </c>
       <c r="H129" s="27">
         <f>RSDAFA!L16*$M$22</f>
-        <v>3.0936872888717203E-3</v>
+        <v>1.5468436444358601E-2</v>
       </c>
       <c r="I129" s="27">
         <f>RSDAFA!M16*$M$22</f>
-        <v>3.0936872888717203E-3</v>
+        <v>1.5468436444358601E-2</v>
       </c>
       <c r="K129" s="27" t="str">
         <f>RSDAFA!C16</f>
@@ -5652,11 +5653,11 @@
       </c>
       <c r="H130" s="27">
         <f>RSDAFA!L17*$M$22</f>
-        <v>7.5066866433008313E-3</v>
+        <v>3.7533433216504153E-2</v>
       </c>
       <c r="I130" s="27">
         <f>RSDAFA!M17*$M$22</f>
-        <v>7.5066866433008313E-3</v>
+        <v>3.7533433216504153E-2</v>
       </c>
       <c r="K130" s="27" t="str">
         <f>RSDAFA!C17</f>
@@ -5672,11 +5673,11 @@
       </c>
       <c r="H131" s="27">
         <f>RSDAFA!L18*$M$22</f>
-        <v>4.1614408271926804E-3</v>
+        <v>2.08072041359634E-2</v>
       </c>
       <c r="I131" s="27">
         <f>RSDAFA!M18*$M$22</f>
-        <v>4.1614408271926804E-3</v>
+        <v>2.08072041359634E-2</v>
       </c>
       <c r="K131" s="27" t="str">
         <f>RSDAFA!C18</f>
@@ -5692,11 +5693,11 @@
       </c>
       <c r="H132" s="27">
         <f>RSDAFA!L19*$M$22</f>
-        <v>4.1614408271926804E-3</v>
+        <v>2.08072041359634E-2</v>
       </c>
       <c r="I132" s="27">
         <f>RSDAFA!M19*$M$22</f>
-        <v>4.1614408271926804E-3</v>
+        <v>2.08072041359634E-2</v>
       </c>
       <c r="K132" s="27" t="str">
         <f>RSDAFA!C19</f>
@@ -5712,11 +5713,11 @@
       </c>
       <c r="H133" s="27">
         <f>RSDAFA!L20*$M$22</f>
-        <v>4.1614408271926804E-3</v>
+        <v>2.08072041359634E-2</v>
       </c>
       <c r="I133" s="27">
         <f>RSDAFA!M20*$M$22</f>
-        <v>4.1614408271926804E-3</v>
+        <v>2.08072041359634E-2</v>
       </c>
       <c r="K133" s="27" t="str">
         <f>RSDAFA!C20</f>
@@ -5732,11 +5733,11 @@
       </c>
       <c r="H134" s="27">
         <f>RSDAFA!L21*$M$22</f>
-        <v>4.1614408271926804E-3</v>
+        <v>2.08072041359634E-2</v>
       </c>
       <c r="I134" s="27">
         <f>RSDAFA!M21*$M$22</f>
-        <v>4.1614408271926804E-3</v>
+        <v>2.08072041359634E-2</v>
       </c>
       <c r="K134" s="27" t="str">
         <f>RSDAFA!C21</f>
@@ -5752,11 +5753,11 @@
       </c>
       <c r="H135" s="27">
         <f>RSDAFA!L22*$M$22</f>
-        <v>3.70406311600925E-3</v>
+        <v>1.852031558004625E-2</v>
       </c>
       <c r="I135" s="27">
         <f>RSDAFA!M22*$M$22</f>
-        <v>3.70406311600925E-3</v>
+        <v>1.852031558004625E-2</v>
       </c>
       <c r="K135" s="27" t="str">
         <f>RSDAFA!C22</f>
@@ -5772,11 +5773,11 @@
       </c>
       <c r="H136" s="27">
         <f>RSDAFA!L23*$M$22</f>
-        <v>4.6621727976421598E-3</v>
+        <v>2.3310863988210799E-2</v>
       </c>
       <c r="I136" s="27">
         <f>RSDAFA!M23*$M$22</f>
-        <v>4.6621727976421598E-3</v>
+        <v>2.3310863988210799E-2</v>
       </c>
       <c r="K136" s="27" t="str">
         <f>RSDAFA!C23</f>
@@ -5792,11 +5793,11 @@
       </c>
       <c r="H137" s="27">
         <f>RSDAFA!L24*$M$22</f>
-        <v>6.7033675870053506E-3</v>
+        <v>3.3516837935026751E-2</v>
       </c>
       <c r="I137" s="27">
         <f>RSDAFA!M24*$M$22</f>
-        <v>6.7033675870053506E-3</v>
+        <v>3.3516837935026751E-2</v>
       </c>
       <c r="K137" s="27" t="str">
         <f>RSDAFA!C24</f>
@@ -5812,11 +5813,11 @@
       </c>
       <c r="H138" s="27">
         <f>RSDAFA!L25*$M$22</f>
-        <v>9.1153830584100506E-3</v>
+        <v>4.5576915292050248E-2</v>
       </c>
       <c r="I138" s="27">
         <f>RSDAFA!M25*$M$22</f>
-        <v>9.1153830584100506E-3</v>
+        <v>4.5576915292050248E-2</v>
       </c>
       <c r="K138" s="27" t="str">
         <f>RSDAFA!C25</f>
@@ -5832,11 +5833,11 @@
       </c>
       <c r="H139" s="27">
         <f>RSDAFA!L26*$M$22</f>
-        <v>2.2735699655164602E-3</v>
+        <v>1.1367849827582301E-2</v>
       </c>
       <c r="I139" s="27">
         <f>RSDAFA!M26*$M$22</f>
-        <v>2.2735699655164602E-3</v>
+        <v>1.1367849827582301E-2</v>
       </c>
       <c r="K139" s="27" t="str">
         <f>RSDAFA!C26</f>
@@ -5852,11 +5853,11 @@
       </c>
       <c r="H140" s="27">
         <f>RSDAFA!L27*$M$22</f>
-        <v>8.6298729994523202E-4</v>
+        <v>4.3149364997261599E-3</v>
       </c>
       <c r="I140" s="27">
         <f>RSDAFA!M27*$M$22</f>
-        <v>8.6298729994523202E-4</v>
+        <v>4.3149364997261599E-3</v>
       </c>
       <c r="K140" s="27" t="str">
         <f>RSDAFA!C27</f>
@@ -5872,11 +5873,11 @@
       </c>
       <c r="H141" s="27">
         <f>RSDAFA!L28*$M$22</f>
-        <v>1.29275684703049E-3</v>
+        <v>6.4637842351524498E-3</v>
       </c>
       <c r="I141" s="27">
         <f>RSDAFA!M28*$M$22</f>
-        <v>1.29275684703049E-3</v>
+        <v>6.4637842351524498E-3</v>
       </c>
       <c r="K141" s="27" t="str">
         <f>RSDAFA!C28</f>
@@ -5892,11 +5893,11 @@
       </c>
       <c r="H142" s="27">
         <f>RSDAFA!L29*$M$22</f>
-        <v>3.4409606285151599E-3</v>
+        <v>1.72048031425758E-2</v>
       </c>
       <c r="I142" s="27">
         <f>RSDAFA!M29*$M$22</f>
-        <v>3.4409606285151599E-3</v>
+        <v>1.72048031425758E-2</v>
       </c>
       <c r="K142" s="27" t="str">
         <f>RSDAFA!C29</f>
@@ -5912,11 +5913,11 @@
       </c>
       <c r="H143" s="27">
         <f>RSDAFA!L30*$M$22</f>
-        <v>1.3328486763070301E-3</v>
+        <v>6.6642433815351501E-3</v>
       </c>
       <c r="I143" s="27">
         <f>RSDAFA!M30*$M$22</f>
-        <v>1.3328486763070301E-3</v>
+        <v>6.6642433815351501E-3</v>
       </c>
       <c r="K143" s="27" t="str">
         <f>RSDAFA!C30</f>
@@ -5932,11 +5933,11 @@
       </c>
       <c r="H144" s="27">
         <f>RSDAFA!L31*$M$22</f>
-        <v>1.1305151157683501E-2</v>
+        <v>5.6525755788417502E-2</v>
       </c>
       <c r="I144" s="27">
         <f>RSDAFA!M31*$M$22</f>
-        <v>1.1305151157683501E-2</v>
+        <v>5.6525755788417502E-2</v>
       </c>
       <c r="K144" s="27" t="str">
         <f>RSDAFA!C31</f>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB0A016-BE56-4E98-90B7-0D55D1F07745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061B2FED-CCF9-4CE7-A1AB-7022FD48F78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="242">
   <si>
     <t>UC_N</t>
   </si>
@@ -888,6 +888,24 @@
   </si>
   <si>
     <t>C*SBIO*</t>
+  </si>
+  <si>
+    <t>Attached</t>
+  </si>
+  <si>
+    <t>Detached</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>No Retrofit Required for Heat Pump</t>
+  </si>
+  <si>
+    <t>Shallow Retrofit Required for Heat Pump</t>
+  </si>
+  <si>
+    <t>Deep Retrofit Required for Heat Pump</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1011,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1066,8 +1084,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1156,8 +1180,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1165,8 +1310,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1223,14 +1369,39 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 10 2 2" xfId="3" xr:uid="{37B46EBE-EF20-49A2-A463-672D32AF03AC}"/>
     <cellStyle name="Normal 10 2 2 2 2 2" xfId="5" xr:uid="{A70162DC-00AC-4550-9FB7-3819B5C20A2D}"/>
     <cellStyle name="Normal 2 7" xfId="4" xr:uid="{DA800421-6BC0-4388-9423-B44570E10F15}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{FA5C554E-3258-4EDB-A5A0-74954872F0C7}"/>
+    <cellStyle name="Normal 4 2 3 4" xfId="7" xr:uid="{FCBB837B-6367-43E2-9257-6A1F0F9876FA}"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3224,10 +3395,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CF89D-3AC9-4E2E-BCF6-79A710F8BD8A}">
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:S162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3240,30 +3411,31 @@
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="str">
         <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3:D3)</f>
         <v>~UC_Sets: R_E: IE,National</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -3298,7 +3470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -3321,7 +3493,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>101</v>
       </c>
@@ -3335,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>0</v>
       </c>
@@ -3346,7 +3518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>103</v>
       </c>
@@ -3369,7 +3541,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>101</v>
       </c>
@@ -3383,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>0</v>
       </c>
@@ -3391,7 +3563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>102</v>
       </c>
@@ -3414,7 +3586,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>101</v>
       </c>
@@ -3428,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14">
         <v>0</v>
       </c>
@@ -3439,7 +3611,117 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="37">
+        <v>2018</v>
+      </c>
+      <c r="O15" s="38"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="37">
+        <v>2070</v>
+      </c>
+      <c r="R15" s="38"/>
+      <c r="S15" s="39"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N16" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q16" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="S16" s="41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>239</v>
+      </c>
+      <c r="N17" s="36">
+        <v>92323.794764485472</v>
+      </c>
+      <c r="O17" s="36">
+        <v>103369.76677783766</v>
+      </c>
+      <c r="P17" s="36">
+        <v>50844.518002144141</v>
+      </c>
+      <c r="Q17" s="42">
+        <f>N17*0.8333</f>
+        <v>76933.418177245752</v>
+      </c>
+      <c r="R17" s="36">
+        <f t="shared" ref="R17:S19" si="0">O17*0.8333</f>
+        <v>86138.026655972135</v>
+      </c>
+      <c r="S17" s="43">
+        <f t="shared" si="0"/>
+        <v>42368.736851186717</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>240</v>
+      </c>
+      <c r="N18" s="36">
+        <v>282151.52747564798</v>
+      </c>
+      <c r="O18" s="36">
+        <v>251318.93361374349</v>
+      </c>
+      <c r="P18" s="36">
+        <v>58904.8034364337</v>
+      </c>
+      <c r="Q18" s="42">
+        <f t="shared" ref="Q18:Q19" si="1">N18*0.8333</f>
+        <v>235116.86784545748</v>
+      </c>
+      <c r="R18" s="36">
+        <f t="shared" si="0"/>
+        <v>209424.06738033245</v>
+      </c>
+      <c r="S18" s="43">
+        <f t="shared" si="0"/>
+        <v>49085.372703580208</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>241</v>
+      </c>
+      <c r="N19" s="36">
+        <v>391876.39875986642</v>
+      </c>
+      <c r="O19" s="36">
+        <v>369741.02860841871</v>
+      </c>
+      <c r="P19" s="36">
+        <v>97049.563561422125</v>
+      </c>
+      <c r="Q19" s="44">
+        <f t="shared" si="1"/>
+        <v>326550.6030865967</v>
+      </c>
+      <c r="R19" s="45">
+        <f t="shared" si="0"/>
+        <v>308105.19913939532</v>
+      </c>
+      <c r="S19" s="46">
+        <f t="shared" si="0"/>
+        <v>80871.401315733063</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>88</v>
       </c>
@@ -3447,7 +3729,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
@@ -3481,7 +3763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>214</v>
       </c>
@@ -3504,7 +3786,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>214</v>
       </c>
@@ -3524,7 +3806,7 @@
         <v>R-HC_Apt_ELC_HPN1</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>214</v>
       </c>
@@ -3544,7 +3826,7 @@
         <v>R-HC_Apt_ELC_HPN1</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>214</v>
       </c>
@@ -3564,7 +3846,7 @@
         <v>R-HC_Apt_ELC_HPN2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>214</v>
       </c>
@@ -3584,7 +3866,7 @@
         <v>R-HC_Apt_ELC_HPN2</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>214</v>
       </c>
@@ -3604,7 +3886,7 @@
         <v>R-HC_Att_ELC_HPN1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>214</v>
       </c>
@@ -3624,7 +3906,7 @@
         <v>R-HC_Att_ELC_HPN1</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>214</v>
       </c>
@@ -3644,7 +3926,7 @@
         <v>R-HC_Att_ELC_HPN2</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>214</v>
       </c>
@@ -3664,7 +3946,7 @@
         <v>R-HC_Att_ELC_HPN2</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>214</v>
       </c>
@@ -3684,7 +3966,7 @@
         <v>R-HC_Det_ELC_HPN1</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>214</v>
       </c>
@@ -6035,6 +6317,10 @@
       <c r="K162" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061B2FED-CCF9-4CE7-A1AB-7022FD48F78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998EC944-3E1B-4089-8698-C613AE554DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{9FF5C6AC-B75C-4529-857A-E9C78B6E0755}">
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{9FF5C6AC-B75C-4529-857A-E9C78B6E0755}">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="245">
   <si>
     <t>UC_N</t>
   </si>
@@ -906,6 +906,15 @@
   </si>
   <si>
     <t>Deep Retrofit Required for Heat Pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-BLD_Apt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-BLD_Att </t>
+  </si>
+  <si>
+    <t>R-BLD_Det</t>
   </si>
 </sst>
 </file>
@@ -1373,15 +1382,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1393,6 +1393,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3395,10 +3404,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CF89D-3AC9-4E2E-BCF6-79A710F8BD8A}">
-  <dimension ref="A1:S162"/>
+  <dimension ref="A1:S165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3414,28 +3423,28 @@
     <col min="14" max="14" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="str">
         <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3:D3)</f>
         <v>~UC_Sets: R_E: IE,National</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -3470,7 +3479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -3493,2815 +3502,2833 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="H7">
         <v>2019</v>
       </c>
       <c r="J7">
+        <v>-0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>2019</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H8">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8">
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>106</v>
-      </c>
-      <c r="H9">
-        <v>2019</v>
-      </c>
-      <c r="I9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9">
-        <v>-1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>107</v>
       </c>
       <c r="H10">
         <v>2019</v>
       </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="J11">
+        <v>-0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
       </c>
       <c r="H12">
         <v>2019</v>
       </c>
-      <c r="I12" t="s">
-        <v>83</v>
-      </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14">
+        <v>2019</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14">
         <v>-1</v>
       </c>
-      <c r="K12">
+      <c r="K14">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15">
+        <v>2019</v>
+      </c>
+      <c r="J15">
+        <v>-0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>101</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F16" t="s">
         <v>108</v>
       </c>
-      <c r="H13">
+      <c r="H16">
         <v>2019</v>
       </c>
-      <c r="J13">
+      <c r="J16">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14">
+    <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14">
+      <c r="I17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N15" s="37">
-        <v>2018</v>
-      </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="37">
+    <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="44">
+        <v>2018</v>
+      </c>
+      <c r="O18" s="45"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="44">
         <v>2070</v>
       </c>
-      <c r="R15" s="38"/>
-      <c r="S15" s="39"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N16" s="40" t="s">
+      <c r="R18" s="45"/>
+      <c r="S18" s="46"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N19" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="O19" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="P16" s="41" t="s">
+      <c r="P19" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="Q16" s="40" t="s">
+      <c r="Q19" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="R19" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="S16" s="41" t="s">
+      <c r="S19" s="38" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L17" t="s">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
         <v>239</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N20" s="36">
         <v>92323.794764485472</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O20" s="36">
         <v>103369.76677783766</v>
       </c>
-      <c r="P17" s="36">
+      <c r="P20" s="36">
         <v>50844.518002144141</v>
       </c>
-      <c r="Q17" s="42">
-        <f>N17*0.8333</f>
+      <c r="Q20" s="39">
+        <f>N20*0.8333</f>
         <v>76933.418177245752</v>
       </c>
-      <c r="R17" s="36">
-        <f t="shared" ref="R17:S19" si="0">O17*0.8333</f>
+      <c r="R20" s="36">
+        <f t="shared" ref="R20:S22" si="0">O20*0.8333</f>
         <v>86138.026655972135</v>
       </c>
-      <c r="S17" s="43">
+      <c r="S20" s="40">
         <f t="shared" si="0"/>
         <v>42368.736851186717</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L18" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
         <v>240</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N21" s="36">
         <v>282151.52747564798</v>
       </c>
-      <c r="O18" s="36">
+      <c r="O21" s="36">
         <v>251318.93361374349</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P21" s="36">
         <v>58904.8034364337</v>
       </c>
-      <c r="Q18" s="42">
-        <f t="shared" ref="Q18:Q19" si="1">N18*0.8333</f>
+      <c r="Q21" s="39">
+        <f t="shared" ref="Q21:Q22" si="1">N21*0.8333</f>
         <v>235116.86784545748</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R21" s="36">
         <f t="shared" si="0"/>
         <v>209424.06738033245</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S21" s="40">
         <f t="shared" si="0"/>
         <v>49085.372703580208</v>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L19" t="s">
+    <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L22" t="s">
         <v>241</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N22" s="36">
         <v>391876.39875986642</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O22" s="36">
         <v>369741.02860841871</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P22" s="36">
         <v>97049.563561422125</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q22" s="41">
         <f t="shared" si="1"/>
         <v>326550.6030865967</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R22" s="42">
         <f t="shared" si="0"/>
         <v>308105.19913939532</v>
       </c>
-      <c r="S19" s="46">
+      <c r="S22" s="43">
         <f t="shared" si="0"/>
         <v>80871.401315733063</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="11" t="str">
+      <c r="H24" s="11" t="str">
         <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
-      <c r="I21" s="11" t="str">
+      <c r="I24" s="11" t="str">
         <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
         <v>National</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K24" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25">
         <v>5</v>
       </c>
-      <c r="I22">
+      <c r="I25">
         <v>5</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J25" t="s">
         <v>115</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K25" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M25" s="26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="27">
-        <f>RSDAFC!L2*$M$22</f>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="27">
+        <f>RSDAFC!L2*$M$25</f>
         <v>1.2406827591965401E-2</v>
       </c>
-      <c r="I23" s="27">
-        <f>RSDAFC!M2*$M$22</f>
+      <c r="I26" s="27">
+        <f>RSDAFC!M2*$M$25</f>
         <v>1.2406827591965401E-2</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K26" t="str">
         <f>RSDAFC!C2</f>
         <v>R-HC_Apt_ELC_HPN1</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>214</v>
-      </c>
-      <c r="D24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="27">
-        <f>RSDAFC!L3*$M$22</f>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="27">
+        <f>RSDAFC!L3*$M$25</f>
         <v>1.2406827591965401E-2</v>
       </c>
-      <c r="I24" s="27">
-        <f>RSDAFC!M3*$M$22</f>
+      <c r="I27" s="27">
+        <f>RSDAFC!M3*$M$25</f>
         <v>1.2406827591965401E-2</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K27" t="str">
         <f>RSDAFC!C3</f>
         <v>R-HC_Apt_ELC_HPN1</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="27">
-        <f>RSDAFC!L4*$M$22</f>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="27">
+        <f>RSDAFC!L4*$M$25</f>
         <v>1.2406827591965401E-2</v>
       </c>
-      <c r="I25" s="27">
-        <f>RSDAFC!M4*$M$22</f>
+      <c r="I28" s="27">
+        <f>RSDAFC!M4*$M$25</f>
         <v>1.2406827591965401E-2</v>
       </c>
-      <c r="K25" t="str">
+      <c r="K28" t="str">
         <f>RSDAFC!C4</f>
         <v>R-HC_Apt_ELC_HPN2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="27">
-        <f>RSDAFC!L5*$M$22</f>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="27">
+        <f>RSDAFC!L5*$M$25</f>
         <v>1.2406827591965401E-2</v>
       </c>
-      <c r="I26" s="27">
-        <f>RSDAFC!M5*$M$22</f>
+      <c r="I29" s="27">
+        <f>RSDAFC!M5*$M$25</f>
         <v>1.2406827591965401E-2</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K29" t="str">
         <f>RSDAFC!C5</f>
         <v>R-HC_Apt_ELC_HPN2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="27">
-        <f>RSDAFC!L6*$M$22</f>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="27">
+        <f>RSDAFC!L6*$M$25</f>
         <v>8.6842891028111498E-3</v>
       </c>
-      <c r="I27" s="27">
-        <f>RSDAFC!M6*$M$22</f>
+      <c r="I30" s="27">
+        <f>RSDAFC!M6*$M$25</f>
         <v>8.6842891028111498E-3</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K30" t="str">
         <f>RSDAFC!C6</f>
         <v>R-HC_Att_ELC_HPN1</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="27">
-        <f>RSDAFC!L7*$M$22</f>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="27">
+        <f>RSDAFC!L7*$M$25</f>
         <v>8.6842891028111498E-3</v>
       </c>
-      <c r="I28" s="27">
-        <f>RSDAFC!M7*$M$22</f>
+      <c r="I31" s="27">
+        <f>RSDAFC!M7*$M$25</f>
         <v>8.6842891028111498E-3</v>
       </c>
-      <c r="K28" t="str">
+      <c r="K31" t="str">
         <f>RSDAFC!C7</f>
         <v>R-HC_Att_ELC_HPN1</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="27">
-        <f>RSDAFC!L8*$M$22</f>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="27">
+        <f>RSDAFC!L8*$M$25</f>
         <v>8.6842891028111498E-3</v>
       </c>
-      <c r="I29" s="27">
-        <f>RSDAFC!M8*$M$22</f>
+      <c r="I32" s="27">
+        <f>RSDAFC!M8*$M$25</f>
         <v>8.6842891028111498E-3</v>
       </c>
-      <c r="K29" t="str">
+      <c r="K32" t="str">
         <f>RSDAFC!C8</f>
         <v>R-HC_Att_ELC_HPN2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="27">
-        <f>RSDAFC!L9*$M$22</f>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="27">
+        <f>RSDAFC!L9*$M$25</f>
         <v>8.6842891028111498E-3</v>
       </c>
-      <c r="I30" s="27">
-        <f>RSDAFC!M9*$M$22</f>
+      <c r="I33" s="27">
+        <f>RSDAFC!M9*$M$25</f>
         <v>8.6842891028111498E-3</v>
       </c>
-      <c r="K30" t="str">
+      <c r="K33" t="str">
         <f>RSDAFC!C9</f>
         <v>R-HC_Att_ELC_HPN2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="27">
-        <f>RSDAFC!L10*$M$22</f>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="27">
+        <f>RSDAFC!L10*$M$25</f>
         <v>1.58935057836939E-2</v>
       </c>
-      <c r="I31" s="27">
-        <f>RSDAFC!M10*$M$22</f>
+      <c r="I34" s="27">
+        <f>RSDAFC!M10*$M$25</f>
         <v>1.58935057836939E-2</v>
       </c>
-      <c r="K31" t="str">
+      <c r="K34" t="str">
         <f>RSDAFC!C10</f>
         <v>R-HC_Det_ELC_HPN1</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="27">
-        <f>RSDAFC!L11*$M$22</f>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="27">
+        <f>RSDAFC!L11*$M$25</f>
         <v>1.58935057836939E-2</v>
       </c>
-      <c r="I32" s="27">
-        <f>RSDAFC!M11*$M$22</f>
+      <c r="I35" s="27">
+        <f>RSDAFC!M11*$M$25</f>
         <v>1.58935057836939E-2</v>
       </c>
-      <c r="K32" t="str">
+      <c r="K35" t="str">
         <f>RSDAFC!C11</f>
         <v>R-HC_Det_ELC_HPN1</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>214</v>
-      </c>
-      <c r="D33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="27">
-        <f>RSDAFC!L12*$M$22</f>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="27">
+        <f>RSDAFC!L12*$M$25</f>
         <v>1.58935057836939E-2</v>
       </c>
-      <c r="I33" s="27">
-        <f>RSDAFC!M12*$M$22</f>
+      <c r="I36" s="27">
+        <f>RSDAFC!M12*$M$25</f>
         <v>1.58935057836939E-2</v>
       </c>
-      <c r="K33" t="str">
+      <c r="K36" t="str">
         <f>RSDAFC!C12</f>
         <v>R-HC_Det_ELC_HPN2</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="27">
-        <f>RSDAFC!L13*$M$22</f>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="27">
+        <f>RSDAFC!L13*$M$25</f>
         <v>1.58935057836939E-2</v>
       </c>
-      <c r="I34" s="27">
-        <f>RSDAFC!M13*$M$22</f>
+      <c r="I37" s="27">
+        <f>RSDAFC!M13*$M$25</f>
         <v>1.58935057836939E-2</v>
       </c>
-      <c r="K34" t="str">
+      <c r="K37" t="str">
         <f>RSDAFC!C13</f>
         <v>R-HC_Det_ELC_HPN2</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="27">
-        <f>RSDAFC!L14*$M$22</f>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="27">
+        <f>RSDAFC!L14*$M$25</f>
         <v>1.04804159170382E-2</v>
       </c>
-      <c r="I35" s="27">
-        <f>RSDAFC!M14*$M$22</f>
+      <c r="I38" s="27">
+        <f>RSDAFC!M14*$M$25</f>
         <v>1.04804159170382E-2</v>
       </c>
-      <c r="K35" t="str">
+      <c r="K38" t="str">
         <f>RSDAFC!C14</f>
         <v>R-SW_Apt_ELC_HPN1</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D36" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="27">
-        <f>RSDAFC!L15*$M$22</f>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="27">
+        <f>RSDAFC!L15*$M$25</f>
         <v>1.04804159170382E-2</v>
       </c>
-      <c r="I36" s="27">
-        <f>RSDAFC!M15*$M$22</f>
+      <c r="I39" s="27">
+        <f>RSDAFC!M15*$M$25</f>
         <v>1.04804159170382E-2</v>
       </c>
-      <c r="K36" t="str">
+      <c r="K39" t="str">
         <f>RSDAFC!C15</f>
         <v>R-SW_Apt_ELC_HPN1</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="27">
-        <f>RSDAFC!L16*$M$22</f>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="27">
+        <f>RSDAFC!L16*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="I37" s="27">
-        <f>RSDAFC!M16*$M$22</f>
+      <c r="I40" s="27">
+        <f>RSDAFC!M16*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="K37" t="str">
+      <c r="K40" t="str">
         <f>RSDAFC!C16</f>
         <v>R-SW_Apt_GAS_HHPN1</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="27">
-        <f>RSDAFC!L17*$M$22</f>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="27">
+        <f>RSDAFC!L17*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="I38" s="27">
-        <f>RSDAFC!M17*$M$22</f>
+      <c r="I41" s="27">
+        <f>RSDAFC!M17*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="K38" t="str">
+      <c r="K41" t="str">
         <f>RSDAFC!C17</f>
         <v>R-SW_Apt_GAS_HHPN1</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>214</v>
-      </c>
-      <c r="D39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="27">
-        <f>RSDAFC!L18*$M$22</f>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="27">
+        <f>RSDAFC!L18*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="I39" s="27">
-        <f>RSDAFC!M18*$M$22</f>
+      <c r="I42" s="27">
+        <f>RSDAFC!M18*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="K39" t="str">
+      <c r="K42" t="str">
         <f>RSDAFC!C18</f>
         <v>R-SW_Apt_GAS_HPN1</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="27">
-        <f>RSDAFC!L19*$M$22</f>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" s="27">
+        <f>RSDAFC!L19*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="I40" s="27">
-        <f>RSDAFC!M19*$M$22</f>
+      <c r="I43" s="27">
+        <f>RSDAFC!M19*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="K40" t="str">
+      <c r="K43" t="str">
         <f>RSDAFC!C19</f>
         <v>R-SW_Apt_GAS_HPN1</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>214</v>
-      </c>
-      <c r="D41" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" s="27">
-        <f>RSDAFC!L20*$M$22</f>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="27">
+        <f>RSDAFC!L20*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="I41" s="27">
-        <f>RSDAFC!M20*$M$22</f>
+      <c r="I44" s="27">
+        <f>RSDAFC!M20*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="K41" t="str">
+      <c r="K44" t="str">
         <f>RSDAFC!C20</f>
         <v>R-SW_Apt_GAS_HPN2</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>214</v>
-      </c>
-      <c r="D42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="27">
-        <f>RSDAFC!L21*$M$22</f>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="27">
+        <f>RSDAFC!L21*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="I42" s="27">
-        <f>RSDAFC!M21*$M$22</f>
+      <c r="I45" s="27">
+        <f>RSDAFC!M21*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="K42" t="str">
+      <c r="K45" t="str">
         <f>RSDAFC!C21</f>
         <v>R-SW_Apt_GAS_HPN2</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>214</v>
-      </c>
-      <c r="D43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" s="27">
-        <f>RSDAFC!L22*$M$22</f>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="27">
+        <f>RSDAFC!L22*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="I43" s="27">
-        <f>RSDAFC!M22*$M$22</f>
+      <c r="I46" s="27">
+        <f>RSDAFC!M22*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="K43" t="str">
+      <c r="K46" t="str">
         <f>RSDAFC!C22</f>
         <v>R-SW_Apt_GAS_N1</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>214</v>
-      </c>
-      <c r="D44" t="s">
-        <v>116</v>
-      </c>
-      <c r="H44" s="27">
-        <f>RSDAFC!L23*$M$22</f>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="27">
+        <f>RSDAFC!L23*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="I44" s="27">
-        <f>RSDAFC!M23*$M$22</f>
+      <c r="I47" s="27">
+        <f>RSDAFC!M23*$M$25</f>
         <v>4.7397506033708351E-3</v>
       </c>
-      <c r="K44" t="str">
+      <c r="K47" t="str">
         <f>RSDAFC!C23</f>
         <v>R-SW_Apt_GAS_N1</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" s="27">
-        <f>RSDAFC!L24*$M$22</f>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" s="27">
+        <f>RSDAFC!L24*$M$25</f>
         <v>3.5434891836400251E-4</v>
       </c>
-      <c r="I45" s="27">
-        <f>RSDAFC!M24*$M$22</f>
+      <c r="I48" s="27">
+        <f>RSDAFC!M24*$M$25</f>
         <v>3.5434891836400251E-4</v>
       </c>
-      <c r="K45" t="str">
+      <c r="K48" t="str">
         <f>RSDAFC!C24</f>
         <v>R-SW_Apt_HET_N1</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>214</v>
-      </c>
-      <c r="D46" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="27">
-        <f>RSDAFC!L25*$M$22</f>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="27">
+        <f>RSDAFC!L25*$M$25</f>
         <v>3.5434891836400251E-4</v>
       </c>
-      <c r="I46" s="27">
-        <f>RSDAFC!M25*$M$22</f>
+      <c r="I49" s="27">
+        <f>RSDAFC!M25*$M$25</f>
         <v>3.5434891836400251E-4</v>
       </c>
-      <c r="K46" t="str">
+      <c r="K49" t="str">
         <f>RSDAFC!C25</f>
         <v>R-SW_Apt_HET_N1</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" t="s">
-        <v>116</v>
-      </c>
-      <c r="H47" s="27">
-        <f>RSDAFC!L26*$M$22</f>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="27">
+        <f>RSDAFC!L26*$M$25</f>
         <v>3.5434891836400251E-4</v>
       </c>
-      <c r="I47" s="27">
-        <f>RSDAFC!M26*$M$22</f>
+      <c r="I50" s="27">
+        <f>RSDAFC!M26*$M$25</f>
         <v>3.5434891836400251E-4</v>
       </c>
-      <c r="K47" t="str">
+      <c r="K50" t="str">
         <f>RSDAFC!C26</f>
         <v>R-SW_Apt_HET_N2</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" t="s">
-        <v>116</v>
-      </c>
-      <c r="H48" s="27">
-        <f>RSDAFC!L27*$M$22</f>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51" s="27">
+        <f>RSDAFC!L27*$M$25</f>
         <v>3.5434891836400251E-4</v>
       </c>
-      <c r="I48" s="27">
-        <f>RSDAFC!M27*$M$22</f>
+      <c r="I51" s="27">
+        <f>RSDAFC!M27*$M$25</f>
         <v>3.5434891836400251E-4</v>
       </c>
-      <c r="K48" t="str">
+      <c r="K51" t="str">
         <f>RSDAFC!C27</f>
         <v>R-SW_Apt_HET_N2</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" s="27">
-        <f>RSDAFC!L28*$M$22</f>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" s="27">
+        <f>RSDAFC!L28*$M$25</f>
         <v>1.199300219050925E-2</v>
       </c>
-      <c r="I49" s="27">
-        <f>RSDAFC!M28*$M$22</f>
+      <c r="I52" s="27">
+        <f>RSDAFC!M28*$M$25</f>
         <v>1.199300219050925E-2</v>
       </c>
-      <c r="K49" t="str">
+      <c r="K52" t="str">
         <f>RSDAFC!C28</f>
         <v>R-SW_Apt_KER_N1</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>214</v>
-      </c>
-      <c r="D50" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" s="27">
-        <f>RSDAFC!L29*$M$22</f>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" s="27">
+        <f>RSDAFC!L29*$M$25</f>
         <v>1.199300219050925E-2</v>
       </c>
-      <c r="I50" s="27">
-        <f>RSDAFC!M29*$M$22</f>
+      <c r="I53" s="27">
+        <f>RSDAFC!M29*$M$25</f>
         <v>1.199300219050925E-2</v>
       </c>
-      <c r="K50" t="str">
+      <c r="K53" t="str">
         <f>RSDAFC!C29</f>
         <v>R-SW_Apt_KER_N1</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" t="s">
-        <v>116</v>
-      </c>
-      <c r="H51" s="27">
-        <f>RSDAFC!L30*$M$22</f>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="27">
+        <f>RSDAFC!L30*$M$25</f>
         <v>8.90395563099655E-3</v>
       </c>
-      <c r="I51" s="27">
-        <f>RSDAFC!M30*$M$22</f>
+      <c r="I54" s="27">
+        <f>RSDAFC!M30*$M$25</f>
         <v>8.90395563099655E-3</v>
       </c>
-      <c r="K51" t="str">
+      <c r="K54" t="str">
         <f>RSDAFC!C30</f>
         <v>R-SW_Apt_LPG_N1</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" t="s">
-        <v>116</v>
-      </c>
-      <c r="H52" s="27">
-        <f>RSDAFC!L31*$M$22</f>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55" s="27">
+        <f>RSDAFC!L31*$M$25</f>
         <v>8.90395563099655E-3</v>
       </c>
-      <c r="I52" s="27">
-        <f>RSDAFC!M31*$M$22</f>
+      <c r="I55" s="27">
+        <f>RSDAFC!M31*$M$25</f>
         <v>8.90395563099655E-3</v>
       </c>
-      <c r="K52" t="str">
+      <c r="K55" t="str">
         <f>RSDAFC!C31</f>
         <v>R-SW_Apt_LPG_N1</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>214</v>
-      </c>
-      <c r="D53" t="s">
-        <v>116</v>
-      </c>
-      <c r="H53" s="27">
-        <f>RSDAFC!L32*$M$22</f>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" s="27">
+        <f>RSDAFC!L32*$M$25</f>
         <v>6.8519450639461001E-3</v>
       </c>
-      <c r="I53" s="27">
-        <f>RSDAFC!M32*$M$22</f>
+      <c r="I56" s="27">
+        <f>RSDAFC!M32*$M$25</f>
         <v>6.8519450639461001E-3</v>
       </c>
-      <c r="K53" t="str">
+      <c r="K56" t="str">
         <f>RSDAFC!C32</f>
         <v>R-SW_Apt_WOO_N1</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="27">
-        <f>RSDAFC!L33*$M$22</f>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57" s="27">
+        <f>RSDAFC!L33*$M$25</f>
         <v>6.8519450639461001E-3</v>
       </c>
-      <c r="I54" s="27">
-        <f>RSDAFC!M33*$M$22</f>
+      <c r="I57" s="27">
+        <f>RSDAFC!M33*$M$25</f>
         <v>6.8519450639461001E-3</v>
       </c>
-      <c r="K54" t="str">
+      <c r="K57" t="str">
         <f>RSDAFC!C33</f>
         <v>R-SW_Apt_WOO_N1</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>214</v>
-      </c>
-      <c r="D55" t="s">
-        <v>116</v>
-      </c>
-      <c r="H55" s="27">
-        <f>RSDAFC!L34*$M$22</f>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" s="27">
+        <f>RSDAFC!L34*$M$25</f>
         <v>9.3952077625382002E-3</v>
       </c>
-      <c r="I55" s="27">
-        <f>RSDAFC!M34*$M$22</f>
+      <c r="I58" s="27">
+        <f>RSDAFC!M34*$M$25</f>
         <v>9.3952077625382002E-3</v>
       </c>
-      <c r="K55" t="str">
+      <c r="K58" t="str">
         <f>RSDAFC!C34</f>
         <v>R-SW_Att_ELC_HPN1</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" t="s">
-        <v>116</v>
-      </c>
-      <c r="H56" s="27">
-        <f>RSDAFC!L35*$M$22</f>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" s="27">
+        <f>RSDAFC!L35*$M$25</f>
         <v>9.3952077625382002E-3</v>
       </c>
-      <c r="I56" s="27">
-        <f>RSDAFC!M35*$M$22</f>
+      <c r="I59" s="27">
+        <f>RSDAFC!M35*$M$25</f>
         <v>9.3952077625382002E-3</v>
       </c>
-      <c r="K56" t="str">
+      <c r="K59" t="str">
         <f>RSDAFC!C35</f>
         <v>R-SW_Att_ELC_HPN1</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>214</v>
-      </c>
-      <c r="D57" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="27">
-        <f>RSDAFC!L36*$M$22</f>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60" s="27">
+        <f>RSDAFC!L36*$M$25</f>
         <v>9.3952077625382002E-3</v>
       </c>
-      <c r="I57" s="27">
-        <f>RSDAFC!M36*$M$22</f>
+      <c r="I60" s="27">
+        <f>RSDAFC!M36*$M$25</f>
         <v>9.3952077625382002E-3</v>
       </c>
-      <c r="K57" t="str">
+      <c r="K60" t="str">
         <f>RSDAFC!C36</f>
         <v>R-SW_Att_ELC_HPN2</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>214</v>
-      </c>
-      <c r="D58" t="s">
-        <v>116</v>
-      </c>
-      <c r="H58" s="27">
-        <f>RSDAFC!L37*$M$22</f>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="27">
+        <f>RSDAFC!L37*$M$25</f>
         <v>9.3952077625382002E-3</v>
       </c>
-      <c r="I58" s="27">
-        <f>RSDAFC!M37*$M$22</f>
+      <c r="I61" s="27">
+        <f>RSDAFC!M37*$M$25</f>
         <v>9.3952077625382002E-3</v>
       </c>
-      <c r="K58" t="str">
+      <c r="K61" t="str">
         <f>RSDAFC!C37</f>
         <v>R-SW_Att_ELC_HPN2</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" t="s">
-        <v>116</v>
-      </c>
-      <c r="H59" s="27">
-        <f>RSDAFC!L38*$M$22</f>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H62" s="27">
+        <f>RSDAFC!L38*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="I59" s="27">
-        <f>RSDAFC!M38*$M$22</f>
+      <c r="I62" s="27">
+        <f>RSDAFC!M38*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="K59" t="str">
+      <c r="K62" t="str">
         <f>RSDAFC!C38</f>
         <v>R-SW_Att_GAS_HHPN1</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" t="s">
-        <v>116</v>
-      </c>
-      <c r="H60" s="27">
-        <f>RSDAFC!L39*$M$22</f>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" s="27">
+        <f>RSDAFC!L39*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="I60" s="27">
-        <f>RSDAFC!M39*$M$22</f>
+      <c r="I63" s="27">
+        <f>RSDAFC!M39*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="K60" t="str">
+      <c r="K63" t="str">
         <f>RSDAFC!C39</f>
         <v>R-SW_Att_GAS_HHPN1</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" t="s">
-        <v>116</v>
-      </c>
-      <c r="H61" s="27">
-        <f>RSDAFC!L40*$M$22</f>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" t="s">
+        <v>116</v>
+      </c>
+      <c r="H64" s="27">
+        <f>RSDAFC!L40*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="I61" s="27">
-        <f>RSDAFC!M40*$M$22</f>
+      <c r="I64" s="27">
+        <f>RSDAFC!M40*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="K61" t="str">
+      <c r="K64" t="str">
         <f>RSDAFC!C40</f>
         <v>R-SW_Att_GAS_HPN1</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" t="s">
-        <v>116</v>
-      </c>
-      <c r="H62" s="27">
-        <f>RSDAFC!L41*$M$22</f>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H65" s="27">
+        <f>RSDAFC!L41*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="I62" s="27">
-        <f>RSDAFC!M41*$M$22</f>
+      <c r="I65" s="27">
+        <f>RSDAFC!M41*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="K62" t="str">
+      <c r="K65" t="str">
         <f>RSDAFC!C41</f>
         <v>R-SW_Att_GAS_HPN1</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>214</v>
-      </c>
-      <c r="D63" t="s">
-        <v>116</v>
-      </c>
-      <c r="H63" s="27">
-        <f>RSDAFC!L42*$M$22</f>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" s="27">
+        <f>RSDAFC!L42*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="I63" s="27">
-        <f>RSDAFC!M42*$M$22</f>
+      <c r="I66" s="27">
+        <f>RSDAFC!M42*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="K63" t="str">
+      <c r="K66" t="str">
         <f>RSDAFC!C42</f>
         <v>R-SW_Att_GAS_HPN2</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" t="s">
-        <v>116</v>
-      </c>
-      <c r="H64" s="27">
-        <f>RSDAFC!L43*$M$22</f>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>116</v>
+      </c>
+      <c r="H67" s="27">
+        <f>RSDAFC!L43*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="I64" s="27">
-        <f>RSDAFC!M43*$M$22</f>
+      <c r="I67" s="27">
+        <f>RSDAFC!M43*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="K64" t="str">
+      <c r="K67" t="str">
         <f>RSDAFC!C43</f>
         <v>R-SW_Att_GAS_HPN2</v>
       </c>
     </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" t="s">
-        <v>116</v>
-      </c>
-      <c r="H65" s="27">
-        <f>RSDAFC!L44*$M$22</f>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" t="s">
+        <v>116</v>
+      </c>
+      <c r="H68" s="27">
+        <f>RSDAFC!L44*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="I65" s="27">
-        <f>RSDAFC!M44*$M$22</f>
+      <c r="I68" s="27">
+        <f>RSDAFC!M44*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="K65" t="str">
+      <c r="K68" t="str">
         <f>RSDAFC!C44</f>
         <v>R-SW_Att_GAS_N1</v>
       </c>
     </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" t="s">
-        <v>116</v>
-      </c>
-      <c r="H66" s="27">
-        <f>RSDAFC!L45*$M$22</f>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" s="27">
+        <f>RSDAFC!L45*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="I66" s="27">
-        <f>RSDAFC!M45*$M$22</f>
+      <c r="I69" s="27">
+        <f>RSDAFC!M45*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="K66" t="str">
+      <c r="K69" t="str">
         <f>RSDAFC!C45</f>
         <v>R-SW_Att_GAS_N1</v>
       </c>
     </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" t="s">
-        <v>116</v>
-      </c>
-      <c r="H67" s="27">
-        <f>RSDAFC!L46*$M$22</f>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" t="s">
+        <v>116</v>
+      </c>
+      <c r="H70" s="27">
+        <f>RSDAFC!L46*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="I67" s="27">
-        <f>RSDAFC!M46*$M$22</f>
+      <c r="I70" s="27">
+        <f>RSDAFC!M46*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="K67" t="str">
+      <c r="K70" t="str">
         <f>RSDAFC!C46</f>
         <v>R-SW_Att_GAS_N2</v>
       </c>
     </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" t="s">
-        <v>116</v>
-      </c>
-      <c r="H68" s="27">
-        <f>RSDAFC!L47*$M$22</f>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" s="27">
+        <f>RSDAFC!L47*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="I68" s="27">
-        <f>RSDAFC!M47*$M$22</f>
+      <c r="I71" s="27">
+        <f>RSDAFC!M47*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="K68" t="str">
+      <c r="K71" t="str">
         <f>RSDAFC!C47</f>
         <v>R-SW_Att_GAS_N2</v>
       </c>
     </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>214</v>
-      </c>
-      <c r="D69" t="s">
-        <v>116</v>
-      </c>
-      <c r="H69" s="27">
-        <f>RSDAFC!L48*$M$22</f>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" t="s">
+        <v>116</v>
+      </c>
+      <c r="H72" s="27">
+        <f>RSDAFC!L48*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="I69" s="27">
-        <f>RSDAFC!M48*$M$22</f>
+      <c r="I72" s="27">
+        <f>RSDAFC!M48*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="K69" t="str">
+      <c r="K72" t="str">
         <f>RSDAFC!C48</f>
         <v>R-SW_Att_GAS_N3</v>
       </c>
     </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" t="s">
-        <v>116</v>
-      </c>
-      <c r="H70" s="27">
-        <f>RSDAFC!L49*$M$22</f>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" t="s">
+        <v>116</v>
+      </c>
+      <c r="H73" s="27">
+        <f>RSDAFC!L49*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="I70" s="27">
-        <f>RSDAFC!M49*$M$22</f>
+      <c r="I73" s="27">
+        <f>RSDAFC!M49*$M$25</f>
         <v>7.8256501810713003E-3</v>
       </c>
-      <c r="K70" t="str">
+      <c r="K73" t="str">
         <f>RSDAFC!C49</f>
         <v>R-SW_Att_GAS_N3</v>
       </c>
     </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" t="s">
-        <v>116</v>
-      </c>
-      <c r="H71" s="27">
-        <f>RSDAFC!L50*$M$22</f>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" s="27">
+        <f>RSDAFC!L50*$M$25</f>
         <v>3.7989460522007048E-3</v>
       </c>
-      <c r="I71" s="27">
-        <f>RSDAFC!M50*$M$22</f>
+      <c r="I74" s="27">
+        <f>RSDAFC!M50*$M$25</f>
         <v>3.7989460522007048E-3</v>
       </c>
-      <c r="K71" t="str">
+      <c r="K74" t="str">
         <f>RSDAFC!C50</f>
         <v>R-SW_Att_HET_N1</v>
       </c>
     </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" t="s">
-        <v>116</v>
-      </c>
-      <c r="H72" s="27">
-        <f>RSDAFC!L51*$M$22</f>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" s="27">
+        <f>RSDAFC!L51*$M$25</f>
         <v>3.7989460522007048E-3</v>
       </c>
-      <c r="I72" s="27">
-        <f>RSDAFC!M51*$M$22</f>
+      <c r="I75" s="27">
+        <f>RSDAFC!M51*$M$25</f>
         <v>3.7989460522007048E-3</v>
       </c>
-      <c r="K72" t="str">
+      <c r="K75" t="str">
         <f>RSDAFC!C51</f>
         <v>R-SW_Att_HET_N1</v>
       </c>
     </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" t="s">
-        <v>116</v>
-      </c>
-      <c r="H73" s="27">
-        <f>RSDAFC!L52*$M$22</f>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" t="s">
+        <v>116</v>
+      </c>
+      <c r="H76" s="27">
+        <f>RSDAFC!L52*$M$25</f>
         <v>3.7989460522007048E-3</v>
       </c>
-      <c r="I73" s="27">
-        <f>RSDAFC!M52*$M$22</f>
+      <c r="I76" s="27">
+        <f>RSDAFC!M52*$M$25</f>
         <v>3.7989460522007048E-3</v>
       </c>
-      <c r="K73" t="str">
+      <c r="K76" t="str">
         <f>RSDAFC!C52</f>
         <v>R-SW_Att_HET_N2</v>
       </c>
     </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" t="s">
-        <v>116</v>
-      </c>
-      <c r="H74" s="27">
-        <f>RSDAFC!L53*$M$22</f>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" s="27">
+        <f>RSDAFC!L53*$M$25</f>
         <v>3.7989460522007048E-3</v>
       </c>
-      <c r="I74" s="27">
-        <f>RSDAFC!M53*$M$22</f>
+      <c r="I77" s="27">
+        <f>RSDAFC!M53*$M$25</f>
         <v>3.7989460522007048E-3</v>
       </c>
-      <c r="K74" t="str">
+      <c r="K77" t="str">
         <f>RSDAFC!C53</f>
         <v>R-SW_Att_HET_N2</v>
       </c>
     </row>
-    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" t="s">
-        <v>116</v>
-      </c>
-      <c r="H75" s="27">
-        <f>RSDAFC!L54*$M$22</f>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" t="s">
+        <v>116</v>
+      </c>
+      <c r="H78" s="27">
+        <f>RSDAFC!L54*$M$25</f>
         <v>9.8399724094370006E-3</v>
       </c>
-      <c r="I75" s="27">
-        <f>RSDAFC!M54*$M$22</f>
+      <c r="I78" s="27">
+        <f>RSDAFC!M54*$M$25</f>
         <v>9.8399724094370006E-3</v>
       </c>
-      <c r="K75" t="str">
+      <c r="K78" t="str">
         <f>RSDAFC!C54</f>
         <v>R-SW_Att_KER_N1</v>
       </c>
     </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" t="s">
-        <v>116</v>
-      </c>
-      <c r="H76" s="27">
-        <f>RSDAFC!L55*$M$22</f>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" t="s">
+        <v>116</v>
+      </c>
+      <c r="H79" s="27">
+        <f>RSDAFC!L55*$M$25</f>
         <v>9.8399724094370006E-3</v>
       </c>
-      <c r="I76" s="27">
-        <f>RSDAFC!M55*$M$22</f>
+      <c r="I79" s="27">
+        <f>RSDAFC!M55*$M$25</f>
         <v>9.8399724094370006E-3</v>
       </c>
-      <c r="K76" t="str">
+      <c r="K79" t="str">
         <f>RSDAFC!C55</f>
         <v>R-SW_Att_KER_N1</v>
       </c>
     </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" t="s">
-        <v>116</v>
-      </c>
-      <c r="H77" s="27">
-        <f>RSDAFC!L56*$M$22</f>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" t="s">
+        <v>116</v>
+      </c>
+      <c r="H80" s="27">
+        <f>RSDAFC!L56*$M$25</f>
         <v>9.8399724094370006E-3</v>
       </c>
-      <c r="I77" s="27">
-        <f>RSDAFC!M56*$M$22</f>
+      <c r="I80" s="27">
+        <f>RSDAFC!M56*$M$25</f>
         <v>9.8399724094370006E-3</v>
       </c>
-      <c r="K77" t="str">
+      <c r="K80" t="str">
         <f>RSDAFC!C56</f>
         <v>R-SW_Att_KER_N2</v>
       </c>
     </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>214</v>
-      </c>
-      <c r="D78" t="s">
-        <v>116</v>
-      </c>
-      <c r="H78" s="27">
-        <f>RSDAFC!L57*$M$22</f>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" t="s">
+        <v>116</v>
+      </c>
+      <c r="H81" s="27">
+        <f>RSDAFC!L57*$M$25</f>
         <v>9.8399724094370006E-3</v>
       </c>
-      <c r="I78" s="27">
-        <f>RSDAFC!M57*$M$22</f>
+      <c r="I81" s="27">
+        <f>RSDAFC!M57*$M$25</f>
         <v>9.8399724094370006E-3</v>
       </c>
-      <c r="K78" t="str">
+      <c r="K81" t="str">
         <f>RSDAFC!C57</f>
         <v>R-SW_Att_KER_N2</v>
       </c>
     </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>214</v>
-      </c>
-      <c r="D79" t="s">
-        <v>116</v>
-      </c>
-      <c r="H79" s="27">
-        <f>RSDAFC!L58*$M$22</f>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" t="s">
+        <v>116</v>
+      </c>
+      <c r="H82" s="27">
+        <f>RSDAFC!L58*$M$25</f>
         <v>9.8399724094370006E-3</v>
       </c>
-      <c r="I79" s="27">
-        <f>RSDAFC!M58*$M$22</f>
+      <c r="I82" s="27">
+        <f>RSDAFC!M58*$M$25</f>
         <v>9.8399724094370006E-3</v>
       </c>
-      <c r="K79" t="str">
+      <c r="K82" t="str">
         <f>RSDAFC!C58</f>
         <v>R-SW_Att_KER_N3</v>
       </c>
     </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>214</v>
-      </c>
-      <c r="D80" t="s">
-        <v>116</v>
-      </c>
-      <c r="H80" s="27">
-        <f>RSDAFC!L59*$M$22</f>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" t="s">
+        <v>116</v>
+      </c>
+      <c r="H83" s="27">
+        <f>RSDAFC!L59*$M$25</f>
         <v>9.8399724094370006E-3</v>
       </c>
-      <c r="I80" s="27">
-        <f>RSDAFC!M59*$M$22</f>
+      <c r="I83" s="27">
+        <f>RSDAFC!M59*$M$25</f>
         <v>9.8399724094370006E-3</v>
       </c>
-      <c r="K80" t="str">
+      <c r="K83" t="str">
         <f>RSDAFC!C59</f>
         <v>R-SW_Att_KER_N3</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>214</v>
-      </c>
-      <c r="D81" t="s">
-        <v>116</v>
-      </c>
-      <c r="H81" s="27">
-        <f>RSDAFC!L60*$M$22</f>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" t="s">
+        <v>116</v>
+      </c>
+      <c r="H84" s="27">
+        <f>RSDAFC!L60*$M$25</f>
         <v>1.1698585866472801E-2</v>
       </c>
-      <c r="I81" s="27">
-        <f>RSDAFC!M60*$M$22</f>
+      <c r="I84" s="27">
+        <f>RSDAFC!M60*$M$25</f>
         <v>1.1698585866472801E-2</v>
       </c>
-      <c r="K81" t="str">
+      <c r="K84" t="str">
         <f>RSDAFC!C60</f>
         <v>R-SW_Att_LPG_N1</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>214</v>
-      </c>
-      <c r="D82" t="s">
-        <v>116</v>
-      </c>
-      <c r="H82" s="27">
-        <f>RSDAFC!L61*$M$22</f>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" t="s">
+        <v>116</v>
+      </c>
+      <c r="H85" s="27">
+        <f>RSDAFC!L61*$M$25</f>
         <v>1.1698585866472801E-2</v>
       </c>
-      <c r="I82" s="27">
-        <f>RSDAFC!M61*$M$22</f>
+      <c r="I85" s="27">
+        <f>RSDAFC!M61*$M$25</f>
         <v>1.1698585866472801E-2</v>
       </c>
-      <c r="K82" t="str">
+      <c r="K85" t="str">
         <f>RSDAFC!C61</f>
         <v>R-SW_Att_LPG_N1</v>
       </c>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>214</v>
-      </c>
-      <c r="D83" t="s">
-        <v>116</v>
-      </c>
-      <c r="H83" s="27">
-        <f>RSDAFC!L62*$M$22</f>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" t="s">
+        <v>116</v>
+      </c>
+      <c r="H86" s="27">
+        <f>RSDAFC!L62*$M$25</f>
         <v>2.14779508723714E-2</v>
       </c>
-      <c r="I83" s="27">
-        <f>RSDAFC!M62*$M$22</f>
+      <c r="I86" s="27">
+        <f>RSDAFC!M62*$M$25</f>
         <v>2.14779508723714E-2</v>
       </c>
-      <c r="K83" t="str">
+      <c r="K86" t="str">
         <f>RSDAFC!C62</f>
         <v>R-SW_Att_WOO_N1</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>214</v>
-      </c>
-      <c r="D84" t="s">
-        <v>116</v>
-      </c>
-      <c r="H84" s="27">
-        <f>RSDAFC!L63*$M$22</f>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H87" s="27">
+        <f>RSDAFC!L63*$M$25</f>
         <v>2.14779508723714E-2</v>
       </c>
-      <c r="I84" s="27">
-        <f>RSDAFC!M63*$M$22</f>
+      <c r="I87" s="27">
+        <f>RSDAFC!M63*$M$25</f>
         <v>2.14779508723714E-2</v>
       </c>
-      <c r="K84" t="str">
+      <c r="K87" t="str">
         <f>RSDAFC!C63</f>
         <v>R-SW_Att_WOO_N1</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>214</v>
-      </c>
-      <c r="D85" t="s">
-        <v>116</v>
-      </c>
-      <c r="H85" s="27">
-        <f>RSDAFC!L64*$M$22</f>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" t="s">
+        <v>116</v>
+      </c>
+      <c r="H88" s="27">
+        <f>RSDAFC!L64*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="I85" s="27">
-        <f>RSDAFC!M64*$M$22</f>
+      <c r="I88" s="27">
+        <f>RSDAFC!M64*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="K85" t="str">
+      <c r="K88" t="str">
         <f>RSDAFC!C64</f>
         <v>R-SW_Det_ELC_HPN1</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>214</v>
-      </c>
-      <c r="D86" t="s">
-        <v>116</v>
-      </c>
-      <c r="H86" s="27">
-        <f>RSDAFC!L65*$M$22</f>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" t="s">
+        <v>116</v>
+      </c>
+      <c r="H89" s="27">
+        <f>RSDAFC!L65*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="I86" s="27">
-        <f>RSDAFC!M65*$M$22</f>
+      <c r="I89" s="27">
+        <f>RSDAFC!M65*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="K86" t="str">
+      <c r="K89" t="str">
         <f>RSDAFC!C65</f>
         <v>R-SW_Det_ELC_HPN1</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>214</v>
-      </c>
-      <c r="D87" t="s">
-        <v>116</v>
-      </c>
-      <c r="H87" s="27">
-        <f>RSDAFC!L66*$M$22</f>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" t="s">
+        <v>116</v>
+      </c>
+      <c r="H90" s="27">
+        <f>RSDAFC!L66*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="I87" s="27">
-        <f>RSDAFC!M66*$M$22</f>
+      <c r="I90" s="27">
+        <f>RSDAFC!M66*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="K87" t="str">
+      <c r="K90" t="str">
         <f>RSDAFC!C66</f>
         <v>R-SW_Det_ELC_HPN2</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>214</v>
-      </c>
-      <c r="D88" t="s">
-        <v>116</v>
-      </c>
-      <c r="H88" s="27">
-        <f>RSDAFC!L67*$M$22</f>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" t="s">
+        <v>116</v>
+      </c>
+      <c r="H91" s="27">
+        <f>RSDAFC!L67*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="I88" s="27">
-        <f>RSDAFC!M67*$M$22</f>
+      <c r="I91" s="27">
+        <f>RSDAFC!M67*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="K88" t="str">
+      <c r="K91" t="str">
         <f>RSDAFC!C67</f>
         <v>R-SW_Det_ELC_HPN2</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>214</v>
-      </c>
-      <c r="D89" t="s">
-        <v>116</v>
-      </c>
-      <c r="H89" s="27">
-        <f>RSDAFC!L68*$M$22</f>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" t="s">
+        <v>116</v>
+      </c>
+      <c r="H92" s="27">
+        <f>RSDAFC!L68*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I89" s="27">
-        <f>RSDAFC!M68*$M$22</f>
+      <c r="I92" s="27">
+        <f>RSDAFC!M68*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K89" t="str">
+      <c r="K92" t="str">
         <f>RSDAFC!C68</f>
         <v>R-SW_Det_GAS_HHPN1</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" t="s">
-        <v>116</v>
-      </c>
-      <c r="H90" s="27">
-        <f>RSDAFC!L69*$M$22</f>
+    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" t="s">
+        <v>116</v>
+      </c>
+      <c r="H93" s="27">
+        <f>RSDAFC!L69*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I90" s="27">
-        <f>RSDAFC!M69*$M$22</f>
+      <c r="I93" s="27">
+        <f>RSDAFC!M69*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K90" t="str">
+      <c r="K93" t="str">
         <f>RSDAFC!C69</f>
         <v>R-SW_Det_GAS_HHPN1</v>
       </c>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>214</v>
-      </c>
-      <c r="D91" t="s">
-        <v>116</v>
-      </c>
-      <c r="H91" s="27">
-        <f>RSDAFC!L70*$M$22</f>
+    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" t="s">
+        <v>116</v>
+      </c>
+      <c r="H94" s="27">
+        <f>RSDAFC!L70*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I91" s="27">
-        <f>RSDAFC!M70*$M$22</f>
+      <c r="I94" s="27">
+        <f>RSDAFC!M70*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K91" t="str">
+      <c r="K94" t="str">
         <f>RSDAFC!C70</f>
         <v>R-SW_Det_GAS_HPN1</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>214</v>
-      </c>
-      <c r="D92" t="s">
-        <v>116</v>
-      </c>
-      <c r="H92" s="27">
-        <f>RSDAFC!L71*$M$22</f>
+    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" t="s">
+        <v>116</v>
+      </c>
+      <c r="H95" s="27">
+        <f>RSDAFC!L71*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I92" s="27">
-        <f>RSDAFC!M71*$M$22</f>
+      <c r="I95" s="27">
+        <f>RSDAFC!M71*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K92" t="str">
+      <c r="K95" t="str">
         <f>RSDAFC!C71</f>
         <v>R-SW_Det_GAS_HPN1</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>214</v>
-      </c>
-      <c r="D93" t="s">
-        <v>116</v>
-      </c>
-      <c r="H93" s="27">
-        <f>RSDAFC!L72*$M$22</f>
+    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" t="s">
+        <v>116</v>
+      </c>
+      <c r="H96" s="27">
+        <f>RSDAFC!L72*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I93" s="27">
-        <f>RSDAFC!M72*$M$22</f>
+      <c r="I96" s="27">
+        <f>RSDAFC!M72*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K93" t="str">
+      <c r="K96" t="str">
         <f>RSDAFC!C72</f>
         <v>R-SW_Det_GAS_HPN2</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>214</v>
-      </c>
-      <c r="D94" t="s">
-        <v>116</v>
-      </c>
-      <c r="H94" s="27">
-        <f>RSDAFC!L73*$M$22</f>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" t="s">
+        <v>116</v>
+      </c>
+      <c r="H97" s="27">
+        <f>RSDAFC!L73*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I94" s="27">
-        <f>RSDAFC!M73*$M$22</f>
+      <c r="I97" s="27">
+        <f>RSDAFC!M73*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K94" t="str">
+      <c r="K97" t="str">
         <f>RSDAFC!C73</f>
         <v>R-SW_Det_GAS_HPN2</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>214</v>
-      </c>
-      <c r="D95" t="s">
-        <v>116</v>
-      </c>
-      <c r="H95" s="27">
-        <f>RSDAFC!L74*$M$22</f>
+    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H98" s="27">
+        <f>RSDAFC!L74*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I95" s="27">
-        <f>RSDAFC!M74*$M$22</f>
+      <c r="I98" s="27">
+        <f>RSDAFC!M74*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K95" t="str">
+      <c r="K98" t="str">
         <f>RSDAFC!C74</f>
         <v>R-SW_Det_GAS_N1</v>
       </c>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>214</v>
-      </c>
-      <c r="D96" t="s">
-        <v>116</v>
-      </c>
-      <c r="H96" s="27">
-        <f>RSDAFC!L75*$M$22</f>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" t="s">
+        <v>116</v>
+      </c>
+      <c r="H99" s="27">
+        <f>RSDAFC!L75*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I96" s="27">
-        <f>RSDAFC!M75*$M$22</f>
+      <c r="I99" s="27">
+        <f>RSDAFC!M75*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K96" t="str">
+      <c r="K99" t="str">
         <f>RSDAFC!C75</f>
         <v>R-SW_Det_GAS_N1</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>214</v>
-      </c>
-      <c r="D97" t="s">
-        <v>116</v>
-      </c>
-      <c r="H97" s="27">
-        <f>RSDAFC!L76*$M$22</f>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H100" s="27">
+        <f>RSDAFC!L76*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I97" s="27">
-        <f>RSDAFC!M76*$M$22</f>
+      <c r="I100" s="27">
+        <f>RSDAFC!M76*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K97" t="str">
+      <c r="K100" t="str">
         <f>RSDAFC!C76</f>
         <v>R-SW_Det_GAS_N2</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
-        <v>214</v>
-      </c>
-      <c r="D98" t="s">
-        <v>116</v>
-      </c>
-      <c r="H98" s="27">
-        <f>RSDAFC!L77*$M$22</f>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" t="s">
+        <v>116</v>
+      </c>
+      <c r="H101" s="27">
+        <f>RSDAFC!L77*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I98" s="27">
-        <f>RSDAFC!M77*$M$22</f>
+      <c r="I101" s="27">
+        <f>RSDAFC!M77*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K98" t="str">
+      <c r="K101" t="str">
         <f>RSDAFC!C77</f>
         <v>R-SW_Det_GAS_N2</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>214</v>
-      </c>
-      <c r="D99" t="s">
-        <v>116</v>
-      </c>
-      <c r="H99" s="27">
-        <f>RSDAFC!L78*$M$22</f>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" t="s">
+        <v>116</v>
+      </c>
+      <c r="H102" s="27">
+        <f>RSDAFC!L78*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I99" s="27">
-        <f>RSDAFC!M78*$M$22</f>
+      <c r="I102" s="27">
+        <f>RSDAFC!M78*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K99" t="str">
+      <c r="K102" t="str">
         <f>RSDAFC!C78</f>
         <v>R-SW_Det_GAS_N3</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>214</v>
-      </c>
-      <c r="D100" t="s">
-        <v>116</v>
-      </c>
-      <c r="H100" s="27">
-        <f>RSDAFC!L79*$M$22</f>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" t="s">
+        <v>116</v>
+      </c>
+      <c r="H103" s="27">
+        <f>RSDAFC!L79*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I100" s="27">
-        <f>RSDAFC!M79*$M$22</f>
+      <c r="I103" s="27">
+        <f>RSDAFC!M79*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K100" t="str">
+      <c r="K103" t="str">
         <f>RSDAFC!C79</f>
         <v>R-SW_Det_GAS_N3</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>214</v>
-      </c>
-      <c r="D101" t="s">
-        <v>116</v>
-      </c>
-      <c r="H101" s="27">
-        <f>RSDAFC!L80*$M$22</f>
+    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" t="s">
+        <v>116</v>
+      </c>
+      <c r="H104" s="27">
+        <f>RSDAFC!L80*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="I101" s="27">
-        <f>RSDAFC!M80*$M$22</f>
+      <c r="I104" s="27">
+        <f>RSDAFC!M80*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="K101" t="str">
+      <c r="K104" t="str">
         <f>RSDAFC!C80</f>
         <v>R-SW_Det_HET_N1</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
-        <v>214</v>
-      </c>
-      <c r="D102" t="s">
-        <v>116</v>
-      </c>
-      <c r="H102" s="27">
-        <f>RSDAFC!L81*$M$22</f>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" t="s">
+        <v>116</v>
+      </c>
+      <c r="H105" s="27">
+        <f>RSDAFC!L81*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="I102" s="27">
-        <f>RSDAFC!M81*$M$22</f>
+      <c r="I105" s="27">
+        <f>RSDAFC!M81*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="K102" t="str">
+      <c r="K105" t="str">
         <f>RSDAFC!C81</f>
         <v>R-SW_Det_HET_N1</v>
       </c>
     </row>
-    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D103" t="s">
-        <v>116</v>
-      </c>
-      <c r="H103" s="27">
-        <f>RSDAFC!L82*$M$22</f>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" t="s">
+        <v>116</v>
+      </c>
+      <c r="H106" s="27">
+        <f>RSDAFC!L82*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="I103" s="27">
-        <f>RSDAFC!M82*$M$22</f>
+      <c r="I106" s="27">
+        <f>RSDAFC!M82*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="K103" t="str">
+      <c r="K106" t="str">
         <f>RSDAFC!C82</f>
         <v>R-SW_Det_HET_N2</v>
       </c>
     </row>
-    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>214</v>
-      </c>
-      <c r="D104" t="s">
-        <v>116</v>
-      </c>
-      <c r="H104" s="27">
-        <f>RSDAFC!L83*$M$22</f>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>214</v>
+      </c>
+      <c r="D107" t="s">
+        <v>116</v>
+      </c>
+      <c r="H107" s="27">
+        <f>RSDAFC!L83*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="I104" s="27">
-        <f>RSDAFC!M83*$M$22</f>
+      <c r="I107" s="27">
+        <f>RSDAFC!M83*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="K104" t="str">
+      <c r="K107" t="str">
         <f>RSDAFC!C83</f>
         <v>R-SW_Det_HET_N2</v>
       </c>
     </row>
-    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D105" t="s">
-        <v>116</v>
-      </c>
-      <c r="H105" s="27">
-        <f>RSDAFC!L84*$M$22</f>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" t="s">
+        <v>116</v>
+      </c>
+      <c r="H108" s="27">
+        <f>RSDAFC!L84*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="I105" s="27">
-        <f>RSDAFC!M84*$M$22</f>
+      <c r="I108" s="27">
+        <f>RSDAFC!M84*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="K105" t="str">
+      <c r="K108" t="str">
         <f>RSDAFC!C84</f>
         <v>R-SW_Det_KER_N1</v>
       </c>
     </row>
-    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>214</v>
-      </c>
-      <c r="D106" t="s">
-        <v>116</v>
-      </c>
-      <c r="H106" s="27">
-        <f>RSDAFC!L85*$M$22</f>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" t="s">
+        <v>116</v>
+      </c>
+      <c r="H109" s="27">
+        <f>RSDAFC!L85*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="I106" s="27">
-        <f>RSDAFC!M85*$M$22</f>
+      <c r="I109" s="27">
+        <f>RSDAFC!M85*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="K106" t="str">
+      <c r="K109" t="str">
         <f>RSDAFC!C85</f>
         <v>R-SW_Det_KER_N1</v>
       </c>
     </row>
-    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D107" t="s">
-        <v>116</v>
-      </c>
-      <c r="H107" s="27">
-        <f>RSDAFC!L86*$M$22</f>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H110" s="27">
+        <f>RSDAFC!L86*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="I107" s="27">
-        <f>RSDAFC!M86*$M$22</f>
+      <c r="I110" s="27">
+        <f>RSDAFC!M86*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="K107" t="str">
+      <c r="K110" t="str">
         <f>RSDAFC!C86</f>
         <v>R-SW_Det_KER_N2</v>
       </c>
     </row>
-    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>214</v>
-      </c>
-      <c r="D108" t="s">
-        <v>116</v>
-      </c>
-      <c r="H108" s="27">
-        <f>RSDAFC!L87*$M$22</f>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>214</v>
+      </c>
+      <c r="D111" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111" s="27">
+        <f>RSDAFC!L87*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="I108" s="27">
-        <f>RSDAFC!M87*$M$22</f>
+      <c r="I111" s="27">
+        <f>RSDAFC!M87*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="K108" t="str">
+      <c r="K111" t="str">
         <f>RSDAFC!C87</f>
         <v>R-SW_Det_KER_N2</v>
       </c>
     </row>
-    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>214</v>
-      </c>
-      <c r="D109" t="s">
-        <v>116</v>
-      </c>
-      <c r="H109" s="27">
-        <f>RSDAFC!L88*$M$22</f>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>214</v>
+      </c>
+      <c r="D112" t="s">
+        <v>116</v>
+      </c>
+      <c r="H112" s="27">
+        <f>RSDAFC!L88*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="I109" s="27">
-        <f>RSDAFC!M88*$M$22</f>
+      <c r="I112" s="27">
+        <f>RSDAFC!M88*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="K109" t="str">
+      <c r="K112" t="str">
         <f>RSDAFC!C88</f>
         <v>R-SW_Det_KER_N3</v>
       </c>
     </row>
-    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>214</v>
-      </c>
-      <c r="D110" t="s">
-        <v>116</v>
-      </c>
-      <c r="H110" s="27">
-        <f>RSDAFC!L89*$M$22</f>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" t="s">
+        <v>116</v>
+      </c>
+      <c r="H113" s="27">
+        <f>RSDAFC!L89*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="I110" s="27">
-        <f>RSDAFC!M89*$M$22</f>
+      <c r="I113" s="27">
+        <f>RSDAFC!M89*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="K110" t="str">
+      <c r="K113" t="str">
         <f>RSDAFC!C89</f>
         <v>R-SW_Det_KER_N3</v>
       </c>
     </row>
-    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>214</v>
-      </c>
-      <c r="D111" t="s">
-        <v>116</v>
-      </c>
-      <c r="H111" s="27">
-        <f>RSDAFC!L90*$M$22</f>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>214</v>
+      </c>
+      <c r="D114" t="s">
+        <v>116</v>
+      </c>
+      <c r="H114" s="27">
+        <f>RSDAFC!L90*$M$25</f>
         <v>2.10969847812758E-2</v>
       </c>
-      <c r="I111" s="27">
-        <f>RSDAFC!M90*$M$22</f>
+      <c r="I114" s="27">
+        <f>RSDAFC!M90*$M$25</f>
         <v>2.10969847812758E-2</v>
       </c>
-      <c r="K111" t="str">
+      <c r="K114" t="str">
         <f>RSDAFC!C90</f>
         <v>R-SW_Det_LPG_N1</v>
       </c>
     </row>
-    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>214</v>
-      </c>
-      <c r="D112" t="s">
-        <v>116</v>
-      </c>
-      <c r="H112" s="27">
-        <f>RSDAFC!L91*$M$22</f>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>214</v>
+      </c>
+      <c r="D115" t="s">
+        <v>116</v>
+      </c>
+      <c r="H115" s="27">
+        <f>RSDAFC!L91*$M$25</f>
         <v>2.10969847812758E-2</v>
       </c>
-      <c r="I112" s="27">
-        <f>RSDAFC!M91*$M$22</f>
+      <c r="I115" s="27">
+        <f>RSDAFC!M91*$M$25</f>
         <v>2.10969847812758E-2</v>
       </c>
-      <c r="K112" t="str">
+      <c r="K115" t="str">
         <f>RSDAFC!C91</f>
         <v>R-SW_Det_LPG_N1</v>
       </c>
     </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>214</v>
-      </c>
-      <c r="D113" t="s">
-        <v>116</v>
-      </c>
-      <c r="H113" s="27">
-        <f>RSDAFC!L92*$M$22</f>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>214</v>
+      </c>
+      <c r="D116" t="s">
+        <v>116</v>
+      </c>
+      <c r="H116" s="27">
+        <f>RSDAFC!L92*$M$25</f>
         <v>2.6433948538654248E-2</v>
       </c>
-      <c r="I113" s="27">
-        <f>RSDAFC!M92*$M$22</f>
+      <c r="I116" s="27">
+        <f>RSDAFC!M92*$M$25</f>
         <v>2.6433948538654248E-2</v>
       </c>
-      <c r="K113" t="str">
+      <c r="K116" t="str">
         <f>RSDAFC!C92</f>
         <v>R-SW_Det_WOO_N1</v>
       </c>
     </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>214</v>
-      </c>
-      <c r="D114" t="s">
-        <v>116</v>
-      </c>
-      <c r="H114" s="27">
-        <f>RSDAFC!L93*$M$22</f>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>214</v>
+      </c>
+      <c r="D117" t="s">
+        <v>116</v>
+      </c>
+      <c r="H117" s="27">
+        <f>RSDAFC!L93*$M$25</f>
         <v>2.6433948538654248E-2</v>
       </c>
-      <c r="I114" s="27">
-        <f>RSDAFC!M93*$M$22</f>
+      <c r="I117" s="27">
+        <f>RSDAFC!M93*$M$25</f>
         <v>2.6433948538654248E-2</v>
       </c>
-      <c r="K114" t="str">
+      <c r="K117" t="str">
         <f>RSDAFC!C93</f>
         <v>R-SW_Det_WOO_N1</v>
       </c>
     </row>
-    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>214</v>
-      </c>
-      <c r="D115" t="s">
-        <v>116</v>
-      </c>
-      <c r="H115" s="27">
-        <f>RSDAFA!L2*$M$22</f>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>214</v>
+      </c>
+      <c r="D118" t="s">
+        <v>116</v>
+      </c>
+      <c r="H118" s="27">
+        <f>RSDAFA!L2*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="I115" s="27">
-        <f>RSDAFA!M2*$M$22</f>
+      <c r="I118" s="27">
+        <f>RSDAFA!M2*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="K115" s="27" t="str">
+      <c r="K118" s="27" t="str">
         <f>RSDAFA!C2</f>
         <v>R-SH_Apt_ELC_HPN1</v>
       </c>
     </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>214</v>
-      </c>
-      <c r="D116" t="s">
-        <v>116</v>
-      </c>
-      <c r="H116" s="27">
-        <f>RSDAFA!L3*$M$22</f>
+    <row r="119" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>214</v>
+      </c>
+      <c r="D119" t="s">
+        <v>116</v>
+      </c>
+      <c r="H119" s="27">
+        <f>RSDAFA!L3*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="I116" s="27">
-        <f>RSDAFA!M3*$M$22</f>
+      <c r="I119" s="27">
+        <f>RSDAFA!M3*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="K116" s="27" t="str">
+      <c r="K119" s="27" t="str">
         <f>RSDAFA!C3</f>
         <v>R-SH_Apt_ELC_HPN2</v>
       </c>
     </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>214</v>
-      </c>
-      <c r="D117" t="s">
-        <v>116</v>
-      </c>
-      <c r="H117" s="27">
-        <f>RSDAFA!L4*$M$22</f>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>214</v>
+      </c>
+      <c r="D120" t="s">
+        <v>116</v>
+      </c>
+      <c r="H120" s="27">
+        <f>RSDAFA!L4*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="I117" s="27">
-        <f>RSDAFA!M4*$M$22</f>
+      <c r="I120" s="27">
+        <f>RSDAFA!M4*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="K117" s="27" t="str">
+      <c r="K120" s="27" t="str">
         <f>RSDAFA!C4</f>
         <v>R-SH_Apt_ELC_HPN3</v>
       </c>
     </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
-        <v>214</v>
-      </c>
-      <c r="D118" t="s">
-        <v>116</v>
-      </c>
-      <c r="H118" s="27">
-        <f>RSDAFA!L5*$M$22</f>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>214</v>
+      </c>
+      <c r="D121" t="s">
+        <v>116</v>
+      </c>
+      <c r="H121" s="27">
+        <f>RSDAFA!L5*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="I118" s="27">
-        <f>RSDAFA!M5*$M$22</f>
+      <c r="I121" s="27">
+        <f>RSDAFA!M5*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="K118" s="27" t="str">
+      <c r="K121" s="27" t="str">
         <f>RSDAFA!C5</f>
         <v>R-SH_Apt_ELC_N1</v>
       </c>
     </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
-        <v>214</v>
-      </c>
-      <c r="D119" t="s">
-        <v>116</v>
-      </c>
-      <c r="H119" s="27">
-        <f>RSDAFA!L6*$M$22</f>
+    <row r="122" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>214</v>
+      </c>
+      <c r="D122" t="s">
+        <v>116</v>
+      </c>
+      <c r="H122" s="27">
+        <f>RSDAFA!L6*$M$25</f>
         <v>5.9295434183648001E-3</v>
       </c>
-      <c r="I119" s="27">
-        <f>RSDAFA!M6*$M$22</f>
+      <c r="I122" s="27">
+        <f>RSDAFA!M6*$M$25</f>
         <v>5.9295434183648001E-3</v>
       </c>
-      <c r="K119" s="27" t="str">
+      <c r="K122" s="27" t="str">
         <f>RSDAFA!C6</f>
         <v>R-SH_Apt_GAS_N1</v>
       </c>
     </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
-        <v>214</v>
-      </c>
-      <c r="D120" t="s">
-        <v>116</v>
-      </c>
-      <c r="H120" s="27">
-        <f>RSDAFA!L7*$M$22</f>
+    <row r="123" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>214</v>
+      </c>
+      <c r="D123" t="s">
+        <v>116</v>
+      </c>
+      <c r="H123" s="27">
+        <f>RSDAFA!L7*$M$25</f>
         <v>1.8679913115832E-2</v>
       </c>
-      <c r="I120" s="27">
-        <f>RSDAFA!M7*$M$22</f>
+      <c r="I123" s="27">
+        <f>RSDAFA!M7*$M$25</f>
         <v>1.8679913115832E-2</v>
       </c>
-      <c r="K120" s="27" t="str">
+      <c r="K123" s="27" t="str">
         <f>RSDAFA!C7</f>
         <v>R-SH_Apt_KER_N1</v>
       </c>
     </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>214</v>
-      </c>
-      <c r="D121" t="s">
-        <v>116</v>
-      </c>
-      <c r="H121" s="27">
-        <f>RSDAFA!L8*$M$22</f>
+    <row r="124" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>214</v>
+      </c>
+      <c r="D124" t="s">
+        <v>116</v>
+      </c>
+      <c r="H124" s="27">
+        <f>RSDAFA!L8*$M$25</f>
         <v>1.1539296595339751E-2</v>
       </c>
-      <c r="I121" s="27">
-        <f>RSDAFA!M8*$M$22</f>
+      <c r="I124" s="27">
+        <f>RSDAFA!M8*$M$25</f>
         <v>1.1539296595339751E-2</v>
       </c>
-      <c r="K121" s="27" t="str">
+      <c r="K124" s="27" t="str">
         <f>RSDAFA!C8</f>
         <v>R-SH_Apt_LPG_N1</v>
       </c>
     </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
-        <v>214</v>
-      </c>
-      <c r="D122" t="s">
-        <v>116</v>
-      </c>
-      <c r="H122" s="27">
-        <f>RSDAFA!L9*$M$22</f>
+    <row r="125" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>214</v>
+      </c>
+      <c r="D125" t="s">
+        <v>116</v>
+      </c>
+      <c r="H125" s="27">
+        <f>RSDAFA!L9*$M$25</f>
         <v>8.8239524029044506E-3</v>
       </c>
-      <c r="I122" s="27">
-        <f>RSDAFA!M9*$M$22</f>
+      <c r="I125" s="27">
+        <f>RSDAFA!M9*$M$25</f>
         <v>8.8239524029044506E-3</v>
       </c>
-      <c r="K122" s="27" t="str">
+      <c r="K125" s="27" t="str">
         <f>RSDAFA!C9</f>
         <v>R-SH_Apt_WOO_N1</v>
       </c>
     </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
-        <v>214</v>
-      </c>
-      <c r="D123" t="s">
-        <v>116</v>
-      </c>
-      <c r="H123" s="27">
-        <f>RSDAFA!L10*$M$22</f>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>214</v>
+      </c>
+      <c r="D126" t="s">
+        <v>116</v>
+      </c>
+      <c r="H126" s="27">
+        <f>RSDAFA!L10*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="I123" s="27">
-        <f>RSDAFA!M10*$M$22</f>
+      <c r="I126" s="27">
+        <f>RSDAFA!M10*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="K123" s="27" t="str">
+      <c r="K126" s="27" t="str">
         <f>RSDAFA!C10</f>
         <v>R-SH_Att_ELC_HPN1</v>
       </c>
     </row>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
-        <v>214</v>
-      </c>
-      <c r="D124" t="s">
-        <v>116</v>
-      </c>
-      <c r="H124" s="27">
-        <f>RSDAFA!L11*$M$22</f>
+    <row r="127" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>214</v>
+      </c>
+      <c r="D127" t="s">
+        <v>116</v>
+      </c>
+      <c r="H127" s="27">
+        <f>RSDAFA!L11*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="I124" s="27">
-        <f>RSDAFA!M11*$M$22</f>
+      <c r="I127" s="27">
+        <f>RSDAFA!M11*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="K124" s="27" t="str">
+      <c r="K127" s="27" t="str">
         <f>RSDAFA!C11</f>
         <v>R-SH_Att_ELC_HPN2</v>
       </c>
     </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
-        <v>214</v>
-      </c>
-      <c r="D125" t="s">
-        <v>116</v>
-      </c>
-      <c r="H125" s="27">
-        <f>RSDAFA!L12*$M$22</f>
+    <row r="128" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>214</v>
+      </c>
+      <c r="D128" t="s">
+        <v>116</v>
+      </c>
+      <c r="H128" s="27">
+        <f>RSDAFA!L12*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="I125" s="27">
-        <f>RSDAFA!M12*$M$22</f>
+      <c r="I128" s="27">
+        <f>RSDAFA!M12*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="K125" s="27" t="str">
+      <c r="K128" s="27" t="str">
         <f>RSDAFA!C12</f>
         <v>R-SH_Att_ELC_HPN3</v>
       </c>
     </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>214</v>
-      </c>
-      <c r="D126" t="s">
-        <v>116</v>
-      </c>
-      <c r="H126" s="27">
-        <f>RSDAFA!L13*$M$22</f>
+    <row r="129" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>214</v>
+      </c>
+      <c r="D129" t="s">
+        <v>116</v>
+      </c>
+      <c r="H129" s="27">
+        <f>RSDAFA!L13*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="I126" s="27">
-        <f>RSDAFA!M13*$M$22</f>
+      <c r="I129" s="27">
+        <f>RSDAFA!M13*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="K126" s="27" t="str">
+      <c r="K129" s="27" t="str">
         <f>RSDAFA!C13</f>
         <v>R-SH_Att_ELC_N1</v>
       </c>
     </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
-        <v>214</v>
-      </c>
-      <c r="D127" t="s">
-        <v>116</v>
-      </c>
-      <c r="H127" s="27">
-        <f>RSDAFA!L14*$M$22</f>
+    <row r="130" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>214</v>
+      </c>
+      <c r="D130" t="s">
+        <v>116</v>
+      </c>
+      <c r="H130" s="27">
+        <f>RSDAFA!L14*$M$25</f>
         <v>1.10479456620104E-2</v>
       </c>
-      <c r="I127" s="27">
-        <f>RSDAFA!M14*$M$22</f>
+      <c r="I130" s="27">
+        <f>RSDAFA!M14*$M$25</f>
         <v>1.10479456620104E-2</v>
       </c>
-      <c r="K127" s="27" t="str">
+      <c r="K130" s="27" t="str">
         <f>RSDAFA!C14</f>
         <v>R-SH_Att_GAS_N1</v>
       </c>
     </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
-        <v>214</v>
-      </c>
-      <c r="D128" t="s">
-        <v>116</v>
-      </c>
-      <c r="H128" s="27">
-        <f>RSDAFA!L15*$M$22</f>
+    <row r="131" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>214</v>
+      </c>
+      <c r="D131" t="s">
+        <v>116</v>
+      </c>
+      <c r="H131" s="27">
+        <f>RSDAFA!L15*$M$25</f>
         <v>1.418438071184145E-2</v>
       </c>
-      <c r="I128" s="27">
-        <f>RSDAFA!M15*$M$22</f>
+      <c r="I131" s="27">
+        <f>RSDAFA!M15*$M$25</f>
         <v>1.418438071184145E-2</v>
       </c>
-      <c r="K128" s="27" t="str">
+      <c r="K131" s="27" t="str">
         <f>RSDAFA!C15</f>
         <v>R-SH_Att_KER_N1</v>
       </c>
     </row>
-    <row r="129" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
-        <v>214</v>
-      </c>
-      <c r="D129" t="s">
-        <v>116</v>
-      </c>
-      <c r="H129" s="27">
-        <f>RSDAFA!L16*$M$22</f>
+    <row r="132" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>214</v>
+      </c>
+      <c r="D132" t="s">
+        <v>116</v>
+      </c>
+      <c r="H132" s="27">
+        <f>RSDAFA!L16*$M$25</f>
         <v>1.5468436444358601E-2</v>
       </c>
-      <c r="I129" s="27">
-        <f>RSDAFA!M16*$M$22</f>
+      <c r="I132" s="27">
+        <f>RSDAFA!M16*$M$25</f>
         <v>1.5468436444358601E-2</v>
       </c>
-      <c r="K129" s="27" t="str">
+      <c r="K132" s="27" t="str">
         <f>RSDAFA!C16</f>
         <v>R-SH_Att_LPG_N1</v>
       </c>
     </row>
-    <row r="130" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
-        <v>214</v>
-      </c>
-      <c r="D130" t="s">
-        <v>116</v>
-      </c>
-      <c r="H130" s="27">
-        <f>RSDAFA!L17*$M$22</f>
+    <row r="133" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" t="s">
+        <v>116</v>
+      </c>
+      <c r="H133" s="27">
+        <f>RSDAFA!L17*$M$25</f>
         <v>3.7533433216504153E-2</v>
       </c>
-      <c r="I130" s="27">
-        <f>RSDAFA!M17*$M$22</f>
+      <c r="I133" s="27">
+        <f>RSDAFA!M17*$M$25</f>
         <v>3.7533433216504153E-2</v>
       </c>
-      <c r="K130" s="27" t="str">
+      <c r="K133" s="27" t="str">
         <f>RSDAFA!C17</f>
         <v>R-SH_Att_WOO_N1</v>
       </c>
     </row>
-    <row r="131" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
-        <v>214</v>
-      </c>
-      <c r="D131" t="s">
-        <v>116</v>
-      </c>
-      <c r="H131" s="27">
-        <f>RSDAFA!L18*$M$22</f>
+    <row r="134" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>214</v>
+      </c>
+      <c r="D134" t="s">
+        <v>116</v>
+      </c>
+      <c r="H134" s="27">
+        <f>RSDAFA!L18*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="I131" s="27">
-        <f>RSDAFA!M18*$M$22</f>
+      <c r="I134" s="27">
+        <f>RSDAFA!M18*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="K131" s="27" t="str">
+      <c r="K134" s="27" t="str">
         <f>RSDAFA!C18</f>
         <v>R-SH_Det_ELC_HPN1</v>
       </c>
     </row>
-    <row r="132" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
-        <v>214</v>
-      </c>
-      <c r="D132" t="s">
-        <v>116</v>
-      </c>
-      <c r="H132" s="27">
-        <f>RSDAFA!L19*$M$22</f>
+    <row r="135" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>214</v>
+      </c>
+      <c r="D135" t="s">
+        <v>116</v>
+      </c>
+      <c r="H135" s="27">
+        <f>RSDAFA!L19*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="I132" s="27">
-        <f>RSDAFA!M19*$M$22</f>
+      <c r="I135" s="27">
+        <f>RSDAFA!M19*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="K132" s="27" t="str">
+      <c r="K135" s="27" t="str">
         <f>RSDAFA!C19</f>
         <v>R-SH_Det_ELC_HPN2</v>
       </c>
     </row>
-    <row r="133" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
-        <v>214</v>
-      </c>
-      <c r="D133" t="s">
-        <v>116</v>
-      </c>
-      <c r="H133" s="27">
-        <f>RSDAFA!L20*$M$22</f>
+    <row r="136" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>214</v>
+      </c>
+      <c r="D136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H136" s="27">
+        <f>RSDAFA!L20*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="I133" s="27">
-        <f>RSDAFA!M20*$M$22</f>
+      <c r="I136" s="27">
+        <f>RSDAFA!M20*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="K133" s="27" t="str">
+      <c r="K136" s="27" t="str">
         <f>RSDAFA!C20</f>
         <v>R-SH_Det_ELC_HPN3</v>
       </c>
     </row>
-    <row r="134" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
-        <v>214</v>
-      </c>
-      <c r="D134" t="s">
-        <v>116</v>
-      </c>
-      <c r="H134" s="27">
-        <f>RSDAFA!L21*$M$22</f>
+    <row r="137" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>214</v>
+      </c>
+      <c r="D137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H137" s="27">
+        <f>RSDAFA!L21*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="I134" s="27">
-        <f>RSDAFA!M21*$M$22</f>
+      <c r="I137" s="27">
+        <f>RSDAFA!M21*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="K134" s="27" t="str">
+      <c r="K137" s="27" t="str">
         <f>RSDAFA!C21</f>
         <v>R-SH_Det_ELC_N1</v>
       </c>
     </row>
-    <row r="135" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
-        <v>214</v>
-      </c>
-      <c r="D135" t="s">
-        <v>116</v>
-      </c>
-      <c r="H135" s="27">
-        <f>RSDAFA!L22*$M$22</f>
+    <row r="138" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>214</v>
+      </c>
+      <c r="D138" t="s">
+        <v>116</v>
+      </c>
+      <c r="H138" s="27">
+        <f>RSDAFA!L22*$M$25</f>
         <v>1.852031558004625E-2</v>
       </c>
-      <c r="I135" s="27">
-        <f>RSDAFA!M22*$M$22</f>
+      <c r="I138" s="27">
+        <f>RSDAFA!M22*$M$25</f>
         <v>1.852031558004625E-2</v>
       </c>
-      <c r="K135" s="27" t="str">
+      <c r="K138" s="27" t="str">
         <f>RSDAFA!C22</f>
         <v>R-SH_Det_GAS_N1</v>
       </c>
     </row>
-    <row r="136" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
-        <v>214</v>
-      </c>
-      <c r="D136" t="s">
-        <v>116</v>
-      </c>
-      <c r="H136" s="27">
-        <f>RSDAFA!L23*$M$22</f>
+    <row r="139" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>214</v>
+      </c>
+      <c r="D139" t="s">
+        <v>116</v>
+      </c>
+      <c r="H139" s="27">
+        <f>RSDAFA!L23*$M$25</f>
         <v>2.3310863988210799E-2</v>
       </c>
-      <c r="I136" s="27">
-        <f>RSDAFA!M23*$M$22</f>
+      <c r="I139" s="27">
+        <f>RSDAFA!M23*$M$25</f>
         <v>2.3310863988210799E-2</v>
       </c>
-      <c r="K136" s="27" t="str">
+      <c r="K139" s="27" t="str">
         <f>RSDAFA!C23</f>
         <v>R-SH_Det_KER_N1</v>
       </c>
     </row>
-    <row r="137" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
-        <v>214</v>
-      </c>
-      <c r="D137" t="s">
-        <v>116</v>
-      </c>
-      <c r="H137" s="27">
-        <f>RSDAFA!L24*$M$22</f>
+    <row r="140" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>214</v>
+      </c>
+      <c r="D140" t="s">
+        <v>116</v>
+      </c>
+      <c r="H140" s="27">
+        <f>RSDAFA!L24*$M$25</f>
         <v>3.3516837935026751E-2</v>
       </c>
-      <c r="I137" s="27">
-        <f>RSDAFA!M24*$M$22</f>
+      <c r="I140" s="27">
+        <f>RSDAFA!M24*$M$25</f>
         <v>3.3516837935026751E-2</v>
       </c>
-      <c r="K137" s="27" t="str">
+      <c r="K140" s="27" t="str">
         <f>RSDAFA!C24</f>
         <v>R-SH_Det_LPG_N1</v>
       </c>
     </row>
-    <row r="138" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>214</v>
-      </c>
-      <c r="D138" t="s">
-        <v>116</v>
-      </c>
-      <c r="H138" s="27">
-        <f>RSDAFA!L25*$M$22</f>
+    <row r="141" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>214</v>
+      </c>
+      <c r="D141" t="s">
+        <v>116</v>
+      </c>
+      <c r="H141" s="27">
+        <f>RSDAFA!L25*$M$25</f>
         <v>4.5576915292050248E-2</v>
       </c>
-      <c r="I138" s="27">
-        <f>RSDAFA!M25*$M$22</f>
+      <c r="I141" s="27">
+        <f>RSDAFA!M25*$M$25</f>
         <v>4.5576915292050248E-2</v>
       </c>
-      <c r="K138" s="27" t="str">
+      <c r="K141" s="27" t="str">
         <f>RSDAFA!C25</f>
         <v>R-SH_Det_WOO_N1</v>
       </c>
     </row>
-    <row r="139" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>214</v>
-      </c>
-      <c r="D139" t="s">
-        <v>116</v>
-      </c>
-      <c r="H139" s="27">
-        <f>RSDAFA!L26*$M$22</f>
+    <row r="142" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>214</v>
+      </c>
+      <c r="D142" t="s">
+        <v>116</v>
+      </c>
+      <c r="H142" s="27">
+        <f>RSDAFA!L26*$M$25</f>
         <v>1.1367849827582301E-2</v>
       </c>
-      <c r="I139" s="27">
-        <f>RSDAFA!M26*$M$22</f>
+      <c r="I142" s="27">
+        <f>RSDAFA!M26*$M$25</f>
         <v>1.1367849827582301E-2</v>
       </c>
-      <c r="K139" s="27" t="str">
+      <c r="K142" s="27" t="str">
         <f>RSDAFA!C26</f>
         <v>R-WH_Apt_ELC_N1</v>
       </c>
     </row>
-    <row r="140" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
-        <v>214</v>
-      </c>
-      <c r="D140" t="s">
-        <v>116</v>
-      </c>
-      <c r="H140" s="27">
-        <f>RSDAFA!L27*$M$22</f>
+    <row r="143" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>214</v>
+      </c>
+      <c r="D143" t="s">
+        <v>116</v>
+      </c>
+      <c r="H143" s="27">
+        <f>RSDAFA!L27*$M$25</f>
         <v>4.3149364997261599E-3</v>
       </c>
-      <c r="I140" s="27">
-        <f>RSDAFA!M27*$M$22</f>
+      <c r="I143" s="27">
+        <f>RSDAFA!M27*$M$25</f>
         <v>4.3149364997261599E-3</v>
       </c>
-      <c r="K140" s="27" t="str">
+      <c r="K143" s="27" t="str">
         <f>RSDAFA!C27</f>
         <v>R-WH_Apt_SOL_N1</v>
       </c>
     </row>
-    <row r="141" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C141" t="s">
-        <v>214</v>
-      </c>
-      <c r="D141" t="s">
-        <v>116</v>
-      </c>
-      <c r="H141" s="27">
-        <f>RSDAFA!L28*$M$22</f>
+    <row r="144" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>214</v>
+      </c>
+      <c r="D144" t="s">
+        <v>116</v>
+      </c>
+      <c r="H144" s="27">
+        <f>RSDAFA!L28*$M$25</f>
         <v>6.4637842351524498E-3</v>
       </c>
-      <c r="I141" s="27">
-        <f>RSDAFA!M28*$M$22</f>
+      <c r="I144" s="27">
+        <f>RSDAFA!M28*$M$25</f>
         <v>6.4637842351524498E-3</v>
       </c>
-      <c r="K141" s="27" t="str">
+      <c r="K144" s="27" t="str">
         <f>RSDAFA!C28</f>
         <v>R-WH_Att_ELC_N1</v>
       </c>
     </row>
-    <row r="142" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
-        <v>214</v>
-      </c>
-      <c r="D142" t="s">
-        <v>116</v>
-      </c>
-      <c r="H142" s="27">
-        <f>RSDAFA!L29*$M$22</f>
+    <row r="145" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>214</v>
+      </c>
+      <c r="D145" t="s">
+        <v>116</v>
+      </c>
+      <c r="H145" s="27">
+        <f>RSDAFA!L29*$M$25</f>
         <v>1.72048031425758E-2</v>
       </c>
-      <c r="I142" s="27">
-        <f>RSDAFA!M29*$M$22</f>
+      <c r="I145" s="27">
+        <f>RSDAFA!M29*$M$25</f>
         <v>1.72048031425758E-2</v>
       </c>
-      <c r="K142" s="27" t="str">
+      <c r="K145" s="27" t="str">
         <f>RSDAFA!C29</f>
         <v>R-WH_Att_SOL_N1</v>
       </c>
     </row>
-    <row r="143" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
-        <v>214</v>
-      </c>
-      <c r="D143" t="s">
-        <v>116</v>
-      </c>
-      <c r="H143" s="27">
-        <f>RSDAFA!L30*$M$22</f>
+    <row r="146" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>214</v>
+      </c>
+      <c r="D146" t="s">
+        <v>116</v>
+      </c>
+      <c r="H146" s="27">
+        <f>RSDAFA!L30*$M$25</f>
         <v>6.6642433815351501E-3</v>
       </c>
-      <c r="I143" s="27">
-        <f>RSDAFA!M30*$M$22</f>
+      <c r="I146" s="27">
+        <f>RSDAFA!M30*$M$25</f>
         <v>6.6642433815351501E-3</v>
       </c>
-      <c r="K143" s="27" t="str">
+      <c r="K146" s="27" t="str">
         <f>RSDAFA!C30</f>
         <v>R-WH_Det_ELC_N1</v>
       </c>
     </row>
-    <row r="144" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
-        <v>214</v>
-      </c>
-      <c r="D144" t="s">
-        <v>116</v>
-      </c>
-      <c r="H144" s="27">
-        <f>RSDAFA!L31*$M$22</f>
+    <row r="147" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>214</v>
+      </c>
+      <c r="D147" t="s">
+        <v>116</v>
+      </c>
+      <c r="H147" s="27">
+        <f>RSDAFA!L31*$M$25</f>
         <v>5.6525755788417502E-2</v>
       </c>
-      <c r="I144" s="27">
-        <f>RSDAFA!M31*$M$22</f>
+      <c r="I147" s="27">
+        <f>RSDAFA!M31*$M$25</f>
         <v>5.6525755788417502E-2</v>
       </c>
-      <c r="K144" s="27" t="str">
+      <c r="K147" s="27" t="str">
         <f>RSDAFA!C31</f>
         <v>R-WH_Det_SOL_N1</v>
       </c>
     </row>
-    <row r="145" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="K145" s="27"/>
-    </row>
-    <row r="146" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
-      <c r="K146" s="27"/>
-    </row>
-    <row r="147" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="K147" s="27"/>
-    </row>
-    <row r="148" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
       <c r="K148" s="27"/>
     </row>
-    <row r="149" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
       <c r="K149" s="27"/>
     </row>
-    <row r="150" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
       <c r="K150" s="27"/>
     </row>
-    <row r="151" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
       <c r="K151" s="27"/>
     </row>
-    <row r="152" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
       <c r="K152" s="27"/>
     </row>
-    <row r="153" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
       <c r="K153" s="27"/>
     </row>
-    <row r="154" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
       <c r="K154" s="27"/>
     </row>
-    <row r="155" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
       <c r="K155" s="27"/>
     </row>
-    <row r="156" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
       <c r="K156" s="27"/>
     </row>
-    <row r="157" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
       <c r="K157" s="27"/>
     </row>
-    <row r="158" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
       <c r="K158" s="27"/>
     </row>
-    <row r="159" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
       <c r="K159" s="27"/>
     </row>
-    <row r="160" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
       <c r="K160" s="27"/>
@@ -6316,10 +6343,25 @@
       <c r="I162" s="27"/>
       <c r="K162" s="27"/>
     </row>
+    <row r="163" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="K163" s="27"/>
+    </row>
+    <row r="164" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="K164" s="27"/>
+    </row>
+    <row r="165" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
+      <c r="K165" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998EC944-3E1B-4089-8698-C613AE554DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8A47F9-D7B8-42CA-B4B6-695D8610AE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -485,9 +485,6 @@
     <t>RSDSH_Apt</t>
   </si>
   <si>
-    <t>R*HPN*,-R*GAS*</t>
-  </si>
-  <si>
     <t>temp_UC_HP-CAP_RSD-DET</t>
   </si>
   <si>
@@ -915,6 +912,9 @@
   </si>
   <si>
     <t>R-BLD_Det</t>
+  </si>
+  <si>
+    <t>R*_HPN*</t>
   </si>
 </sst>
 </file>
@@ -2706,7 +2706,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E7">
         <v>2020</v>
@@ -2718,7 +2718,7 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2726,7 +2726,7 @@
         <v>83</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H18">
         <v>2200</v>
@@ -2808,12 +2808,12 @@
         <v>2200</v>
       </c>
       <c r="K18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H19">
         <v>2200</v>
@@ -2822,7 +2822,7 @@
         <v>2200</v>
       </c>
       <c r="K19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>4</v>
@@ -2906,13 +2906,13 @@
         <v>99</v>
       </c>
       <c r="K28" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="L28" s="31" t="s">
+      <c r="M28" s="31" t="s">
         <v>224</v>
-      </c>
-      <c r="M28" s="31" t="s">
-        <v>225</v>
       </c>
       <c r="N28" s="31" t="s">
         <v>11</v>
@@ -2920,22 +2920,22 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H29" s="30">
         <v>2018</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J29" s="30">
         <v>1.1000000000000001</v>
@@ -2950,27 +2950,27 @@
         <v>5</v>
       </c>
       <c r="N29" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H30" s="30">
         <v>2018</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J30" s="30">
         <v>1.1000000000000001</v>
@@ -2985,27 +2985,27 @@
         <v>5</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H31" s="30">
         <v>2018</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J31" s="30">
         <v>1.1000000000000001</v>
@@ -3020,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="N31" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3406,8 +3406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CF89D-3AC9-4E2E-BCF6-79A710F8BD8A}">
   <dimension ref="A1:S165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
         <v>98</v>
@@ -3499,12 +3499,12 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H7">
         <v>2019</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="F8" t="s">
         <v>100</v>
@@ -3540,10 +3540,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H10">
         <v>2019</v>
@@ -3558,12 +3558,12 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H11">
         <v>2019</v>
@@ -3574,10 +3574,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12">
         <v>2019</v>
@@ -3596,10 +3596,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H14">
         <v>2019</v>
@@ -3614,12 +3614,12 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H15">
         <v>2019</v>
@@ -3630,10 +3630,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16">
         <v>2019</v>
@@ -3667,27 +3667,27 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N19" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="O19" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="O19" s="35" t="s">
+      <c r="P19" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="P19" s="38" t="s">
-        <v>238</v>
-      </c>
       <c r="Q19" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="R19" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="R19" s="35" t="s">
+      <c r="S19" s="38" t="s">
         <v>237</v>
-      </c>
-      <c r="S19" s="38" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N20" s="36">
         <v>92323.794764485472</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N21" s="36">
         <v>282151.52747564798</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N22" s="36">
         <v>391876.39875986642</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -3819,10 +3819,10 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M25" s="26">
         <v>0.5</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" s="27">
         <f>RSDAFC!L2*$M$25</f>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H27" s="27">
         <f>RSDAFC!L3*$M$25</f>
@@ -3870,10 +3870,10 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" s="27">
         <f>RSDAFC!L4*$M$25</f>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" s="27">
         <f>RSDAFC!L5*$M$25</f>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30" s="27">
         <f>RSDAFC!L6*$M$25</f>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="27">
         <f>RSDAFC!L7*$M$25</f>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" s="27">
         <f>RSDAFC!L8*$M$25</f>
@@ -3970,10 +3970,10 @@
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H33" s="27">
         <f>RSDAFC!L9*$M$25</f>
@@ -3990,10 +3990,10 @@
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" s="27">
         <f>RSDAFC!L10*$M$25</f>
@@ -4010,10 +4010,10 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H35" s="27">
         <f>RSDAFC!L11*$M$25</f>
@@ -4030,10 +4030,10 @@
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H36" s="27">
         <f>RSDAFC!L12*$M$25</f>
@@ -4050,10 +4050,10 @@
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H37" s="27">
         <f>RSDAFC!L13*$M$25</f>
@@ -4070,10 +4070,10 @@
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H38" s="27">
         <f>RSDAFC!L14*$M$25</f>
@@ -4090,10 +4090,10 @@
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H39" s="27">
         <f>RSDAFC!L15*$M$25</f>
@@ -4110,10 +4110,10 @@
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H40" s="27">
         <f>RSDAFC!L16*$M$25</f>
@@ -4130,10 +4130,10 @@
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H41" s="27">
         <f>RSDAFC!L17*$M$25</f>
@@ -4150,10 +4150,10 @@
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H42" s="27">
         <f>RSDAFC!L18*$M$25</f>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H43" s="27">
         <f>RSDAFC!L19*$M$25</f>
@@ -4190,10 +4190,10 @@
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H44" s="27">
         <f>RSDAFC!L20*$M$25</f>
@@ -4210,10 +4210,10 @@
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H45" s="27">
         <f>RSDAFC!L21*$M$25</f>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H46" s="27">
         <f>RSDAFC!L22*$M$25</f>
@@ -4250,10 +4250,10 @@
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H47" s="27">
         <f>RSDAFC!L23*$M$25</f>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H48" s="27">
         <f>RSDAFC!L24*$M$25</f>
@@ -4290,10 +4290,10 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H49" s="27">
         <f>RSDAFC!L25*$M$25</f>
@@ -4310,10 +4310,10 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H50" s="27">
         <f>RSDAFC!L26*$M$25</f>
@@ -4330,10 +4330,10 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H51" s="27">
         <f>RSDAFC!L27*$M$25</f>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H52" s="27">
         <f>RSDAFC!L28*$M$25</f>
@@ -4370,10 +4370,10 @@
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H53" s="27">
         <f>RSDAFC!L29*$M$25</f>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H54" s="27">
         <f>RSDAFC!L30*$M$25</f>
@@ -4410,10 +4410,10 @@
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H55" s="27">
         <f>RSDAFC!L31*$M$25</f>
@@ -4430,10 +4430,10 @@
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H56" s="27">
         <f>RSDAFC!L32*$M$25</f>
@@ -4450,10 +4450,10 @@
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H57" s="27">
         <f>RSDAFC!L33*$M$25</f>
@@ -4470,10 +4470,10 @@
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H58" s="27">
         <f>RSDAFC!L34*$M$25</f>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H59" s="27">
         <f>RSDAFC!L35*$M$25</f>
@@ -4510,10 +4510,10 @@
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H60" s="27">
         <f>RSDAFC!L36*$M$25</f>
@@ -4530,10 +4530,10 @@
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H61" s="27">
         <f>RSDAFC!L37*$M$25</f>
@@ -4550,10 +4550,10 @@
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H62" s="27">
         <f>RSDAFC!L38*$M$25</f>
@@ -4570,10 +4570,10 @@
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H63" s="27">
         <f>RSDAFC!L39*$M$25</f>
@@ -4590,10 +4590,10 @@
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H64" s="27">
         <f>RSDAFC!L40*$M$25</f>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H65" s="27">
         <f>RSDAFC!L41*$M$25</f>
@@ -4630,10 +4630,10 @@
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H66" s="27">
         <f>RSDAFC!L42*$M$25</f>
@@ -4650,10 +4650,10 @@
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H67" s="27">
         <f>RSDAFC!L43*$M$25</f>
@@ -4670,10 +4670,10 @@
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H68" s="27">
         <f>RSDAFC!L44*$M$25</f>
@@ -4690,10 +4690,10 @@
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H69" s="27">
         <f>RSDAFC!L45*$M$25</f>
@@ -4710,10 +4710,10 @@
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H70" s="27">
         <f>RSDAFC!L46*$M$25</f>
@@ -4730,10 +4730,10 @@
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H71" s="27">
         <f>RSDAFC!L47*$M$25</f>
@@ -4750,10 +4750,10 @@
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H72" s="27">
         <f>RSDAFC!L48*$M$25</f>
@@ -4770,10 +4770,10 @@
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H73" s="27">
         <f>RSDAFC!L49*$M$25</f>
@@ -4790,10 +4790,10 @@
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H74" s="27">
         <f>RSDAFC!L50*$M$25</f>
@@ -4810,10 +4810,10 @@
     </row>
     <row r="75" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H75" s="27">
         <f>RSDAFC!L51*$M$25</f>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H76" s="27">
         <f>RSDAFC!L52*$M$25</f>
@@ -4850,10 +4850,10 @@
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H77" s="27">
         <f>RSDAFC!L53*$M$25</f>
@@ -4870,10 +4870,10 @@
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H78" s="27">
         <f>RSDAFC!L54*$M$25</f>
@@ -4890,10 +4890,10 @@
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H79" s="27">
         <f>RSDAFC!L55*$M$25</f>
@@ -4910,10 +4910,10 @@
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H80" s="27">
         <f>RSDAFC!L56*$M$25</f>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H81" s="27">
         <f>RSDAFC!L57*$M$25</f>
@@ -4950,10 +4950,10 @@
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H82" s="27">
         <f>RSDAFC!L58*$M$25</f>
@@ -4970,10 +4970,10 @@
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H83" s="27">
         <f>RSDAFC!L59*$M$25</f>
@@ -4990,10 +4990,10 @@
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H84" s="27">
         <f>RSDAFC!L60*$M$25</f>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H85" s="27">
         <f>RSDAFC!L61*$M$25</f>
@@ -5030,10 +5030,10 @@
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H86" s="27">
         <f>RSDAFC!L62*$M$25</f>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H87" s="27">
         <f>RSDAFC!L63*$M$25</f>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H88" s="27">
         <f>RSDAFC!L64*$M$25</f>
@@ -5090,10 +5090,10 @@
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H89" s="27">
         <f>RSDAFC!L65*$M$25</f>
@@ -5110,10 +5110,10 @@
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H90" s="27">
         <f>RSDAFC!L66*$M$25</f>
@@ -5130,10 +5130,10 @@
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H91" s="27">
         <f>RSDAFC!L67*$M$25</f>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H92" s="27">
         <f>RSDAFC!L68*$M$25</f>
@@ -5170,10 +5170,10 @@
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H93" s="27">
         <f>RSDAFC!L69*$M$25</f>
@@ -5190,10 +5190,10 @@
     </row>
     <row r="94" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H94" s="27">
         <f>RSDAFC!L70*$M$25</f>
@@ -5210,10 +5210,10 @@
     </row>
     <row r="95" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H95" s="27">
         <f>RSDAFC!L71*$M$25</f>
@@ -5230,10 +5230,10 @@
     </row>
     <row r="96" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D96" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H96" s="27">
         <f>RSDAFC!L72*$M$25</f>
@@ -5250,10 +5250,10 @@
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H97" s="27">
         <f>RSDAFC!L73*$M$25</f>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="98" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H98" s="27">
         <f>RSDAFC!L74*$M$25</f>
@@ -5290,10 +5290,10 @@
     </row>
     <row r="99" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H99" s="27">
         <f>RSDAFC!L75*$M$25</f>
@@ -5310,10 +5310,10 @@
     </row>
     <row r="100" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H100" s="27">
         <f>RSDAFC!L76*$M$25</f>
@@ -5330,10 +5330,10 @@
     </row>
     <row r="101" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H101" s="27">
         <f>RSDAFC!L77*$M$25</f>
@@ -5350,10 +5350,10 @@
     </row>
     <row r="102" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H102" s="27">
         <f>RSDAFC!L78*$M$25</f>
@@ -5370,10 +5370,10 @@
     </row>
     <row r="103" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H103" s="27">
         <f>RSDAFC!L79*$M$25</f>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="104" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H104" s="27">
         <f>RSDAFC!L80*$M$25</f>
@@ -5410,10 +5410,10 @@
     </row>
     <row r="105" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H105" s="27">
         <f>RSDAFC!L81*$M$25</f>
@@ -5430,10 +5430,10 @@
     </row>
     <row r="106" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H106" s="27">
         <f>RSDAFC!L82*$M$25</f>
@@ -5450,10 +5450,10 @@
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H107" s="27">
         <f>RSDAFC!L83*$M$25</f>
@@ -5470,10 +5470,10 @@
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H108" s="27">
         <f>RSDAFC!L84*$M$25</f>
@@ -5490,10 +5490,10 @@
     </row>
     <row r="109" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H109" s="27">
         <f>RSDAFC!L85*$M$25</f>
@@ -5510,10 +5510,10 @@
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H110" s="27">
         <f>RSDAFC!L86*$M$25</f>
@@ -5530,10 +5530,10 @@
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H111" s="27">
         <f>RSDAFC!L87*$M$25</f>
@@ -5550,10 +5550,10 @@
     </row>
     <row r="112" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H112" s="27">
         <f>RSDAFC!L88*$M$25</f>
@@ -5570,10 +5570,10 @@
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H113" s="27">
         <f>RSDAFC!L89*$M$25</f>
@@ -5590,10 +5590,10 @@
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H114" s="27">
         <f>RSDAFC!L90*$M$25</f>
@@ -5610,10 +5610,10 @@
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H115" s="27">
         <f>RSDAFC!L91*$M$25</f>
@@ -5630,10 +5630,10 @@
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H116" s="27">
         <f>RSDAFC!L92*$M$25</f>
@@ -5650,10 +5650,10 @@
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H117" s="27">
         <f>RSDAFC!L93*$M$25</f>
@@ -5670,10 +5670,10 @@
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H118" s="27">
         <f>RSDAFA!L2*$M$25</f>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H119" s="27">
         <f>RSDAFA!L3*$M$25</f>
@@ -5710,10 +5710,10 @@
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H120" s="27">
         <f>RSDAFA!L4*$M$25</f>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D121" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H121" s="27">
         <f>RSDAFA!L5*$M$25</f>
@@ -5750,10 +5750,10 @@
     </row>
     <row r="122" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H122" s="27">
         <f>RSDAFA!L6*$M$25</f>
@@ -5770,10 +5770,10 @@
     </row>
     <row r="123" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H123" s="27">
         <f>RSDAFA!L7*$M$25</f>
@@ -5790,10 +5790,10 @@
     </row>
     <row r="124" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H124" s="27">
         <f>RSDAFA!L8*$M$25</f>
@@ -5810,10 +5810,10 @@
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H125" s="27">
         <f>RSDAFA!L9*$M$25</f>
@@ -5830,10 +5830,10 @@
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D126" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H126" s="27">
         <f>RSDAFA!L10*$M$25</f>
@@ -5850,10 +5850,10 @@
     </row>
     <row r="127" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D127" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H127" s="27">
         <f>RSDAFA!L11*$M$25</f>
@@ -5870,10 +5870,10 @@
     </row>
     <row r="128" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H128" s="27">
         <f>RSDAFA!L12*$M$25</f>
@@ -5890,10 +5890,10 @@
     </row>
     <row r="129" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H129" s="27">
         <f>RSDAFA!L13*$M$25</f>
@@ -5910,10 +5910,10 @@
     </row>
     <row r="130" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H130" s="27">
         <f>RSDAFA!L14*$M$25</f>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="131" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D131" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H131" s="27">
         <f>RSDAFA!L15*$M$25</f>
@@ -5950,10 +5950,10 @@
     </row>
     <row r="132" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D132" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H132" s="27">
         <f>RSDAFA!L16*$M$25</f>
@@ -5970,10 +5970,10 @@
     </row>
     <row r="133" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H133" s="27">
         <f>RSDAFA!L17*$M$25</f>
@@ -5990,10 +5990,10 @@
     </row>
     <row r="134" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H134" s="27">
         <f>RSDAFA!L18*$M$25</f>
@@ -6010,10 +6010,10 @@
     </row>
     <row r="135" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D135" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H135" s="27">
         <f>RSDAFA!L19*$M$25</f>
@@ -6030,10 +6030,10 @@
     </row>
     <row r="136" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H136" s="27">
         <f>RSDAFA!L20*$M$25</f>
@@ -6050,10 +6050,10 @@
     </row>
     <row r="137" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H137" s="27">
         <f>RSDAFA!L21*$M$25</f>
@@ -6070,10 +6070,10 @@
     </row>
     <row r="138" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D138" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H138" s="27">
         <f>RSDAFA!L22*$M$25</f>
@@ -6090,10 +6090,10 @@
     </row>
     <row r="139" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D139" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H139" s="27">
         <f>RSDAFA!L23*$M$25</f>
@@ -6110,10 +6110,10 @@
     </row>
     <row r="140" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D140" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H140" s="27">
         <f>RSDAFA!L24*$M$25</f>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="141" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H141" s="27">
         <f>RSDAFA!L25*$M$25</f>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="142" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H142" s="27">
         <f>RSDAFA!L26*$M$25</f>
@@ -6170,10 +6170,10 @@
     </row>
     <row r="143" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D143" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H143" s="27">
         <f>RSDAFA!L27*$M$25</f>
@@ -6190,10 +6190,10 @@
     </row>
     <row r="144" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D144" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H144" s="27">
         <f>RSDAFA!L28*$M$25</f>
@@ -6210,10 +6210,10 @@
     </row>
     <row r="145" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H145" s="27">
         <f>RSDAFA!L29*$M$25</f>
@@ -6230,10 +6230,10 @@
     </row>
     <row r="146" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D146" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H146" s="27">
         <f>RSDAFA!L30*$M$25</f>
@@ -6250,10 +6250,10 @@
     </row>
     <row r="147" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D147" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H147" s="27">
         <f>RSDAFA!L31*$M$25</f>
@@ -6387,7 +6387,7 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>9</v>
@@ -6409,7 +6409,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>3</v>
@@ -6422,22 +6422,22 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22">
         <v>1</v>
       </c>
       <c r="G5" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>114</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>9</v>
@@ -6459,7 +6459,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>3</v>
@@ -6475,20 +6475,20 @@
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22">
         <v>1</v>
       </c>
       <c r="G9" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>115</v>
-      </c>
       <c r="I9" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -6514,37 +6514,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>127</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>128</v>
-      </c>
-      <c r="K1" t="s">
-        <v>129</v>
       </c>
       <c r="L1" t="s">
         <v>20</v>
@@ -6555,37 +6555,37 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
         <v>162</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
         <v>163</v>
       </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>164</v>
-      </c>
       <c r="G2">
         <v>2018</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L2">
         <v>2.4813655183930802E-2</v>
@@ -6596,13 +6596,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>100</v>
@@ -6611,22 +6611,22 @@
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G3">
         <v>2018</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L3">
         <v>2.4813655183930802E-2</v>
@@ -6637,37 +6637,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
         <v>163</v>
       </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>164</v>
-      </c>
       <c r="G4">
         <v>2018</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L4">
         <v>2.4813655183930802E-2</v>
@@ -6678,13 +6678,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
         <v>100</v>
@@ -6693,22 +6693,22 @@
         <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5">
         <v>2018</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L5">
         <v>2.4813655183930802E-2</v>
@@ -6719,37 +6719,37 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
         <v>166</v>
       </c>
-      <c r="D6" t="s">
-        <v>167</v>
-      </c>
       <c r="E6" t="s">
         <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6">
         <v>2018</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L6">
         <v>1.73685782056223E-2</v>
@@ -6760,37 +6760,37 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7">
         <v>2018</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L7">
         <v>1.73685782056223E-2</v>
@@ -6801,37 +6801,37 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
         <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8">
         <v>2018</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8">
         <v>1.73685782056223E-2</v>
@@ -6842,37 +6842,37 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
         <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9">
         <v>2018</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L9">
         <v>1.73685782056223E-2</v>
@@ -6883,37 +6883,37 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" t="s">
         <v>169</v>
       </c>
-      <c r="D10" t="s">
-        <v>170</v>
-      </c>
       <c r="E10" t="s">
         <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10">
         <v>2018</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L10">
         <v>3.17870115673878E-2</v>
@@ -6924,37 +6924,37 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
         <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11">
         <v>2018</v>
       </c>
       <c r="H11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L11">
         <v>3.17870115673878E-2</v>
@@ -6965,37 +6965,37 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" t="s">
         <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12">
         <v>2018</v>
       </c>
       <c r="H12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L12">
         <v>3.17870115673878E-2</v>
@@ -7006,37 +7006,37 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13">
         <v>2018</v>
       </c>
       <c r="H13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L13">
         <v>3.17870115673878E-2</v>
@@ -7047,13 +7047,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
         <v>100</v>
@@ -7062,22 +7062,22 @@
         <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14">
         <v>2018</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L14">
         <v>2.0960831834076401E-2</v>
@@ -7088,37 +7088,37 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" t="s">
         <v>172</v>
       </c>
-      <c r="D15" t="s">
-        <v>173</v>
-      </c>
       <c r="E15" t="s">
         <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G15">
         <v>2018</v>
       </c>
       <c r="H15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L15">
         <v>2.0960831834076401E-2</v>
@@ -7129,13 +7129,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
         <v>100</v>
@@ -7144,22 +7144,22 @@
         <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G16">
         <v>2018</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L16">
         <v>9.4795012067416702E-3</v>
@@ -7170,37 +7170,37 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
         <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17">
         <v>2018</v>
       </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L17">
         <v>9.4795012067416702E-3</v>
@@ -7211,13 +7211,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
         <v>100</v>
@@ -7226,22 +7226,22 @@
         <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G18">
         <v>2018</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L18">
         <v>9.4795012067416702E-3</v>
@@ -7252,37 +7252,37 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
         <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G19">
         <v>2018</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L19">
         <v>9.4795012067416702E-3</v>
@@ -7293,13 +7293,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
         <v>100</v>
@@ -7308,22 +7308,22 @@
         <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G20">
         <v>2018</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L20">
         <v>9.4795012067416702E-3</v>
@@ -7334,37 +7334,37 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" t="s">
         <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G21">
         <v>2018</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L21">
         <v>9.4795012067416702E-3</v>
@@ -7375,13 +7375,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
         <v>100</v>
@@ -7390,22 +7390,22 @@
         <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G22">
         <v>2018</v>
       </c>
       <c r="H22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L22">
         <v>9.4795012067416702E-3</v>
@@ -7416,37 +7416,37 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G23">
         <v>2018</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L23">
         <v>9.4795012067416702E-3</v>
@@ -7457,13 +7457,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D24" t="s">
         <v>100</v>
@@ -7472,22 +7472,22 @@
         <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G24">
         <v>2018</v>
       </c>
       <c r="H24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L24">
         <v>7.0869783672800502E-4</v>
@@ -7498,37 +7498,37 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" t="s">
         <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25">
         <v>2018</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L25">
         <v>7.0869783672800502E-4</v>
@@ -7539,13 +7539,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
         <v>100</v>
@@ -7554,22 +7554,22 @@
         <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G26">
         <v>2018</v>
       </c>
       <c r="H26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L26">
         <v>7.0869783672800502E-4</v>
@@ -7580,37 +7580,37 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G27">
         <v>2018</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L27">
         <v>7.0869783672800502E-4</v>
@@ -7621,13 +7621,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" t="s">
         <v>100</v>
@@ -7636,22 +7636,22 @@
         <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G28">
         <v>2018</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L28">
         <v>2.39860043810185E-2</v>
@@ -7662,37 +7662,37 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E29" t="s">
         <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G29">
         <v>2018</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L29">
         <v>2.39860043810185E-2</v>
@@ -7703,13 +7703,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
         <v>100</v>
@@ -7718,22 +7718,22 @@
         <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G30">
         <v>2018</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L30">
         <v>1.78079112619931E-2</v>
@@ -7744,37 +7744,37 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
         <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G31">
         <v>2018</v>
       </c>
       <c r="H31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L31">
         <v>1.78079112619931E-2</v>
@@ -7785,13 +7785,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
         <v>100</v>
@@ -7800,22 +7800,22 @@
         <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G32">
         <v>2018</v>
       </c>
       <c r="H32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L32">
         <v>1.37038901278922E-2</v>
@@ -7826,37 +7826,37 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
         <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G33">
         <v>2018</v>
       </c>
       <c r="H33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L33">
         <v>1.37038901278922E-2</v>
@@ -7867,37 +7867,37 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G34">
         <v>2018</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L34">
         <v>1.87904155250764E-2</v>
@@ -7908,37 +7908,37 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
         <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G35">
         <v>2018</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L35">
         <v>1.87904155250764E-2</v>
@@ -7949,37 +7949,37 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
         <v>83</v>
       </c>
       <c r="F36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G36">
         <v>2018</v>
       </c>
       <c r="H36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L36">
         <v>1.87904155250764E-2</v>
@@ -7990,37 +7990,37 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E37" t="s">
         <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G37">
         <v>2018</v>
       </c>
       <c r="H37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L37">
         <v>1.87904155250764E-2</v>
@@ -8031,37 +8031,37 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
         <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G38">
         <v>2018</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L38">
         <v>1.5651300362142601E-2</v>
@@ -8072,37 +8072,37 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E39" t="s">
         <v>83</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G39">
         <v>2018</v>
       </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L39">
         <v>1.5651300362142601E-2</v>
@@ -8113,37 +8113,37 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
         <v>83</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G40">
         <v>2018</v>
       </c>
       <c r="H40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L40">
         <v>1.5651300362142601E-2</v>
@@ -8154,37 +8154,37 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
         <v>83</v>
       </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G41">
         <v>2018</v>
       </c>
       <c r="H41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L41">
         <v>1.5651300362142601E-2</v>
@@ -8195,37 +8195,37 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
         <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G42">
         <v>2018</v>
       </c>
       <c r="H42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L42">
         <v>1.5651300362142601E-2</v>
@@ -8236,37 +8236,37 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E43" t="s">
         <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G43">
         <v>2018</v>
       </c>
       <c r="H43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L43">
         <v>1.5651300362142601E-2</v>
@@ -8277,37 +8277,37 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
         <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G44">
         <v>2018</v>
       </c>
       <c r="H44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L44">
         <v>1.5651300362142601E-2</v>
@@ -8318,37 +8318,37 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E45" t="s">
         <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G45">
         <v>2018</v>
       </c>
       <c r="H45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L45">
         <v>1.5651300362142601E-2</v>
@@ -8359,37 +8359,37 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
         <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G46">
         <v>2018</v>
       </c>
       <c r="H46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L46">
         <v>1.5651300362142601E-2</v>
@@ -8400,37 +8400,37 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
         <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G47">
         <v>2018</v>
       </c>
       <c r="H47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L47">
         <v>1.5651300362142601E-2</v>
@@ -8441,37 +8441,37 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G48">
         <v>2018</v>
       </c>
       <c r="H48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L48">
         <v>1.5651300362142601E-2</v>
@@ -8482,37 +8482,37 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E49" t="s">
         <v>83</v>
       </c>
       <c r="F49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G49">
         <v>2018</v>
       </c>
       <c r="H49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L49">
         <v>1.5651300362142601E-2</v>
@@ -8523,37 +8523,37 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
         <v>83</v>
       </c>
       <c r="F50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G50">
         <v>2018</v>
       </c>
       <c r="H50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L50">
         <v>7.5978921044014096E-3</v>
@@ -8564,37 +8564,37 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E51" t="s">
         <v>83</v>
       </c>
       <c r="F51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G51">
         <v>2018</v>
       </c>
       <c r="H51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L51">
         <v>7.5978921044014096E-3</v>
@@ -8605,37 +8605,37 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
         <v>83</v>
       </c>
       <c r="F52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G52">
         <v>2018</v>
       </c>
       <c r="H52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L52">
         <v>7.5978921044014096E-3</v>
@@ -8646,37 +8646,37 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
         <v>83</v>
       </c>
       <c r="F53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G53">
         <v>2018</v>
       </c>
       <c r="H53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L53">
         <v>7.5978921044014096E-3</v>
@@ -8687,37 +8687,37 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>83</v>
       </c>
       <c r="F54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G54">
         <v>2018</v>
       </c>
       <c r="H54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L54">
         <v>1.9679944818874001E-2</v>
@@ -8728,37 +8728,37 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E55" t="s">
         <v>83</v>
       </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G55">
         <v>2018</v>
       </c>
       <c r="H55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L55">
         <v>1.9679944818874001E-2</v>
@@ -8769,37 +8769,37 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
         <v>83</v>
       </c>
       <c r="F56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G56">
         <v>2018</v>
       </c>
       <c r="H56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L56">
         <v>1.9679944818874001E-2</v>
@@ -8810,37 +8810,37 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E57" t="s">
         <v>83</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G57">
         <v>2018</v>
       </c>
       <c r="H57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L57">
         <v>1.9679944818874001E-2</v>
@@ -8851,37 +8851,37 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
         <v>83</v>
       </c>
       <c r="F58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G58">
         <v>2018</v>
       </c>
       <c r="H58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L58">
         <v>1.9679944818874001E-2</v>
@@ -8892,37 +8892,37 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E59" t="s">
         <v>83</v>
       </c>
       <c r="F59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G59">
         <v>2018</v>
       </c>
       <c r="H59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L59">
         <v>1.9679944818874001E-2</v>
@@ -8933,37 +8933,37 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>83</v>
       </c>
       <c r="F60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G60">
         <v>2018</v>
       </c>
       <c r="H60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L60">
         <v>2.3397171732945601E-2</v>
@@ -8974,37 +8974,37 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E61" t="s">
         <v>83</v>
       </c>
       <c r="F61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G61">
         <v>2018</v>
       </c>
       <c r="H61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L61">
         <v>2.3397171732945601E-2</v>
@@ -9015,37 +9015,37 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
         <v>83</v>
       </c>
       <c r="F62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G62">
         <v>2018</v>
       </c>
       <c r="H62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L62">
         <v>4.29559017447428E-2</v>
@@ -9056,37 +9056,37 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E63" t="s">
         <v>83</v>
       </c>
       <c r="F63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G63">
         <v>2018</v>
       </c>
       <c r="H63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L63">
         <v>4.29559017447428E-2</v>
@@ -9097,37 +9097,37 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
         <v>83</v>
       </c>
       <c r="F64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G64">
         <v>2018</v>
       </c>
       <c r="H64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L64">
         <v>2.7471447517498498E-2</v>
@@ -9138,37 +9138,37 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" t="s">
         <v>198</v>
       </c>
-      <c r="D65" t="s">
-        <v>199</v>
-      </c>
       <c r="E65" t="s">
         <v>83</v>
       </c>
       <c r="F65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G65">
         <v>2018</v>
       </c>
       <c r="H65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L65">
         <v>2.7471447517498498E-2</v>
@@ -9179,37 +9179,37 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E66" t="s">
         <v>83</v>
       </c>
       <c r="F66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G66">
         <v>2018</v>
       </c>
       <c r="H66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L66">
         <v>2.7471447517498498E-2</v>
@@ -9220,37 +9220,37 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E67" t="s">
         <v>83</v>
       </c>
       <c r="F67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G67">
         <v>2018</v>
       </c>
       <c r="H67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L67">
         <v>2.7471447517498498E-2</v>
@@ -9261,37 +9261,37 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E68" t="s">
         <v>83</v>
       </c>
       <c r="F68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G68">
         <v>2018</v>
       </c>
       <c r="H68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L68">
         <v>2.4447220258868901E-2</v>
@@ -9302,37 +9302,37 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E69" t="s">
         <v>83</v>
       </c>
       <c r="F69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G69">
         <v>2018</v>
       </c>
       <c r="H69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L69">
         <v>2.4447220258868901E-2</v>
@@ -9343,37 +9343,37 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E70" t="s">
         <v>83</v>
       </c>
       <c r="F70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G70">
         <v>2018</v>
       </c>
       <c r="H70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L70">
         <v>2.4447220258868901E-2</v>
@@ -9384,37 +9384,37 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E71" t="s">
         <v>83</v>
       </c>
       <c r="F71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G71">
         <v>2018</v>
       </c>
       <c r="H71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L71">
         <v>2.4447220258868901E-2</v>
@@ -9425,37 +9425,37 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E72" t="s">
         <v>83</v>
       </c>
       <c r="F72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G72">
         <v>2018</v>
       </c>
       <c r="H72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L72">
         <v>2.4447220258868901E-2</v>
@@ -9466,37 +9466,37 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E73" t="s">
         <v>83</v>
       </c>
       <c r="F73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G73">
         <v>2018</v>
       </c>
       <c r="H73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L73">
         <v>2.4447220258868901E-2</v>
@@ -9507,37 +9507,37 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" t="s">
         <v>83</v>
       </c>
       <c r="F74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G74">
         <v>2018</v>
       </c>
       <c r="H74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L74">
         <v>2.4447220258868901E-2</v>
@@ -9548,37 +9548,37 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E75" t="s">
         <v>83</v>
       </c>
       <c r="F75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G75">
         <v>2018</v>
       </c>
       <c r="H75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L75">
         <v>2.4447220258868901E-2</v>
@@ -9589,37 +9589,37 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E76" t="s">
         <v>83</v>
       </c>
       <c r="F76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G76">
         <v>2018</v>
       </c>
       <c r="H76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L76">
         <v>2.4447220258868901E-2</v>
@@ -9630,37 +9630,37 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E77" t="s">
         <v>83</v>
       </c>
       <c r="F77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G77">
         <v>2018</v>
       </c>
       <c r="H77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L77">
         <v>2.4447220258868901E-2</v>
@@ -9671,37 +9671,37 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>83</v>
       </c>
       <c r="F78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G78">
         <v>2018</v>
       </c>
       <c r="H78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L78">
         <v>2.4447220258868901E-2</v>
@@ -9712,37 +9712,37 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E79" t="s">
         <v>83</v>
       </c>
       <c r="F79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G79">
         <v>2018</v>
       </c>
       <c r="H79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L79">
         <v>2.4447220258868901E-2</v>
@@ -9753,37 +9753,37 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
         <v>83</v>
       </c>
       <c r="F80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G80">
         <v>2018</v>
       </c>
       <c r="H80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L80">
         <v>9.5642043609248301E-2</v>
@@ -9794,37 +9794,37 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E81" t="s">
         <v>83</v>
       </c>
       <c r="F81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G81">
         <v>2018</v>
       </c>
       <c r="H81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L81">
         <v>9.5642043609248301E-2</v>
@@ -9835,37 +9835,37 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
         <v>83</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G82">
         <v>2018</v>
       </c>
       <c r="H82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L82">
         <v>9.5642043609248301E-2</v>
@@ -9876,37 +9876,37 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E83" t="s">
         <v>83</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G83">
         <v>2018</v>
       </c>
       <c r="H83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L83">
         <v>9.5642043609248301E-2</v>
@@ -9917,37 +9917,37 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C84" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G84">
         <v>2018</v>
       </c>
       <c r="H84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L84">
         <v>3.0079476421251201E-2</v>
@@ -9958,37 +9958,37 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E85" t="s">
         <v>83</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G85">
         <v>2018</v>
       </c>
       <c r="H85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L85">
         <v>3.0079476421251201E-2</v>
@@ -9999,37 +9999,37 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
         <v>83</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G86">
         <v>2018</v>
       </c>
       <c r="H86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L86">
         <v>3.0079476421251201E-2</v>
@@ -10040,37 +10040,37 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E87" t="s">
         <v>83</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G87">
         <v>2018</v>
       </c>
       <c r="H87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L87">
         <v>3.0079476421251201E-2</v>
@@ -10081,37 +10081,37 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
         <v>83</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G88">
         <v>2018</v>
       </c>
       <c r="H88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L88">
         <v>3.0079476421251201E-2</v>
@@ -10122,37 +10122,37 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E89" t="s">
         <v>83</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G89">
         <v>2018</v>
       </c>
       <c r="H89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L89">
         <v>3.0079476421251201E-2</v>
@@ -10163,37 +10163,37 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
         <v>83</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G90">
         <v>2018</v>
       </c>
       <c r="H90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L90">
         <v>4.21939695625516E-2</v>
@@ -10204,37 +10204,37 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E91" t="s">
         <v>83</v>
       </c>
       <c r="F91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G91">
         <v>2018</v>
       </c>
       <c r="H91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L91">
         <v>4.21939695625516E-2</v>
@@ -10245,37 +10245,37 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
         <v>83</v>
       </c>
       <c r="F92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G92">
         <v>2018</v>
       </c>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L92">
         <v>5.2867897077308497E-2</v>
@@ -10286,37 +10286,37 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E93" t="s">
         <v>83</v>
       </c>
       <c r="F93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G93">
         <v>2018</v>
       </c>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L93">
         <v>5.2867897077308497E-2</v>
@@ -10346,37 +10346,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>127</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>128</v>
-      </c>
-      <c r="K1" t="s">
-        <v>129</v>
       </c>
       <c r="L1" t="s">
         <v>20</v>
@@ -10387,37 +10387,37 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2">
         <v>2018</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L2">
         <v>1.91859640129881E-2</v>
@@ -10428,37 +10428,37 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3">
         <v>2018</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L3">
         <v>1.91859640129881E-2</v>
@@ -10469,37 +10469,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4">
         <v>2018</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L4">
         <v>1.91859640129881E-2</v>
@@ -10510,37 +10510,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5">
         <v>2018</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L5">
         <v>1.91859640129881E-2</v>
@@ -10551,37 +10551,37 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6">
         <v>2018</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L6">
         <v>1.18590868367296E-2</v>
@@ -10592,37 +10592,37 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7">
         <v>2018</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L7">
         <v>3.7359826231663999E-2</v>
@@ -10633,37 +10633,37 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
         <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8">
         <v>2018</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8">
         <v>2.3078593190679501E-2</v>
@@ -10674,37 +10674,37 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
         <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9">
         <v>2018</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L9">
         <v>1.7647904805808901E-2</v>
@@ -10715,37 +10715,37 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
         <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10">
         <v>2018</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L10">
         <v>2.4653262579847901E-2</v>
@@ -10756,37 +10756,37 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
         <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11">
         <v>2018</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L11">
         <v>2.4653262579847901E-2</v>
@@ -10797,37 +10797,37 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
         <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12">
         <v>2018</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L12">
         <v>2.4653262579847901E-2</v>
@@ -10838,37 +10838,37 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13">
         <v>2018</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L13">
         <v>2.4653262579847901E-2</v>
@@ -10879,37 +10879,37 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
         <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14">
         <v>2018</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L14">
         <v>2.2095891324020799E-2</v>
@@ -10920,37 +10920,37 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15">
         <v>2018</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L15">
         <v>2.8368761423682901E-2</v>
@@ -10961,37 +10961,37 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>2018</v>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L16">
         <v>3.0936872888717201E-2</v>
@@ -11002,37 +11002,37 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
         <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17">
         <v>2018</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L17">
         <v>7.5066866433008306E-2</v>
@@ -11043,37 +11043,37 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
         <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18">
         <v>2018</v>
       </c>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L18">
         <v>4.1614408271926799E-2</v>
@@ -11084,37 +11084,37 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
         <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19">
         <v>2018</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L19">
         <v>4.1614408271926799E-2</v>
@@ -11125,37 +11125,37 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
         <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20">
         <v>2018</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L20">
         <v>4.1614408271926799E-2</v>
@@ -11166,37 +11166,37 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
         <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21">
         <v>2018</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L21">
         <v>4.1614408271926799E-2</v>
@@ -11207,37 +11207,37 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22">
         <v>2018</v>
       </c>
       <c r="H22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L22">
         <v>3.7040631160092499E-2</v>
@@ -11248,37 +11248,37 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23">
         <v>2018</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L23">
         <v>4.6621727976421598E-2</v>
@@ -11289,37 +11289,37 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
         <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24">
         <v>2018</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L24">
         <v>6.7033675870053502E-2</v>
@@ -11330,37 +11330,37 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
         <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G25">
         <v>2018</v>
       </c>
       <c r="H25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L25">
         <v>9.1153830584100495E-2</v>
@@ -11371,37 +11371,37 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
         <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G26">
         <v>2018</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L26">
         <v>2.2735699655164601E-2</v>
@@ -11412,37 +11412,37 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27">
         <v>2018</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L27">
         <v>8.6298729994523198E-3</v>
@@ -11453,37 +11453,37 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
         <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28">
         <v>2018</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L28">
         <v>1.29275684703049E-2</v>
@@ -11494,37 +11494,37 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
         <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G29">
         <v>2018</v>
       </c>
       <c r="H29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L29">
         <v>3.4409606285151599E-2</v>
@@ -11535,37 +11535,37 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
         <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30">
         <v>2018</v>
       </c>
       <c r="H30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L30">
         <v>1.33284867630703E-2</v>
@@ -11576,37 +11576,37 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
         <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G31">
         <v>2018</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L31">
         <v>0.113051511576835</v>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8A47F9-D7B8-42CA-B4B6-695D8610AE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B107EAA-7AAA-4A55-9B3A-5C2E497FFE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,7 +1100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1310,6 +1310,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1321,7 +1330,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1402,6 +1411,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3406,8 +3418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CF89D-3AC9-4E2E-BCF6-79A710F8BD8A}">
   <dimension ref="A1:S165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,7 +3427,7 @@
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -3469,10 +3481,10 @@
       <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -3483,175 +3495,236 @@
       <c r="B6" t="s">
         <v>103</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="H6">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47">
         <v>2019</v>
       </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="47">
         <v>-1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="47">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="47" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+      <c r="D7" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="H7">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47">
         <v>2019</v>
       </c>
-      <c r="J7">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
         <v>-0.32600000000000001</v>
       </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="D8" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="47"/>
+      <c r="F8" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="47"/>
+      <c r="H8" s="47">
         <v>2019</v>
       </c>
-      <c r="J8">
+      <c r="I8" s="47"/>
+      <c r="J8" s="47">
         <v>1</v>
       </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H9">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9">
+      <c r="I9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48">
         <v>5</v>
       </c>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>102</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H10">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49">
         <v>2019</v>
       </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10">
+      <c r="I10" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="49">
         <v>-1</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="49">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="49" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="D11" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="H11">
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47">
         <v>2019</v>
       </c>
-      <c r="J11">
+      <c r="I11" s="47"/>
+      <c r="J11" s="47">
         <v>-0.13700000000000001</v>
       </c>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="D12" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="47"/>
+      <c r="F12" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="47"/>
+      <c r="H12" s="47">
         <v>2019</v>
       </c>
-      <c r="J12">
+      <c r="I12" s="47"/>
+      <c r="J12" s="47">
         <v>1</v>
       </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H13">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48">
         <v>5</v>
       </c>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="H14">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49">
         <v>2019</v>
       </c>
-      <c r="I14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14">
+      <c r="I14" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="49">
         <v>-1</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="49">
         <v>0</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="D15" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="H15">
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47">
         <v>2019</v>
       </c>
-      <c r="J15">
+      <c r="I15" s="47"/>
+      <c r="J15" s="47">
         <v>-0.16600000000000001</v>
       </c>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="D16" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" s="47"/>
+      <c r="F16" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="47"/>
+      <c r="H16" s="47">
         <v>2019</v>
       </c>
-      <c r="J16">
+      <c r="I16" s="47"/>
+      <c r="J16" s="47">
         <v>1</v>
       </c>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17">
+      <c r="I17" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48">
         <v>5</v>
       </c>
+      <c r="L17" s="48"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N18" s="44">
@@ -6501,14 +6574,14 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B107EAA-7AAA-4A55-9B3A-5C2E497FFE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F60515-73C7-4259-8434-1062ED4C21BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -914,7 +914,7 @@
     <t>R-BLD_Det</t>
   </si>
   <si>
-    <t>R*_HPN*</t>
+    <t>R*_HPN*,-R*HHPN*</t>
   </si>
 </sst>
 </file>
@@ -1402,6 +1402,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1411,9 +1414,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3418,8 +3418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CF89D-3AC9-4E2E-BCF6-79A710F8BD8A}">
   <dimension ref="A1:S165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3495,248 +3495,248 @@
       <c r="B6" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47">
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44">
         <v>2019</v>
       </c>
-      <c r="I6" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="47">
+      <c r="I6" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="44">
         <v>-1</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="44">
         <v>0</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="44" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <v>2019</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
         <v>-0.32600000000000001</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47">
+      <c r="G8" s="44"/>
+      <c r="H8" s="44">
         <v>2019</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47">
+      <c r="I8" s="44"/>
+      <c r="J8" s="44">
         <v>1</v>
       </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45">
         <v>0</v>
       </c>
-      <c r="I9" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48">
+      <c r="I9" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45">
         <v>5</v>
       </c>
-      <c r="L9" s="48"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46">
         <v>2019</v>
       </c>
-      <c r="I10" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="49">
+      <c r="I10" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="46">
         <v>-1</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="46">
         <v>0</v>
       </c>
-      <c r="L10" s="49" t="s">
+      <c r="L10" s="46" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47">
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44">
         <v>2019</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47">
+      <c r="I11" s="44"/>
+      <c r="J11" s="44">
         <v>-0.13700000000000001</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47" t="s">
+      <c r="E12" s="44"/>
+      <c r="F12" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47">
+      <c r="G12" s="44"/>
+      <c r="H12" s="44">
         <v>2019</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47">
+      <c r="I12" s="44"/>
+      <c r="J12" s="44">
         <v>1</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45">
         <v>0</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48">
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45">
         <v>5</v>
       </c>
-      <c r="L13" s="48"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49">
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46">
         <v>2019</v>
       </c>
-      <c r="I14" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="49">
+      <c r="I14" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="46">
         <v>-1</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="46">
         <v>0</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47">
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44">
         <v>2019</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47">
+      <c r="I15" s="44"/>
+      <c r="J15" s="44">
         <v>-0.16600000000000001</v>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47" t="s">
+      <c r="E16" s="44"/>
+      <c r="F16" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47">
+      <c r="G16" s="44"/>
+      <c r="H16" s="44">
         <v>2019</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47">
+      <c r="I16" s="44"/>
+      <c r="J16" s="44">
         <v>1</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48">
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45">
         <v>0</v>
       </c>
-      <c r="I17" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48">
+      <c r="I17" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45">
         <v>5</v>
       </c>
-      <c r="L17" s="48"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N18" s="44">
-        <v>2018</v>
-      </c>
-      <c r="O18" s="45"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="44">
+      <c r="N18" s="47">
+        <v>2018</v>
+      </c>
+      <c r="O18" s="48"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="47">
         <v>2070</v>
       </c>
-      <c r="R18" s="45"/>
-      <c r="S18" s="46"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="49"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N19" s="37" t="s">

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F60515-73C7-4259-8434-1062ED4C21BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C8AFBF-7488-41A7-99A1-BDC46A63B7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="253">
   <si>
     <t>UC_N</t>
   </si>
@@ -915,6 +915,30 @@
   </si>
   <si>
     <t>R*_HPN*,-R*HHPN*</t>
+  </si>
+  <si>
+    <t>R-SW_Att_HVO_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Att_HVO_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Att_FPL_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Att_FPL_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Det_FPL_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Det_FPL_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Det_HVO_N1</t>
+  </si>
+  <si>
+    <t>R-SW_Det_HVO_N1</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1354,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1405,6 +1429,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3416,10 +3442,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CF89D-3AC9-4E2E-BCF6-79A710F8BD8A}">
-  <dimension ref="A1:S165"/>
+  <dimension ref="A1:S173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3727,16 +3753,16 @@
       <c r="L17" s="45"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N18" s="47">
-        <v>2018</v>
-      </c>
-      <c r="O18" s="48"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="47">
+      <c r="N18" s="49">
+        <v>2018</v>
+      </c>
+      <c r="O18" s="50"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="49">
         <v>2070</v>
       </c>
-      <c r="R18" s="48"/>
-      <c r="S18" s="49"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="51"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N19" s="37" t="s">
@@ -5001,7 +5027,7 @@
         <v>R-SW_Att_KER_N2</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>213</v>
       </c>
@@ -5021,7 +5047,7 @@
         <v>R-SW_Att_KER_N2</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>213</v>
       </c>
@@ -5041,7 +5067,7 @@
         <v>R-SW_Att_KER_N3</v>
       </c>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>213</v>
       </c>
@@ -5061,1325 +5087,1485 @@
         <v>R-SW_Att_KER_N3</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>213</v>
-      </c>
-      <c r="D84" t="s">
-        <v>115</v>
-      </c>
-      <c r="H84" s="27">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="48">
+        <f>H90</f>
+        <v>2.14779508723714E-2</v>
+      </c>
+      <c r="I84" s="48">
+        <f>I90</f>
+        <v>2.14779508723714E-2</v>
+      </c>
+      <c r="J84" s="47"/>
+      <c r="K84" s="47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="48">
+        <f>H91</f>
+        <v>2.14779508723714E-2</v>
+      </c>
+      <c r="I85" s="48">
+        <f>I91</f>
+        <v>2.14779508723714E-2</v>
+      </c>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="48">
+        <f>H83</f>
+        <v>9.8399724094370006E-3</v>
+      </c>
+      <c r="I86" s="48">
+        <f>I83</f>
+        <v>9.8399724094370006E-3</v>
+      </c>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="48">
+        <f>H86</f>
+        <v>9.8399724094370006E-3</v>
+      </c>
+      <c r="I87" s="48">
+        <f>I86</f>
+        <v>9.8399724094370006E-3</v>
+      </c>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" t="s">
+        <v>115</v>
+      </c>
+      <c r="H88" s="27">
         <f>RSDAFC!L60*$M$25</f>
         <v>1.1698585866472801E-2</v>
       </c>
-      <c r="I84" s="27">
+      <c r="I88" s="27">
         <f>RSDAFC!M60*$M$25</f>
         <v>1.1698585866472801E-2</v>
       </c>
-      <c r="K84" t="str">
+      <c r="K88" t="str">
         <f>RSDAFC!C60</f>
         <v>R-SW_Att_LPG_N1</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>213</v>
-      </c>
-      <c r="D85" t="s">
-        <v>115</v>
-      </c>
-      <c r="H85" s="27">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" t="s">
+        <v>115</v>
+      </c>
+      <c r="H89" s="27">
         <f>RSDAFC!L61*$M$25</f>
         <v>1.1698585866472801E-2</v>
       </c>
-      <c r="I85" s="27">
+      <c r="I89" s="27">
         <f>RSDAFC!M61*$M$25</f>
         <v>1.1698585866472801E-2</v>
       </c>
-      <c r="K85" t="str">
+      <c r="K89" t="str">
         <f>RSDAFC!C61</f>
         <v>R-SW_Att_LPG_N1</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>213</v>
-      </c>
-      <c r="D86" t="s">
-        <v>115</v>
-      </c>
-      <c r="H86" s="27">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" t="s">
+        <v>115</v>
+      </c>
+      <c r="H90" s="27">
         <f>RSDAFC!L62*$M$25</f>
         <v>2.14779508723714E-2</v>
       </c>
-      <c r="I86" s="27">
+      <c r="I90" s="27">
         <f>RSDAFC!M62*$M$25</f>
         <v>2.14779508723714E-2</v>
       </c>
-      <c r="K86" t="str">
+      <c r="K90" t="str">
         <f>RSDAFC!C62</f>
         <v>R-SW_Att_WOO_N1</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>213</v>
-      </c>
-      <c r="D87" t="s">
-        <v>115</v>
-      </c>
-      <c r="H87" s="27">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" t="s">
+        <v>115</v>
+      </c>
+      <c r="H91" s="27">
         <f>RSDAFC!L63*$M$25</f>
         <v>2.14779508723714E-2</v>
       </c>
-      <c r="I87" s="27">
+      <c r="I91" s="27">
         <f>RSDAFC!M63*$M$25</f>
         <v>2.14779508723714E-2</v>
       </c>
-      <c r="K87" t="str">
+      <c r="K91" t="str">
         <f>RSDAFC!C63</f>
         <v>R-SW_Att_WOO_N1</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>213</v>
-      </c>
-      <c r="D88" t="s">
-        <v>115</v>
-      </c>
-      <c r="H88" s="27">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" t="s">
+        <v>115</v>
+      </c>
+      <c r="H92" s="27">
         <f>RSDAFC!L64*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="I88" s="27">
+      <c r="I92" s="27">
         <f>RSDAFC!M64*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="K88" t="str">
+      <c r="K92" t="str">
         <f>RSDAFC!C64</f>
         <v>R-SW_Det_ELC_HPN1</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>213</v>
-      </c>
-      <c r="D89" t="s">
-        <v>115</v>
-      </c>
-      <c r="H89" s="27">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>213</v>
+      </c>
+      <c r="D93" t="s">
+        <v>115</v>
+      </c>
+      <c r="H93" s="27">
         <f>RSDAFC!L65*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="I89" s="27">
+      <c r="I93" s="27">
         <f>RSDAFC!M65*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="K89" t="str">
+      <c r="K93" t="str">
         <f>RSDAFC!C65</f>
         <v>R-SW_Det_ELC_HPN1</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>213</v>
-      </c>
-      <c r="D90" t="s">
-        <v>115</v>
-      </c>
-      <c r="H90" s="27">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>213</v>
+      </c>
+      <c r="D94" t="s">
+        <v>115</v>
+      </c>
+      <c r="H94" s="27">
         <f>RSDAFC!L66*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="I90" s="27">
+      <c r="I94" s="27">
         <f>RSDAFC!M66*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="K90" t="str">
+      <c r="K94" t="str">
         <f>RSDAFC!C66</f>
         <v>R-SW_Det_ELC_HPN2</v>
       </c>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>213</v>
-      </c>
-      <c r="D91" t="s">
-        <v>115</v>
-      </c>
-      <c r="H91" s="27">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" t="s">
+        <v>115</v>
+      </c>
+      <c r="H95" s="27">
         <f>RSDAFC!L67*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="I91" s="27">
+      <c r="I95" s="27">
         <f>RSDAFC!M67*$M$25</f>
         <v>1.3735723758749249E-2</v>
       </c>
-      <c r="K91" t="str">
+      <c r="K95" t="str">
         <f>RSDAFC!C67</f>
         <v>R-SW_Det_ELC_HPN2</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>213</v>
-      </c>
-      <c r="D92" t="s">
-        <v>115</v>
-      </c>
-      <c r="H92" s="27">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>213</v>
+      </c>
+      <c r="D96" t="s">
+        <v>115</v>
+      </c>
+      <c r="H96" s="27">
         <f>RSDAFC!L68*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I92" s="27">
+      <c r="I96" s="27">
         <f>RSDAFC!M68*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K92" t="str">
+      <c r="K96" t="str">
         <f>RSDAFC!C68</f>
         <v>R-SW_Det_GAS_HHPN1</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>213</v>
-      </c>
-      <c r="D93" t="s">
-        <v>115</v>
-      </c>
-      <c r="H93" s="27">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" t="s">
+        <v>115</v>
+      </c>
+      <c r="H97" s="27">
         <f>RSDAFC!L69*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I93" s="27">
+      <c r="I97" s="27">
         <f>RSDAFC!M69*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K93" t="str">
+      <c r="K97" t="str">
         <f>RSDAFC!C69</f>
         <v>R-SW_Det_GAS_HHPN1</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>213</v>
-      </c>
-      <c r="D94" t="s">
-        <v>115</v>
-      </c>
-      <c r="H94" s="27">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98" t="s">
+        <v>115</v>
+      </c>
+      <c r="H98" s="27">
         <f>RSDAFC!L70*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I94" s="27">
+      <c r="I98" s="27">
         <f>RSDAFC!M70*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K94" t="str">
+      <c r="K98" t="str">
         <f>RSDAFC!C70</f>
         <v>R-SW_Det_GAS_HPN1</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>213</v>
-      </c>
-      <c r="D95" t="s">
-        <v>115</v>
-      </c>
-      <c r="H95" s="27">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" t="s">
+        <v>115</v>
+      </c>
+      <c r="H99" s="27">
         <f>RSDAFC!L71*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I95" s="27">
+      <c r="I99" s="27">
         <f>RSDAFC!M71*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K95" t="str">
+      <c r="K99" t="str">
         <f>RSDAFC!C71</f>
         <v>R-SW_Det_GAS_HPN1</v>
       </c>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>213</v>
-      </c>
-      <c r="D96" t="s">
-        <v>115</v>
-      </c>
-      <c r="H96" s="27">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>213</v>
+      </c>
+      <c r="D100" t="s">
+        <v>115</v>
+      </c>
+      <c r="H100" s="27">
         <f>RSDAFC!L72*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I96" s="27">
+      <c r="I100" s="27">
         <f>RSDAFC!M72*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K96" t="str">
+      <c r="K100" t="str">
         <f>RSDAFC!C72</f>
         <v>R-SW_Det_GAS_HPN2</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>213</v>
-      </c>
-      <c r="D97" t="s">
-        <v>115</v>
-      </c>
-      <c r="H97" s="27">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" t="s">
+        <v>115</v>
+      </c>
+      <c r="H101" s="27">
         <f>RSDAFC!L73*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I97" s="27">
+      <c r="I101" s="27">
         <f>RSDAFC!M73*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K97" t="str">
+      <c r="K101" t="str">
         <f>RSDAFC!C73</f>
         <v>R-SW_Det_GAS_HPN2</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
-        <v>213</v>
-      </c>
-      <c r="D98" t="s">
-        <v>115</v>
-      </c>
-      <c r="H98" s="27">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>213</v>
+      </c>
+      <c r="D102" t="s">
+        <v>115</v>
+      </c>
+      <c r="H102" s="27">
         <f>RSDAFC!L74*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I98" s="27">
+      <c r="I102" s="27">
         <f>RSDAFC!M74*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K98" t="str">
+      <c r="K102" t="str">
         <f>RSDAFC!C74</f>
         <v>R-SW_Det_GAS_N1</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>213</v>
-      </c>
-      <c r="D99" t="s">
-        <v>115</v>
-      </c>
-      <c r="H99" s="27">
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" t="s">
+        <v>115</v>
+      </c>
+      <c r="H103" s="27">
         <f>RSDAFC!L75*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I99" s="27">
+      <c r="I103" s="27">
         <f>RSDAFC!M75*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K99" t="str">
+      <c r="K103" t="str">
         <f>RSDAFC!C75</f>
         <v>R-SW_Det_GAS_N1</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>213</v>
-      </c>
-      <c r="D100" t="s">
-        <v>115</v>
-      </c>
-      <c r="H100" s="27">
+    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>213</v>
+      </c>
+      <c r="D104" t="s">
+        <v>115</v>
+      </c>
+      <c r="H104" s="27">
         <f>RSDAFC!L76*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I100" s="27">
+      <c r="I104" s="27">
         <f>RSDAFC!M76*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K100" t="str">
+      <c r="K104" t="str">
         <f>RSDAFC!C76</f>
         <v>R-SW_Det_GAS_N2</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>213</v>
-      </c>
-      <c r="D101" t="s">
-        <v>115</v>
-      </c>
-      <c r="H101" s="27">
+    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" t="s">
+        <v>115</v>
+      </c>
+      <c r="H105" s="27">
         <f>RSDAFC!L77*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I101" s="27">
+      <c r="I105" s="27">
         <f>RSDAFC!M77*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K101" t="str">
+      <c r="K105" t="str">
         <f>RSDAFC!C77</f>
         <v>R-SW_Det_GAS_N2</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
-        <v>213</v>
-      </c>
-      <c r="D102" t="s">
-        <v>115</v>
-      </c>
-      <c r="H102" s="27">
+    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" t="s">
+        <v>115</v>
+      </c>
+      <c r="H106" s="27">
         <f>RSDAFC!L78*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I102" s="27">
+      <c r="I106" s="27">
         <f>RSDAFC!M78*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K102" t="str">
+      <c r="K106" t="str">
         <f>RSDAFC!C78</f>
         <v>R-SW_Det_GAS_N3</v>
       </c>
     </row>
-    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" t="s">
-        <v>115</v>
-      </c>
-      <c r="H103" s="27">
+    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" t="s">
+        <v>115</v>
+      </c>
+      <c r="H107" s="27">
         <f>RSDAFC!L79*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="I103" s="27">
+      <c r="I107" s="27">
         <f>RSDAFC!M79*$M$25</f>
         <v>1.222361012943445E-2</v>
       </c>
-      <c r="K103" t="str">
+      <c r="K107" t="str">
         <f>RSDAFC!C79</f>
         <v>R-SW_Det_GAS_N3</v>
       </c>
     </row>
-    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>213</v>
-      </c>
-      <c r="D104" t="s">
-        <v>115</v>
-      </c>
-      <c r="H104" s="27">
+    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>213</v>
+      </c>
+      <c r="D108" t="s">
+        <v>115</v>
+      </c>
+      <c r="H108" s="27">
         <f>RSDAFC!L80*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="I104" s="27">
+      <c r="I108" s="27">
         <f>RSDAFC!M80*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="K104" t="str">
+      <c r="K108" t="str">
         <f>RSDAFC!C80</f>
         <v>R-SW_Det_HET_N1</v>
       </c>
     </row>
-    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" t="s">
-        <v>115</v>
-      </c>
-      <c r="H105" s="27">
+    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>213</v>
+      </c>
+      <c r="D109" t="s">
+        <v>115</v>
+      </c>
+      <c r="H109" s="27">
         <f>RSDAFC!L81*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="I105" s="27">
+      <c r="I109" s="27">
         <f>RSDAFC!M81*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="K105" t="str">
+      <c r="K109" t="str">
         <f>RSDAFC!C81</f>
         <v>R-SW_Det_HET_N1</v>
       </c>
     </row>
-    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>213</v>
-      </c>
-      <c r="D106" t="s">
-        <v>115</v>
-      </c>
-      <c r="H106" s="27">
+    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>213</v>
+      </c>
+      <c r="D110" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110" s="27">
         <f>RSDAFC!L82*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="I106" s="27">
+      <c r="I110" s="27">
         <f>RSDAFC!M82*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="K106" t="str">
+      <c r="K110" t="str">
         <f>RSDAFC!C82</f>
         <v>R-SW_Det_HET_N2</v>
       </c>
     </row>
-    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>213</v>
-      </c>
-      <c r="D107" t="s">
-        <v>115</v>
-      </c>
-      <c r="H107" s="27">
+    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>213</v>
+      </c>
+      <c r="D111" t="s">
+        <v>115</v>
+      </c>
+      <c r="H111" s="27">
         <f>RSDAFC!L83*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="I107" s="27">
+      <c r="I111" s="27">
         <f>RSDAFC!M83*$M$25</f>
         <v>4.782102180462415E-2</v>
       </c>
-      <c r="K107" t="str">
+      <c r="K111" t="str">
         <f>RSDAFC!C83</f>
         <v>R-SW_Det_HET_N2</v>
       </c>
     </row>
-    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>213</v>
-      </c>
-      <c r="D108" t="s">
-        <v>115</v>
-      </c>
-      <c r="H108" s="27">
+    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112" t="s">
+        <v>115</v>
+      </c>
+      <c r="H112" s="27">
         <f>RSDAFC!L84*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="I108" s="27">
+      <c r="I112" s="27">
         <f>RSDAFC!M84*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="K108" t="str">
+      <c r="K112" t="str">
         <f>RSDAFC!C84</f>
         <v>R-SW_Det_KER_N1</v>
       </c>
     </row>
-    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>213</v>
-      </c>
-      <c r="D109" t="s">
-        <v>115</v>
-      </c>
-      <c r="H109" s="27">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>213</v>
+      </c>
+      <c r="D113" t="s">
+        <v>115</v>
+      </c>
+      <c r="H113" s="27">
         <f>RSDAFC!L85*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="I109" s="27">
+      <c r="I113" s="27">
         <f>RSDAFC!M85*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="K109" t="str">
+      <c r="K113" t="str">
         <f>RSDAFC!C85</f>
         <v>R-SW_Det_KER_N1</v>
       </c>
     </row>
-    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>213</v>
-      </c>
-      <c r="D110" t="s">
-        <v>115</v>
-      </c>
-      <c r="H110" s="27">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>213</v>
+      </c>
+      <c r="D114" t="s">
+        <v>115</v>
+      </c>
+      <c r="H114" s="27">
         <f>RSDAFC!L86*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="I110" s="27">
+      <c r="I114" s="27">
         <f>RSDAFC!M86*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="K110" t="str">
+      <c r="K114" t="str">
         <f>RSDAFC!C86</f>
         <v>R-SW_Det_KER_N2</v>
       </c>
     </row>
-    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>213</v>
-      </c>
-      <c r="D111" t="s">
-        <v>115</v>
-      </c>
-      <c r="H111" s="27">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>213</v>
+      </c>
+      <c r="D115" t="s">
+        <v>115</v>
+      </c>
+      <c r="H115" s="27">
         <f>RSDAFC!L87*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="I111" s="27">
+      <c r="I115" s="27">
         <f>RSDAFC!M87*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="K111" t="str">
+      <c r="K115" t="str">
         <f>RSDAFC!C87</f>
         <v>R-SW_Det_KER_N2</v>
       </c>
     </row>
-    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>213</v>
-      </c>
-      <c r="D112" t="s">
-        <v>115</v>
-      </c>
-      <c r="H112" s="27">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>213</v>
+      </c>
+      <c r="D116" t="s">
+        <v>115</v>
+      </c>
+      <c r="H116" s="27">
         <f>RSDAFC!L88*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="I112" s="27">
+      <c r="I116" s="27">
         <f>RSDAFC!M88*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="K112" t="str">
+      <c r="K116" t="str">
         <f>RSDAFC!C88</f>
         <v>R-SW_Det_KER_N3</v>
       </c>
     </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>213</v>
-      </c>
-      <c r="D113" t="s">
-        <v>115</v>
-      </c>
-      <c r="H113" s="27">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>213</v>
+      </c>
+      <c r="D117" t="s">
+        <v>115</v>
+      </c>
+      <c r="H117" s="27">
         <f>RSDAFC!L89*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="I113" s="27">
+      <c r="I117" s="27">
         <f>RSDAFC!M89*$M$25</f>
         <v>1.5039738210625601E-2</v>
       </c>
-      <c r="K113" t="str">
+      <c r="K117" t="str">
         <f>RSDAFC!C89</f>
         <v>R-SW_Det_KER_N3</v>
       </c>
     </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>213</v>
-      </c>
-      <c r="D114" t="s">
-        <v>115</v>
-      </c>
-      <c r="H114" s="27">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="47"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="D118" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="48">
+        <f>H124</f>
+        <v>2.6433948538654248E-2</v>
+      </c>
+      <c r="I118" s="48">
+        <f>I124</f>
+        <v>2.6433948538654248E-2</v>
+      </c>
+      <c r="J118" s="47"/>
+      <c r="K118" s="47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="47"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="D119" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="48">
+        <f>H125</f>
+        <v>2.6433948538654248E-2</v>
+      </c>
+      <c r="I119" s="48">
+        <f>I125</f>
+        <v>2.6433948538654248E-2</v>
+      </c>
+      <c r="J119" s="47"/>
+      <c r="K119" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="47"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="D120" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E120" s="47"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="48">
+        <f>H117</f>
+        <v>1.5039738210625601E-2</v>
+      </c>
+      <c r="I120" s="48">
+        <f>I117</f>
+        <v>1.5039738210625601E-2</v>
+      </c>
+      <c r="J120" s="47"/>
+      <c r="K120" s="47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="47"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="D121" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="48">
+        <f>H120</f>
+        <v>1.5039738210625601E-2</v>
+      </c>
+      <c r="I121" s="48">
+        <f>I120</f>
+        <v>1.5039738210625601E-2</v>
+      </c>
+      <c r="J121" s="47"/>
+      <c r="K121" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>213</v>
+      </c>
+      <c r="D122" t="s">
+        <v>115</v>
+      </c>
+      <c r="H122" s="27">
         <f>RSDAFC!L90*$M$25</f>
         <v>2.10969847812758E-2</v>
       </c>
-      <c r="I114" s="27">
+      <c r="I122" s="27">
         <f>RSDAFC!M90*$M$25</f>
         <v>2.10969847812758E-2</v>
       </c>
-      <c r="K114" t="str">
+      <c r="K122" t="str">
         <f>RSDAFC!C90</f>
         <v>R-SW_Det_LPG_N1</v>
       </c>
     </row>
-    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>213</v>
-      </c>
-      <c r="D115" t="s">
-        <v>115</v>
-      </c>
-      <c r="H115" s="27">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>213</v>
+      </c>
+      <c r="D123" t="s">
+        <v>115</v>
+      </c>
+      <c r="H123" s="27">
         <f>RSDAFC!L91*$M$25</f>
         <v>2.10969847812758E-2</v>
       </c>
-      <c r="I115" s="27">
+      <c r="I123" s="27">
         <f>RSDAFC!M91*$M$25</f>
         <v>2.10969847812758E-2</v>
       </c>
-      <c r="K115" t="str">
+      <c r="K123" t="str">
         <f>RSDAFC!C91</f>
         <v>R-SW_Det_LPG_N1</v>
       </c>
     </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>213</v>
-      </c>
-      <c r="D116" t="s">
-        <v>115</v>
-      </c>
-      <c r="H116" s="27">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>213</v>
+      </c>
+      <c r="D124" t="s">
+        <v>115</v>
+      </c>
+      <c r="H124" s="27">
         <f>RSDAFC!L92*$M$25</f>
         <v>2.6433948538654248E-2</v>
       </c>
-      <c r="I116" s="27">
+      <c r="I124" s="27">
         <f>RSDAFC!M92*$M$25</f>
         <v>2.6433948538654248E-2</v>
       </c>
-      <c r="K116" t="str">
+      <c r="K124" t="str">
         <f>RSDAFC!C92</f>
         <v>R-SW_Det_WOO_N1</v>
       </c>
     </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>213</v>
-      </c>
-      <c r="D117" t="s">
-        <v>115</v>
-      </c>
-      <c r="H117" s="27">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>213</v>
+      </c>
+      <c r="D125" t="s">
+        <v>115</v>
+      </c>
+      <c r="H125" s="27">
         <f>RSDAFC!L93*$M$25</f>
         <v>2.6433948538654248E-2</v>
       </c>
-      <c r="I117" s="27">
+      <c r="I125" s="27">
         <f>RSDAFC!M93*$M$25</f>
         <v>2.6433948538654248E-2</v>
       </c>
-      <c r="K117" t="str">
+      <c r="K125" t="str">
         <f>RSDAFC!C93</f>
         <v>R-SW_Det_WOO_N1</v>
       </c>
     </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
-        <v>213</v>
-      </c>
-      <c r="D118" t="s">
-        <v>115</v>
-      </c>
-      <c r="H118" s="27">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>213</v>
+      </c>
+      <c r="D126" t="s">
+        <v>115</v>
+      </c>
+      <c r="H126" s="27">
         <f>RSDAFA!L2*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="I118" s="27">
+      <c r="I126" s="27">
         <f>RSDAFA!M2*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="K118" s="27" t="str">
+      <c r="K126" s="27" t="str">
         <f>RSDAFA!C2</f>
         <v>R-SH_Apt_ELC_HPN1</v>
       </c>
     </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
-        <v>213</v>
-      </c>
-      <c r="D119" t="s">
-        <v>115</v>
-      </c>
-      <c r="H119" s="27">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>213</v>
+      </c>
+      <c r="D127" t="s">
+        <v>115</v>
+      </c>
+      <c r="H127" s="27">
         <f>RSDAFA!L3*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="I119" s="27">
+      <c r="I127" s="27">
         <f>RSDAFA!M3*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="K119" s="27" t="str">
+      <c r="K127" s="27" t="str">
         <f>RSDAFA!C3</f>
         <v>R-SH_Apt_ELC_HPN2</v>
       </c>
     </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
-        <v>213</v>
-      </c>
-      <c r="D120" t="s">
-        <v>115</v>
-      </c>
-      <c r="H120" s="27">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>213</v>
+      </c>
+      <c r="D128" t="s">
+        <v>115</v>
+      </c>
+      <c r="H128" s="27">
         <f>RSDAFA!L4*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="I120" s="27">
+      <c r="I128" s="27">
         <f>RSDAFA!M4*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="K120" s="27" t="str">
+      <c r="K128" s="27" t="str">
         <f>RSDAFA!C4</f>
         <v>R-SH_Apt_ELC_HPN3</v>
       </c>
     </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>213</v>
-      </c>
-      <c r="D121" t="s">
-        <v>115</v>
-      </c>
-      <c r="H121" s="27">
+    <row r="129" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>213</v>
+      </c>
+      <c r="D129" t="s">
+        <v>115</v>
+      </c>
+      <c r="H129" s="27">
         <f>RSDAFA!L5*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="I121" s="27">
+      <c r="I129" s="27">
         <f>RSDAFA!M5*$M$25</f>
         <v>9.59298200649405E-3</v>
       </c>
-      <c r="K121" s="27" t="str">
+      <c r="K129" s="27" t="str">
         <f>RSDAFA!C5</f>
         <v>R-SH_Apt_ELC_N1</v>
       </c>
     </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
-        <v>213</v>
-      </c>
-      <c r="D122" t="s">
-        <v>115</v>
-      </c>
-      <c r="H122" s="27">
+    <row r="130" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>213</v>
+      </c>
+      <c r="D130" t="s">
+        <v>115</v>
+      </c>
+      <c r="H130" s="27">
         <f>RSDAFA!L6*$M$25</f>
         <v>5.9295434183648001E-3</v>
       </c>
-      <c r="I122" s="27">
+      <c r="I130" s="27">
         <f>RSDAFA!M6*$M$25</f>
         <v>5.9295434183648001E-3</v>
       </c>
-      <c r="K122" s="27" t="str">
+      <c r="K130" s="27" t="str">
         <f>RSDAFA!C6</f>
         <v>R-SH_Apt_GAS_N1</v>
       </c>
     </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
-        <v>213</v>
-      </c>
-      <c r="D123" t="s">
-        <v>115</v>
-      </c>
-      <c r="H123" s="27">
+    <row r="131" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>213</v>
+      </c>
+      <c r="D131" t="s">
+        <v>115</v>
+      </c>
+      <c r="H131" s="27">
         <f>RSDAFA!L7*$M$25</f>
         <v>1.8679913115832E-2</v>
       </c>
-      <c r="I123" s="27">
+      <c r="I131" s="27">
         <f>RSDAFA!M7*$M$25</f>
         <v>1.8679913115832E-2</v>
       </c>
-      <c r="K123" s="27" t="str">
+      <c r="K131" s="27" t="str">
         <f>RSDAFA!C7</f>
         <v>R-SH_Apt_KER_N1</v>
       </c>
     </row>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
-        <v>213</v>
-      </c>
-      <c r="D124" t="s">
-        <v>115</v>
-      </c>
-      <c r="H124" s="27">
+    <row r="132" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>213</v>
+      </c>
+      <c r="D132" t="s">
+        <v>115</v>
+      </c>
+      <c r="H132" s="27">
         <f>RSDAFA!L8*$M$25</f>
         <v>1.1539296595339751E-2</v>
       </c>
-      <c r="I124" s="27">
+      <c r="I132" s="27">
         <f>RSDAFA!M8*$M$25</f>
         <v>1.1539296595339751E-2</v>
       </c>
-      <c r="K124" s="27" t="str">
+      <c r="K132" s="27" t="str">
         <f>RSDAFA!C8</f>
         <v>R-SH_Apt_LPG_N1</v>
       </c>
     </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
-        <v>213</v>
-      </c>
-      <c r="D125" t="s">
-        <v>115</v>
-      </c>
-      <c r="H125" s="27">
+    <row r="133" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>213</v>
+      </c>
+      <c r="D133" t="s">
+        <v>115</v>
+      </c>
+      <c r="H133" s="27">
         <f>RSDAFA!L9*$M$25</f>
         <v>8.8239524029044506E-3</v>
       </c>
-      <c r="I125" s="27">
+      <c r="I133" s="27">
         <f>RSDAFA!M9*$M$25</f>
         <v>8.8239524029044506E-3</v>
       </c>
-      <c r="K125" s="27" t="str">
+      <c r="K133" s="27" t="str">
         <f>RSDAFA!C9</f>
         <v>R-SH_Apt_WOO_N1</v>
       </c>
     </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>213</v>
-      </c>
-      <c r="D126" t="s">
-        <v>115</v>
-      </c>
-      <c r="H126" s="27">
+    <row r="134" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>213</v>
+      </c>
+      <c r="D134" t="s">
+        <v>115</v>
+      </c>
+      <c r="H134" s="27">
         <f>RSDAFA!L10*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="I126" s="27">
+      <c r="I134" s="27">
         <f>RSDAFA!M10*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="K126" s="27" t="str">
+      <c r="K134" s="27" t="str">
         <f>RSDAFA!C10</f>
         <v>R-SH_Att_ELC_HPN1</v>
       </c>
     </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
-        <v>213</v>
-      </c>
-      <c r="D127" t="s">
-        <v>115</v>
-      </c>
-      <c r="H127" s="27">
+    <row r="135" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>213</v>
+      </c>
+      <c r="D135" t="s">
+        <v>115</v>
+      </c>
+      <c r="H135" s="27">
         <f>RSDAFA!L11*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="I127" s="27">
+      <c r="I135" s="27">
         <f>RSDAFA!M11*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="K127" s="27" t="str">
+      <c r="K135" s="27" t="str">
         <f>RSDAFA!C11</f>
         <v>R-SH_Att_ELC_HPN2</v>
       </c>
     </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
-        <v>213</v>
-      </c>
-      <c r="D128" t="s">
-        <v>115</v>
-      </c>
-      <c r="H128" s="27">
+    <row r="136" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>213</v>
+      </c>
+      <c r="D136" t="s">
+        <v>115</v>
+      </c>
+      <c r="H136" s="27">
         <f>RSDAFA!L12*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="I128" s="27">
+      <c r="I136" s="27">
         <f>RSDAFA!M12*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="K128" s="27" t="str">
+      <c r="K136" s="27" t="str">
         <f>RSDAFA!C12</f>
         <v>R-SH_Att_ELC_HPN3</v>
       </c>
     </row>
-    <row r="129" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
-        <v>213</v>
-      </c>
-      <c r="D129" t="s">
-        <v>115</v>
-      </c>
-      <c r="H129" s="27">
+    <row r="137" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>213</v>
+      </c>
+      <c r="D137" t="s">
+        <v>115</v>
+      </c>
+      <c r="H137" s="27">
         <f>RSDAFA!L13*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="I129" s="27">
+      <c r="I137" s="27">
         <f>RSDAFA!M13*$M$25</f>
         <v>1.2326631289923951E-2</v>
       </c>
-      <c r="K129" s="27" t="str">
+      <c r="K137" s="27" t="str">
         <f>RSDAFA!C13</f>
         <v>R-SH_Att_ELC_N1</v>
       </c>
     </row>
-    <row r="130" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
-        <v>213</v>
-      </c>
-      <c r="D130" t="s">
-        <v>115</v>
-      </c>
-      <c r="H130" s="27">
+    <row r="138" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>213</v>
+      </c>
+      <c r="D138" t="s">
+        <v>115</v>
+      </c>
+      <c r="H138" s="27">
         <f>RSDAFA!L14*$M$25</f>
         <v>1.10479456620104E-2</v>
       </c>
-      <c r="I130" s="27">
+      <c r="I138" s="27">
         <f>RSDAFA!M14*$M$25</f>
         <v>1.10479456620104E-2</v>
       </c>
-      <c r="K130" s="27" t="str">
+      <c r="K138" s="27" t="str">
         <f>RSDAFA!C14</f>
         <v>R-SH_Att_GAS_N1</v>
       </c>
     </row>
-    <row r="131" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
-        <v>213</v>
-      </c>
-      <c r="D131" t="s">
-        <v>115</v>
-      </c>
-      <c r="H131" s="27">
+    <row r="139" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>213</v>
+      </c>
+      <c r="D139" t="s">
+        <v>115</v>
+      </c>
+      <c r="H139" s="27">
         <f>RSDAFA!L15*$M$25</f>
         <v>1.418438071184145E-2</v>
       </c>
-      <c r="I131" s="27">
+      <c r="I139" s="27">
         <f>RSDAFA!M15*$M$25</f>
         <v>1.418438071184145E-2</v>
       </c>
-      <c r="K131" s="27" t="str">
+      <c r="K139" s="27" t="str">
         <f>RSDAFA!C15</f>
         <v>R-SH_Att_KER_N1</v>
       </c>
     </row>
-    <row r="132" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
-        <v>213</v>
-      </c>
-      <c r="D132" t="s">
-        <v>115</v>
-      </c>
-      <c r="H132" s="27">
+    <row r="140" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>213</v>
+      </c>
+      <c r="D140" t="s">
+        <v>115</v>
+      </c>
+      <c r="H140" s="27">
         <f>RSDAFA!L16*$M$25</f>
         <v>1.5468436444358601E-2</v>
       </c>
-      <c r="I132" s="27">
+      <c r="I140" s="27">
         <f>RSDAFA!M16*$M$25</f>
         <v>1.5468436444358601E-2</v>
       </c>
-      <c r="K132" s="27" t="str">
+      <c r="K140" s="27" t="str">
         <f>RSDAFA!C16</f>
         <v>R-SH_Att_LPG_N1</v>
       </c>
     </row>
-    <row r="133" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
-        <v>213</v>
-      </c>
-      <c r="D133" t="s">
-        <v>115</v>
-      </c>
-      <c r="H133" s="27">
+    <row r="141" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>213</v>
+      </c>
+      <c r="D141" t="s">
+        <v>115</v>
+      </c>
+      <c r="H141" s="27">
         <f>RSDAFA!L17*$M$25</f>
         <v>3.7533433216504153E-2</v>
       </c>
-      <c r="I133" s="27">
+      <c r="I141" s="27">
         <f>RSDAFA!M17*$M$25</f>
         <v>3.7533433216504153E-2</v>
       </c>
-      <c r="K133" s="27" t="str">
+      <c r="K141" s="27" t="str">
         <f>RSDAFA!C17</f>
         <v>R-SH_Att_WOO_N1</v>
       </c>
     </row>
-    <row r="134" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
-        <v>213</v>
-      </c>
-      <c r="D134" t="s">
-        <v>115</v>
-      </c>
-      <c r="H134" s="27">
+    <row r="142" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>213</v>
+      </c>
+      <c r="D142" t="s">
+        <v>115</v>
+      </c>
+      <c r="H142" s="27">
         <f>RSDAFA!L18*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="I134" s="27">
+      <c r="I142" s="27">
         <f>RSDAFA!M18*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="K134" s="27" t="str">
+      <c r="K142" s="27" t="str">
         <f>RSDAFA!C18</f>
         <v>R-SH_Det_ELC_HPN1</v>
       </c>
     </row>
-    <row r="135" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
-        <v>213</v>
-      </c>
-      <c r="D135" t="s">
-        <v>115</v>
-      </c>
-      <c r="H135" s="27">
+    <row r="143" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>213</v>
+      </c>
+      <c r="D143" t="s">
+        <v>115</v>
+      </c>
+      <c r="H143" s="27">
         <f>RSDAFA!L19*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="I135" s="27">
+      <c r="I143" s="27">
         <f>RSDAFA!M19*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="K135" s="27" t="str">
+      <c r="K143" s="27" t="str">
         <f>RSDAFA!C19</f>
         <v>R-SH_Det_ELC_HPN2</v>
       </c>
     </row>
-    <row r="136" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
-        <v>213</v>
-      </c>
-      <c r="D136" t="s">
-        <v>115</v>
-      </c>
-      <c r="H136" s="27">
+    <row r="144" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>213</v>
+      </c>
+      <c r="D144" t="s">
+        <v>115</v>
+      </c>
+      <c r="H144" s="27">
         <f>RSDAFA!L20*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="I136" s="27">
+      <c r="I144" s="27">
         <f>RSDAFA!M20*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="K136" s="27" t="str">
+      <c r="K144" s="27" t="str">
         <f>RSDAFA!C20</f>
         <v>R-SH_Det_ELC_HPN3</v>
       </c>
     </row>
-    <row r="137" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
-        <v>213</v>
-      </c>
-      <c r="D137" t="s">
-        <v>115</v>
-      </c>
-      <c r="H137" s="27">
+    <row r="145" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>213</v>
+      </c>
+      <c r="D145" t="s">
+        <v>115</v>
+      </c>
+      <c r="H145" s="27">
         <f>RSDAFA!L21*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="I137" s="27">
+      <c r="I145" s="27">
         <f>RSDAFA!M21*$M$25</f>
         <v>2.08072041359634E-2</v>
       </c>
-      <c r="K137" s="27" t="str">
+      <c r="K145" s="27" t="str">
         <f>RSDAFA!C21</f>
         <v>R-SH_Det_ELC_N1</v>
       </c>
     </row>
-    <row r="138" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>213</v>
-      </c>
-      <c r="D138" t="s">
-        <v>115</v>
-      </c>
-      <c r="H138" s="27">
+    <row r="146" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>213</v>
+      </c>
+      <c r="D146" t="s">
+        <v>115</v>
+      </c>
+      <c r="H146" s="27">
         <f>RSDAFA!L22*$M$25</f>
         <v>1.852031558004625E-2</v>
       </c>
-      <c r="I138" s="27">
+      <c r="I146" s="27">
         <f>RSDAFA!M22*$M$25</f>
         <v>1.852031558004625E-2</v>
       </c>
-      <c r="K138" s="27" t="str">
+      <c r="K146" s="27" t="str">
         <f>RSDAFA!C22</f>
         <v>R-SH_Det_GAS_N1</v>
       </c>
     </row>
-    <row r="139" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>213</v>
-      </c>
-      <c r="D139" t="s">
-        <v>115</v>
-      </c>
-      <c r="H139" s="27">
+    <row r="147" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>213</v>
+      </c>
+      <c r="D147" t="s">
+        <v>115</v>
+      </c>
+      <c r="H147" s="27">
         <f>RSDAFA!L23*$M$25</f>
         <v>2.3310863988210799E-2</v>
       </c>
-      <c r="I139" s="27">
+      <c r="I147" s="27">
         <f>RSDAFA!M23*$M$25</f>
         <v>2.3310863988210799E-2</v>
       </c>
-      <c r="K139" s="27" t="str">
+      <c r="K147" s="27" t="str">
         <f>RSDAFA!C23</f>
         <v>R-SH_Det_KER_N1</v>
       </c>
     </row>
-    <row r="140" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
-        <v>213</v>
-      </c>
-      <c r="D140" t="s">
-        <v>115</v>
-      </c>
-      <c r="H140" s="27">
+    <row r="148" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>213</v>
+      </c>
+      <c r="D148" t="s">
+        <v>115</v>
+      </c>
+      <c r="H148" s="27">
         <f>RSDAFA!L24*$M$25</f>
         <v>3.3516837935026751E-2</v>
       </c>
-      <c r="I140" s="27">
+      <c r="I148" s="27">
         <f>RSDAFA!M24*$M$25</f>
         <v>3.3516837935026751E-2</v>
       </c>
-      <c r="K140" s="27" t="str">
+      <c r="K148" s="27" t="str">
         <f>RSDAFA!C24</f>
         <v>R-SH_Det_LPG_N1</v>
       </c>
     </row>
-    <row r="141" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C141" t="s">
-        <v>213</v>
-      </c>
-      <c r="D141" t="s">
-        <v>115</v>
-      </c>
-      <c r="H141" s="27">
+    <row r="149" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>213</v>
+      </c>
+      <c r="D149" t="s">
+        <v>115</v>
+      </c>
+      <c r="H149" s="27">
         <f>RSDAFA!L25*$M$25</f>
         <v>4.5576915292050248E-2</v>
       </c>
-      <c r="I141" s="27">
+      <c r="I149" s="27">
         <f>RSDAFA!M25*$M$25</f>
         <v>4.5576915292050248E-2</v>
       </c>
-      <c r="K141" s="27" t="str">
+      <c r="K149" s="27" t="str">
         <f>RSDAFA!C25</f>
         <v>R-SH_Det_WOO_N1</v>
       </c>
     </row>
-    <row r="142" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
-        <v>213</v>
-      </c>
-      <c r="D142" t="s">
-        <v>115</v>
-      </c>
-      <c r="H142" s="27">
+    <row r="150" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>213</v>
+      </c>
+      <c r="D150" t="s">
+        <v>115</v>
+      </c>
+      <c r="H150" s="27">
         <f>RSDAFA!L26*$M$25</f>
         <v>1.1367849827582301E-2</v>
       </c>
-      <c r="I142" s="27">
+      <c r="I150" s="27">
         <f>RSDAFA!M26*$M$25</f>
         <v>1.1367849827582301E-2</v>
       </c>
-      <c r="K142" s="27" t="str">
+      <c r="K150" s="27" t="str">
         <f>RSDAFA!C26</f>
         <v>R-WH_Apt_ELC_N1</v>
       </c>
     </row>
-    <row r="143" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
-        <v>213</v>
-      </c>
-      <c r="D143" t="s">
-        <v>115</v>
-      </c>
-      <c r="H143" s="27">
+    <row r="151" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>213</v>
+      </c>
+      <c r="D151" t="s">
+        <v>115</v>
+      </c>
+      <c r="H151" s="27">
         <f>RSDAFA!L27*$M$25</f>
         <v>4.3149364997261599E-3</v>
       </c>
-      <c r="I143" s="27">
+      <c r="I151" s="27">
         <f>RSDAFA!M27*$M$25</f>
         <v>4.3149364997261599E-3</v>
       </c>
-      <c r="K143" s="27" t="str">
+      <c r="K151" s="27" t="str">
         <f>RSDAFA!C27</f>
         <v>R-WH_Apt_SOL_N1</v>
       </c>
     </row>
-    <row r="144" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
-        <v>213</v>
-      </c>
-      <c r="D144" t="s">
-        <v>115</v>
-      </c>
-      <c r="H144" s="27">
+    <row r="152" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>213</v>
+      </c>
+      <c r="D152" t="s">
+        <v>115</v>
+      </c>
+      <c r="H152" s="27">
         <f>RSDAFA!L28*$M$25</f>
         <v>6.4637842351524498E-3</v>
       </c>
-      <c r="I144" s="27">
+      <c r="I152" s="27">
         <f>RSDAFA!M28*$M$25</f>
         <v>6.4637842351524498E-3</v>
       </c>
-      <c r="K144" s="27" t="str">
+      <c r="K152" s="27" t="str">
         <f>RSDAFA!C28</f>
         <v>R-WH_Att_ELC_N1</v>
       </c>
     </row>
-    <row r="145" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C145" t="s">
-        <v>213</v>
-      </c>
-      <c r="D145" t="s">
-        <v>115</v>
-      </c>
-      <c r="H145" s="27">
+    <row r="153" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>213</v>
+      </c>
+      <c r="D153" t="s">
+        <v>115</v>
+      </c>
+      <c r="H153" s="27">
         <f>RSDAFA!L29*$M$25</f>
         <v>1.72048031425758E-2</v>
       </c>
-      <c r="I145" s="27">
+      <c r="I153" s="27">
         <f>RSDAFA!M29*$M$25</f>
         <v>1.72048031425758E-2</v>
       </c>
-      <c r="K145" s="27" t="str">
+      <c r="K153" s="27" t="str">
         <f>RSDAFA!C29</f>
         <v>R-WH_Att_SOL_N1</v>
       </c>
     </row>
-    <row r="146" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C146" t="s">
-        <v>213</v>
-      </c>
-      <c r="D146" t="s">
-        <v>115</v>
-      </c>
-      <c r="H146" s="27">
+    <row r="154" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>213</v>
+      </c>
+      <c r="D154" t="s">
+        <v>115</v>
+      </c>
+      <c r="H154" s="27">
         <f>RSDAFA!L30*$M$25</f>
         <v>6.6642433815351501E-3</v>
       </c>
-      <c r="I146" s="27">
+      <c r="I154" s="27">
         <f>RSDAFA!M30*$M$25</f>
         <v>6.6642433815351501E-3</v>
       </c>
-      <c r="K146" s="27" t="str">
+      <c r="K154" s="27" t="str">
         <f>RSDAFA!C30</f>
         <v>R-WH_Det_ELC_N1</v>
       </c>
     </row>
-    <row r="147" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
-        <v>213</v>
-      </c>
-      <c r="D147" t="s">
-        <v>115</v>
-      </c>
-      <c r="H147" s="27">
+    <row r="155" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>213</v>
+      </c>
+      <c r="D155" t="s">
+        <v>115</v>
+      </c>
+      <c r="H155" s="27">
         <f>RSDAFA!L31*$M$25</f>
         <v>5.6525755788417502E-2</v>
       </c>
-      <c r="I147" s="27">
+      <c r="I155" s="27">
         <f>RSDAFA!M31*$M$25</f>
         <v>5.6525755788417502E-2</v>
       </c>
-      <c r="K147" s="27" t="str">
+      <c r="K155" s="27" t="str">
         <f>RSDAFA!C31</f>
         <v>R-WH_Det_SOL_N1</v>
       </c>
-    </row>
-    <row r="148" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="K148" s="27"/>
-    </row>
-    <row r="149" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="K149" s="27"/>
-    </row>
-    <row r="150" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H150" s="27"/>
-      <c r="I150" s="27"/>
-      <c r="K150" s="27"/>
-    </row>
-    <row r="151" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-      <c r="K151" s="27"/>
-    </row>
-    <row r="152" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H152" s="27"/>
-      <c r="I152" s="27"/>
-      <c r="K152" s="27"/>
-    </row>
-    <row r="153" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="K153" s="27"/>
-    </row>
-    <row r="154" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H154" s="27"/>
-      <c r="I154" s="27"/>
-      <c r="K154" s="27"/>
-    </row>
-    <row r="155" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
-      <c r="K155" s="27"/>
     </row>
     <row r="156" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H156" s="27"/>
@@ -6430,6 +6616,46 @@
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
       <c r="K165" s="27"/>
+    </row>
+    <row r="166" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
+      <c r="K166" s="27"/>
+    </row>
+    <row r="167" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="K167" s="27"/>
+    </row>
+    <row r="168" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="K168" s="27"/>
+    </row>
+    <row r="169" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="K169" s="27"/>
+    </row>
+    <row r="170" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+      <c r="K170" s="27"/>
+    </row>
+    <row r="171" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="K171" s="27"/>
+    </row>
+    <row r="172" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
+      <c r="K172" s="27"/>
+    </row>
+    <row r="173" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="K173" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6573,7 +6799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A6683C-C57D-4A33-B9D9-D05BA0CBEA1C}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3367D6-AE6D-4493-B2EA-4B711DD65E2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91078561-F65F-4FC2-B501-96989D952F63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="237">
   <si>
     <t>UC_N</t>
   </si>
@@ -456,18 +456,12 @@
     <t>NCAP_BND</t>
   </si>
   <si>
-    <t>CAP_BND</t>
-  </si>
-  <si>
     <t>* Unit</t>
   </si>
   <si>
     <t>GW</t>
   </si>
   <si>
-    <t>COMPVELC_01</t>
-  </si>
-  <si>
     <t>P*WAV*</t>
   </si>
   <si>
@@ -846,9 +840,6 @@
     <t>COM_BNDPRD</t>
   </si>
   <si>
-    <t>COMOIL</t>
-  </si>
-  <si>
     <t>UC_ATTR</t>
   </si>
   <si>
@@ -867,28 +858,40 @@
     <t>Public sector - maximum growth rate of HPs</t>
   </si>
   <si>
-    <t>UC-SRV-PS_MaxGrowthHPs</t>
-  </si>
-  <si>
-    <t>C*PS*HP</t>
-  </si>
-  <si>
     <t>Commercial sector - maximum growth rate of HPs</t>
   </si>
   <si>
     <t>UC-SRV-CS_MaxGrowthHPs</t>
   </si>
   <si>
-    <t>C*CS*HP</t>
-  </si>
-  <si>
     <t>Services - maximum growth rate of biomass</t>
   </si>
   <si>
     <t>UC-SRV-MaxGrowthBio</t>
   </si>
   <si>
-    <t>C*SBIO*</t>
+    <t>UC-SRV-PU_MaxGrowthHPs</t>
+  </si>
+  <si>
+    <t>S-SH*CS*N*, -*N1</t>
+  </si>
+  <si>
+    <t>S-SH*PU*N*, -*N1</t>
+  </si>
+  <si>
+    <t>S-*BIO*</t>
+  </si>
+  <si>
+    <t>SRVOIL</t>
+  </si>
+  <si>
+    <t>SRVPVELC_01</t>
+  </si>
+  <si>
+    <t>*CAP_BND</t>
+  </si>
+  <si>
+    <t>XXTFM_UPD</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1170,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1224,6 +1227,8 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2402,12 +2407,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A155980F-6689-4ADE-B1F2-DEFB665B2049}">
   <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -2461,7 +2467,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2469,55 +2475,63 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="35">
         <v>2020</v>
       </c>
-      <c r="H5">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35">
         <v>0.1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="35">
         <f>H5</f>
         <v>0.1</v>
       </c>
-      <c r="K5" t="s">
-        <v>94</v>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="35">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="35">
         <f>H6</f>
         <v>5</v>
       </c>
-      <c r="K6" t="s">
-        <v>94</v>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2525,7 +2539,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E7">
         <v>2020</v>
@@ -2537,7 +2551,7 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2545,7 +2559,7 @@
         <v>83</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2557,12 +2571,12 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>15</v>
+      <c r="B15" s="36" t="s">
+        <v>236</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9"/>
@@ -2604,7 +2618,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -2617,31 +2631,43 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35">
+        <v>2200</v>
+      </c>
+      <c r="I18" s="35">
+        <v>2200</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35">
+        <v>2200</v>
+      </c>
+      <c r="I19" s="35">
+        <v>2200</v>
+      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35" t="s">
         <v>217</v>
-      </c>
-      <c r="H18">
-        <v>2200</v>
-      </c>
-      <c r="I18">
-        <v>2200</v>
-      </c>
-      <c r="K18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19">
-        <v>2200</v>
-      </c>
-      <c r="I19">
-        <v>2200</v>
-      </c>
-      <c r="K19" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -2701,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>4</v>
@@ -2722,16 +2748,16 @@
         <v>9</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N28" s="31" t="s">
         <v>11</v>
@@ -2739,22 +2765,22 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H29" s="30">
         <v>2018</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J29" s="30">
         <v>1.1000000000000001</v>
@@ -2769,27 +2795,27 @@
         <v>5</v>
       </c>
       <c r="N29" s="30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H30" s="30">
         <v>2018</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J30" s="30">
         <v>1.1000000000000001</v>
@@ -2804,27 +2830,27 @@
         <v>5</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H31" s="30">
         <v>2018</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J31" s="30">
         <v>1.1000000000000001</v>
@@ -2839,7 +2865,7 @@
         <v>5</v>
       </c>
       <c r="N31" s="30" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +3006,7 @@
         <v>2200</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -2995,12 +3021,12 @@
         <v>2030</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3010,7 +3036,7 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3314,7 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>17</v>
@@ -3299,10 +3325,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H6">
         <v>2019</v>
@@ -3317,15 +3343,15 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H7">
         <v>2019</v>
@@ -3347,10 +3373,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H9">
         <v>2019</v>
@@ -3365,15 +3391,15 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H10">
         <v>2019</v>
@@ -3392,10 +3418,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H12">
         <v>2019</v>
@@ -3410,15 +3436,15 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H13">
         <v>2019</v>
@@ -3482,10 +3508,10 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -3494,10 +3520,10 @@
         <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M22" s="26">
         <v>0.1</v>
@@ -3505,10 +3531,10 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H23" s="27">
         <f>RSDAFC!L2*$M$22</f>
@@ -3525,10 +3551,10 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H24" s="27">
         <f>RSDAFC!L3*$M$22</f>
@@ -3545,10 +3571,10 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H25" s="27">
         <f>RSDAFC!L4*$M$22</f>
@@ -3565,10 +3591,10 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H26" s="27">
         <f>RSDAFC!L5*$M$22</f>
@@ -3585,10 +3611,10 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H27" s="27">
         <f>RSDAFC!L6*$M$22</f>
@@ -3605,10 +3631,10 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H28" s="27">
         <f>RSDAFC!L7*$M$22</f>
@@ -3625,10 +3651,10 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H29" s="27">
         <f>RSDAFC!L8*$M$22</f>
@@ -3645,10 +3671,10 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H30" s="27">
         <f>RSDAFC!L9*$M$22</f>
@@ -3665,10 +3691,10 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H31" s="27">
         <f>RSDAFC!L10*$M$22</f>
@@ -3685,10 +3711,10 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H32" s="27">
         <f>RSDAFC!L11*$M$22</f>
@@ -3705,10 +3731,10 @@
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H33" s="27">
         <f>RSDAFC!L12*$M$22</f>
@@ -3725,10 +3751,10 @@
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H34" s="27">
         <f>RSDAFC!L13*$M$22</f>
@@ -3745,10 +3771,10 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H35" s="27">
         <f>RSDAFC!L14*$M$22</f>
@@ -3765,10 +3791,10 @@
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H36" s="27">
         <f>RSDAFC!L15*$M$22</f>
@@ -3785,10 +3811,10 @@
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H37" s="27">
         <f>RSDAFC!L16*$M$22</f>
@@ -3805,10 +3831,10 @@
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H38" s="27">
         <f>RSDAFC!L17*$M$22</f>
@@ -3825,10 +3851,10 @@
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H39" s="27">
         <f>RSDAFC!L18*$M$22</f>
@@ -3845,10 +3871,10 @@
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H40" s="27">
         <f>RSDAFC!L19*$M$22</f>
@@ -3865,10 +3891,10 @@
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H41" s="27">
         <f>RSDAFC!L20*$M$22</f>
@@ -3885,10 +3911,10 @@
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H42" s="27">
         <f>RSDAFC!L21*$M$22</f>
@@ -3905,10 +3931,10 @@
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H43" s="27">
         <f>RSDAFC!L22*$M$22</f>
@@ -3925,10 +3951,10 @@
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H44" s="27">
         <f>RSDAFC!L23*$M$22</f>
@@ -3945,10 +3971,10 @@
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H45" s="27">
         <f>RSDAFC!L24*$M$22</f>
@@ -3965,10 +3991,10 @@
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H46" s="27">
         <f>RSDAFC!L25*$M$22</f>
@@ -3985,10 +4011,10 @@
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H47" s="27">
         <f>RSDAFC!L26*$M$22</f>
@@ -4005,10 +4031,10 @@
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H48" s="27">
         <f>RSDAFC!L27*$M$22</f>
@@ -4025,10 +4051,10 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H49" s="27">
         <f>RSDAFC!L28*$M$22</f>
@@ -4045,10 +4071,10 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H50" s="27">
         <f>RSDAFC!L29*$M$22</f>
@@ -4065,10 +4091,10 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H51" s="27">
         <f>RSDAFC!L30*$M$22</f>
@@ -4085,10 +4111,10 @@
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H52" s="27">
         <f>RSDAFC!L31*$M$22</f>
@@ -4105,10 +4131,10 @@
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H53" s="27">
         <f>RSDAFC!L32*$M$22</f>
@@ -4125,10 +4151,10 @@
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H54" s="27">
         <f>RSDAFC!L33*$M$22</f>
@@ -4145,10 +4171,10 @@
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H55" s="27">
         <f>RSDAFC!L34*$M$22</f>
@@ -4165,10 +4191,10 @@
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H56" s="27">
         <f>RSDAFC!L35*$M$22</f>
@@ -4185,10 +4211,10 @@
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H57" s="27">
         <f>RSDAFC!L36*$M$22</f>
@@ -4205,10 +4231,10 @@
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H58" s="27">
         <f>RSDAFC!L37*$M$22</f>
@@ -4225,10 +4251,10 @@
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H59" s="27">
         <f>RSDAFC!L38*$M$22</f>
@@ -4245,10 +4271,10 @@
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H60" s="27">
         <f>RSDAFC!L39*$M$22</f>
@@ -4265,10 +4291,10 @@
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H61" s="27">
         <f>RSDAFC!L40*$M$22</f>
@@ -4285,10 +4311,10 @@
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H62" s="27">
         <f>RSDAFC!L41*$M$22</f>
@@ -4305,10 +4331,10 @@
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H63" s="27">
         <f>RSDAFC!L42*$M$22</f>
@@ -4325,10 +4351,10 @@
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H64" s="27">
         <f>RSDAFC!L43*$M$22</f>
@@ -4345,10 +4371,10 @@
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H65" s="27">
         <f>RSDAFC!L44*$M$22</f>
@@ -4365,10 +4391,10 @@
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H66" s="27">
         <f>RSDAFC!L45*$M$22</f>
@@ -4385,10 +4411,10 @@
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H67" s="27">
         <f>RSDAFC!L46*$M$22</f>
@@ -4405,10 +4431,10 @@
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H68" s="27">
         <f>RSDAFC!L47*$M$22</f>
@@ -4425,10 +4451,10 @@
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H69" s="27">
         <f>RSDAFC!L48*$M$22</f>
@@ -4445,10 +4471,10 @@
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H70" s="27">
         <f>RSDAFC!L49*$M$22</f>
@@ -4465,10 +4491,10 @@
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H71" s="27">
         <f>RSDAFC!L50*$M$22</f>
@@ -4485,10 +4511,10 @@
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H72" s="27">
         <f>RSDAFC!L51*$M$22</f>
@@ -4505,10 +4531,10 @@
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H73" s="27">
         <f>RSDAFC!L52*$M$22</f>
@@ -4525,10 +4551,10 @@
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H74" s="27">
         <f>RSDAFC!L53*$M$22</f>
@@ -4545,10 +4571,10 @@
     </row>
     <row r="75" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H75" s="27">
         <f>RSDAFC!L54*$M$22</f>
@@ -4565,10 +4591,10 @@
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H76" s="27">
         <f>RSDAFC!L55*$M$22</f>
@@ -4585,10 +4611,10 @@
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H77" s="27">
         <f>RSDAFC!L56*$M$22</f>
@@ -4605,10 +4631,10 @@
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H78" s="27">
         <f>RSDAFC!L57*$M$22</f>
@@ -4625,10 +4651,10 @@
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H79" s="27">
         <f>RSDAFC!L58*$M$22</f>
@@ -4645,10 +4671,10 @@
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H80" s="27">
         <f>RSDAFC!L59*$M$22</f>
@@ -4665,10 +4691,10 @@
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H81" s="27">
         <f>RSDAFC!L60*$M$22</f>
@@ -4685,10 +4711,10 @@
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D82" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H82" s="27">
         <f>RSDAFC!L61*$M$22</f>
@@ -4705,10 +4731,10 @@
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H83" s="27">
         <f>RSDAFC!L62*$M$22</f>
@@ -4725,10 +4751,10 @@
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D84" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H84" s="27">
         <f>RSDAFC!L63*$M$22</f>
@@ -4745,10 +4771,10 @@
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H85" s="27">
         <f>RSDAFC!L64*$M$22</f>
@@ -4765,10 +4791,10 @@
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H86" s="27">
         <f>RSDAFC!L65*$M$22</f>
@@ -4785,10 +4811,10 @@
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H87" s="27">
         <f>RSDAFC!L66*$M$22</f>
@@ -4805,10 +4831,10 @@
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D88" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H88" s="27">
         <f>RSDAFC!L67*$M$22</f>
@@ -4825,10 +4851,10 @@
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H89" s="27">
         <f>RSDAFC!L68*$M$22</f>
@@ -4845,10 +4871,10 @@
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H90" s="27">
         <f>RSDAFC!L69*$M$22</f>
@@ -4865,10 +4891,10 @@
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D91" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H91" s="27">
         <f>RSDAFC!L70*$M$22</f>
@@ -4885,10 +4911,10 @@
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D92" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H92" s="27">
         <f>RSDAFC!L71*$M$22</f>
@@ -4905,10 +4931,10 @@
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D93" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H93" s="27">
         <f>RSDAFC!L72*$M$22</f>
@@ -4925,10 +4951,10 @@
     </row>
     <row r="94" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H94" s="27">
         <f>RSDAFC!L73*$M$22</f>
@@ -4945,10 +4971,10 @@
     </row>
     <row r="95" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D95" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H95" s="27">
         <f>RSDAFC!L74*$M$22</f>
@@ -4965,10 +4991,10 @@
     </row>
     <row r="96" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D96" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H96" s="27">
         <f>RSDAFC!L75*$M$22</f>
@@ -4985,10 +5011,10 @@
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D97" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H97" s="27">
         <f>RSDAFC!L76*$M$22</f>
@@ -5005,10 +5031,10 @@
     </row>
     <row r="98" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D98" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H98" s="27">
         <f>RSDAFC!L77*$M$22</f>
@@ -5025,10 +5051,10 @@
     </row>
     <row r="99" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D99" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H99" s="27">
         <f>RSDAFC!L78*$M$22</f>
@@ -5045,10 +5071,10 @@
     </row>
     <row r="100" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H100" s="27">
         <f>RSDAFC!L79*$M$22</f>
@@ -5065,10 +5091,10 @@
     </row>
     <row r="101" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H101" s="27">
         <f>RSDAFC!L80*$M$22</f>
@@ -5085,10 +5111,10 @@
     </row>
     <row r="102" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H102" s="27">
         <f>RSDAFC!L81*$M$22</f>
@@ -5105,10 +5131,10 @@
     </row>
     <row r="103" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D103" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H103" s="27">
         <f>RSDAFC!L82*$M$22</f>
@@ -5125,10 +5151,10 @@
     </row>
     <row r="104" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D104" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H104" s="27">
         <f>RSDAFC!L83*$M$22</f>
@@ -5145,10 +5171,10 @@
     </row>
     <row r="105" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D105" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H105" s="27">
         <f>RSDAFC!L84*$M$22</f>
@@ -5165,10 +5191,10 @@
     </row>
     <row r="106" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D106" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H106" s="27">
         <f>RSDAFC!L85*$M$22</f>
@@ -5185,10 +5211,10 @@
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D107" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H107" s="27">
         <f>RSDAFC!L86*$M$22</f>
@@ -5205,10 +5231,10 @@
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H108" s="27">
         <f>RSDAFC!L87*$M$22</f>
@@ -5225,10 +5251,10 @@
     </row>
     <row r="109" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D109" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H109" s="27">
         <f>RSDAFC!L88*$M$22</f>
@@ -5245,10 +5271,10 @@
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D110" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H110" s="27">
         <f>RSDAFC!L89*$M$22</f>
@@ -5265,10 +5291,10 @@
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D111" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H111" s="27">
         <f>RSDAFC!L90*$M$22</f>
@@ -5285,10 +5311,10 @@
     </row>
     <row r="112" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D112" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H112" s="27">
         <f>RSDAFC!L91*$M$22</f>
@@ -5305,10 +5331,10 @@
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D113" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H113" s="27">
         <f>RSDAFC!L92*$M$22</f>
@@ -5325,10 +5351,10 @@
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D114" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H114" s="27">
         <f>RSDAFC!L93*$M$22</f>
@@ -5345,10 +5371,10 @@
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D115" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H115" s="27">
         <f>RSDAFA!L2*$M$22</f>
@@ -5365,10 +5391,10 @@
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H116" s="27">
         <f>RSDAFA!L3*$M$22</f>
@@ -5385,10 +5411,10 @@
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D117" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H117" s="27">
         <f>RSDAFA!L4*$M$22</f>
@@ -5405,10 +5431,10 @@
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H118" s="27">
         <f>RSDAFA!L5*$M$22</f>
@@ -5425,10 +5451,10 @@
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D119" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H119" s="27">
         <f>RSDAFA!L6*$M$22</f>
@@ -5445,10 +5471,10 @@
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D120" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H120" s="27">
         <f>RSDAFA!L7*$M$22</f>
@@ -5465,10 +5491,10 @@
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D121" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H121" s="27">
         <f>RSDAFA!L8*$M$22</f>
@@ -5485,10 +5511,10 @@
     </row>
     <row r="122" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D122" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H122" s="27">
         <f>RSDAFA!L9*$M$22</f>
@@ -5505,10 +5531,10 @@
     </row>
     <row r="123" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D123" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H123" s="27">
         <f>RSDAFA!L10*$M$22</f>
@@ -5525,10 +5551,10 @@
     </row>
     <row r="124" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D124" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H124" s="27">
         <f>RSDAFA!L11*$M$22</f>
@@ -5545,10 +5571,10 @@
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D125" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H125" s="27">
         <f>RSDAFA!L12*$M$22</f>
@@ -5565,10 +5591,10 @@
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D126" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H126" s="27">
         <f>RSDAFA!L13*$M$22</f>
@@ -5585,10 +5611,10 @@
     </row>
     <row r="127" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D127" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H127" s="27">
         <f>RSDAFA!L14*$M$22</f>
@@ -5605,10 +5631,10 @@
     </row>
     <row r="128" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D128" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H128" s="27">
         <f>RSDAFA!L15*$M$22</f>
@@ -5625,10 +5651,10 @@
     </row>
     <row r="129" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D129" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H129" s="27">
         <f>RSDAFA!L16*$M$22</f>
@@ -5645,10 +5671,10 @@
     </row>
     <row r="130" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D130" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H130" s="27">
         <f>RSDAFA!L17*$M$22</f>
@@ -5665,10 +5691,10 @@
     </row>
     <row r="131" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D131" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H131" s="27">
         <f>RSDAFA!L18*$M$22</f>
@@ -5685,10 +5711,10 @@
     </row>
     <row r="132" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D132" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H132" s="27">
         <f>RSDAFA!L19*$M$22</f>
@@ -5705,10 +5731,10 @@
     </row>
     <row r="133" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D133" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H133" s="27">
         <f>RSDAFA!L20*$M$22</f>
@@ -5725,10 +5751,10 @@
     </row>
     <row r="134" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D134" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H134" s="27">
         <f>RSDAFA!L21*$M$22</f>
@@ -5745,10 +5771,10 @@
     </row>
     <row r="135" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D135" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H135" s="27">
         <f>RSDAFA!L22*$M$22</f>
@@ -5765,10 +5791,10 @@
     </row>
     <row r="136" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D136" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H136" s="27">
         <f>RSDAFA!L23*$M$22</f>
@@ -5785,10 +5811,10 @@
     </row>
     <row r="137" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D137" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H137" s="27">
         <f>RSDAFA!L24*$M$22</f>
@@ -5805,10 +5831,10 @@
     </row>
     <row r="138" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D138" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H138" s="27">
         <f>RSDAFA!L25*$M$22</f>
@@ -5825,10 +5851,10 @@
     </row>
     <row r="139" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D139" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H139" s="27">
         <f>RSDAFA!L26*$M$22</f>
@@ -5845,10 +5871,10 @@
     </row>
     <row r="140" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D140" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H140" s="27">
         <f>RSDAFA!L27*$M$22</f>
@@ -5865,10 +5891,10 @@
     </row>
     <row r="141" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D141" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H141" s="27">
         <f>RSDAFA!L28*$M$22</f>
@@ -5885,10 +5911,10 @@
     </row>
     <row r="142" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D142" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H142" s="27">
         <f>RSDAFA!L29*$M$22</f>
@@ -5905,10 +5931,10 @@
     </row>
     <row r="143" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D143" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H143" s="27">
         <f>RSDAFA!L30*$M$22</f>
@@ -5925,10 +5951,10 @@
     </row>
     <row r="144" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D144" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H144" s="27">
         <f>RSDAFA!L31*$M$22</f>
@@ -6058,7 +6084,7 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -6068,7 +6094,7 @@
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>9</v>
@@ -6080,7 +6106,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>3</v>
@@ -6093,22 +6119,22 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22">
         <v>1</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -6118,7 +6144,7 @@
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>9</v>
@@ -6130,7 +6156,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>3</v>
@@ -6146,20 +6172,20 @@
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22">
         <v>1</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6185,37 +6211,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>127</v>
-      </c>
-      <c r="J1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" t="s">
-        <v>129</v>
       </c>
       <c r="L1" t="s">
         <v>20</v>
@@ -6226,37 +6252,37 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
         <v>162</v>
       </c>
-      <c r="D2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>164</v>
-      </c>
       <c r="G2">
         <v>2018</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L2">
         <v>2.4813655183930802E-2</v>
@@ -6267,37 +6293,37 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
         <v>162</v>
       </c>
-      <c r="D3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" t="s">
-        <v>164</v>
-      </c>
       <c r="G3">
         <v>2018</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L3">
         <v>2.4813655183930802E-2</v>
@@ -6308,37 +6334,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G4">
         <v>2018</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L4">
         <v>2.4813655183930802E-2</v>
@@ -6349,37 +6375,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G5">
         <v>2018</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L5">
         <v>2.4813655183930802E-2</v>
@@ -6390,37 +6416,37 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>2018</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L6">
         <v>1.73685782056223E-2</v>
@@ -6431,37 +6457,37 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G7">
         <v>2018</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L7">
         <v>1.73685782056223E-2</v>
@@ -6472,37 +6498,37 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
         <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G8">
         <v>2018</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L8">
         <v>1.73685782056223E-2</v>
@@ -6513,37 +6539,37 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
         <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G9">
         <v>2018</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L9">
         <v>1.73685782056223E-2</v>
@@ -6554,37 +6580,37 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
         <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G10">
         <v>2018</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L10">
         <v>3.17870115673878E-2</v>
@@ -6595,37 +6621,37 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
         <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G11">
         <v>2018</v>
       </c>
       <c r="H11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L11">
         <v>3.17870115673878E-2</v>
@@ -6636,37 +6662,37 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
         <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G12">
         <v>2018</v>
       </c>
       <c r="H12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L12">
         <v>3.17870115673878E-2</v>
@@ -6677,37 +6703,37 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13">
         <v>2018</v>
       </c>
       <c r="H13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L13">
         <v>3.17870115673878E-2</v>
@@ -6718,37 +6744,37 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
         <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G14">
         <v>2018</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L14">
         <v>2.0960831834076401E-2</v>
@@ -6759,37 +6785,37 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G15">
         <v>2018</v>
       </c>
       <c r="H15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L15">
         <v>2.0960831834076401E-2</v>
@@ -6800,37 +6826,37 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G16">
         <v>2018</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L16">
         <v>9.4795012067416702E-3</v>
@@ -6841,37 +6867,37 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E17" t="s">
         <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G17">
         <v>2018</v>
       </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L17">
         <v>9.4795012067416702E-3</v>
@@ -6882,37 +6908,37 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
         <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G18">
         <v>2018</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L18">
         <v>9.4795012067416702E-3</v>
@@ -6923,37 +6949,37 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
         <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G19">
         <v>2018</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L19">
         <v>9.4795012067416702E-3</v>
@@ -6964,37 +6990,37 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
         <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G20">
         <v>2018</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L20">
         <v>9.4795012067416702E-3</v>
@@ -7005,37 +7031,37 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E21" t="s">
         <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G21">
         <v>2018</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L21">
         <v>9.4795012067416702E-3</v>
@@ -7046,37 +7072,37 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G22">
         <v>2018</v>
       </c>
       <c r="H22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L22">
         <v>9.4795012067416702E-3</v>
@@ -7087,37 +7113,37 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G23">
         <v>2018</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L23">
         <v>9.4795012067416702E-3</v>
@@ -7128,37 +7154,37 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
         <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G24">
         <v>2018</v>
       </c>
       <c r="H24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L24">
         <v>7.0869783672800502E-4</v>
@@ -7169,37 +7195,37 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
         <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G25">
         <v>2018</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L25">
         <v>7.0869783672800502E-4</v>
@@ -7210,37 +7236,37 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
         <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G26">
         <v>2018</v>
       </c>
       <c r="H26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L26">
         <v>7.0869783672800502E-4</v>
@@ -7251,37 +7277,37 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G27">
         <v>2018</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L27">
         <v>7.0869783672800502E-4</v>
@@ -7292,37 +7318,37 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
         <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G28">
         <v>2018</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L28">
         <v>2.39860043810185E-2</v>
@@ -7333,37 +7359,37 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E29" t="s">
         <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G29">
         <v>2018</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L29">
         <v>2.39860043810185E-2</v>
@@ -7374,37 +7400,37 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
         <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G30">
         <v>2018</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L30">
         <v>1.78079112619931E-2</v>
@@ -7415,37 +7441,37 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E31" t="s">
         <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G31">
         <v>2018</v>
       </c>
       <c r="H31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L31">
         <v>1.78079112619931E-2</v>
@@ -7456,37 +7482,37 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
         <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G32">
         <v>2018</v>
       </c>
       <c r="H32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L32">
         <v>1.37038901278922E-2</v>
@@ -7497,37 +7523,37 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s">
         <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G33">
         <v>2018</v>
       </c>
       <c r="H33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L33">
         <v>1.37038901278922E-2</v>
@@ -7538,37 +7564,37 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G34">
         <v>2018</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L34">
         <v>1.87904155250764E-2</v>
@@ -7579,37 +7605,37 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E35" t="s">
         <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G35">
         <v>2018</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L35">
         <v>1.87904155250764E-2</v>
@@ -7620,37 +7646,37 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>83</v>
       </c>
       <c r="F36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G36">
         <v>2018</v>
       </c>
       <c r="H36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L36">
         <v>1.87904155250764E-2</v>
@@ -7661,37 +7687,37 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E37" t="s">
         <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G37">
         <v>2018</v>
       </c>
       <c r="H37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L37">
         <v>1.87904155250764E-2</v>
@@ -7702,37 +7728,37 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G38">
         <v>2018</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L38">
         <v>1.5651300362142601E-2</v>
@@ -7743,37 +7769,37 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E39" t="s">
         <v>83</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G39">
         <v>2018</v>
       </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L39">
         <v>1.5651300362142601E-2</v>
@@ -7784,37 +7810,37 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
         <v>83</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G40">
         <v>2018</v>
       </c>
       <c r="H40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L40">
         <v>1.5651300362142601E-2</v>
@@ -7825,37 +7851,37 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E41" t="s">
         <v>83</v>
       </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G41">
         <v>2018</v>
       </c>
       <c r="H41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L41">
         <v>1.5651300362142601E-2</v>
@@ -7866,37 +7892,37 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G42">
         <v>2018</v>
       </c>
       <c r="H42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L42">
         <v>1.5651300362142601E-2</v>
@@ -7907,37 +7933,37 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E43" t="s">
         <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G43">
         <v>2018</v>
       </c>
       <c r="H43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L43">
         <v>1.5651300362142601E-2</v>
@@ -7948,37 +7974,37 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
         <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G44">
         <v>2018</v>
       </c>
       <c r="H44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L44">
         <v>1.5651300362142601E-2</v>
@@ -7989,37 +8015,37 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E45" t="s">
         <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G45">
         <v>2018</v>
       </c>
       <c r="H45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L45">
         <v>1.5651300362142601E-2</v>
@@ -8030,37 +8056,37 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G46">
         <v>2018</v>
       </c>
       <c r="H46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L46">
         <v>1.5651300362142601E-2</v>
@@ -8071,37 +8097,37 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
         <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G47">
         <v>2018</v>
       </c>
       <c r="H47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L47">
         <v>1.5651300362142601E-2</v>
@@ -8112,37 +8138,37 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G48">
         <v>2018</v>
       </c>
       <c r="H48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L48">
         <v>1.5651300362142601E-2</v>
@@ -8153,37 +8179,37 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E49" t="s">
         <v>83</v>
       </c>
       <c r="F49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G49">
         <v>2018</v>
       </c>
       <c r="H49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L49">
         <v>1.5651300362142601E-2</v>
@@ -8194,37 +8220,37 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
         <v>83</v>
       </c>
       <c r="F50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G50">
         <v>2018</v>
       </c>
       <c r="H50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L50">
         <v>7.5978921044014096E-3</v>
@@ -8235,37 +8261,37 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E51" t="s">
         <v>83</v>
       </c>
       <c r="F51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G51">
         <v>2018</v>
       </c>
       <c r="H51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L51">
         <v>7.5978921044014096E-3</v>
@@ -8276,37 +8302,37 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>83</v>
       </c>
       <c r="F52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G52">
         <v>2018</v>
       </c>
       <c r="H52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L52">
         <v>7.5978921044014096E-3</v>
@@ -8317,37 +8343,37 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
         <v>83</v>
       </c>
       <c r="F53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G53">
         <v>2018</v>
       </c>
       <c r="H53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L53">
         <v>7.5978921044014096E-3</v>
@@ -8358,37 +8384,37 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>83</v>
       </c>
       <c r="F54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G54">
         <v>2018</v>
       </c>
       <c r="H54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L54">
         <v>1.9679944818874001E-2</v>
@@ -8399,37 +8425,37 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E55" t="s">
         <v>83</v>
       </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G55">
         <v>2018</v>
       </c>
       <c r="H55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L55">
         <v>1.9679944818874001E-2</v>
@@ -8440,37 +8466,37 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
         <v>83</v>
       </c>
       <c r="F56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G56">
         <v>2018</v>
       </c>
       <c r="H56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L56">
         <v>1.9679944818874001E-2</v>
@@ -8481,37 +8507,37 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E57" t="s">
         <v>83</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G57">
         <v>2018</v>
       </c>
       <c r="H57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L57">
         <v>1.9679944818874001E-2</v>
@@ -8522,37 +8548,37 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>83</v>
       </c>
       <c r="F58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G58">
         <v>2018</v>
       </c>
       <c r="H58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L58">
         <v>1.9679944818874001E-2</v>
@@ -8563,37 +8589,37 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E59" t="s">
         <v>83</v>
       </c>
       <c r="F59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G59">
         <v>2018</v>
       </c>
       <c r="H59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L59">
         <v>1.9679944818874001E-2</v>
@@ -8604,37 +8630,37 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E60" t="s">
         <v>83</v>
       </c>
       <c r="F60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G60">
         <v>2018</v>
       </c>
       <c r="H60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L60">
         <v>2.3397171732945601E-2</v>
@@ -8645,37 +8671,37 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E61" t="s">
         <v>83</v>
       </c>
       <c r="F61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G61">
         <v>2018</v>
       </c>
       <c r="H61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L61">
         <v>2.3397171732945601E-2</v>
@@ -8686,37 +8712,37 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
         <v>83</v>
       </c>
       <c r="F62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G62">
         <v>2018</v>
       </c>
       <c r="H62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L62">
         <v>4.29559017447428E-2</v>
@@ -8727,37 +8753,37 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E63" t="s">
         <v>83</v>
       </c>
       <c r="F63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G63">
         <v>2018</v>
       </c>
       <c r="H63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L63">
         <v>4.29559017447428E-2</v>
@@ -8768,37 +8794,37 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
         <v>83</v>
       </c>
       <c r="F64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G64">
         <v>2018</v>
       </c>
       <c r="H64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L64">
         <v>2.7471447517498498E-2</v>
@@ -8809,37 +8835,37 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E65" t="s">
         <v>83</v>
       </c>
       <c r="F65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G65">
         <v>2018</v>
       </c>
       <c r="H65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L65">
         <v>2.7471447517498498E-2</v>
@@ -8850,37 +8876,37 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E66" t="s">
         <v>83</v>
       </c>
       <c r="F66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G66">
         <v>2018</v>
       </c>
       <c r="H66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L66">
         <v>2.7471447517498498E-2</v>
@@ -8891,37 +8917,37 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E67" t="s">
         <v>83</v>
       </c>
       <c r="F67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G67">
         <v>2018</v>
       </c>
       <c r="H67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L67">
         <v>2.7471447517498498E-2</v>
@@ -8932,37 +8958,37 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E68" t="s">
         <v>83</v>
       </c>
       <c r="F68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G68">
         <v>2018</v>
       </c>
       <c r="H68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L68">
         <v>2.4447220258868901E-2</v>
@@ -8973,37 +8999,37 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E69" t="s">
         <v>83</v>
       </c>
       <c r="F69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G69">
         <v>2018</v>
       </c>
       <c r="H69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L69">
         <v>2.4447220258868901E-2</v>
@@ -9014,37 +9040,37 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E70" t="s">
         <v>83</v>
       </c>
       <c r="F70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G70">
         <v>2018</v>
       </c>
       <c r="H70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L70">
         <v>2.4447220258868901E-2</v>
@@ -9055,37 +9081,37 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D71" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E71" t="s">
         <v>83</v>
       </c>
       <c r="F71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G71">
         <v>2018</v>
       </c>
       <c r="H71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L71">
         <v>2.4447220258868901E-2</v>
@@ -9096,37 +9122,37 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E72" t="s">
         <v>83</v>
       </c>
       <c r="F72" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G72">
         <v>2018</v>
       </c>
       <c r="H72" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L72">
         <v>2.4447220258868901E-2</v>
@@ -9137,37 +9163,37 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C73" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D73" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E73" t="s">
         <v>83</v>
       </c>
       <c r="F73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G73">
         <v>2018</v>
       </c>
       <c r="H73" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L73">
         <v>2.4447220258868901E-2</v>
@@ -9178,37 +9204,37 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E74" t="s">
         <v>83</v>
       </c>
       <c r="F74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G74">
         <v>2018</v>
       </c>
       <c r="H74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L74">
         <v>2.4447220258868901E-2</v>
@@ -9219,37 +9245,37 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E75" t="s">
         <v>83</v>
       </c>
       <c r="F75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G75">
         <v>2018</v>
       </c>
       <c r="H75" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L75">
         <v>2.4447220258868901E-2</v>
@@ -9260,37 +9286,37 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E76" t="s">
         <v>83</v>
       </c>
       <c r="F76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G76">
         <v>2018</v>
       </c>
       <c r="H76" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L76">
         <v>2.4447220258868901E-2</v>
@@ -9301,37 +9327,37 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D77" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E77" t="s">
         <v>83</v>
       </c>
       <c r="F77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G77">
         <v>2018</v>
       </c>
       <c r="H77" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L77">
         <v>2.4447220258868901E-2</v>
@@ -9342,37 +9368,37 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C78" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>83</v>
       </c>
       <c r="F78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G78">
         <v>2018</v>
       </c>
       <c r="H78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L78">
         <v>2.4447220258868901E-2</v>
@@ -9383,37 +9409,37 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D79" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E79" t="s">
         <v>83</v>
       </c>
       <c r="F79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G79">
         <v>2018</v>
       </c>
       <c r="H79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I79" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J79" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K79" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L79">
         <v>2.4447220258868901E-2</v>
@@ -9424,37 +9450,37 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>83</v>
       </c>
       <c r="F80" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G80">
         <v>2018</v>
       </c>
       <c r="H80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I80" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J80" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K80" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L80">
         <v>9.5642043609248301E-2</v>
@@ -9465,37 +9491,37 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E81" t="s">
         <v>83</v>
       </c>
       <c r="F81" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G81">
         <v>2018</v>
       </c>
       <c r="H81" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J81" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K81" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L81">
         <v>9.5642043609248301E-2</v>
@@ -9506,37 +9532,37 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>83</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82">
         <v>2018</v>
       </c>
       <c r="H82" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J82" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K82" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L82">
         <v>9.5642043609248301E-2</v>
@@ -9547,37 +9573,37 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E83" t="s">
         <v>83</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83">
         <v>2018</v>
       </c>
       <c r="H83" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L83">
         <v>9.5642043609248301E-2</v>
@@ -9588,37 +9614,37 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C84" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84">
         <v>2018</v>
       </c>
       <c r="H84" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L84">
         <v>3.0079476421251201E-2</v>
@@ -9629,37 +9655,37 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D85" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E85" t="s">
         <v>83</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85">
         <v>2018</v>
       </c>
       <c r="H85" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L85">
         <v>3.0079476421251201E-2</v>
@@ -9670,37 +9696,37 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>83</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G86">
         <v>2018</v>
       </c>
       <c r="H86" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L86">
         <v>3.0079476421251201E-2</v>
@@ -9711,37 +9737,37 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E87" t="s">
         <v>83</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G87">
         <v>2018</v>
       </c>
       <c r="H87" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L87">
         <v>3.0079476421251201E-2</v>
@@ -9752,37 +9778,37 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>83</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G88">
         <v>2018</v>
       </c>
       <c r="H88" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I88" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J88" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K88" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L88">
         <v>3.0079476421251201E-2</v>
@@ -9793,37 +9819,37 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D89" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E89" t="s">
         <v>83</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G89">
         <v>2018</v>
       </c>
       <c r="H89" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I89" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J89" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K89" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L89">
         <v>3.0079476421251201E-2</v>
@@ -9834,37 +9860,37 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>83</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G90">
         <v>2018</v>
       </c>
       <c r="H90" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I90" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J90" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K90" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L90">
         <v>4.21939695625516E-2</v>
@@ -9875,37 +9901,37 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D91" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E91" t="s">
         <v>83</v>
       </c>
       <c r="F91" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G91">
         <v>2018</v>
       </c>
       <c r="H91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I91" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J91" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K91" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L91">
         <v>4.21939695625516E-2</v>
@@ -9916,37 +9942,37 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>83</v>
       </c>
       <c r="F92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G92">
         <v>2018</v>
       </c>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L92">
         <v>5.2867897077308497E-2</v>
@@ -9957,37 +9983,37 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D93" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E93" t="s">
         <v>83</v>
       </c>
       <c r="F93" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G93">
         <v>2018</v>
       </c>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L93">
         <v>5.2867897077308497E-2</v>
@@ -10017,37 +10043,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>127</v>
-      </c>
-      <c r="J1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" t="s">
-        <v>129</v>
       </c>
       <c r="L1" t="s">
         <v>20</v>
@@ -10058,37 +10084,37 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G2">
         <v>2018</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L2">
         <v>1.91859640129881E-2</v>
@@ -10099,37 +10125,37 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G3">
         <v>2018</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L3">
         <v>1.91859640129881E-2</v>
@@ -10140,37 +10166,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G4">
         <v>2018</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L4">
         <v>1.91859640129881E-2</v>
@@ -10181,37 +10207,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G5">
         <v>2018</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L5">
         <v>1.91859640129881E-2</v>
@@ -10222,37 +10248,37 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G6">
         <v>2018</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L6">
         <v>1.18590868367296E-2</v>
@@ -10263,37 +10289,37 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G7">
         <v>2018</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L7">
         <v>3.7359826231663999E-2</v>
@@ -10304,37 +10330,37 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
         <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G8">
         <v>2018</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L8">
         <v>2.3078593190679501E-2</v>
@@ -10345,37 +10371,37 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
         <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G9">
         <v>2018</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L9">
         <v>1.7647904805808901E-2</v>
@@ -10386,37 +10412,37 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
         <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G10">
         <v>2018</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L10">
         <v>2.4653262579847901E-2</v>
@@ -10427,37 +10453,37 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
         <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G11">
         <v>2018</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L11">
         <v>2.4653262579847901E-2</v>
@@ -10468,37 +10494,37 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
         <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G12">
         <v>2018</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L12">
         <v>2.4653262579847901E-2</v>
@@ -10509,37 +10535,37 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G13">
         <v>2018</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L13">
         <v>2.4653262579847901E-2</v>
@@ -10550,37 +10576,37 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
         <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G14">
         <v>2018</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L14">
         <v>2.2095891324020799E-2</v>
@@ -10591,37 +10617,37 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G15">
         <v>2018</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L15">
         <v>2.8368761423682901E-2</v>
@@ -10632,37 +10658,37 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G16">
         <v>2018</v>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L16">
         <v>3.0936872888717201E-2</v>
@@ -10673,37 +10699,37 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
         <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G17">
         <v>2018</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L17">
         <v>7.5066866433008306E-2</v>
@@ -10714,37 +10740,37 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
         <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G18">
         <v>2018</v>
       </c>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L18">
         <v>4.1614408271926799E-2</v>
@@ -10755,37 +10781,37 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
         <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G19">
         <v>2018</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L19">
         <v>4.1614408271926799E-2</v>
@@ -10796,37 +10822,37 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
         <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G20">
         <v>2018</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L20">
         <v>4.1614408271926799E-2</v>
@@ -10837,37 +10863,37 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
         <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G21">
         <v>2018</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L21">
         <v>4.1614408271926799E-2</v>
@@ -10878,37 +10904,37 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G22">
         <v>2018</v>
       </c>
       <c r="H22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L22">
         <v>3.7040631160092499E-2</v>
@@ -10919,37 +10945,37 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G23">
         <v>2018</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L23">
         <v>4.6621727976421598E-2</v>
@@ -10960,37 +10986,37 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
         <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G24">
         <v>2018</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L24">
         <v>6.7033675870053502E-2</v>
@@ -11001,37 +11027,37 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
         <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G25">
         <v>2018</v>
       </c>
       <c r="H25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L25">
         <v>9.1153830584100495E-2</v>
@@ -11042,37 +11068,37 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
         <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G26">
         <v>2018</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L26">
         <v>2.2735699655164601E-2</v>
@@ -11083,37 +11109,37 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G27">
         <v>2018</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L27">
         <v>8.6298729994523198E-3</v>
@@ -11124,37 +11150,37 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
         <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G28">
         <v>2018</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L28">
         <v>1.29275684703049E-2</v>
@@ -11165,37 +11191,37 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
         <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G29">
         <v>2018</v>
       </c>
       <c r="H29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L29">
         <v>3.4409606285151599E-2</v>
@@ -11206,37 +11232,37 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
         <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G30">
         <v>2018</v>
       </c>
       <c r="H30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L30">
         <v>1.33284867630703E-2</v>
@@ -11247,37 +11273,37 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
         <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G31">
         <v>2018</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L31">
         <v>0.113051511576835</v>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91078561-F65F-4FC2-B501-96989D952F63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3367D6-AE6D-4493-B2EA-4B711DD65E2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="236">
   <si>
     <t>UC_N</t>
   </si>
@@ -456,12 +456,18 @@
     <t>NCAP_BND</t>
   </si>
   <si>
+    <t>CAP_BND</t>
+  </si>
+  <si>
     <t>* Unit</t>
   </si>
   <si>
     <t>GW</t>
   </si>
   <si>
+    <t>COMPVELC_01</t>
+  </si>
+  <si>
     <t>P*WAV*</t>
   </si>
   <si>
@@ -840,6 +846,9 @@
     <t>COM_BNDPRD</t>
   </si>
   <si>
+    <t>COMOIL</t>
+  </si>
+  <si>
     <t>UC_ATTR</t>
   </si>
   <si>
@@ -858,40 +867,28 @@
     <t>Public sector - maximum growth rate of HPs</t>
   </si>
   <si>
+    <t>UC-SRV-PS_MaxGrowthHPs</t>
+  </si>
+  <si>
+    <t>C*PS*HP</t>
+  </si>
+  <si>
     <t>Commercial sector - maximum growth rate of HPs</t>
   </si>
   <si>
     <t>UC-SRV-CS_MaxGrowthHPs</t>
   </si>
   <si>
+    <t>C*CS*HP</t>
+  </si>
+  <si>
     <t>Services - maximum growth rate of biomass</t>
   </si>
   <si>
     <t>UC-SRV-MaxGrowthBio</t>
   </si>
   <si>
-    <t>UC-SRV-PU_MaxGrowthHPs</t>
-  </si>
-  <si>
-    <t>S-SH*CS*N*, -*N1</t>
-  </si>
-  <si>
-    <t>S-SH*PU*N*, -*N1</t>
-  </si>
-  <si>
-    <t>S-*BIO*</t>
-  </si>
-  <si>
-    <t>SRVOIL</t>
-  </si>
-  <si>
-    <t>SRVPVELC_01</t>
-  </si>
-  <si>
-    <t>*CAP_BND</t>
-  </si>
-  <si>
-    <t>XXTFM_UPD</t>
+    <t>C*SBIO*</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1167,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1227,8 +1224,6 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2407,13 +2402,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A155980F-6689-4ADE-B1F2-DEFB665B2049}">
   <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -2467,7 +2461,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2475,63 +2469,55 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="35">
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5">
         <v>2020</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35">
+      <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5">
         <f>H5</f>
         <v>0.1</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35" t="s">
-        <v>234</v>
+      <c r="K5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="35">
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6">
         <f>H6</f>
         <v>5</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35" t="s">
-        <v>234</v>
+      <c r="K6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2539,7 +2525,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E7">
         <v>2020</v>
@@ -2551,7 +2537,7 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2559,7 +2545,7 @@
         <v>83</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2571,12 +2557,12 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
-        <v>236</v>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9"/>
@@ -2618,7 +2604,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -2631,43 +2617,31 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35">
+      <c r="D18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18">
         <v>2200</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18">
         <v>2200</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35" t="s">
-        <v>216</v>
+      <c r="K18" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35">
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19">
         <v>2200</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19">
         <v>2200</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35" t="s">
-        <v>217</v>
+      <c r="K19" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -2727,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>4</v>
@@ -2748,16 +2722,16 @@
         <v>9</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N28" s="31" t="s">
         <v>11</v>
@@ -2765,22 +2739,22 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H29" s="30">
         <v>2018</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J29" s="30">
         <v>1.1000000000000001</v>
@@ -2795,27 +2769,27 @@
         <v>5</v>
       </c>
       <c r="N29" s="30" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>223</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H30" s="30">
         <v>2018</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J30" s="30">
         <v>1.1000000000000001</v>
@@ -2830,27 +2804,27 @@
         <v>5</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H31" s="30">
         <v>2018</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J31" s="30">
         <v>1.1000000000000001</v>
@@ -2865,7 +2839,7 @@
         <v>5</v>
       </c>
       <c r="N31" s="30" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3006,7 +2980,7 @@
         <v>2200</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -3021,12 +2995,12 @@
         <v>2030</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3036,7 +3010,7 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3314,7 +3288,7 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>17</v>
@@ -3325,10 +3299,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <v>2019</v>
@@ -3343,15 +3317,15 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>2019</v>
@@ -3373,10 +3347,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H9">
         <v>2019</v>
@@ -3391,15 +3365,15 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H10">
         <v>2019</v>
@@ -3418,10 +3392,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H12">
         <v>2019</v>
@@ -3436,15 +3410,15 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H13">
         <v>2019</v>
@@ -3508,10 +3482,10 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -3520,10 +3494,10 @@
         <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M22" s="26">
         <v>0.1</v>
@@ -3531,10 +3505,10 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H23" s="27">
         <f>RSDAFC!L2*$M$22</f>
@@ -3551,10 +3525,10 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H24" s="27">
         <f>RSDAFC!L3*$M$22</f>
@@ -3571,10 +3545,10 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H25" s="27">
         <f>RSDAFC!L4*$M$22</f>
@@ -3591,10 +3565,10 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H26" s="27">
         <f>RSDAFC!L5*$M$22</f>
@@ -3611,10 +3585,10 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H27" s="27">
         <f>RSDAFC!L6*$M$22</f>
@@ -3631,10 +3605,10 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H28" s="27">
         <f>RSDAFC!L7*$M$22</f>
@@ -3651,10 +3625,10 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H29" s="27">
         <f>RSDAFC!L8*$M$22</f>
@@ -3671,10 +3645,10 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H30" s="27">
         <f>RSDAFC!L9*$M$22</f>
@@ -3691,10 +3665,10 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H31" s="27">
         <f>RSDAFC!L10*$M$22</f>
@@ -3711,10 +3685,10 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H32" s="27">
         <f>RSDAFC!L11*$M$22</f>
@@ -3731,10 +3705,10 @@
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H33" s="27">
         <f>RSDAFC!L12*$M$22</f>
@@ -3751,10 +3725,10 @@
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H34" s="27">
         <f>RSDAFC!L13*$M$22</f>
@@ -3771,10 +3745,10 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H35" s="27">
         <f>RSDAFC!L14*$M$22</f>
@@ -3791,10 +3765,10 @@
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H36" s="27">
         <f>RSDAFC!L15*$M$22</f>
@@ -3811,10 +3785,10 @@
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H37" s="27">
         <f>RSDAFC!L16*$M$22</f>
@@ -3831,10 +3805,10 @@
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H38" s="27">
         <f>RSDAFC!L17*$M$22</f>
@@ -3851,10 +3825,10 @@
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H39" s="27">
         <f>RSDAFC!L18*$M$22</f>
@@ -3871,10 +3845,10 @@
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H40" s="27">
         <f>RSDAFC!L19*$M$22</f>
@@ -3891,10 +3865,10 @@
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H41" s="27">
         <f>RSDAFC!L20*$M$22</f>
@@ -3911,10 +3885,10 @@
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H42" s="27">
         <f>RSDAFC!L21*$M$22</f>
@@ -3931,10 +3905,10 @@
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H43" s="27">
         <f>RSDAFC!L22*$M$22</f>
@@ -3951,10 +3925,10 @@
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H44" s="27">
         <f>RSDAFC!L23*$M$22</f>
@@ -3971,10 +3945,10 @@
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H45" s="27">
         <f>RSDAFC!L24*$M$22</f>
@@ -3991,10 +3965,10 @@
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H46" s="27">
         <f>RSDAFC!L25*$M$22</f>
@@ -4011,10 +3985,10 @@
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H47" s="27">
         <f>RSDAFC!L26*$M$22</f>
@@ -4031,10 +4005,10 @@
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H48" s="27">
         <f>RSDAFC!L27*$M$22</f>
@@ -4051,10 +4025,10 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H49" s="27">
         <f>RSDAFC!L28*$M$22</f>
@@ -4071,10 +4045,10 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H50" s="27">
         <f>RSDAFC!L29*$M$22</f>
@@ -4091,10 +4065,10 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H51" s="27">
         <f>RSDAFC!L30*$M$22</f>
@@ -4111,10 +4085,10 @@
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H52" s="27">
         <f>RSDAFC!L31*$M$22</f>
@@ -4131,10 +4105,10 @@
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H53" s="27">
         <f>RSDAFC!L32*$M$22</f>
@@ -4151,10 +4125,10 @@
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H54" s="27">
         <f>RSDAFC!L33*$M$22</f>
@@ -4171,10 +4145,10 @@
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H55" s="27">
         <f>RSDAFC!L34*$M$22</f>
@@ -4191,10 +4165,10 @@
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H56" s="27">
         <f>RSDAFC!L35*$M$22</f>
@@ -4211,10 +4185,10 @@
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H57" s="27">
         <f>RSDAFC!L36*$M$22</f>
@@ -4231,10 +4205,10 @@
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H58" s="27">
         <f>RSDAFC!L37*$M$22</f>
@@ -4251,10 +4225,10 @@
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H59" s="27">
         <f>RSDAFC!L38*$M$22</f>
@@ -4271,10 +4245,10 @@
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H60" s="27">
         <f>RSDAFC!L39*$M$22</f>
@@ -4291,10 +4265,10 @@
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H61" s="27">
         <f>RSDAFC!L40*$M$22</f>
@@ -4311,10 +4285,10 @@
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H62" s="27">
         <f>RSDAFC!L41*$M$22</f>
@@ -4331,10 +4305,10 @@
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H63" s="27">
         <f>RSDAFC!L42*$M$22</f>
@@ -4351,10 +4325,10 @@
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H64" s="27">
         <f>RSDAFC!L43*$M$22</f>
@@ -4371,10 +4345,10 @@
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H65" s="27">
         <f>RSDAFC!L44*$M$22</f>
@@ -4391,10 +4365,10 @@
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H66" s="27">
         <f>RSDAFC!L45*$M$22</f>
@@ -4411,10 +4385,10 @@
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H67" s="27">
         <f>RSDAFC!L46*$M$22</f>
@@ -4431,10 +4405,10 @@
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H68" s="27">
         <f>RSDAFC!L47*$M$22</f>
@@ -4451,10 +4425,10 @@
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H69" s="27">
         <f>RSDAFC!L48*$M$22</f>
@@ -4471,10 +4445,10 @@
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D70" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H70" s="27">
         <f>RSDAFC!L49*$M$22</f>
@@ -4491,10 +4465,10 @@
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H71" s="27">
         <f>RSDAFC!L50*$M$22</f>
@@ -4511,10 +4485,10 @@
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H72" s="27">
         <f>RSDAFC!L51*$M$22</f>
@@ -4531,10 +4505,10 @@
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H73" s="27">
         <f>RSDAFC!L52*$M$22</f>
@@ -4551,10 +4525,10 @@
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H74" s="27">
         <f>RSDAFC!L53*$M$22</f>
@@ -4571,10 +4545,10 @@
     </row>
     <row r="75" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H75" s="27">
         <f>RSDAFC!L54*$M$22</f>
@@ -4591,10 +4565,10 @@
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H76" s="27">
         <f>RSDAFC!L55*$M$22</f>
@@ -4611,10 +4585,10 @@
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H77" s="27">
         <f>RSDAFC!L56*$M$22</f>
@@ -4631,10 +4605,10 @@
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H78" s="27">
         <f>RSDAFC!L57*$M$22</f>
@@ -4651,10 +4625,10 @@
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H79" s="27">
         <f>RSDAFC!L58*$M$22</f>
@@ -4671,10 +4645,10 @@
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D80" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H80" s="27">
         <f>RSDAFC!L59*$M$22</f>
@@ -4691,10 +4665,10 @@
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H81" s="27">
         <f>RSDAFC!L60*$M$22</f>
@@ -4711,10 +4685,10 @@
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D82" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H82" s="27">
         <f>RSDAFC!L61*$M$22</f>
@@ -4731,10 +4705,10 @@
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H83" s="27">
         <f>RSDAFC!L62*$M$22</f>
@@ -4751,10 +4725,10 @@
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D84" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H84" s="27">
         <f>RSDAFC!L63*$M$22</f>
@@ -4771,10 +4745,10 @@
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D85" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H85" s="27">
         <f>RSDAFC!L64*$M$22</f>
@@ -4791,10 +4765,10 @@
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D86" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H86" s="27">
         <f>RSDAFC!L65*$M$22</f>
@@ -4811,10 +4785,10 @@
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H87" s="27">
         <f>RSDAFC!L66*$M$22</f>
@@ -4831,10 +4805,10 @@
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D88" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H88" s="27">
         <f>RSDAFC!L67*$M$22</f>
@@ -4851,10 +4825,10 @@
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D89" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H89" s="27">
         <f>RSDAFC!L68*$M$22</f>
@@ -4871,10 +4845,10 @@
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D90" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H90" s="27">
         <f>RSDAFC!L69*$M$22</f>
@@ -4891,10 +4865,10 @@
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H91" s="27">
         <f>RSDAFC!L70*$M$22</f>
@@ -4911,10 +4885,10 @@
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H92" s="27">
         <f>RSDAFC!L71*$M$22</f>
@@ -4931,10 +4905,10 @@
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H93" s="27">
         <f>RSDAFC!L72*$M$22</f>
@@ -4951,10 +4925,10 @@
     </row>
     <row r="94" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D94" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H94" s="27">
         <f>RSDAFC!L73*$M$22</f>
@@ -4971,10 +4945,10 @@
     </row>
     <row r="95" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D95" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H95" s="27">
         <f>RSDAFC!L74*$M$22</f>
@@ -4991,10 +4965,10 @@
     </row>
     <row r="96" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D96" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H96" s="27">
         <f>RSDAFC!L75*$M$22</f>
@@ -5011,10 +4985,10 @@
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D97" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H97" s="27">
         <f>RSDAFC!L76*$M$22</f>
@@ -5031,10 +5005,10 @@
     </row>
     <row r="98" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D98" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H98" s="27">
         <f>RSDAFC!L77*$M$22</f>
@@ -5051,10 +5025,10 @@
     </row>
     <row r="99" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D99" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H99" s="27">
         <f>RSDAFC!L78*$M$22</f>
@@ -5071,10 +5045,10 @@
     </row>
     <row r="100" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D100" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H100" s="27">
         <f>RSDAFC!L79*$M$22</f>
@@ -5091,10 +5065,10 @@
     </row>
     <row r="101" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D101" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H101" s="27">
         <f>RSDAFC!L80*$M$22</f>
@@ -5111,10 +5085,10 @@
     </row>
     <row r="102" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D102" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H102" s="27">
         <f>RSDAFC!L81*$M$22</f>
@@ -5131,10 +5105,10 @@
     </row>
     <row r="103" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D103" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H103" s="27">
         <f>RSDAFC!L82*$M$22</f>
@@ -5151,10 +5125,10 @@
     </row>
     <row r="104" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D104" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H104" s="27">
         <f>RSDAFC!L83*$M$22</f>
@@ -5171,10 +5145,10 @@
     </row>
     <row r="105" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D105" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H105" s="27">
         <f>RSDAFC!L84*$M$22</f>
@@ -5191,10 +5165,10 @@
     </row>
     <row r="106" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D106" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H106" s="27">
         <f>RSDAFC!L85*$M$22</f>
@@ -5211,10 +5185,10 @@
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H107" s="27">
         <f>RSDAFC!L86*$M$22</f>
@@ -5231,10 +5205,10 @@
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D108" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H108" s="27">
         <f>RSDAFC!L87*$M$22</f>
@@ -5251,10 +5225,10 @@
     </row>
     <row r="109" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D109" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H109" s="27">
         <f>RSDAFC!L88*$M$22</f>
@@ -5271,10 +5245,10 @@
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D110" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H110" s="27">
         <f>RSDAFC!L89*$M$22</f>
@@ -5291,10 +5265,10 @@
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D111" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H111" s="27">
         <f>RSDAFC!L90*$M$22</f>
@@ -5311,10 +5285,10 @@
     </row>
     <row r="112" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D112" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H112" s="27">
         <f>RSDAFC!L91*$M$22</f>
@@ -5331,10 +5305,10 @@
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D113" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H113" s="27">
         <f>RSDAFC!L92*$M$22</f>
@@ -5351,10 +5325,10 @@
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D114" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H114" s="27">
         <f>RSDAFC!L93*$M$22</f>
@@ -5371,10 +5345,10 @@
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D115" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H115" s="27">
         <f>RSDAFA!L2*$M$22</f>
@@ -5391,10 +5365,10 @@
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D116" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H116" s="27">
         <f>RSDAFA!L3*$M$22</f>
@@ -5411,10 +5385,10 @@
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D117" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H117" s="27">
         <f>RSDAFA!L4*$M$22</f>
@@ -5431,10 +5405,10 @@
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D118" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H118" s="27">
         <f>RSDAFA!L5*$M$22</f>
@@ -5451,10 +5425,10 @@
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D119" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H119" s="27">
         <f>RSDAFA!L6*$M$22</f>
@@ -5471,10 +5445,10 @@
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D120" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H120" s="27">
         <f>RSDAFA!L7*$M$22</f>
@@ -5491,10 +5465,10 @@
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D121" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H121" s="27">
         <f>RSDAFA!L8*$M$22</f>
@@ -5511,10 +5485,10 @@
     </row>
     <row r="122" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D122" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H122" s="27">
         <f>RSDAFA!L9*$M$22</f>
@@ -5531,10 +5505,10 @@
     </row>
     <row r="123" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D123" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H123" s="27">
         <f>RSDAFA!L10*$M$22</f>
@@ -5551,10 +5525,10 @@
     </row>
     <row r="124" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D124" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H124" s="27">
         <f>RSDAFA!L11*$M$22</f>
@@ -5571,10 +5545,10 @@
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D125" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H125" s="27">
         <f>RSDAFA!L12*$M$22</f>
@@ -5591,10 +5565,10 @@
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D126" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H126" s="27">
         <f>RSDAFA!L13*$M$22</f>
@@ -5611,10 +5585,10 @@
     </row>
     <row r="127" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D127" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H127" s="27">
         <f>RSDAFA!L14*$M$22</f>
@@ -5631,10 +5605,10 @@
     </row>
     <row r="128" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D128" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H128" s="27">
         <f>RSDAFA!L15*$M$22</f>
@@ -5651,10 +5625,10 @@
     </row>
     <row r="129" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D129" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H129" s="27">
         <f>RSDAFA!L16*$M$22</f>
@@ -5671,10 +5645,10 @@
     </row>
     <row r="130" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D130" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H130" s="27">
         <f>RSDAFA!L17*$M$22</f>
@@ -5691,10 +5665,10 @@
     </row>
     <row r="131" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D131" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H131" s="27">
         <f>RSDAFA!L18*$M$22</f>
@@ -5711,10 +5685,10 @@
     </row>
     <row r="132" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D132" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H132" s="27">
         <f>RSDAFA!L19*$M$22</f>
@@ -5731,10 +5705,10 @@
     </row>
     <row r="133" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D133" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H133" s="27">
         <f>RSDAFA!L20*$M$22</f>
@@ -5751,10 +5725,10 @@
     </row>
     <row r="134" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D134" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H134" s="27">
         <f>RSDAFA!L21*$M$22</f>
@@ -5771,10 +5745,10 @@
     </row>
     <row r="135" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D135" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H135" s="27">
         <f>RSDAFA!L22*$M$22</f>
@@ -5791,10 +5765,10 @@
     </row>
     <row r="136" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D136" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H136" s="27">
         <f>RSDAFA!L23*$M$22</f>
@@ -5811,10 +5785,10 @@
     </row>
     <row r="137" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D137" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H137" s="27">
         <f>RSDAFA!L24*$M$22</f>
@@ -5831,10 +5805,10 @@
     </row>
     <row r="138" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D138" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H138" s="27">
         <f>RSDAFA!L25*$M$22</f>
@@ -5851,10 +5825,10 @@
     </row>
     <row r="139" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D139" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H139" s="27">
         <f>RSDAFA!L26*$M$22</f>
@@ -5871,10 +5845,10 @@
     </row>
     <row r="140" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D140" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H140" s="27">
         <f>RSDAFA!L27*$M$22</f>
@@ -5891,10 +5865,10 @@
     </row>
     <row r="141" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D141" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H141" s="27">
         <f>RSDAFA!L28*$M$22</f>
@@ -5911,10 +5885,10 @@
     </row>
     <row r="142" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D142" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H142" s="27">
         <f>RSDAFA!L29*$M$22</f>
@@ -5931,10 +5905,10 @@
     </row>
     <row r="143" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D143" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H143" s="27">
         <f>RSDAFA!L30*$M$22</f>
@@ -5951,10 +5925,10 @@
     </row>
     <row r="144" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D144" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H144" s="27">
         <f>RSDAFA!L31*$M$22</f>
@@ -6084,7 +6058,7 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -6094,7 +6068,7 @@
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>9</v>
@@ -6106,7 +6080,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>3</v>
@@ -6119,22 +6093,22 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22">
         <v>1</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -6144,7 +6118,7 @@
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>9</v>
@@ -6156,7 +6130,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>3</v>
@@ -6172,20 +6146,20 @@
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22">
         <v>1</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6211,37 +6185,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L1" t="s">
         <v>20</v>
@@ -6252,37 +6226,37 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G2">
         <v>2018</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L2">
         <v>2.4813655183930802E-2</v>
@@ -6293,37 +6267,37 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G3">
         <v>2018</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L3">
         <v>2.4813655183930802E-2</v>
@@ -6334,37 +6308,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
         <v>163</v>
       </c>
-      <c r="D4" t="s">
-        <v>161</v>
-      </c>
       <c r="E4" t="s">
         <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G4">
         <v>2018</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L4">
         <v>2.4813655183930802E-2</v>
@@ -6375,37 +6349,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G5">
         <v>2018</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L5">
         <v>2.4813655183930802E-2</v>
@@ -6416,37 +6390,37 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
         <v>164</v>
       </c>
-      <c r="D6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" t="s">
-        <v>162</v>
-      </c>
       <c r="G6">
         <v>2018</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L6">
         <v>1.73685782056223E-2</v>
@@ -6457,37 +6431,37 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
         <v>164</v>
       </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>162</v>
-      </c>
       <c r="G7">
         <v>2018</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L7">
         <v>1.73685782056223E-2</v>
@@ -6498,37 +6472,37 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
         <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G8">
         <v>2018</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L8">
         <v>1.73685782056223E-2</v>
@@ -6539,37 +6513,37 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
         <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G9">
         <v>2018</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9">
         <v>1.73685782056223E-2</v>
@@ -6580,37 +6554,37 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
         <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10">
         <v>2018</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L10">
         <v>3.17870115673878E-2</v>
@@ -6621,37 +6595,37 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
         <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G11">
         <v>2018</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L11">
         <v>3.17870115673878E-2</v>
@@ -6662,37 +6636,37 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
         <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G12">
         <v>2018</v>
       </c>
       <c r="H12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L12">
         <v>3.17870115673878E-2</v>
@@ -6703,37 +6677,37 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G13">
         <v>2018</v>
       </c>
       <c r="H13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L13">
         <v>3.17870115673878E-2</v>
@@ -6744,37 +6718,37 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
         <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G14">
         <v>2018</v>
       </c>
       <c r="H14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L14">
         <v>2.0960831834076401E-2</v>
@@ -6785,37 +6759,37 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G15">
         <v>2018</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L15">
         <v>2.0960831834076401E-2</v>
@@ -6826,37 +6800,37 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G16">
         <v>2018</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L16">
         <v>9.4795012067416702E-3</v>
@@ -6867,37 +6841,37 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
         <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G17">
         <v>2018</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L17">
         <v>9.4795012067416702E-3</v>
@@ -6908,37 +6882,37 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G18">
         <v>2018</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L18">
         <v>9.4795012067416702E-3</v>
@@ -6949,37 +6923,37 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s">
         <v>173</v>
       </c>
-      <c r="D19" t="s">
-        <v>171</v>
-      </c>
       <c r="E19" t="s">
         <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G19">
         <v>2018</v>
       </c>
       <c r="H19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L19">
         <v>9.4795012067416702E-3</v>
@@ -6990,37 +6964,37 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
         <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G20">
         <v>2018</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L20">
         <v>9.4795012067416702E-3</v>
@@ -7031,37 +7005,37 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E21" t="s">
         <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G21">
         <v>2018</v>
       </c>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L21">
         <v>9.4795012067416702E-3</v>
@@ -7072,37 +7046,37 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G22">
         <v>2018</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L22">
         <v>9.4795012067416702E-3</v>
@@ -7113,37 +7087,37 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G23">
         <v>2018</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L23">
         <v>9.4795012067416702E-3</v>
@@ -7154,37 +7128,37 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
         <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G24">
         <v>2018</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L24">
         <v>7.0869783672800502E-4</v>
@@ -7195,37 +7169,37 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E25" t="s">
         <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G25">
         <v>2018</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L25">
         <v>7.0869783672800502E-4</v>
@@ -7236,37 +7210,37 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
         <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G26">
         <v>2018</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L26">
         <v>7.0869783672800502E-4</v>
@@ -7277,37 +7251,37 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G27">
         <v>2018</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L27">
         <v>7.0869783672800502E-4</v>
@@ -7318,37 +7292,37 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
         <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G28">
         <v>2018</v>
       </c>
       <c r="H28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L28">
         <v>2.39860043810185E-2</v>
@@ -7359,37 +7333,37 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
         <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G29">
         <v>2018</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L29">
         <v>2.39860043810185E-2</v>
@@ -7400,37 +7374,37 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
         <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G30">
         <v>2018</v>
       </c>
       <c r="H30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L30">
         <v>1.78079112619931E-2</v>
@@ -7441,37 +7415,37 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E31" t="s">
         <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G31">
         <v>2018</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L31">
         <v>1.78079112619931E-2</v>
@@ -7482,37 +7456,37 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
         <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G32">
         <v>2018</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L32">
         <v>1.37038901278922E-2</v>
@@ -7523,37 +7497,37 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E33" t="s">
         <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G33">
         <v>2018</v>
       </c>
       <c r="H33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L33">
         <v>1.37038901278922E-2</v>
@@ -7564,37 +7538,37 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
         <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G34">
         <v>2018</v>
       </c>
       <c r="H34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L34">
         <v>1.87904155250764E-2</v>
@@ -7605,37 +7579,37 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
         <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G35">
         <v>2018</v>
       </c>
       <c r="H35" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L35">
         <v>1.87904155250764E-2</v>
@@ -7646,37 +7620,37 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
         <v>83</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G36">
         <v>2018</v>
       </c>
       <c r="H36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L36">
         <v>1.87904155250764E-2</v>
@@ -7687,37 +7661,37 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E37" t="s">
         <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G37">
         <v>2018</v>
       </c>
       <c r="H37" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I37" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J37" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K37" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L37">
         <v>1.87904155250764E-2</v>
@@ -7728,37 +7702,37 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
         <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G38">
         <v>2018</v>
       </c>
       <c r="H38" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L38">
         <v>1.5651300362142601E-2</v>
@@ -7769,37 +7743,37 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E39" t="s">
         <v>83</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G39">
         <v>2018</v>
       </c>
       <c r="H39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L39">
         <v>1.5651300362142601E-2</v>
@@ -7810,37 +7784,37 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
         <v>83</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G40">
         <v>2018</v>
       </c>
       <c r="H40" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L40">
         <v>1.5651300362142601E-2</v>
@@ -7851,37 +7825,37 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E41" t="s">
         <v>83</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G41">
         <v>2018</v>
       </c>
       <c r="H41" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L41">
         <v>1.5651300362142601E-2</v>
@@ -7892,37 +7866,37 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
         <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G42">
         <v>2018</v>
       </c>
       <c r="H42" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L42">
         <v>1.5651300362142601E-2</v>
@@ -7933,37 +7907,37 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
         <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G43">
         <v>2018</v>
       </c>
       <c r="H43" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L43">
         <v>1.5651300362142601E-2</v>
@@ -7974,37 +7948,37 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
         <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G44">
         <v>2018</v>
       </c>
       <c r="H44" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L44">
         <v>1.5651300362142601E-2</v>
@@ -8015,37 +7989,37 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
         <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G45">
         <v>2018</v>
       </c>
       <c r="H45" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L45">
         <v>1.5651300362142601E-2</v>
@@ -8056,37 +8030,37 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
         <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G46">
         <v>2018</v>
       </c>
       <c r="H46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L46">
         <v>1.5651300362142601E-2</v>
@@ -8097,37 +8071,37 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E47" t="s">
         <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G47">
         <v>2018</v>
       </c>
       <c r="H47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L47">
         <v>1.5651300362142601E-2</v>
@@ -8138,37 +8112,37 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
         <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G48">
         <v>2018</v>
       </c>
       <c r="H48" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L48">
         <v>1.5651300362142601E-2</v>
@@ -8179,37 +8153,37 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s">
         <v>83</v>
       </c>
       <c r="F49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G49">
         <v>2018</v>
       </c>
       <c r="H49" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L49">
         <v>1.5651300362142601E-2</v>
@@ -8220,37 +8194,37 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
         <v>83</v>
       </c>
       <c r="F50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G50">
         <v>2018</v>
       </c>
       <c r="H50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I50" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J50" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K50" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L50">
         <v>7.5978921044014096E-3</v>
@@ -8261,37 +8235,37 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E51" t="s">
         <v>83</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G51">
         <v>2018</v>
       </c>
       <c r="H51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I51" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J51" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K51" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L51">
         <v>7.5978921044014096E-3</v>
@@ -8302,37 +8276,37 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>83</v>
       </c>
       <c r="F52" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G52">
         <v>2018</v>
       </c>
       <c r="H52" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L52">
         <v>7.5978921044014096E-3</v>
@@ -8343,37 +8317,37 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E53" t="s">
         <v>83</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G53">
         <v>2018</v>
       </c>
       <c r="H53" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I53" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J53" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L53">
         <v>7.5978921044014096E-3</v>
@@ -8384,37 +8358,37 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
         <v>83</v>
       </c>
       <c r="F54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G54">
         <v>2018</v>
       </c>
       <c r="H54" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J54" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K54" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L54">
         <v>1.9679944818874001E-2</v>
@@ -8425,37 +8399,37 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E55" t="s">
         <v>83</v>
       </c>
       <c r="F55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G55">
         <v>2018</v>
       </c>
       <c r="H55" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I55" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J55" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K55" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L55">
         <v>1.9679944818874001E-2</v>
@@ -8466,37 +8440,37 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
         <v>83</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G56">
         <v>2018</v>
       </c>
       <c r="H56" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I56" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J56" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K56" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L56">
         <v>1.9679944818874001E-2</v>
@@ -8507,37 +8481,37 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E57" t="s">
         <v>83</v>
       </c>
       <c r="F57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G57">
         <v>2018</v>
       </c>
       <c r="H57" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I57" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J57" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K57" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L57">
         <v>1.9679944818874001E-2</v>
@@ -8548,37 +8522,37 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
         <v>83</v>
       </c>
       <c r="F58" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G58">
         <v>2018</v>
       </c>
       <c r="H58" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L58">
         <v>1.9679944818874001E-2</v>
@@ -8589,37 +8563,37 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E59" t="s">
         <v>83</v>
       </c>
       <c r="F59" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G59">
         <v>2018</v>
       </c>
       <c r="H59" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I59" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J59" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K59" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L59">
         <v>1.9679944818874001E-2</v>
@@ -8630,37 +8604,37 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>83</v>
       </c>
       <c r="F60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G60">
         <v>2018</v>
       </c>
       <c r="H60" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I60" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J60" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K60" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L60">
         <v>2.3397171732945601E-2</v>
@@ -8671,37 +8645,37 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E61" t="s">
         <v>83</v>
       </c>
       <c r="F61" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G61">
         <v>2018</v>
       </c>
       <c r="H61" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I61" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J61" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K61" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L61">
         <v>2.3397171732945601E-2</v>
@@ -8712,37 +8686,37 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
         <v>83</v>
       </c>
       <c r="F62" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G62">
         <v>2018</v>
       </c>
       <c r="H62" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L62">
         <v>4.29559017447428E-2</v>
@@ -8753,37 +8727,37 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D63" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E63" t="s">
         <v>83</v>
       </c>
       <c r="F63" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G63">
         <v>2018</v>
       </c>
       <c r="H63" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L63">
         <v>4.29559017447428E-2</v>
@@ -8794,37 +8768,37 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
         <v>83</v>
       </c>
       <c r="F64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G64">
         <v>2018</v>
       </c>
       <c r="H64" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L64">
         <v>2.7471447517498498E-2</v>
@@ -8835,37 +8809,37 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E65" t="s">
         <v>83</v>
       </c>
       <c r="F65" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G65">
         <v>2018</v>
       </c>
       <c r="H65" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I65" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J65" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K65" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L65">
         <v>2.7471447517498498E-2</v>
@@ -8876,37 +8850,37 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" t="s">
         <v>83</v>
       </c>
       <c r="F66" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G66">
         <v>2018</v>
       </c>
       <c r="H66" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I66" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J66" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K66" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L66">
         <v>2.7471447517498498E-2</v>
@@ -8917,37 +8891,37 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E67" t="s">
         <v>83</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G67">
         <v>2018</v>
       </c>
       <c r="H67" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L67">
         <v>2.7471447517498498E-2</v>
@@ -8958,37 +8932,37 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" t="s">
         <v>83</v>
       </c>
       <c r="F68" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G68">
         <v>2018</v>
       </c>
       <c r="H68" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I68" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J68" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K68" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L68">
         <v>2.4447220258868901E-2</v>
@@ -8999,37 +8973,37 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" t="s">
         <v>199</v>
       </c>
-      <c r="D69" t="s">
-        <v>197</v>
-      </c>
       <c r="E69" t="s">
         <v>83</v>
       </c>
       <c r="F69" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G69">
         <v>2018</v>
       </c>
       <c r="H69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I69" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J69" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K69" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L69">
         <v>2.4447220258868901E-2</v>
@@ -9040,37 +9014,37 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" t="s">
         <v>83</v>
       </c>
       <c r="F70" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G70">
         <v>2018</v>
       </c>
       <c r="H70" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I70" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J70" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K70" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L70">
         <v>2.4447220258868901E-2</v>
@@ -9081,37 +9055,37 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E71" t="s">
         <v>83</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G71">
         <v>2018</v>
       </c>
       <c r="H71" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L71">
         <v>2.4447220258868901E-2</v>
@@ -9122,37 +9096,37 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" t="s">
         <v>83</v>
       </c>
       <c r="F72" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G72">
         <v>2018</v>
       </c>
       <c r="H72" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I72" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J72" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K72" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L72">
         <v>2.4447220258868901E-2</v>
@@ -9163,37 +9137,37 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D73" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E73" t="s">
         <v>83</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G73">
         <v>2018</v>
       </c>
       <c r="H73" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I73" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J73" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K73" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L73">
         <v>2.4447220258868901E-2</v>
@@ -9204,37 +9178,37 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" t="s">
         <v>83</v>
       </c>
       <c r="F74" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G74">
         <v>2018</v>
       </c>
       <c r="H74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L74">
         <v>2.4447220258868901E-2</v>
@@ -9245,37 +9219,37 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E75" t="s">
         <v>83</v>
       </c>
       <c r="F75" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G75">
         <v>2018</v>
       </c>
       <c r="H75" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I75" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J75" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K75" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L75">
         <v>2.4447220258868901E-2</v>
@@ -9286,37 +9260,37 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" t="s">
         <v>83</v>
       </c>
       <c r="F76" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G76">
         <v>2018</v>
       </c>
       <c r="H76" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I76" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J76" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K76" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L76">
         <v>2.4447220258868901E-2</v>
@@ -9327,37 +9301,37 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C77" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D77" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E77" t="s">
         <v>83</v>
       </c>
       <c r="F77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G77">
         <v>2018</v>
       </c>
       <c r="H77" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I77" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J77" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K77" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L77">
         <v>2.4447220258868901E-2</v>
@@ -9368,37 +9342,37 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>83</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G78">
         <v>2018</v>
       </c>
       <c r="H78" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I78" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J78" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K78" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L78">
         <v>2.4447220258868901E-2</v>
@@ -9409,37 +9383,37 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D79" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E79" t="s">
         <v>83</v>
       </c>
       <c r="F79" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G79">
         <v>2018</v>
       </c>
       <c r="H79" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I79" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J79" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K79" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L79">
         <v>2.4447220258868901E-2</v>
@@ -9450,37 +9424,37 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>83</v>
       </c>
       <c r="F80" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G80">
         <v>2018</v>
       </c>
       <c r="H80" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I80" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J80" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K80" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L80">
         <v>9.5642043609248301E-2</v>
@@ -9491,37 +9465,37 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E81" t="s">
         <v>83</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G81">
         <v>2018</v>
       </c>
       <c r="H81" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I81" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J81" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K81" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L81">
         <v>9.5642043609248301E-2</v>
@@ -9532,37 +9506,37 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>83</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G82">
         <v>2018</v>
       </c>
       <c r="H82" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L82">
         <v>9.5642043609248301E-2</v>
@@ -9573,37 +9547,37 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B83" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D83" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E83" t="s">
         <v>83</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G83">
         <v>2018</v>
       </c>
       <c r="H83" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I83" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J83" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K83" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L83">
         <v>9.5642043609248301E-2</v>
@@ -9614,37 +9588,37 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G84">
         <v>2018</v>
       </c>
       <c r="H84" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I84" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J84" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K84" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L84">
         <v>3.0079476421251201E-2</v>
@@ -9655,37 +9629,37 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E85" t="s">
         <v>83</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G85">
         <v>2018</v>
       </c>
       <c r="H85" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I85" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J85" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K85" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L85">
         <v>3.0079476421251201E-2</v>
@@ -9696,37 +9670,37 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>83</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G86">
         <v>2018</v>
       </c>
       <c r="H86" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I86" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J86" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K86" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L86">
         <v>3.0079476421251201E-2</v>
@@ -9737,37 +9711,37 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D87" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E87" t="s">
         <v>83</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G87">
         <v>2018</v>
       </c>
       <c r="H87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I87" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J87" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K87" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L87">
         <v>3.0079476421251201E-2</v>
@@ -9778,37 +9752,37 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>83</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G88">
         <v>2018</v>
       </c>
       <c r="H88" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I88" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J88" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K88" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L88">
         <v>3.0079476421251201E-2</v>
@@ -9819,37 +9793,37 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D89" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E89" t="s">
         <v>83</v>
       </c>
       <c r="F89" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G89">
         <v>2018</v>
       </c>
       <c r="H89" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I89" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J89" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K89" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L89">
         <v>3.0079476421251201E-2</v>
@@ -9860,37 +9834,37 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C90" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>83</v>
       </c>
       <c r="F90" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G90">
         <v>2018</v>
       </c>
       <c r="H90" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I90" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J90" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K90" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L90">
         <v>4.21939695625516E-2</v>
@@ -9901,37 +9875,37 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E91" t="s">
         <v>83</v>
       </c>
       <c r="F91" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G91">
         <v>2018</v>
       </c>
       <c r="H91" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I91" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J91" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K91" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L91">
         <v>4.21939695625516E-2</v>
@@ -9942,37 +9916,37 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>83</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G92">
         <v>2018</v>
       </c>
       <c r="H92" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I92" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J92" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K92" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L92">
         <v>5.2867897077308497E-2</v>
@@ -9983,37 +9957,37 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D93" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E93" t="s">
         <v>83</v>
       </c>
       <c r="F93" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G93">
         <v>2018</v>
       </c>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L93">
         <v>5.2867897077308497E-2</v>
@@ -10043,37 +10017,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L1" t="s">
         <v>20</v>
@@ -10084,37 +10058,37 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G2">
         <v>2018</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L2">
         <v>1.91859640129881E-2</v>
@@ -10125,37 +10099,37 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G3">
         <v>2018</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L3">
         <v>1.91859640129881E-2</v>
@@ -10166,37 +10140,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G4">
         <v>2018</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L4">
         <v>1.91859640129881E-2</v>
@@ -10207,37 +10181,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G5">
         <v>2018</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L5">
         <v>1.91859640129881E-2</v>
@@ -10248,37 +10222,37 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G6">
         <v>2018</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L6">
         <v>1.18590868367296E-2</v>
@@ -10289,37 +10263,37 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G7">
         <v>2018</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L7">
         <v>3.7359826231663999E-2</v>
@@ -10330,37 +10304,37 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
         <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G8">
         <v>2018</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L8">
         <v>2.3078593190679501E-2</v>
@@ -10371,37 +10345,37 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
         <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G9">
         <v>2018</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9">
         <v>1.7647904805808901E-2</v>
@@ -10412,37 +10386,37 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
         <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G10">
         <v>2018</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L10">
         <v>2.4653262579847901E-2</v>
@@ -10453,37 +10427,37 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
         <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G11">
         <v>2018</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L11">
         <v>2.4653262579847901E-2</v>
@@ -10494,37 +10468,37 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
         <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G12">
         <v>2018</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L12">
         <v>2.4653262579847901E-2</v>
@@ -10535,37 +10509,37 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G13">
         <v>2018</v>
       </c>
       <c r="H13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L13">
         <v>2.4653262579847901E-2</v>
@@ -10576,37 +10550,37 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
         <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G14">
         <v>2018</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L14">
         <v>2.2095891324020799E-2</v>
@@ -10617,37 +10591,37 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G15">
         <v>2018</v>
       </c>
       <c r="H15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L15">
         <v>2.8368761423682901E-2</v>
@@ -10658,37 +10632,37 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G16">
         <v>2018</v>
       </c>
       <c r="H16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L16">
         <v>3.0936872888717201E-2</v>
@@ -10699,37 +10673,37 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
         <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G17">
         <v>2018</v>
       </c>
       <c r="H17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L17">
         <v>7.5066866433008306E-2</v>
@@ -10740,37 +10714,37 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
         <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G18">
         <v>2018</v>
       </c>
       <c r="H18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L18">
         <v>4.1614408271926799E-2</v>
@@ -10781,37 +10755,37 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
         <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G19">
         <v>2018</v>
       </c>
       <c r="H19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L19">
         <v>4.1614408271926799E-2</v>
@@ -10822,37 +10796,37 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
         <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G20">
         <v>2018</v>
       </c>
       <c r="H20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L20">
         <v>4.1614408271926799E-2</v>
@@ -10863,37 +10837,37 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
         <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G21">
         <v>2018</v>
       </c>
       <c r="H21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L21">
         <v>4.1614408271926799E-2</v>
@@ -10904,37 +10878,37 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G22">
         <v>2018</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L22">
         <v>3.7040631160092499E-2</v>
@@ -10945,37 +10919,37 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G23">
         <v>2018</v>
       </c>
       <c r="H23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L23">
         <v>4.6621727976421598E-2</v>
@@ -10986,37 +10960,37 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
         <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G24">
         <v>2018</v>
       </c>
       <c r="H24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L24">
         <v>6.7033675870053502E-2</v>
@@ -11027,37 +11001,37 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
         <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G25">
         <v>2018</v>
       </c>
       <c r="H25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L25">
         <v>9.1153830584100495E-2</v>
@@ -11068,37 +11042,37 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
         <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G26">
         <v>2018</v>
       </c>
       <c r="H26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L26">
         <v>2.2735699655164601E-2</v>
@@ -11109,37 +11083,37 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G27">
         <v>2018</v>
       </c>
       <c r="H27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L27">
         <v>8.6298729994523198E-3</v>
@@ -11150,37 +11124,37 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
         <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G28">
         <v>2018</v>
       </c>
       <c r="H28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L28">
         <v>1.29275684703049E-2</v>
@@ -11191,37 +11165,37 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
         <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G29">
         <v>2018</v>
       </c>
       <c r="H29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L29">
         <v>3.4409606285151599E-2</v>
@@ -11232,37 +11206,37 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
         <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G30">
         <v>2018</v>
       </c>
       <c r="H30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L30">
         <v>1.33284867630703E-2</v>
@@ -11273,37 +11247,37 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
         <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G31">
         <v>2018</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L31">
         <v>0.113051511576835</v>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C8AFBF-7488-41A7-99A1-BDC46A63B7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DE4387-62A7-433E-8F57-75FAB6DC07E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="253">
   <si>
     <t>UC_N</t>
   </si>
@@ -2619,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A155980F-6689-4ADE-B1F2-DEFB665B2049}">
   <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,9 +2634,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B2" s="7"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -2780,9 +2778,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="B15" s="7"/>
       <c r="I15" s="8"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -2906,9 +2902,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
-      <c r="I27" s="30" t="s">
-        <v>7</v>
-      </c>
+      <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -3444,8 +3438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CF89D-3AC9-4E2E-BCF6-79A710F8BD8A}">
   <dimension ref="A1:S173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C481D7D8-5F36-4B7E-844F-39AC99D51A2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E28C18-8C01-4DB7-992F-FC273DB20C62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="235">
   <si>
     <t>UC_N</t>
   </si>
@@ -842,6 +842,12 @@
   </si>
   <si>
     <t>TS_Filter</t>
+  </si>
+  <si>
+    <t>HETC</t>
+  </si>
+  <si>
+    <t>*GRID*</t>
   </si>
 </sst>
 </file>
@@ -2622,10 +2628,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:L6"/>
+  <dimension ref="B3:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,6 +2734,92 @@
       <c r="I6" t="str">
         <f>I5</f>
         <v>IMPBIO*1G*2,IMPBIO*1G*3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="str">
+        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+        <v>IE</v>
+      </c>
+      <c r="G12" s="11" t="str">
+        <f>IF(Regions!C$3&lt;&gt;"",Regions!D$3,"*")</f>
+        <v>National</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13">
+        <v>2018</v>
+      </c>
+      <c r="F13">
+        <v>0.35</v>
+      </c>
+      <c r="G13">
+        <f>F13</f>
+        <v>0.35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>233</v>
+      </c>
+      <c r="I13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f>C13</f>
+        <v>UP</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14" si="1">D13</f>
+        <v>ACT_BND</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <f>F14</f>
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>233</v>
+      </c>
+      <c r="I14" t="str">
+        <f>I13</f>
+        <v>*GRID*</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_Temporary_Fixes.xlsx
+++ b/SuppXLS/Scen_Temporary_Fixes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E28C18-8C01-4DB7-992F-FC273DB20C62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A7053A-52BD-457A-B706-AB5E3D0DEC18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -832,9 +832,6 @@
     <t>R-SW_Det_HVO_N1</t>
   </si>
   <si>
-    <t>IMPBIO*1G*2,IMPBIO*1G*3</t>
-  </si>
-  <si>
     <t>ACT_BND</t>
   </si>
   <si>
@@ -848,6 +845,9 @@
   </si>
   <si>
     <t>*GRID*</t>
+  </si>
+  <si>
+    <t>IMPBIO*1G*2,IMPBIO*1G*3,IMPBIO*1G*4</t>
   </si>
 </sst>
 </file>
@@ -2631,7 +2631,7 @@
   <dimension ref="B3:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,7 +2642,7 @@
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.42578125" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2682,10 +2682,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -2693,7 +2693,7 @@
         <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5">
         <v>2018</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="I6" t="str">
         <f>I5</f>
-        <v>IMPBIO*1G*2,IMPBIO*1G*3</v>
+        <v>IMPBIO*1G*2,IMPBIO*1G*3,IMPBIO*1G*4</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -2776,7 +2776,7 @@
         <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13">
         <v>2018</v>
@@ -2789,10 +2789,10 @@
         <v>0.35</v>
       </c>
       <c r="H13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I13" t="s">
         <v>233</v>
-      </c>
-      <c r="I13" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -2815,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I14" t="str">
         <f>I13</f>
